--- a/BackTest/2019-10-29 BackTest BTG.xlsx
+++ b/BackTest/2019-10-29 BackTest BTG.xlsx
@@ -451,20 +451,14 @@
         <v>9392</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>9370</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
       </c>
@@ -492,20 +486,14 @@
         <v>9387.25</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>9305</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,20 +521,14 @@
         <v>9381.75</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>9295</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -574,20 +556,14 @@
         <v>9376.5</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>9305</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -615,20 +591,14 @@
         <v>9370.75</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>9305</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -656,20 +626,14 @@
         <v>9366</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>9305</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -697,20 +661,14 @@
         <v>9365</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>9385</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -738,20 +696,14 @@
         <v>9366.75</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>9395</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -779,20 +731,14 @@
         <v>9366.5</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>9395</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -820,20 +766,14 @@
         <v>9362</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>9315</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -861,20 +801,14 @@
         <v>9361.75</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>9400</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -902,20 +836,14 @@
         <v>9362.25</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>9425</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -943,20 +871,14 @@
         <v>9362</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>9420</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -984,20 +906,14 @@
         <v>9360.25</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>9350</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1025,20 +941,14 @@
         <v>9363</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>9430</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1066,20 +976,14 @@
         <v>9362</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>9350</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1107,20 +1011,14 @@
         <v>9364.75</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>9425</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1148,20 +1046,14 @@
         <v>9369.75</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>9470</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1196,11 +1088,7 @@
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1235,11 +1123,7 @@
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1274,11 +1158,7 @@
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1313,11 +1193,7 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1352,11 +1228,7 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1391,11 +1263,7 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1430,11 +1298,7 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1469,11 +1333,7 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1508,11 +1368,7 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1547,11 +1403,7 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1586,11 +1438,7 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1625,11 +1473,7 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1664,11 +1508,7 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1703,11 +1543,7 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1742,11 +1578,7 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1781,11 +1613,7 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1820,11 +1648,7 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1859,11 +1683,7 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1898,11 +1718,7 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1937,11 +1753,7 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1976,11 +1788,7 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2015,11 +1823,7 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2054,11 +1858,7 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2093,11 +1893,7 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2132,11 +1928,7 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2171,11 +1963,7 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2210,11 +1998,7 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2249,11 +2033,7 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2288,11 +2068,7 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2327,11 +2103,7 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2366,11 +2138,7 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2405,11 +2173,7 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2444,11 +2208,7 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2483,11 +2243,7 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2522,11 +2278,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2561,11 +2313,7 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2600,11 +2348,7 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2639,11 +2383,7 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2678,11 +2418,7 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2717,11 +2453,7 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2756,11 +2488,7 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2795,11 +2523,7 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2834,11 +2558,7 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2869,16 +2589,14 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2906,7 +2624,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
@@ -2941,7 +2659,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
@@ -3011,7 +2729,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
@@ -3081,7 +2799,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
@@ -3186,7 +2904,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
@@ -3221,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
@@ -3256,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
@@ -4163,13 +3881,17 @@
         <v>9713.75</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>9670</v>
+      </c>
+      <c r="K100" t="n">
+        <v>9670</v>
+      </c>
       <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
@@ -4198,14 +3920,22 @@
         <v>9709.75</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>9705</v>
+      </c>
+      <c r="K101" t="n">
+        <v>9670</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4233,14 +3963,22 @@
         <v>9705.75</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>9710</v>
+      </c>
+      <c r="K102" t="n">
+        <v>9670</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4268,13 +4006,17 @@
         <v>9704.75</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>9715</v>
+      </c>
+      <c r="K103" t="n">
+        <v>9715</v>
+      </c>
       <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
@@ -4303,14 +4045,22 @@
         <v>9702.75</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>9715</v>
+      </c>
+      <c r="K104" t="n">
+        <v>9715</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4344,8 +4094,14 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>9715</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4373,14 +4129,22 @@
         <v>9700.75</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>9755</v>
+      </c>
+      <c r="K106" t="n">
+        <v>9715</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4414,8 +4178,14 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>9715</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4449,8 +4219,14 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>9715</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4484,8 +4260,14 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>9715</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4519,8 +4301,14 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>9715</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4554,8 +4342,14 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>9715</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4589,8 +4383,14 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>9715</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4624,8 +4424,14 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>9715</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4659,8 +4465,14 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>9715</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4694,8 +4506,14 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>9715</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4729,8 +4547,14 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>9715</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4764,8 +4588,14 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>9715</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4799,8 +4629,14 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>9715</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4834,8 +4670,14 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>9715</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4869,8 +4711,14 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>9715</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4904,8 +4752,14 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>9715</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4939,8 +4793,14 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>9715</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4974,8 +4834,14 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>9715</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5009,8 +4875,14 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>9715</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5044,8 +4916,14 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>9715</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5079,8 +4957,14 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>9715</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5114,8 +4998,14 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>9715</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5149,8 +5039,14 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>9715</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5184,8 +5080,14 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>9715</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5219,8 +5121,14 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>9715</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5254,8 +5162,14 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>9715</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5289,8 +5203,14 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>9715</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5324,8 +5244,14 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>9715</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5359,8 +5285,14 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>9715</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5394,8 +5326,14 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>9715</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5429,8 +5367,14 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>9715</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5464,8 +5408,14 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>9715</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5499,8 +5449,14 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>9715</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5534,8 +5490,14 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>9715</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5569,8 +5531,14 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>9715</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5604,8 +5572,14 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>9715</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5639,8 +5613,14 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>9715</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5674,8 +5654,14 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>9715</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5709,8 +5695,14 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>9715</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5744,8 +5736,14 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>9715</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5779,8 +5777,14 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>9715</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5814,8 +5818,14 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>9715</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5849,8 +5859,14 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>9715</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5884,8 +5900,14 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>9715</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5919,8 +5941,14 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>9715</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -5954,8 +5982,14 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>9715</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -5989,8 +6023,14 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>9715</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -6024,8 +6064,14 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>9715</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6059,8 +6105,14 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>9715</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6094,8 +6146,14 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>9715</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6129,8 +6187,14 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>9715</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6164,8 +6228,14 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>9715</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6199,8 +6269,14 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>9715</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6234,8 +6310,14 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>9715</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6269,8 +6351,14 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>9715</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6304,8 +6392,14 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>9715</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6339,8 +6433,14 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>9715</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6374,8 +6474,14 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>9715</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6409,8 +6515,14 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>9715</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6444,8 +6556,14 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>9715</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6479,8 +6597,14 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>9715</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6514,8 +6638,14 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>9715</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6549,8 +6679,14 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>9715</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6584,8 +6720,14 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>9715</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6619,8 +6761,14 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>9715</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6654,8 +6802,14 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>9715</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6689,8 +6843,14 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>9715</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6724,8 +6884,14 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>9715</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6759,8 +6925,14 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>9715</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6794,8 +6966,14 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>9715</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -6829,8 +7007,14 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>9715</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -6864,8 +7048,14 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>9715</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -6899,8 +7089,14 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>9715</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -6934,8 +7130,14 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>9715</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -6969,8 +7171,14 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>9715</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -7004,8 +7212,14 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>9715</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -7039,8 +7253,14 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>9715</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -7074,8 +7294,14 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>9715</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7109,8 +7335,14 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>9715</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7144,8 +7376,14 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>9715</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7179,8 +7417,14 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>9715</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7214,8 +7458,14 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>9715</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7249,8 +7499,14 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>9715</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7284,8 +7540,14 @@
         <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>9715</v>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7319,8 +7581,14 @@
         <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>9715</v>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7354,8 +7622,14 @@
         <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>9715</v>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7389,8 +7663,14 @@
         <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>9715</v>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7424,8 +7704,14 @@
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>9715</v>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7459,8 +7745,14 @@
         <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>9715</v>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7494,8 +7786,14 @@
         <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>9715</v>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7529,8 +7827,14 @@
         <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>9715</v>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7564,8 +7868,14 @@
         <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>9715</v>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7599,8 +7909,14 @@
         <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>9715</v>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7634,8 +7950,14 @@
         <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>9715</v>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7669,8 +7991,14 @@
         <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>9715</v>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -7704,8 +8032,14 @@
         <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>9715</v>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -7739,8 +8073,14 @@
         <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>9715</v>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -7774,8 +8114,14 @@
         <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>9715</v>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -7809,8 +8155,14 @@
         <v>0</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>9715</v>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -7844,8 +8196,14 @@
         <v>0</v>
       </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>9715</v>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -7879,8 +8237,14 @@
         <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>9715</v>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -7914,8 +8278,14 @@
         <v>0</v>
       </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>9715</v>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -7949,8 +8319,14 @@
         <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>9715</v>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -7984,8 +8360,14 @@
         <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>9715</v>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -8013,14 +8395,22 @@
         <v>9673.25</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>9615</v>
+      </c>
+      <c r="K210" t="n">
+        <v>9715</v>
+      </c>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -8048,14 +8438,22 @@
         <v>9673</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>9700</v>
+      </c>
+      <c r="K211" t="n">
+        <v>9715</v>
+      </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -8083,14 +8481,22 @@
         <v>9667</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>9700</v>
+      </c>
+      <c r="K212" t="n">
+        <v>9715</v>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -8124,8 +8530,14 @@
         <v>0</v>
       </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>9715</v>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -8159,8 +8571,14 @@
         <v>0</v>
       </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>9715</v>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M214" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-29 BackTest BTG.xlsx
+++ b/BackTest/2019-10-29 BackTest BTG.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M214"/>
+  <dimension ref="A1:M215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9370</v>
+        <v>9380</v>
       </c>
       <c r="C2" t="n">
-        <v>9295</v>
+        <v>9390</v>
       </c>
       <c r="D2" t="n">
-        <v>9370</v>
+        <v>9390</v>
       </c>
       <c r="E2" t="n">
-        <v>9295</v>
+        <v>9380</v>
       </c>
       <c r="F2" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>9392</v>
+        <v>9357.5</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>9305</v>
+        <v>9370</v>
       </c>
       <c r="C3" t="n">
         <v>9295</v>
       </c>
       <c r="D3" t="n">
-        <v>9305</v>
+        <v>9370</v>
       </c>
       <c r="E3" t="n">
         <v>9295</v>
       </c>
       <c r="F3" t="n">
-        <v>306.0808</v>
+        <v>14</v>
       </c>
       <c r="G3" t="n">
-        <v>9387.25</v>
+        <v>9355.75</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>9295</v>
+        <v>9305</v>
       </c>
       <c r="C4" t="n">
         <v>9295</v>
       </c>
       <c r="D4" t="n">
-        <v>9295</v>
+        <v>9305</v>
       </c>
       <c r="E4" t="n">
         <v>9295</v>
       </c>
       <c r="F4" t="n">
-        <v>10.0222</v>
+        <v>306.0808</v>
       </c>
       <c r="G4" t="n">
-        <v>9381.75</v>
+        <v>9354</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>9305</v>
+        <v>9295</v>
       </c>
       <c r="C5" t="n">
-        <v>9305</v>
+        <v>9295</v>
       </c>
       <c r="D5" t="n">
-        <v>9305</v>
+        <v>9295</v>
       </c>
       <c r="E5" t="n">
-        <v>9305</v>
+        <v>9295</v>
       </c>
       <c r="F5" t="n">
-        <v>76.2813</v>
+        <v>10.0222</v>
       </c>
       <c r="G5" t="n">
-        <v>9376.5</v>
+        <v>9352.166666666666</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -585,10 +585,10 @@
         <v>9305</v>
       </c>
       <c r="F6" t="n">
-        <v>1.7455</v>
+        <v>76.2813</v>
       </c>
       <c r="G6" t="n">
-        <v>9370.75</v>
+        <v>9350.5</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -611,19 +611,19 @@
         <v>9305</v>
       </c>
       <c r="C7" t="n">
-        <v>9300</v>
+        <v>9305</v>
       </c>
       <c r="D7" t="n">
         <v>9305</v>
       </c>
       <c r="E7" t="n">
-        <v>9300</v>
+        <v>9305</v>
       </c>
       <c r="F7" t="n">
-        <v>197</v>
+        <v>1.7455</v>
       </c>
       <c r="G7" t="n">
-        <v>9366</v>
+        <v>9348.833333333334</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>9385</v>
+        <v>9305</v>
       </c>
       <c r="C8" t="n">
-        <v>9395</v>
+        <v>9300</v>
       </c>
       <c r="D8" t="n">
-        <v>9395</v>
+        <v>9305</v>
       </c>
       <c r="E8" t="n">
-        <v>9385</v>
+        <v>9300</v>
       </c>
       <c r="F8" t="n">
-        <v>60</v>
+        <v>197</v>
       </c>
       <c r="G8" t="n">
-        <v>9365</v>
+        <v>9347.083333333334</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,7 +678,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>9395</v>
+        <v>9385</v>
       </c>
       <c r="C9" t="n">
         <v>9395</v>
@@ -687,13 +687,13 @@
         <v>9395</v>
       </c>
       <c r="E9" t="n">
-        <v>9395</v>
+        <v>9385</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2</v>
+        <v>60</v>
       </c>
       <c r="G9" t="n">
-        <v>9366.75</v>
+        <v>9347</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -716,19 +716,19 @@
         <v>9395</v>
       </c>
       <c r="C10" t="n">
-        <v>9315</v>
+        <v>9395</v>
       </c>
       <c r="D10" t="n">
         <v>9395</v>
       </c>
       <c r="E10" t="n">
-        <v>9315</v>
+        <v>9395</v>
       </c>
       <c r="F10" t="n">
-        <v>61.6766</v>
+        <v>0.2</v>
       </c>
       <c r="G10" t="n">
-        <v>9366.5</v>
+        <v>9346.916666666666</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,10 +748,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
+        <v>9395</v>
+      </c>
+      <c r="C11" t="n">
         <v>9315</v>
-      </c>
-      <c r="C11" t="n">
-        <v>9395</v>
       </c>
       <c r="D11" t="n">
         <v>9395</v>
@@ -760,10 +760,10 @@
         <v>9315</v>
       </c>
       <c r="F11" t="n">
-        <v>14.6238</v>
+        <v>61.6766</v>
       </c>
       <c r="G11" t="n">
-        <v>9362</v>
+        <v>9346.583333333334</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>9400</v>
+        <v>9315</v>
       </c>
       <c r="C12" t="n">
-        <v>9400</v>
+        <v>9395</v>
       </c>
       <c r="D12" t="n">
-        <v>9400</v>
+        <v>9395</v>
       </c>
       <c r="E12" t="n">
-        <v>9400</v>
+        <v>9315</v>
       </c>
       <c r="F12" t="n">
-        <v>1.1786</v>
+        <v>14.6238</v>
       </c>
       <c r="G12" t="n">
-        <v>9361.75</v>
+        <v>9347.583333333334</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>9425</v>
+        <v>9400</v>
       </c>
       <c r="C13" t="n">
-        <v>9425</v>
+        <v>9400</v>
       </c>
       <c r="D13" t="n">
-        <v>9425</v>
+        <v>9400</v>
       </c>
       <c r="E13" t="n">
-        <v>9425</v>
+        <v>9400</v>
       </c>
       <c r="F13" t="n">
-        <v>25.7364</v>
+        <v>1.1786</v>
       </c>
       <c r="G13" t="n">
-        <v>9362.25</v>
+        <v>9348.75</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>9420</v>
+        <v>9425</v>
       </c>
       <c r="C14" t="n">
-        <v>9435</v>
+        <v>9425</v>
       </c>
       <c r="D14" t="n">
-        <v>9435</v>
+        <v>9425</v>
       </c>
       <c r="E14" t="n">
-        <v>9420</v>
+        <v>9425</v>
       </c>
       <c r="F14" t="n">
-        <v>12.688</v>
+        <v>25.7364</v>
       </c>
       <c r="G14" t="n">
-        <v>9362</v>
+        <v>9350</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>9350</v>
+        <v>9420</v>
       </c>
       <c r="C15" t="n">
-        <v>9345</v>
+        <v>9435</v>
       </c>
       <c r="D15" t="n">
-        <v>9350</v>
+        <v>9435</v>
       </c>
       <c r="E15" t="n">
-        <v>9345</v>
+        <v>9420</v>
       </c>
       <c r="F15" t="n">
-        <v>1.2229</v>
+        <v>12.688</v>
       </c>
       <c r="G15" t="n">
-        <v>9360.25</v>
+        <v>9351.75</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>9430</v>
+        <v>9350</v>
       </c>
       <c r="C16" t="n">
-        <v>9435</v>
+        <v>9345</v>
       </c>
       <c r="D16" t="n">
-        <v>9435</v>
+        <v>9350</v>
       </c>
       <c r="E16" t="n">
-        <v>9430</v>
+        <v>9345</v>
       </c>
       <c r="F16" t="n">
-        <v>3.922</v>
+        <v>1.2229</v>
       </c>
       <c r="G16" t="n">
-        <v>9363</v>
+        <v>9352</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>9350</v>
+        <v>9430</v>
       </c>
       <c r="C17" t="n">
+        <v>9435</v>
+      </c>
+      <c r="D17" t="n">
+        <v>9435</v>
+      </c>
+      <c r="E17" t="n">
         <v>9430</v>
       </c>
-      <c r="D17" t="n">
-        <v>9430</v>
-      </c>
-      <c r="E17" t="n">
-        <v>9340</v>
-      </c>
       <c r="F17" t="n">
-        <v>132.8258</v>
+        <v>3.922</v>
       </c>
       <c r="G17" t="n">
-        <v>9362</v>
+        <v>9353.916666666666</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>9425</v>
+        <v>9350</v>
       </c>
       <c r="C18" t="n">
-        <v>9475</v>
+        <v>9430</v>
       </c>
       <c r="D18" t="n">
-        <v>9475</v>
+        <v>9430</v>
       </c>
       <c r="E18" t="n">
-        <v>9425</v>
+        <v>9340</v>
       </c>
       <c r="F18" t="n">
-        <v>134.03018105</v>
+        <v>132.8258</v>
       </c>
       <c r="G18" t="n">
-        <v>9364.75</v>
+        <v>9355.75</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,7 +1028,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>9470</v>
+        <v>9425</v>
       </c>
       <c r="C19" t="n">
         <v>9475</v>
@@ -1037,13 +1037,13 @@
         <v>9475</v>
       </c>
       <c r="E19" t="n">
-        <v>9470</v>
+        <v>9425</v>
       </c>
       <c r="F19" t="n">
-        <v>83</v>
+        <v>134.03018105</v>
       </c>
       <c r="G19" t="n">
-        <v>9369.75</v>
+        <v>9358.333333333334</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1066,19 +1066,19 @@
         <v>9470</v>
       </c>
       <c r="C20" t="n">
-        <v>9470</v>
+        <v>9475</v>
       </c>
       <c r="D20" t="n">
-        <v>9470</v>
+        <v>9475</v>
       </c>
       <c r="E20" t="n">
         <v>9470</v>
       </c>
       <c r="F20" t="n">
-        <v>12.8637</v>
+        <v>83</v>
       </c>
       <c r="G20" t="n">
-        <v>9374.75</v>
+        <v>9362</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>9470</v>
       </c>
       <c r="C21" t="n">
-        <v>9510</v>
+        <v>9470</v>
       </c>
       <c r="D21" t="n">
-        <v>9510</v>
+        <v>9470</v>
       </c>
       <c r="E21" t="n">
         <v>9470</v>
       </c>
       <c r="F21" t="n">
-        <v>59.6164</v>
+        <v>12.8637</v>
       </c>
       <c r="G21" t="n">
-        <v>9379.25</v>
+        <v>9365.583333333334</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
+        <v>9470</v>
+      </c>
+      <c r="C22" t="n">
         <v>9510</v>
       </c>
-      <c r="C22" t="n">
-        <v>9515</v>
-      </c>
       <c r="D22" t="n">
-        <v>9575</v>
+        <v>9510</v>
       </c>
       <c r="E22" t="n">
-        <v>9510</v>
+        <v>9470</v>
       </c>
       <c r="F22" t="n">
-        <v>79.42181895</v>
+        <v>59.6164</v>
       </c>
       <c r="G22" t="n">
-        <v>9386.25</v>
+        <v>9369.833333333334</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>9590</v>
+        <v>9510</v>
       </c>
       <c r="C23" t="n">
-        <v>9580</v>
+        <v>9515</v>
       </c>
       <c r="D23" t="n">
-        <v>9590</v>
+        <v>9575</v>
       </c>
       <c r="E23" t="n">
-        <v>9580</v>
+        <v>9510</v>
       </c>
       <c r="F23" t="n">
-        <v>11.12</v>
+        <v>79.42181895</v>
       </c>
       <c r="G23" t="n">
-        <v>9400.5</v>
+        <v>9373.166666666666</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>9525</v>
+        <v>9590</v>
       </c>
       <c r="C24" t="n">
-        <v>9590</v>
+        <v>9580</v>
       </c>
       <c r="D24" t="n">
         <v>9590</v>
       </c>
       <c r="E24" t="n">
-        <v>9525</v>
+        <v>9580</v>
       </c>
       <c r="F24" t="n">
-        <v>20.7584</v>
+        <v>11.12</v>
       </c>
       <c r="G24" t="n">
-        <v>9412</v>
+        <v>9377.583333333334</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>9515</v>
+        <v>9525</v>
       </c>
       <c r="C25" t="n">
-        <v>9575</v>
+        <v>9590</v>
       </c>
       <c r="D25" t="n">
-        <v>9575</v>
+        <v>9590</v>
       </c>
       <c r="E25" t="n">
-        <v>9515</v>
+        <v>9525</v>
       </c>
       <c r="F25" t="n">
-        <v>8.1351</v>
+        <v>20.7584</v>
       </c>
       <c r="G25" t="n">
-        <v>9422.5</v>
+        <v>9382.083333333334</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1276,19 +1276,19 @@
         <v>9515</v>
       </c>
       <c r="C26" t="n">
-        <v>9515</v>
+        <v>9575</v>
       </c>
       <c r="D26" t="n">
-        <v>9515</v>
+        <v>9575</v>
       </c>
       <c r="E26" t="n">
         <v>9515</v>
       </c>
       <c r="F26" t="n">
-        <v>1.7769</v>
+        <v>8.1351</v>
       </c>
       <c r="G26" t="n">
-        <v>9433</v>
+        <v>9386.083333333334</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>9525</v>
+        <v>9515</v>
       </c>
       <c r="C27" t="n">
-        <v>9525</v>
+        <v>9515</v>
       </c>
       <c r="D27" t="n">
-        <v>9525</v>
+        <v>9515</v>
       </c>
       <c r="E27" t="n">
-        <v>9525</v>
+        <v>9515</v>
       </c>
       <c r="F27" t="n">
-        <v>4</v>
+        <v>1.7769</v>
       </c>
       <c r="G27" t="n">
-        <v>9444</v>
+        <v>9388.5</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1346,19 +1346,19 @@
         <v>9525</v>
       </c>
       <c r="C28" t="n">
-        <v>9520</v>
+        <v>9525</v>
       </c>
       <c r="D28" t="n">
         <v>9525</v>
       </c>
       <c r="E28" t="n">
-        <v>9520</v>
+        <v>9525</v>
       </c>
       <c r="F28" t="n">
         <v>4</v>
       </c>
       <c r="G28" t="n">
-        <v>9451</v>
+        <v>9392.25</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>9520</v>
+        <v>9525</v>
       </c>
       <c r="C29" t="n">
         <v>9520</v>
       </c>
       <c r="D29" t="n">
-        <v>9520</v>
+        <v>9525</v>
       </c>
       <c r="E29" t="n">
         <v>9520</v>
       </c>
       <c r="F29" t="n">
-        <v>56.6412</v>
+        <v>4</v>
       </c>
       <c r="G29" t="n">
-        <v>9457.25</v>
+        <v>9395.833333333334</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>9515</v>
+        <v>9520</v>
       </c>
       <c r="C30" t="n">
-        <v>9515</v>
+        <v>9520</v>
       </c>
       <c r="D30" t="n">
-        <v>9515</v>
+        <v>9520</v>
       </c>
       <c r="E30" t="n">
-        <v>9515</v>
+        <v>9520</v>
       </c>
       <c r="F30" t="n">
-        <v>152.0581</v>
+        <v>56.6412</v>
       </c>
       <c r="G30" t="n">
-        <v>9463.25</v>
+        <v>9399.333333333334</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>9550</v>
+        <v>9515</v>
       </c>
       <c r="C31" t="n">
-        <v>9555</v>
+        <v>9515</v>
       </c>
       <c r="D31" t="n">
-        <v>9555</v>
+        <v>9515</v>
       </c>
       <c r="E31" t="n">
-        <v>9430</v>
+        <v>9515</v>
       </c>
       <c r="F31" t="n">
-        <v>86.1306</v>
+        <v>152.0581</v>
       </c>
       <c r="G31" t="n">
-        <v>9475</v>
+        <v>9402.75</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>9420</v>
+        <v>9550</v>
       </c>
       <c r="C32" t="n">
-        <v>9420</v>
+        <v>9555</v>
       </c>
       <c r="D32" t="n">
-        <v>9420</v>
+        <v>9555</v>
       </c>
       <c r="E32" t="n">
-        <v>9420</v>
+        <v>9430</v>
       </c>
       <c r="F32" t="n">
-        <v>0.108</v>
+        <v>86.1306</v>
       </c>
       <c r="G32" t="n">
-        <v>9476</v>
+        <v>9406.916666666666</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>9555</v>
+        <v>9420</v>
       </c>
       <c r="C33" t="n">
-        <v>9700</v>
+        <v>9420</v>
       </c>
       <c r="D33" t="n">
-        <v>9700</v>
+        <v>9420</v>
       </c>
       <c r="E33" t="n">
-        <v>9555</v>
+        <v>9420</v>
       </c>
       <c r="F33" t="n">
-        <v>143.47649685</v>
+        <v>0.108</v>
       </c>
       <c r="G33" t="n">
-        <v>9482.5</v>
+        <v>9408.416666666666</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>9695</v>
+        <v>9555</v>
       </c>
       <c r="C34" t="n">
-        <v>9485</v>
+        <v>9700</v>
       </c>
       <c r="D34" t="n">
-        <v>9695</v>
+        <v>9700</v>
       </c>
       <c r="E34" t="n">
-        <v>9485</v>
+        <v>9555</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2237</v>
+        <v>143.47649685</v>
       </c>
       <c r="G34" t="n">
-        <v>9496.25</v>
+        <v>9415</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1591,19 +1591,19 @@
         <v>9695</v>
       </c>
       <c r="C35" t="n">
-        <v>9520</v>
+        <v>9485</v>
       </c>
       <c r="D35" t="n">
-        <v>9720</v>
+        <v>9695</v>
       </c>
       <c r="E35" t="n">
         <v>9485</v>
       </c>
       <c r="F35" t="n">
-        <v>1227.11089434</v>
+        <v>0.2237</v>
       </c>
       <c r="G35" t="n">
-        <v>9513.5</v>
+        <v>9418.083333333334</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>9520</v>
+        <v>9695</v>
       </c>
       <c r="C36" t="n">
         <v>9520</v>
       </c>
       <c r="D36" t="n">
-        <v>9520</v>
+        <v>9720</v>
       </c>
       <c r="E36" t="n">
-        <v>9520</v>
+        <v>9485</v>
       </c>
       <c r="F36" t="n">
-        <v>30</v>
+        <v>1227.11089434</v>
       </c>
       <c r="G36" t="n">
-        <v>9518</v>
+        <v>9420.666666666666</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>9525</v>
+        <v>9520</v>
       </c>
       <c r="C37" t="n">
-        <v>9525</v>
+        <v>9520</v>
       </c>
       <c r="D37" t="n">
-        <v>9525</v>
+        <v>9520</v>
       </c>
       <c r="E37" t="n">
-        <v>9525</v>
+        <v>9520</v>
       </c>
       <c r="F37" t="n">
-        <v>4.9875</v>
+        <v>30</v>
       </c>
       <c r="G37" t="n">
-        <v>9526.75</v>
+        <v>9423.25</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>9470</v>
+        <v>9525</v>
       </c>
       <c r="C38" t="n">
-        <v>9465</v>
+        <v>9525</v>
       </c>
       <c r="D38" t="n">
-        <v>9470</v>
+        <v>9525</v>
       </c>
       <c r="E38" t="n">
-        <v>9465</v>
+        <v>9525</v>
       </c>
       <c r="F38" t="n">
-        <v>0.2539</v>
+        <v>4.9875</v>
       </c>
       <c r="G38" t="n">
-        <v>9529</v>
+        <v>9425.666666666666</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>9510</v>
+        <v>9470</v>
       </c>
       <c r="C39" t="n">
-        <v>9630</v>
+        <v>9465</v>
       </c>
       <c r="D39" t="n">
-        <v>9630</v>
+        <v>9470</v>
       </c>
       <c r="E39" t="n">
-        <v>9510</v>
+        <v>9465</v>
       </c>
       <c r="F39" t="n">
-        <v>27.5299</v>
+        <v>0.2539</v>
       </c>
       <c r="G39" t="n">
-        <v>9531</v>
+        <v>9427</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,7 +1763,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>9630</v>
+        <v>9510</v>
       </c>
       <c r="C40" t="n">
         <v>9630</v>
@@ -1772,13 +1772,13 @@
         <v>9630</v>
       </c>
       <c r="E40" t="n">
-        <v>9630</v>
+        <v>9510</v>
       </c>
       <c r="F40" t="n">
-        <v>72.5235</v>
+        <v>27.5299</v>
       </c>
       <c r="G40" t="n">
-        <v>9539</v>
+        <v>9432.166666666666</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>9535</v>
+        <v>9630</v>
       </c>
       <c r="C41" t="n">
-        <v>9530</v>
+        <v>9630</v>
       </c>
       <c r="D41" t="n">
-        <v>9535</v>
+        <v>9630</v>
       </c>
       <c r="E41" t="n">
-        <v>9530</v>
+        <v>9630</v>
       </c>
       <c r="F41" t="n">
-        <v>16.7624</v>
+        <v>72.5235</v>
       </c>
       <c r="G41" t="n">
-        <v>9542.25</v>
+        <v>9436.166666666666</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>9530</v>
+        <v>9535</v>
       </c>
       <c r="C42" t="n">
         <v>9530</v>
       </c>
       <c r="D42" t="n">
-        <v>9530</v>
+        <v>9535</v>
       </c>
       <c r="E42" t="n">
         <v>9530</v>
       </c>
       <c r="F42" t="n">
-        <v>1</v>
+        <v>16.7624</v>
       </c>
       <c r="G42" t="n">
-        <v>9543.25</v>
+        <v>9439</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>9550</v>
+        <v>9530</v>
       </c>
       <c r="C43" t="n">
         <v>9530</v>
       </c>
       <c r="D43" t="n">
-        <v>9550</v>
+        <v>9530</v>
       </c>
       <c r="E43" t="n">
         <v>9530</v>
       </c>
       <c r="F43" t="n">
-        <v>68</v>
+        <v>1</v>
       </c>
       <c r="G43" t="n">
-        <v>9541.25</v>
+        <v>9441.833333333334</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>9535</v>
+        <v>9550</v>
       </c>
       <c r="C44" t="n">
-        <v>9535</v>
+        <v>9530</v>
       </c>
       <c r="D44" t="n">
-        <v>9535</v>
+        <v>9550</v>
       </c>
       <c r="E44" t="n">
-        <v>9535</v>
+        <v>9530</v>
       </c>
       <c r="F44" t="n">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="G44" t="n">
-        <v>9541.75</v>
+        <v>9444</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1953,7 +1953,7 @@
         <v>1</v>
       </c>
       <c r="G45" t="n">
-        <v>9542.75</v>
+        <v>9446.083333333334</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>9550</v>
+        <v>9535</v>
       </c>
       <c r="C46" t="n">
         <v>9535</v>
       </c>
       <c r="D46" t="n">
-        <v>9550</v>
+        <v>9535</v>
       </c>
       <c r="E46" t="n">
         <v>9535</v>
       </c>
       <c r="F46" t="n">
-        <v>112.5313</v>
+        <v>1</v>
       </c>
       <c r="G46" t="n">
-        <v>9544.5</v>
+        <v>9447.916666666666</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
+        <v>9550</v>
+      </c>
+      <c r="C47" t="n">
         <v>9535</v>
       </c>
-      <c r="C47" t="n">
-        <v>9625</v>
-      </c>
       <c r="D47" t="n">
-        <v>9625</v>
+        <v>9550</v>
       </c>
       <c r="E47" t="n">
         <v>9535</v>
       </c>
       <c r="F47" t="n">
-        <v>33.115</v>
+        <v>112.5313</v>
       </c>
       <c r="G47" t="n">
-        <v>9545</v>
+        <v>9449.833333333334</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2046,19 +2046,19 @@
         <v>9535</v>
       </c>
       <c r="C48" t="n">
-        <v>9535</v>
+        <v>9625</v>
       </c>
       <c r="D48" t="n">
-        <v>9535</v>
+        <v>9625</v>
       </c>
       <c r="E48" t="n">
         <v>9535</v>
       </c>
       <c r="F48" t="n">
-        <v>23</v>
+        <v>33.115</v>
       </c>
       <c r="G48" t="n">
-        <v>9545.5</v>
+        <v>9453.583333333334</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2081,19 +2081,19 @@
         <v>9535</v>
       </c>
       <c r="C49" t="n">
-        <v>9485</v>
+        <v>9535</v>
       </c>
       <c r="D49" t="n">
         <v>9535</v>
       </c>
       <c r="E49" t="n">
-        <v>9485</v>
+        <v>9535</v>
       </c>
       <c r="F49" t="n">
-        <v>49.5042</v>
+        <v>23</v>
       </c>
       <c r="G49" t="n">
-        <v>9546.25</v>
+        <v>9455.75</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>9485</v>
+        <v>9535</v>
       </c>
       <c r="C50" t="n">
         <v>9485</v>
       </c>
       <c r="D50" t="n">
-        <v>9485</v>
+        <v>9535</v>
       </c>
       <c r="E50" t="n">
         <v>9485</v>
       </c>
       <c r="F50" t="n">
-        <v>237.2597</v>
+        <v>49.5042</v>
       </c>
       <c r="G50" t="n">
-        <v>9544.75</v>
+        <v>9457.833333333334</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>9480</v>
+        <v>9485</v>
       </c>
       <c r="C51" t="n">
-        <v>9445</v>
+        <v>9485</v>
       </c>
       <c r="D51" t="n">
-        <v>9480</v>
+        <v>9485</v>
       </c>
       <c r="E51" t="n">
-        <v>9445</v>
+        <v>9485</v>
       </c>
       <c r="F51" t="n">
-        <v>116.5</v>
+        <v>237.2597</v>
       </c>
       <c r="G51" t="n">
-        <v>9541.25</v>
+        <v>9459.25</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>9460</v>
+        <v>9480</v>
       </c>
       <c r="C52" t="n">
-        <v>9460</v>
+        <v>9445</v>
       </c>
       <c r="D52" t="n">
-        <v>9460</v>
+        <v>9480</v>
       </c>
       <c r="E52" t="n">
-        <v>9460</v>
+        <v>9445</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1023</v>
+        <v>116.5</v>
       </c>
       <c r="G52" t="n">
-        <v>9543.25</v>
+        <v>9459.916666666666</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>9450</v>
+        <v>9460</v>
       </c>
       <c r="C53" t="n">
-        <v>9450</v>
+        <v>9460</v>
       </c>
       <c r="D53" t="n">
-        <v>9450</v>
+        <v>9460</v>
       </c>
       <c r="E53" t="n">
-        <v>9450</v>
+        <v>9460</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2027</v>
+        <v>0.1023</v>
       </c>
       <c r="G53" t="n">
-        <v>9538</v>
+        <v>9460.833333333334</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,31 +2253,35 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>9490</v>
+        <v>9450</v>
       </c>
       <c r="C54" t="n">
-        <v>9530</v>
+        <v>9450</v>
       </c>
       <c r="D54" t="n">
-        <v>9590</v>
+        <v>9450</v>
       </c>
       <c r="E54" t="n">
-        <v>9490</v>
+        <v>9450</v>
       </c>
       <c r="F54" t="n">
-        <v>914.3813</v>
+        <v>0.2027</v>
       </c>
       <c r="G54" t="n">
-        <v>9527.75</v>
+        <v>9462.083333333334</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>9460</v>
+      </c>
+      <c r="K54" t="n">
+        <v>9460</v>
+      </c>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
@@ -2288,22 +2292,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>9555</v>
+        <v>9490</v>
       </c>
       <c r="C55" t="n">
-        <v>9555</v>
+        <v>9530</v>
       </c>
       <c r="D55" t="n">
-        <v>9555</v>
+        <v>9590</v>
       </c>
       <c r="E55" t="n">
-        <v>9555</v>
+        <v>9490</v>
       </c>
       <c r="F55" t="n">
-        <v>4.9962</v>
+        <v>914.3813</v>
       </c>
       <c r="G55" t="n">
-        <v>9520.75</v>
+        <v>9463.833333333334</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2312,8 +2316,14 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>9460</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2323,22 +2333,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>9600</v>
+        <v>9555</v>
       </c>
       <c r="C56" t="n">
-        <v>9595</v>
+        <v>9555</v>
       </c>
       <c r="D56" t="n">
-        <v>9650</v>
+        <v>9555</v>
       </c>
       <c r="E56" t="n">
-        <v>9595</v>
+        <v>9555</v>
       </c>
       <c r="F56" t="n">
-        <v>310.6624</v>
+        <v>4.9962</v>
       </c>
       <c r="G56" t="n">
-        <v>9524.75</v>
+        <v>9466.833333333334</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2347,8 +2357,14 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>9460</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2358,22 +2374,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
+        <v>9600</v>
+      </c>
+      <c r="C57" t="n">
+        <v>9595</v>
+      </c>
+      <c r="D57" t="n">
         <v>9650</v>
       </c>
-      <c r="C57" t="n">
-        <v>9700</v>
-      </c>
-      <c r="D57" t="n">
-        <v>9700</v>
-      </c>
       <c r="E57" t="n">
-        <v>9650</v>
+        <v>9595</v>
       </c>
       <c r="F57" t="n">
-        <v>199.81485339</v>
+        <v>310.6624</v>
       </c>
       <c r="G57" t="n">
-        <v>9531</v>
+        <v>9470.5</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2409,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
+        <v>9650</v>
+      </c>
+      <c r="C58" t="n">
         <v>9700</v>
       </c>
-      <c r="C58" t="n">
-        <v>9640</v>
-      </c>
       <c r="D58" t="n">
-        <v>9735</v>
+        <v>9700</v>
       </c>
       <c r="E58" t="n">
-        <v>9640</v>
+        <v>9650</v>
       </c>
       <c r="F58" t="n">
-        <v>557.56754661</v>
+        <v>199.81485339</v>
       </c>
       <c r="G58" t="n">
-        <v>9542.5</v>
+        <v>9476</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2444,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>9730</v>
+        <v>9700</v>
       </c>
       <c r="C59" t="n">
-        <v>9800</v>
+        <v>9640</v>
       </c>
       <c r="D59" t="n">
-        <v>9800</v>
+        <v>9735</v>
       </c>
       <c r="E59" t="n">
-        <v>9665</v>
+        <v>9640</v>
       </c>
       <c r="F59" t="n">
-        <v>928.8899</v>
+        <v>557.56754661</v>
       </c>
       <c r="G59" t="n">
-        <v>9553.5</v>
+        <v>9480.5</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,22 +2479,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>9795</v>
+        <v>9730</v>
       </c>
       <c r="C60" t="n">
-        <v>9825</v>
+        <v>9800</v>
       </c>
       <c r="D60" t="n">
-        <v>9825</v>
+        <v>9800</v>
       </c>
       <c r="E60" t="n">
-        <v>9795</v>
+        <v>9665</v>
       </c>
       <c r="F60" t="n">
-        <v>237.3906</v>
+        <v>928.8899</v>
       </c>
       <c r="G60" t="n">
-        <v>9561.75</v>
+        <v>9487.666666666666</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2514,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
+        <v>9795</v>
+      </c>
+      <c r="C61" t="n">
         <v>9825</v>
       </c>
-      <c r="C61" t="n">
-        <v>9860</v>
-      </c>
       <c r="D61" t="n">
-        <v>9865</v>
+        <v>9825</v>
       </c>
       <c r="E61" t="n">
-        <v>9825</v>
+        <v>9795</v>
       </c>
       <c r="F61" t="n">
-        <v>456.0899</v>
+        <v>237.3906</v>
       </c>
       <c r="G61" t="n">
-        <v>9576.25</v>
+        <v>9495.25</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2549,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
+        <v>9825</v>
+      </c>
+      <c r="C62" t="n">
+        <v>9860</v>
+      </c>
+      <c r="D62" t="n">
         <v>9865</v>
       </c>
-      <c r="C62" t="n">
-        <v>9890</v>
-      </c>
-      <c r="D62" t="n">
-        <v>9890</v>
-      </c>
       <c r="E62" t="n">
-        <v>9865</v>
+        <v>9825</v>
       </c>
       <c r="F62" t="n">
-        <v>65.40389999999999</v>
+        <v>456.0899</v>
       </c>
       <c r="G62" t="n">
-        <v>9593</v>
+        <v>9503.083333333334</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,22 +2584,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
+        <v>9865</v>
+      </c>
+      <c r="C63" t="n">
         <v>9890</v>
       </c>
-      <c r="C63" t="n">
-        <v>9910</v>
-      </c>
       <c r="D63" t="n">
-        <v>9910</v>
+        <v>9890</v>
       </c>
       <c r="E63" t="n">
         <v>9865</v>
       </c>
       <c r="F63" t="n">
-        <v>283.6213</v>
+        <v>65.40389999999999</v>
       </c>
       <c r="G63" t="n">
-        <v>9610</v>
+        <v>9513</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2619,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
+        <v>9890</v>
+      </c>
+      <c r="C64" t="n">
         <v>9910</v>
       </c>
-      <c r="C64" t="n">
-        <v>9915</v>
-      </c>
       <c r="D64" t="n">
-        <v>9915</v>
+        <v>9910</v>
       </c>
       <c r="E64" t="n">
-        <v>9880</v>
+        <v>9865</v>
       </c>
       <c r="F64" t="n">
-        <v>23.8373</v>
+        <v>283.6213</v>
       </c>
       <c r="G64" t="n">
-        <v>9628.75</v>
+        <v>9523.25</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,22 +2654,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>9920</v>
+        <v>9910</v>
       </c>
       <c r="C65" t="n">
-        <v>9935</v>
+        <v>9915</v>
       </c>
       <c r="D65" t="n">
-        <v>9950</v>
+        <v>9915</v>
       </c>
       <c r="E65" t="n">
-        <v>9920</v>
+        <v>9880</v>
       </c>
       <c r="F65" t="n">
-        <v>414.4665</v>
+        <v>23.8373</v>
       </c>
       <c r="G65" t="n">
-        <v>9648</v>
+        <v>9533.583333333334</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,22 +2689,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>9935</v>
+        <v>9920</v>
       </c>
       <c r="C66" t="n">
         <v>9935</v>
       </c>
       <c r="D66" t="n">
-        <v>9935</v>
+        <v>9950</v>
       </c>
       <c r="E66" t="n">
-        <v>9935</v>
+        <v>9920</v>
       </c>
       <c r="F66" t="n">
-        <v>442.2321</v>
+        <v>414.4665</v>
       </c>
       <c r="G66" t="n">
-        <v>9667.25</v>
+        <v>9544.083333333334</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2711,25 +2727,25 @@
         <v>9935</v>
       </c>
       <c r="C67" t="n">
-        <v>9950</v>
+        <v>9935</v>
       </c>
       <c r="D67" t="n">
-        <v>9950</v>
+        <v>9935</v>
       </c>
       <c r="E67" t="n">
         <v>9935</v>
       </c>
       <c r="F67" t="n">
-        <v>68.379</v>
+        <v>442.2321</v>
       </c>
       <c r="G67" t="n">
-        <v>9687.25</v>
+        <v>9554.583333333334</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
@@ -2743,22 +2759,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>9910</v>
+        <v>9935</v>
       </c>
       <c r="C68" t="n">
-        <v>9900</v>
+        <v>9950</v>
       </c>
       <c r="D68" t="n">
         <v>9950</v>
       </c>
       <c r="E68" t="n">
-        <v>9895</v>
+        <v>9935</v>
       </c>
       <c r="F68" t="n">
-        <v>254.9795</v>
+        <v>68.379</v>
       </c>
       <c r="G68" t="n">
-        <v>9706</v>
+        <v>9565.416666666666</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,7 +2794,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>9900</v>
+        <v>9910</v>
       </c>
       <c r="C69" t="n">
         <v>9900</v>
@@ -2787,19 +2803,19 @@
         <v>9950</v>
       </c>
       <c r="E69" t="n">
-        <v>9890</v>
+        <v>9895</v>
       </c>
       <c r="F69" t="n">
-        <v>317.3763</v>
+        <v>254.9795</v>
       </c>
       <c r="G69" t="n">
-        <v>9724.25</v>
+        <v>9573.833333333334</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
@@ -2813,22 +2829,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>9940</v>
+        <v>9900</v>
       </c>
       <c r="C70" t="n">
-        <v>9940</v>
+        <v>9900</v>
       </c>
       <c r="D70" t="n">
-        <v>9940</v>
+        <v>9950</v>
       </c>
       <c r="E70" t="n">
-        <v>9940</v>
+        <v>9890</v>
       </c>
       <c r="F70" t="n">
-        <v>23</v>
+        <v>317.3763</v>
       </c>
       <c r="G70" t="n">
-        <v>9747</v>
+        <v>9582.25</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,22 +2864,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>9930</v>
+        <v>9940</v>
       </c>
       <c r="C71" t="n">
-        <v>9930</v>
+        <v>9940</v>
       </c>
       <c r="D71" t="n">
-        <v>9930</v>
+        <v>9940</v>
       </c>
       <c r="E71" t="n">
-        <v>9930</v>
+        <v>9940</v>
       </c>
       <c r="F71" t="n">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="G71" t="n">
-        <v>9769.5</v>
+        <v>9592.666666666666</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,28 +2899,28 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>9935</v>
+        <v>9930</v>
       </c>
       <c r="C72" t="n">
-        <v>9935</v>
+        <v>9930</v>
       </c>
       <c r="D72" t="n">
-        <v>9935</v>
+        <v>9930</v>
       </c>
       <c r="E72" t="n">
-        <v>9935</v>
+        <v>9930</v>
       </c>
       <c r="F72" t="n">
-        <v>53.441</v>
+        <v>100</v>
       </c>
       <c r="G72" t="n">
-        <v>9793.25</v>
+        <v>9601.583333333334</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
@@ -2918,28 +2934,28 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>9870</v>
+        <v>9935</v>
       </c>
       <c r="C73" t="n">
-        <v>9870</v>
+        <v>9935</v>
       </c>
       <c r="D73" t="n">
-        <v>9870</v>
+        <v>9935</v>
       </c>
       <c r="E73" t="n">
-        <v>9870</v>
+        <v>9935</v>
       </c>
       <c r="F73" t="n">
-        <v>45.22</v>
+        <v>53.441</v>
       </c>
       <c r="G73" t="n">
-        <v>9814.25</v>
+        <v>9610.5</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
@@ -2953,28 +2969,28 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>9865</v>
+        <v>9870</v>
       </c>
       <c r="C74" t="n">
-        <v>9865</v>
+        <v>9870</v>
       </c>
       <c r="D74" t="n">
-        <v>9865</v>
+        <v>9870</v>
       </c>
       <c r="E74" t="n">
-        <v>9865</v>
+        <v>9870</v>
       </c>
       <c r="F74" t="n">
-        <v>358.4859</v>
+        <v>45.22</v>
       </c>
       <c r="G74" t="n">
-        <v>9833</v>
+        <v>9617.916666666666</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
@@ -2991,19 +3007,19 @@
         <v>9865</v>
       </c>
       <c r="C75" t="n">
-        <v>9860</v>
+        <v>9865</v>
       </c>
       <c r="D75" t="n">
         <v>9865</v>
       </c>
       <c r="E75" t="n">
-        <v>9860</v>
+        <v>9865</v>
       </c>
       <c r="F75" t="n">
-        <v>310.8737</v>
+        <v>358.4859</v>
       </c>
       <c r="G75" t="n">
-        <v>9848.5</v>
+        <v>9625.083333333334</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3023,22 +3039,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>9795</v>
+        <v>9865</v>
       </c>
       <c r="C76" t="n">
-        <v>9820</v>
+        <v>9860</v>
       </c>
       <c r="D76" t="n">
-        <v>9820</v>
+        <v>9865</v>
       </c>
       <c r="E76" t="n">
-        <v>9795</v>
+        <v>9860</v>
       </c>
       <c r="F76" t="n">
-        <v>9.742100000000001</v>
+        <v>310.8737</v>
       </c>
       <c r="G76" t="n">
-        <v>9858.25</v>
+        <v>9633.666666666666</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3058,22 +3074,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>9835</v>
+        <v>9795</v>
       </c>
       <c r="C77" t="n">
-        <v>9725</v>
+        <v>9820</v>
       </c>
       <c r="D77" t="n">
-        <v>9835</v>
+        <v>9820</v>
       </c>
       <c r="E77" t="n">
-        <v>9725</v>
+        <v>9795</v>
       </c>
       <c r="F77" t="n">
-        <v>196.2317</v>
+        <v>9.742100000000001</v>
       </c>
       <c r="G77" t="n">
-        <v>9867.5</v>
+        <v>9640.083333333334</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,22 +3109,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>9770</v>
+        <v>9835</v>
       </c>
       <c r="C78" t="n">
-        <v>9870</v>
+        <v>9725</v>
       </c>
       <c r="D78" t="n">
-        <v>9870</v>
+        <v>9835</v>
       </c>
       <c r="E78" t="n">
-        <v>9660</v>
+        <v>9725</v>
       </c>
       <c r="F78" t="n">
-        <v>940.4456</v>
+        <v>196.2317</v>
       </c>
       <c r="G78" t="n">
-        <v>9871</v>
+        <v>9645</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,22 +3144,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>9740</v>
+        <v>9770</v>
       </c>
       <c r="C79" t="n">
-        <v>9825</v>
+        <v>9870</v>
       </c>
       <c r="D79" t="n">
-        <v>9825</v>
+        <v>9870</v>
       </c>
       <c r="E79" t="n">
-        <v>9740</v>
+        <v>9660</v>
       </c>
       <c r="F79" t="n">
-        <v>30.6849</v>
+        <v>940.4456</v>
       </c>
       <c r="G79" t="n">
-        <v>9871.5</v>
+        <v>9651.583333333334</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3163,22 +3179,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>9800</v>
+        <v>9740</v>
       </c>
       <c r="C80" t="n">
-        <v>9800</v>
+        <v>9825</v>
       </c>
       <c r="D80" t="n">
-        <v>9800</v>
+        <v>9825</v>
       </c>
       <c r="E80" t="n">
-        <v>9800</v>
+        <v>9740</v>
       </c>
       <c r="F80" t="n">
-        <v>9.245699999999999</v>
+        <v>30.6849</v>
       </c>
       <c r="G80" t="n">
-        <v>9871.75</v>
+        <v>9657.416666666666</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3198,7 +3214,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>9790</v>
+        <v>9800</v>
       </c>
       <c r="C81" t="n">
         <v>9800</v>
@@ -3207,13 +3223,13 @@
         <v>9800</v>
       </c>
       <c r="E81" t="n">
-        <v>9790</v>
+        <v>9800</v>
       </c>
       <c r="F81" t="n">
-        <v>20</v>
+        <v>9.245699999999999</v>
       </c>
       <c r="G81" t="n">
-        <v>9870</v>
+        <v>9662.916666666666</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3236,19 +3252,19 @@
         <v>9790</v>
       </c>
       <c r="C82" t="n">
-        <v>9810</v>
+        <v>9800</v>
       </c>
       <c r="D82" t="n">
-        <v>9810</v>
+        <v>9800</v>
       </c>
       <c r="E82" t="n">
-        <v>9740</v>
+        <v>9790</v>
       </c>
       <c r="F82" t="n">
-        <v>214.5929</v>
+        <v>20</v>
       </c>
       <c r="G82" t="n">
-        <v>9866.25</v>
+        <v>9667.75</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3268,22 +3284,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>9735</v>
+        <v>9790</v>
       </c>
       <c r="C83" t="n">
-        <v>9735</v>
+        <v>9810</v>
       </c>
       <c r="D83" t="n">
-        <v>9735</v>
+        <v>9810</v>
       </c>
       <c r="E83" t="n">
-        <v>9735</v>
+        <v>9740</v>
       </c>
       <c r="F83" t="n">
-        <v>0.16</v>
+        <v>214.5929</v>
       </c>
       <c r="G83" t="n">
-        <v>9858.5</v>
+        <v>9672.666666666666</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3303,22 +3319,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>9760</v>
+        <v>9735</v>
       </c>
       <c r="C84" t="n">
-        <v>9760</v>
+        <v>9735</v>
       </c>
       <c r="D84" t="n">
-        <v>9760</v>
+        <v>9735</v>
       </c>
       <c r="E84" t="n">
-        <v>9760</v>
+        <v>9735</v>
       </c>
       <c r="F84" t="n">
-        <v>4.7061</v>
+        <v>0.16</v>
       </c>
       <c r="G84" t="n">
-        <v>9851</v>
+        <v>9675.25</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3338,22 +3354,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>9755</v>
+        <v>9760</v>
       </c>
       <c r="C85" t="n">
-        <v>9755</v>
+        <v>9760</v>
       </c>
       <c r="D85" t="n">
-        <v>9755</v>
+        <v>9760</v>
       </c>
       <c r="E85" t="n">
-        <v>9755</v>
+        <v>9760</v>
       </c>
       <c r="F85" t="n">
-        <v>4.7699</v>
+        <v>4.7061</v>
       </c>
       <c r="G85" t="n">
-        <v>9842.75</v>
+        <v>9678.083333333334</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3376,19 +3392,19 @@
         <v>9755</v>
       </c>
       <c r="C86" t="n">
-        <v>9745</v>
+        <v>9755</v>
       </c>
       <c r="D86" t="n">
         <v>9755</v>
       </c>
       <c r="E86" t="n">
-        <v>9745</v>
+        <v>9755</v>
       </c>
       <c r="F86" t="n">
-        <v>14.8505</v>
+        <v>4.7699</v>
       </c>
       <c r="G86" t="n">
-        <v>9833.75</v>
+        <v>9681.083333333334</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3408,22 +3424,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>9750</v>
+        <v>9755</v>
       </c>
       <c r="C87" t="n">
-        <v>9720</v>
+        <v>9745</v>
       </c>
       <c r="D87" t="n">
-        <v>9750</v>
+        <v>9755</v>
       </c>
       <c r="E87" t="n">
-        <v>9720</v>
+        <v>9745</v>
       </c>
       <c r="F87" t="n">
-        <v>236.7774</v>
+        <v>14.8505</v>
       </c>
       <c r="G87" t="n">
-        <v>9824.5</v>
+        <v>9684.916666666666</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3443,22 +3459,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
+        <v>9750</v>
+      </c>
+      <c r="C88" t="n">
         <v>9720</v>
       </c>
-      <c r="C88" t="n">
-        <v>9715</v>
-      </c>
       <c r="D88" t="n">
+        <v>9750</v>
+      </c>
+      <c r="E88" t="n">
         <v>9720</v>
       </c>
-      <c r="E88" t="n">
-        <v>9715</v>
-      </c>
       <c r="F88" t="n">
-        <v>96.61799999999999</v>
+        <v>236.7774</v>
       </c>
       <c r="G88" t="n">
-        <v>9815</v>
+        <v>9688.166666666666</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3478,22 +3494,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>9705</v>
+        <v>9720</v>
       </c>
       <c r="C89" t="n">
-        <v>9710</v>
+        <v>9715</v>
       </c>
       <c r="D89" t="n">
-        <v>9710</v>
+        <v>9720</v>
       </c>
       <c r="E89" t="n">
-        <v>9705</v>
+        <v>9715</v>
       </c>
       <c r="F89" t="n">
-        <v>11</v>
+        <v>96.61799999999999</v>
       </c>
       <c r="G89" t="n">
-        <v>9805.25</v>
+        <v>9691.416666666666</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3513,22 +3529,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>9700</v>
+        <v>9705</v>
       </c>
       <c r="C90" t="n">
-        <v>9700</v>
+        <v>9710</v>
       </c>
       <c r="D90" t="n">
-        <v>9700</v>
+        <v>9710</v>
       </c>
       <c r="E90" t="n">
-        <v>9700</v>
+        <v>9705</v>
       </c>
       <c r="F90" t="n">
-        <v>3.6662</v>
+        <v>11</v>
       </c>
       <c r="G90" t="n">
-        <v>9793.25</v>
+        <v>9694.583333333334</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3548,22 +3564,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>9660</v>
+        <v>9700</v>
       </c>
       <c r="C91" t="n">
-        <v>9660</v>
+        <v>9700</v>
       </c>
       <c r="D91" t="n">
-        <v>9660</v>
+        <v>9700</v>
       </c>
       <c r="E91" t="n">
-        <v>9630</v>
+        <v>9700</v>
       </c>
       <c r="F91" t="n">
-        <v>49.0698</v>
+        <v>3.6662</v>
       </c>
       <c r="G91" t="n">
-        <v>9779.75</v>
+        <v>9697.666666666666</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3586,19 +3602,19 @@
         <v>9660</v>
       </c>
       <c r="C92" t="n">
-        <v>9720</v>
+        <v>9660</v>
       </c>
       <c r="D92" t="n">
-        <v>9720</v>
+        <v>9660</v>
       </c>
       <c r="E92" t="n">
-        <v>9660</v>
+        <v>9630</v>
       </c>
       <c r="F92" t="n">
-        <v>102.98241486</v>
+        <v>49.0698</v>
       </c>
       <c r="G92" t="n">
-        <v>9766</v>
+        <v>9699.416666666666</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3618,22 +3634,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>9715</v>
+        <v>9660</v>
       </c>
       <c r="C93" t="n">
-        <v>9715</v>
+        <v>9720</v>
       </c>
       <c r="D93" t="n">
-        <v>9715</v>
+        <v>9720</v>
       </c>
       <c r="E93" t="n">
-        <v>9715</v>
+        <v>9660</v>
       </c>
       <c r="F93" t="n">
-        <v>51.4668</v>
+        <v>102.98241486</v>
       </c>
       <c r="G93" t="n">
-        <v>9758.25</v>
+        <v>9704.416666666666</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3665,10 +3681,10 @@
         <v>9715</v>
       </c>
       <c r="F94" t="n">
-        <v>1.1257</v>
+        <v>51.4668</v>
       </c>
       <c r="G94" t="n">
-        <v>9750.75</v>
+        <v>9704.666666666666</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3688,22 +3704,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>9650</v>
+        <v>9715</v>
       </c>
       <c r="C95" t="n">
-        <v>9650</v>
+        <v>9715</v>
       </c>
       <c r="D95" t="n">
-        <v>9650</v>
+        <v>9715</v>
       </c>
       <c r="E95" t="n">
-        <v>9650</v>
+        <v>9715</v>
       </c>
       <c r="F95" t="n">
-        <v>172.6037</v>
+        <v>1.1257</v>
       </c>
       <c r="G95" t="n">
-        <v>9740</v>
+        <v>9708.5</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3726,19 +3742,19 @@
         <v>9650</v>
       </c>
       <c r="C96" t="n">
-        <v>9655</v>
+        <v>9650</v>
       </c>
       <c r="D96" t="n">
-        <v>9695</v>
+        <v>9650</v>
       </c>
       <c r="E96" t="n">
         <v>9650</v>
       </c>
       <c r="F96" t="n">
-        <v>320.5363</v>
+        <v>172.6037</v>
       </c>
       <c r="G96" t="n">
-        <v>9732.75</v>
+        <v>9710.666666666666</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3758,22 +3774,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>9695</v>
+        <v>9650</v>
       </c>
       <c r="C97" t="n">
-        <v>9670</v>
+        <v>9655</v>
       </c>
       <c r="D97" t="n">
         <v>9695</v>
       </c>
       <c r="E97" t="n">
-        <v>9665</v>
+        <v>9650</v>
       </c>
       <c r="F97" t="n">
-        <v>213.6265</v>
+        <v>320.5363</v>
       </c>
       <c r="G97" t="n">
-        <v>9725.75</v>
+        <v>9712.916666666666</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3793,22 +3809,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>9670</v>
+        <v>9695</v>
       </c>
       <c r="C98" t="n">
         <v>9670</v>
       </c>
       <c r="D98" t="n">
-        <v>9670</v>
+        <v>9695</v>
       </c>
       <c r="E98" t="n">
-        <v>9670</v>
+        <v>9665</v>
       </c>
       <c r="F98" t="n">
-        <v>83.0073</v>
+        <v>213.6265</v>
       </c>
       <c r="G98" t="n">
-        <v>9720.75</v>
+        <v>9715.333333333334</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3828,22 +3844,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>9695</v>
+        <v>9670</v>
       </c>
       <c r="C99" t="n">
         <v>9670</v>
       </c>
       <c r="D99" t="n">
-        <v>9695</v>
+        <v>9670</v>
       </c>
       <c r="E99" t="n">
         <v>9670</v>
       </c>
       <c r="F99" t="n">
-        <v>15.2269</v>
+        <v>83.0073</v>
       </c>
       <c r="G99" t="n">
-        <v>9718.5</v>
+        <v>9718.75</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3863,35 +3879,31 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>9705</v>
+        <v>9695</v>
       </c>
       <c r="C100" t="n">
-        <v>9705</v>
+        <v>9670</v>
       </c>
       <c r="D100" t="n">
-        <v>9705</v>
+        <v>9695</v>
       </c>
       <c r="E100" t="n">
-        <v>9705</v>
+        <v>9670</v>
       </c>
       <c r="F100" t="n">
-        <v>36.7358</v>
+        <v>15.2269</v>
       </c>
       <c r="G100" t="n">
-        <v>9713.75</v>
+        <v>9719.416666666666</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>9670</v>
-      </c>
-      <c r="K100" t="n">
-        <v>9670</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
@@ -3902,40 +3914,32 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>9710</v>
+        <v>9705</v>
       </c>
       <c r="C101" t="n">
-        <v>9710</v>
+        <v>9705</v>
       </c>
       <c r="D101" t="n">
-        <v>9710</v>
+        <v>9705</v>
       </c>
       <c r="E101" t="n">
-        <v>9710</v>
+        <v>9705</v>
       </c>
       <c r="F101" t="n">
-        <v>173.2165</v>
+        <v>36.7358</v>
       </c>
       <c r="G101" t="n">
-        <v>9709.75</v>
+        <v>9720.666666666666</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>9705</v>
-      </c>
-      <c r="K101" t="n">
-        <v>9670</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -3948,37 +3952,29 @@
         <v>9710</v>
       </c>
       <c r="C102" t="n">
-        <v>9715</v>
+        <v>9710</v>
       </c>
       <c r="D102" t="n">
-        <v>9715</v>
+        <v>9710</v>
       </c>
       <c r="E102" t="n">
         <v>9710</v>
       </c>
       <c r="F102" t="n">
-        <v>28.12</v>
+        <v>173.2165</v>
       </c>
       <c r="G102" t="n">
-        <v>9705.75</v>
+        <v>9723.666666666666</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>9710</v>
-      </c>
-      <c r="K102" t="n">
-        <v>9670</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -3988,7 +3984,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>9715</v>
+        <v>9710</v>
       </c>
       <c r="C103" t="n">
         <v>9715</v>
@@ -3997,26 +3993,22 @@
         <v>9715</v>
       </c>
       <c r="E103" t="n">
-        <v>9715</v>
+        <v>9710</v>
       </c>
       <c r="F103" t="n">
-        <v>2</v>
+        <v>28.12</v>
       </c>
       <c r="G103" t="n">
-        <v>9704.75</v>
+        <v>9726.75</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>9715</v>
-      </c>
-      <c r="K103" t="n">
-        <v>9715</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
@@ -4027,40 +4019,32 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>9720</v>
+        <v>9715</v>
       </c>
       <c r="C104" t="n">
-        <v>9755</v>
+        <v>9715</v>
       </c>
       <c r="D104" t="n">
-        <v>9755</v>
+        <v>9715</v>
       </c>
       <c r="E104" t="n">
-        <v>9720</v>
+        <v>9715</v>
       </c>
       <c r="F104" t="n">
-        <v>345.3237</v>
+        <v>2</v>
       </c>
       <c r="G104" t="n">
-        <v>9702.75</v>
+        <v>9729.833333333334</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>9715</v>
-      </c>
-      <c r="K104" t="n">
-        <v>9715</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4070,7 +4054,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>9755</v>
+        <v>9720</v>
       </c>
       <c r="C105" t="n">
         <v>9755</v>
@@ -4079,13 +4063,13 @@
         <v>9755</v>
       </c>
       <c r="E105" t="n">
-        <v>9755</v>
+        <v>9720</v>
       </c>
       <c r="F105" t="n">
-        <v>41.5842</v>
+        <v>345.3237</v>
       </c>
       <c r="G105" t="n">
-        <v>9702.75</v>
+        <v>9733.5</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4094,14 +4078,8 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>9715</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4111,40 +4089,32 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>9715</v>
+        <v>9755</v>
       </c>
       <c r="C106" t="n">
-        <v>9710</v>
+        <v>9755</v>
       </c>
       <c r="D106" t="n">
-        <v>9715</v>
+        <v>9755</v>
       </c>
       <c r="E106" t="n">
-        <v>9710</v>
+        <v>9755</v>
       </c>
       <c r="F106" t="n">
-        <v>60.5777</v>
+        <v>41.5842</v>
       </c>
       <c r="G106" t="n">
-        <v>9700.75</v>
+        <v>9737.166666666666</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>9755</v>
-      </c>
-      <c r="K106" t="n">
-        <v>9715</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4166,10 +4136,10 @@
         <v>9710</v>
       </c>
       <c r="F107" t="n">
-        <v>41.4803</v>
+        <v>60.5777</v>
       </c>
       <c r="G107" t="n">
-        <v>9699</v>
+        <v>9740.083333333334</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4178,14 +4148,8 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>9715</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4198,19 +4162,19 @@
         <v>9715</v>
       </c>
       <c r="C108" t="n">
-        <v>9745</v>
+        <v>9710</v>
       </c>
       <c r="D108" t="n">
-        <v>9745</v>
+        <v>9715</v>
       </c>
       <c r="E108" t="n">
-        <v>9715</v>
+        <v>9710</v>
       </c>
       <c r="F108" t="n">
-        <v>77.5</v>
+        <v>41.4803</v>
       </c>
       <c r="G108" t="n">
-        <v>9698.75</v>
+        <v>9741.5</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4219,14 +4183,8 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>9715</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4236,22 +4194,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>9760</v>
+        <v>9715</v>
       </c>
       <c r="C109" t="n">
-        <v>9760</v>
+        <v>9745</v>
       </c>
       <c r="D109" t="n">
-        <v>9760</v>
+        <v>9745</v>
       </c>
       <c r="E109" t="n">
-        <v>9760</v>
+        <v>9715</v>
       </c>
       <c r="F109" t="n">
-        <v>25.7474</v>
+        <v>77.5</v>
       </c>
       <c r="G109" t="n">
-        <v>9701.5</v>
+        <v>9745</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4260,14 +4218,8 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>9715</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4277,22 +4229,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>9755</v>
+        <v>9760</v>
       </c>
       <c r="C110" t="n">
-        <v>9755</v>
+        <v>9760</v>
       </c>
       <c r="D110" t="n">
-        <v>9755</v>
+        <v>9760</v>
       </c>
       <c r="E110" t="n">
-        <v>9755</v>
+        <v>9760</v>
       </c>
       <c r="F110" t="n">
-        <v>257.8541</v>
+        <v>25.7474</v>
       </c>
       <c r="G110" t="n">
-        <v>9704.25</v>
+        <v>9749.583333333334</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4301,14 +4253,8 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>9715</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4330,10 +4276,10 @@
         <v>9755</v>
       </c>
       <c r="F111" t="n">
-        <v>10</v>
+        <v>257.8541</v>
       </c>
       <c r="G111" t="n">
-        <v>9709</v>
+        <v>9754.083333333334</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4342,14 +4288,8 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>9715</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4359,22 +4299,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>9760</v>
+        <v>9755</v>
       </c>
       <c r="C112" t="n">
-        <v>9760</v>
+        <v>9755</v>
       </c>
       <c r="D112" t="n">
-        <v>9760</v>
+        <v>9755</v>
       </c>
       <c r="E112" t="n">
-        <v>9760</v>
+        <v>9755</v>
       </c>
       <c r="F112" t="n">
-        <v>4.908</v>
+        <v>10</v>
       </c>
       <c r="G112" t="n">
-        <v>9714</v>
+        <v>9759.25</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4383,14 +4323,8 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>9715</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4400,22 +4334,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>9755</v>
+        <v>9760</v>
       </c>
       <c r="C113" t="n">
-        <v>9755</v>
+        <v>9760</v>
       </c>
       <c r="D113" t="n">
-        <v>9755</v>
+        <v>9760</v>
       </c>
       <c r="E113" t="n">
-        <v>9755</v>
+        <v>9760</v>
       </c>
       <c r="F113" t="n">
-        <v>24</v>
+        <v>4.908</v>
       </c>
       <c r="G113" t="n">
-        <v>9716</v>
+        <v>9764.25</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4424,14 +4358,8 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>9715</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4453,10 +4381,10 @@
         <v>9755</v>
       </c>
       <c r="F114" t="n">
-        <v>58.7236</v>
+        <v>24</v>
       </c>
       <c r="G114" t="n">
-        <v>9718</v>
+        <v>9769.333333333334</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4465,14 +4393,8 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>9715</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4494,10 +4416,10 @@
         <v>9755</v>
       </c>
       <c r="F115" t="n">
-        <v>35.9819</v>
+        <v>58.7236</v>
       </c>
       <c r="G115" t="n">
-        <v>9723.25</v>
+        <v>9773.083333333334</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4506,14 +4428,8 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>9715</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4535,10 +4451,10 @@
         <v>9755</v>
       </c>
       <c r="F116" t="n">
-        <v>2.1897</v>
+        <v>35.9819</v>
       </c>
       <c r="G116" t="n">
-        <v>9728.5</v>
+        <v>9776.416666666666</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4547,14 +4463,8 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>9715</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4564,22 +4474,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>9705</v>
+        <v>9755</v>
       </c>
       <c r="C117" t="n">
-        <v>9705</v>
+        <v>9755</v>
       </c>
       <c r="D117" t="n">
-        <v>9705</v>
+        <v>9755</v>
       </c>
       <c r="E117" t="n">
-        <v>9705</v>
+        <v>9755</v>
       </c>
       <c r="F117" t="n">
-        <v>2.1333</v>
+        <v>2.1897</v>
       </c>
       <c r="G117" t="n">
-        <v>9729</v>
+        <v>9779.083333333334</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4588,14 +4498,8 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>9715</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4617,10 +4521,10 @@
         <v>9705</v>
       </c>
       <c r="F118" t="n">
-        <v>10</v>
+        <v>2.1333</v>
       </c>
       <c r="G118" t="n">
-        <v>9730.75</v>
+        <v>9779.166666666666</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4629,14 +4533,8 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>9715</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4646,22 +4544,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>9695</v>
+        <v>9705</v>
       </c>
       <c r="C119" t="n">
-        <v>9675</v>
+        <v>9705</v>
       </c>
       <c r="D119" t="n">
-        <v>9695</v>
+        <v>9705</v>
       </c>
       <c r="E119" t="n">
-        <v>9675</v>
+        <v>9705</v>
       </c>
       <c r="F119" t="n">
-        <v>88.4196</v>
+        <v>10</v>
       </c>
       <c r="G119" t="n">
-        <v>9730.75</v>
+        <v>9780.25</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4670,14 +4568,8 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>9715</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4687,22 +4579,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>9680</v>
+        <v>9695</v>
       </c>
       <c r="C120" t="n">
-        <v>9680</v>
+        <v>9675</v>
       </c>
       <c r="D120" t="n">
-        <v>9680</v>
+        <v>9695</v>
       </c>
       <c r="E120" t="n">
-        <v>9680</v>
+        <v>9675</v>
       </c>
       <c r="F120" t="n">
-        <v>234.356</v>
+        <v>88.4196</v>
       </c>
       <c r="G120" t="n">
-        <v>9729.5</v>
+        <v>9778.166666666666</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4711,14 +4603,8 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>9715</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4740,10 +4626,10 @@
         <v>9680</v>
       </c>
       <c r="F121" t="n">
-        <v>21.1093</v>
+        <v>234.356</v>
       </c>
       <c r="G121" t="n">
-        <v>9728</v>
+        <v>9775.75</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4752,14 +4638,8 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>9715</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4781,10 +4661,10 @@
         <v>9680</v>
       </c>
       <c r="F122" t="n">
-        <v>4.5609</v>
+        <v>21.1093</v>
       </c>
       <c r="G122" t="n">
-        <v>9726.5</v>
+        <v>9772.75</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4793,14 +4673,8 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>9715</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4822,10 +4696,10 @@
         <v>9680</v>
       </c>
       <c r="F123" t="n">
-        <v>1</v>
+        <v>4.5609</v>
       </c>
       <c r="G123" t="n">
-        <v>9724.75</v>
+        <v>9769.25</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4834,14 +4708,8 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>9715</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4851,22 +4719,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>9730</v>
+        <v>9680</v>
       </c>
       <c r="C124" t="n">
-        <v>9730</v>
+        <v>9680</v>
       </c>
       <c r="D124" t="n">
-        <v>9730</v>
+        <v>9680</v>
       </c>
       <c r="E124" t="n">
-        <v>9730</v>
+        <v>9680</v>
       </c>
       <c r="F124" t="n">
-        <v>9.161099999999999</v>
+        <v>1</v>
       </c>
       <c r="G124" t="n">
-        <v>9725.25</v>
+        <v>9765.416666666666</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4875,14 +4743,8 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>9715</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4892,22 +4754,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>9720</v>
+        <v>9730</v>
       </c>
       <c r="C125" t="n">
-        <v>9720</v>
+        <v>9730</v>
       </c>
       <c r="D125" t="n">
-        <v>9720</v>
+        <v>9730</v>
       </c>
       <c r="E125" t="n">
-        <v>9720</v>
+        <v>9730</v>
       </c>
       <c r="F125" t="n">
-        <v>1.7648</v>
+        <v>9.161099999999999</v>
       </c>
       <c r="G125" t="n">
-        <v>9723.5</v>
+        <v>9762.333333333334</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4916,14 +4778,8 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>9715</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4933,22 +4789,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>9715</v>
+        <v>9720</v>
       </c>
       <c r="C126" t="n">
-        <v>9750</v>
+        <v>9720</v>
       </c>
       <c r="D126" t="n">
-        <v>9750</v>
+        <v>9720</v>
       </c>
       <c r="E126" t="n">
-        <v>9715</v>
+        <v>9720</v>
       </c>
       <c r="F126" t="n">
-        <v>434.2714</v>
+        <v>1.7648</v>
       </c>
       <c r="G126" t="n">
-        <v>9723.5</v>
+        <v>9758.75</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4957,14 +4813,8 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>9715</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -4974,22 +4824,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>9745</v>
+        <v>9715</v>
       </c>
       <c r="C127" t="n">
-        <v>9745</v>
+        <v>9750</v>
       </c>
       <c r="D127" t="n">
-        <v>9745</v>
+        <v>9750</v>
       </c>
       <c r="E127" t="n">
-        <v>9745</v>
+        <v>9715</v>
       </c>
       <c r="F127" t="n">
-        <v>100.169</v>
+        <v>434.2714</v>
       </c>
       <c r="G127" t="n">
-        <v>9725</v>
+        <v>9755.666666666666</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4998,14 +4848,8 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>9715</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5015,22 +4859,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>9740</v>
+        <v>9745</v>
       </c>
       <c r="C128" t="n">
-        <v>9685</v>
+        <v>9745</v>
       </c>
       <c r="D128" t="n">
-        <v>9740</v>
+        <v>9745</v>
       </c>
       <c r="E128" t="n">
-        <v>9685</v>
+        <v>9745</v>
       </c>
       <c r="F128" t="n">
-        <v>77.2167</v>
+        <v>100.169</v>
       </c>
       <c r="G128" t="n">
-        <v>9726.25</v>
+        <v>9752.25</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5039,14 +4883,8 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>9715</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5056,22 +4894,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>9745</v>
+        <v>9740</v>
       </c>
       <c r="C129" t="n">
-        <v>9750</v>
+        <v>9685</v>
       </c>
       <c r="D129" t="n">
-        <v>9750</v>
+        <v>9740</v>
       </c>
       <c r="E129" t="n">
-        <v>9745</v>
+        <v>9685</v>
       </c>
       <c r="F129" t="n">
-        <v>79.8069</v>
+        <v>77.2167</v>
       </c>
       <c r="G129" t="n">
-        <v>9725.5</v>
+        <v>9748.666666666666</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5080,14 +4918,8 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>9715</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5097,7 +4929,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>9685</v>
+        <v>9745</v>
       </c>
       <c r="C130" t="n">
         <v>9750</v>
@@ -5106,13 +4938,13 @@
         <v>9750</v>
       </c>
       <c r="E130" t="n">
-        <v>9685</v>
+        <v>9745</v>
       </c>
       <c r="F130" t="n">
-        <v>8.827</v>
+        <v>79.8069</v>
       </c>
       <c r="G130" t="n">
-        <v>9722</v>
+        <v>9746.166666666666</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5121,14 +4953,8 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>9715</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5138,22 +4964,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>9785</v>
+        <v>9685</v>
       </c>
       <c r="C131" t="n">
-        <v>9785</v>
+        <v>9750</v>
       </c>
       <c r="D131" t="n">
-        <v>9785</v>
+        <v>9750</v>
       </c>
       <c r="E131" t="n">
-        <v>9785</v>
+        <v>9685</v>
       </c>
       <c r="F131" t="n">
-        <v>20.3072</v>
+        <v>8.827</v>
       </c>
       <c r="G131" t="n">
-        <v>9723.5</v>
+        <v>9743</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5162,14 +4988,8 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>9715</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5179,22 +4999,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>9770</v>
+        <v>9785</v>
       </c>
       <c r="C132" t="n">
-        <v>9770</v>
+        <v>9785</v>
       </c>
       <c r="D132" t="n">
-        <v>9770</v>
+        <v>9785</v>
       </c>
       <c r="E132" t="n">
-        <v>9770</v>
+        <v>9785</v>
       </c>
       <c r="F132" t="n">
-        <v>15.3168</v>
+        <v>20.3072</v>
       </c>
       <c r="G132" t="n">
-        <v>9724</v>
+        <v>9740.583333333334</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5203,14 +5023,8 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>9715</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5232,10 +5046,10 @@
         <v>9770</v>
       </c>
       <c r="F133" t="n">
-        <v>1.419</v>
+        <v>15.3168</v>
       </c>
       <c r="G133" t="n">
-        <v>9724.75</v>
+        <v>9737.833333333334</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5244,14 +5058,8 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>9715</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5261,22 +5069,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>9685</v>
+        <v>9770</v>
       </c>
       <c r="C134" t="n">
-        <v>9685</v>
+        <v>9770</v>
       </c>
       <c r="D134" t="n">
-        <v>9685</v>
+        <v>9770</v>
       </c>
       <c r="E134" t="n">
-        <v>9685</v>
+        <v>9770</v>
       </c>
       <c r="F134" t="n">
-        <v>0.5162</v>
+        <v>1.419</v>
       </c>
       <c r="G134" t="n">
-        <v>9721.25</v>
+        <v>9736.166666666666</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5285,14 +5093,8 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>9715</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5302,22 +5104,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>9695</v>
+        <v>9685</v>
       </c>
       <c r="C135" t="n">
-        <v>9695</v>
+        <v>9685</v>
       </c>
       <c r="D135" t="n">
-        <v>9695</v>
+        <v>9685</v>
       </c>
       <c r="E135" t="n">
-        <v>9695</v>
+        <v>9685</v>
       </c>
       <c r="F135" t="n">
-        <v>6</v>
+        <v>0.5162</v>
       </c>
       <c r="G135" t="n">
-        <v>9718.25</v>
+        <v>9733.166666666666</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5326,14 +5128,8 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>9715</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5358,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="G136" t="n">
-        <v>9715.25</v>
+        <v>9730.416666666666</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5367,14 +5163,8 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>9715</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5387,19 +5177,19 @@
         <v>9695</v>
       </c>
       <c r="C137" t="n">
-        <v>9685</v>
+        <v>9695</v>
       </c>
       <c r="D137" t="n">
         <v>9695</v>
       </c>
       <c r="E137" t="n">
-        <v>9685</v>
+        <v>9695</v>
       </c>
       <c r="F137" t="n">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="G137" t="n">
-        <v>9714.75</v>
+        <v>9728.333333333334</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5408,14 +5198,8 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>9715</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5425,22 +5209,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>9690</v>
+        <v>9695</v>
       </c>
       <c r="C138" t="n">
-        <v>9700</v>
+        <v>9685</v>
       </c>
       <c r="D138" t="n">
-        <v>9700</v>
+        <v>9695</v>
       </c>
       <c r="E138" t="n">
-        <v>9690</v>
+        <v>9685</v>
       </c>
       <c r="F138" t="n">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="G138" t="n">
-        <v>9714</v>
+        <v>9727.666666666666</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5449,14 +5233,8 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>9715</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5466,22 +5244,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>9725</v>
+        <v>9690</v>
       </c>
       <c r="C139" t="n">
-        <v>9690</v>
+        <v>9700</v>
       </c>
       <c r="D139" t="n">
-        <v>9725</v>
+        <v>9700</v>
       </c>
       <c r="E139" t="n">
         <v>9690</v>
       </c>
       <c r="F139" t="n">
-        <v>148.7719</v>
+        <v>4</v>
       </c>
       <c r="G139" t="n">
-        <v>9715.5</v>
+        <v>9724.833333333334</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5490,14 +5268,8 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>9715</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5507,22 +5279,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>9735</v>
+        <v>9725</v>
       </c>
       <c r="C140" t="n">
-        <v>9735</v>
+        <v>9690</v>
       </c>
       <c r="D140" t="n">
-        <v>9735</v>
+        <v>9725</v>
       </c>
       <c r="E140" t="n">
-        <v>9735</v>
+        <v>9690</v>
       </c>
       <c r="F140" t="n">
-        <v>2</v>
+        <v>148.7719</v>
       </c>
       <c r="G140" t="n">
-        <v>9718.25</v>
+        <v>9722.583333333334</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5531,14 +5303,8 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>9715</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5560,10 +5326,10 @@
         <v>9735</v>
       </c>
       <c r="F141" t="n">
-        <v>0.20287621</v>
+        <v>2</v>
       </c>
       <c r="G141" t="n">
-        <v>9721</v>
+        <v>9721.5</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5572,14 +5338,8 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>9715</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5589,22 +5349,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>9710</v>
+        <v>9735</v>
       </c>
       <c r="C142" t="n">
-        <v>9705</v>
+        <v>9735</v>
       </c>
       <c r="D142" t="n">
-        <v>9710</v>
+        <v>9735</v>
       </c>
       <c r="E142" t="n">
-        <v>9700</v>
+        <v>9735</v>
       </c>
       <c r="F142" t="n">
-        <v>18</v>
+        <v>0.20287621</v>
       </c>
       <c r="G142" t="n">
-        <v>9722.5</v>
+        <v>9720.416666666666</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5613,14 +5373,8 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>9715</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5630,22 +5384,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>9705</v>
+        <v>9710</v>
       </c>
       <c r="C143" t="n">
         <v>9705</v>
       </c>
       <c r="D143" t="n">
-        <v>9705</v>
+        <v>9710</v>
       </c>
       <c r="E143" t="n">
-        <v>9705</v>
+        <v>9700</v>
       </c>
       <c r="F143" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="G143" t="n">
-        <v>9723.75</v>
+        <v>9718.666666666666</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5654,14 +5408,8 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>9715</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5671,22 +5419,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>9700</v>
+        <v>9705</v>
       </c>
       <c r="C144" t="n">
-        <v>9700</v>
+        <v>9705</v>
       </c>
       <c r="D144" t="n">
-        <v>9700</v>
+        <v>9705</v>
       </c>
       <c r="E144" t="n">
-        <v>9700</v>
+        <v>9705</v>
       </c>
       <c r="F144" t="n">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="G144" t="n">
-        <v>9722.25</v>
+        <v>9718.166666666666</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5695,14 +5443,8 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>9715</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5712,22 +5454,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>9720</v>
+        <v>9700</v>
       </c>
       <c r="C145" t="n">
-        <v>9720</v>
+        <v>9700</v>
       </c>
       <c r="D145" t="n">
-        <v>9720</v>
+        <v>9700</v>
       </c>
       <c r="E145" t="n">
-        <v>9720</v>
+        <v>9700</v>
       </c>
       <c r="F145" t="n">
-        <v>4.773</v>
+        <v>0.2</v>
       </c>
       <c r="G145" t="n">
-        <v>9722.25</v>
+        <v>9717.166666666666</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5736,14 +5478,8 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>9715</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5753,22 +5489,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>9705</v>
+        <v>9720</v>
       </c>
       <c r="C146" t="n">
-        <v>9705</v>
+        <v>9720</v>
       </c>
       <c r="D146" t="n">
-        <v>9705</v>
+        <v>9720</v>
       </c>
       <c r="E146" t="n">
-        <v>9705</v>
+        <v>9720</v>
       </c>
       <c r="F146" t="n">
-        <v>4.3706</v>
+        <v>4.773</v>
       </c>
       <c r="G146" t="n">
-        <v>9721.75</v>
+        <v>9716.583333333334</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5777,14 +5513,8 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>9715</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5797,19 +5527,19 @@
         <v>9705</v>
       </c>
       <c r="C147" t="n">
-        <v>9700</v>
+        <v>9705</v>
       </c>
       <c r="D147" t="n">
         <v>9705</v>
       </c>
       <c r="E147" t="n">
-        <v>9700</v>
+        <v>9705</v>
       </c>
       <c r="F147" t="n">
-        <v>52.1211</v>
+        <v>4.3706</v>
       </c>
       <c r="G147" t="n">
-        <v>9719.75</v>
+        <v>9715.916666666666</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5818,14 +5548,8 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>9715</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5835,22 +5559,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>9700</v>
+        <v>9705</v>
       </c>
       <c r="C148" t="n">
         <v>9700</v>
       </c>
       <c r="D148" t="n">
-        <v>9700</v>
+        <v>9705</v>
       </c>
       <c r="E148" t="n">
         <v>9700</v>
       </c>
       <c r="F148" t="n">
-        <v>5</v>
+        <v>52.1211</v>
       </c>
       <c r="G148" t="n">
-        <v>9717.75</v>
+        <v>9715.583333333334</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5859,14 +5583,8 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>9715</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5876,22 +5594,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>9750</v>
+        <v>9700</v>
       </c>
       <c r="C149" t="n">
-        <v>9705</v>
+        <v>9700</v>
       </c>
       <c r="D149" t="n">
-        <v>9750</v>
+        <v>9700</v>
       </c>
       <c r="E149" t="n">
-        <v>9705</v>
+        <v>9700</v>
       </c>
       <c r="F149" t="n">
-        <v>53.282</v>
+        <v>5</v>
       </c>
       <c r="G149" t="n">
-        <v>9718</v>
+        <v>9715.333333333334</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5900,14 +5618,8 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>9715</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5917,22 +5629,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>9760</v>
+        <v>9750</v>
       </c>
       <c r="C150" t="n">
-        <v>9760</v>
+        <v>9705</v>
       </c>
       <c r="D150" t="n">
-        <v>9760</v>
+        <v>9750</v>
       </c>
       <c r="E150" t="n">
-        <v>9760</v>
+        <v>9705</v>
       </c>
       <c r="F150" t="n">
-        <v>99.2632</v>
+        <v>53.282</v>
       </c>
       <c r="G150" t="n">
-        <v>9721.75</v>
+        <v>9715.25</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5941,14 +5653,8 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>9715</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -5970,10 +5676,10 @@
         <v>9760</v>
       </c>
       <c r="F151" t="n">
-        <v>39.4</v>
+        <v>99.2632</v>
       </c>
       <c r="G151" t="n">
-        <v>9720.5</v>
+        <v>9716.25</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5982,14 +5688,8 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>9715</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -6002,19 +5702,19 @@
         <v>9760</v>
       </c>
       <c r="C152" t="n">
-        <v>9755</v>
+        <v>9760</v>
       </c>
       <c r="D152" t="n">
         <v>9760</v>
       </c>
       <c r="E152" t="n">
-        <v>9755</v>
+        <v>9760</v>
       </c>
       <c r="F152" t="n">
-        <v>6.2271</v>
+        <v>39.4</v>
       </c>
       <c r="G152" t="n">
-        <v>9720</v>
+        <v>9717.916666666666</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -6023,14 +5723,8 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>9715</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -6040,22 +5734,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>9700</v>
+        <v>9760</v>
       </c>
       <c r="C153" t="n">
-        <v>9700</v>
+        <v>9755</v>
       </c>
       <c r="D153" t="n">
-        <v>9700</v>
+        <v>9760</v>
       </c>
       <c r="E153" t="n">
-        <v>9700</v>
+        <v>9755</v>
       </c>
       <c r="F153" t="n">
-        <v>2.1372</v>
+        <v>6.2271</v>
       </c>
       <c r="G153" t="n">
-        <v>9716.5</v>
+        <v>9718.5</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6064,14 +5758,8 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>9715</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6084,19 +5772,19 @@
         <v>9700</v>
       </c>
       <c r="C154" t="n">
-        <v>9755</v>
+        <v>9700</v>
       </c>
       <c r="D154" t="n">
-        <v>9755</v>
+        <v>9700</v>
       </c>
       <c r="E154" t="n">
         <v>9700</v>
       </c>
       <c r="F154" t="n">
-        <v>163.0586</v>
+        <v>2.1372</v>
       </c>
       <c r="G154" t="n">
-        <v>9717.25</v>
+        <v>9718.25</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6105,14 +5793,8 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>9715</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6122,7 +5804,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>9755</v>
+        <v>9700</v>
       </c>
       <c r="C155" t="n">
         <v>9755</v>
@@ -6131,13 +5813,13 @@
         <v>9755</v>
       </c>
       <c r="E155" t="n">
-        <v>9755</v>
+        <v>9700</v>
       </c>
       <c r="F155" t="n">
-        <v>7.1207</v>
+        <v>163.0586</v>
       </c>
       <c r="G155" t="n">
-        <v>9720.25</v>
+        <v>9718.916666666666</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6146,14 +5828,8 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>9715</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6166,19 +5842,19 @@
         <v>9755</v>
       </c>
       <c r="C156" t="n">
-        <v>9760</v>
+        <v>9755</v>
       </c>
       <c r="D156" t="n">
-        <v>9760</v>
+        <v>9755</v>
       </c>
       <c r="E156" t="n">
         <v>9755</v>
       </c>
       <c r="F156" t="n">
-        <v>81.423</v>
+        <v>7.1207</v>
       </c>
       <c r="G156" t="n">
-        <v>9723.25</v>
+        <v>9720.666666666666</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6187,14 +5863,8 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>9715</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6204,7 +5874,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>9760</v>
+        <v>9755</v>
       </c>
       <c r="C157" t="n">
         <v>9760</v>
@@ -6213,13 +5883,13 @@
         <v>9760</v>
       </c>
       <c r="E157" t="n">
-        <v>9760</v>
+        <v>9755</v>
       </c>
       <c r="F157" t="n">
-        <v>100</v>
+        <v>81.423</v>
       </c>
       <c r="G157" t="n">
-        <v>9726.5</v>
+        <v>9722.416666666666</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6228,14 +5898,8 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>9715</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6245,22 +5909,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>9725</v>
+        <v>9760</v>
       </c>
       <c r="C158" t="n">
-        <v>9770</v>
+        <v>9760</v>
       </c>
       <c r="D158" t="n">
-        <v>9770</v>
+        <v>9760</v>
       </c>
       <c r="E158" t="n">
-        <v>9720</v>
+        <v>9760</v>
       </c>
       <c r="F158" t="n">
-        <v>85.581</v>
+        <v>100</v>
       </c>
       <c r="G158" t="n">
-        <v>9728.25</v>
+        <v>9723.916666666666</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6269,14 +5933,8 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>9715</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6286,22 +5944,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>9780</v>
+        <v>9725</v>
       </c>
       <c r="C159" t="n">
-        <v>9720</v>
+        <v>9770</v>
       </c>
       <c r="D159" t="n">
-        <v>9780</v>
+        <v>9770</v>
       </c>
       <c r="E159" t="n">
         <v>9720</v>
       </c>
       <c r="F159" t="n">
-        <v>6.0005</v>
+        <v>85.581</v>
       </c>
       <c r="G159" t="n">
-        <v>9731</v>
+        <v>9725.583333333334</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6310,14 +5968,8 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>9715</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6327,22 +5979,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>9725</v>
+        <v>9780</v>
       </c>
       <c r="C160" t="n">
-        <v>9780</v>
+        <v>9720</v>
       </c>
       <c r="D160" t="n">
         <v>9780</v>
       </c>
       <c r="E160" t="n">
-        <v>9725</v>
+        <v>9720</v>
       </c>
       <c r="F160" t="n">
-        <v>0.2714</v>
+        <v>6.0005</v>
       </c>
       <c r="G160" t="n">
-        <v>9730.5</v>
+        <v>9726.416666666666</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6351,14 +6003,8 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>9715</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6368,7 +6014,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>9780</v>
+        <v>9725</v>
       </c>
       <c r="C161" t="n">
         <v>9780</v>
@@ -6377,13 +6023,13 @@
         <v>9780</v>
       </c>
       <c r="E161" t="n">
-        <v>9780</v>
+        <v>9725</v>
       </c>
       <c r="F161" t="n">
-        <v>28.5208</v>
+        <v>0.2714</v>
       </c>
       <c r="G161" t="n">
-        <v>9732.75</v>
+        <v>9727.666666666666</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6392,14 +6038,8 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>9715</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6409,22 +6049,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>9760</v>
+        <v>9780</v>
       </c>
       <c r="C162" t="n">
-        <v>9760</v>
+        <v>9780</v>
       </c>
       <c r="D162" t="n">
-        <v>9760</v>
+        <v>9780</v>
       </c>
       <c r="E162" t="n">
-        <v>9760</v>
+        <v>9780</v>
       </c>
       <c r="F162" t="n">
-        <v>53.1216</v>
+        <v>28.5208</v>
       </c>
       <c r="G162" t="n">
-        <v>9735.25</v>
+        <v>9728.833333333334</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6433,14 +6073,8 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>9715</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6450,22 +6084,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>9725</v>
+        <v>9760</v>
       </c>
       <c r="C163" t="n">
-        <v>9725</v>
+        <v>9760</v>
       </c>
       <c r="D163" t="n">
-        <v>9725</v>
+        <v>9760</v>
       </c>
       <c r="E163" t="n">
-        <v>9725</v>
+        <v>9760</v>
       </c>
       <c r="F163" t="n">
-        <v>0.1919</v>
+        <v>53.1216</v>
       </c>
       <c r="G163" t="n">
-        <v>9736.25</v>
+        <v>9729.583333333334</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6474,14 +6108,8 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>9715</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6491,22 +6119,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>9785</v>
+        <v>9725</v>
       </c>
       <c r="C164" t="n">
-        <v>9785</v>
+        <v>9725</v>
       </c>
       <c r="D164" t="n">
-        <v>9785</v>
+        <v>9725</v>
       </c>
       <c r="E164" t="n">
-        <v>9785</v>
+        <v>9725</v>
       </c>
       <c r="F164" t="n">
-        <v>352.5961</v>
+        <v>0.1919</v>
       </c>
       <c r="G164" t="n">
-        <v>9740.5</v>
+        <v>9729.75</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6515,14 +6143,8 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>9715</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6544,10 +6166,10 @@
         <v>9785</v>
       </c>
       <c r="F165" t="n">
-        <v>100</v>
+        <v>352.5961</v>
       </c>
       <c r="G165" t="n">
-        <v>9743.75</v>
+        <v>9730.25</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6556,14 +6178,8 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>9715</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6585,10 +6201,10 @@
         <v>9785</v>
       </c>
       <c r="F166" t="n">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="G166" t="n">
-        <v>9747.75</v>
+        <v>9730.75</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6597,14 +6213,8 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>9715</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6614,22 +6224,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>9765</v>
+        <v>9785</v>
       </c>
       <c r="C167" t="n">
-        <v>9765</v>
+        <v>9785</v>
       </c>
       <c r="D167" t="n">
-        <v>9770</v>
+        <v>9785</v>
       </c>
       <c r="E167" t="n">
-        <v>9765</v>
+        <v>9785</v>
       </c>
       <c r="F167" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G167" t="n">
-        <v>9750.75</v>
+        <v>9732</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6638,14 +6248,8 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>9715</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6655,22 +6259,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>9785</v>
+        <v>9765</v>
       </c>
       <c r="C168" t="n">
-        <v>9785</v>
+        <v>9765</v>
       </c>
       <c r="D168" t="n">
-        <v>9785</v>
+        <v>9770</v>
       </c>
       <c r="E168" t="n">
-        <v>9785</v>
+        <v>9765</v>
       </c>
       <c r="F168" t="n">
         <v>12</v>
       </c>
       <c r="G168" t="n">
-        <v>9755</v>
+        <v>9732.916666666666</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6679,14 +6283,8 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>9715</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6696,22 +6294,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>9795</v>
+        <v>9785</v>
       </c>
       <c r="C169" t="n">
-        <v>9810</v>
+        <v>9785</v>
       </c>
       <c r="D169" t="n">
-        <v>9820</v>
+        <v>9785</v>
       </c>
       <c r="E169" t="n">
-        <v>9735</v>
+        <v>9785</v>
       </c>
       <c r="F169" t="n">
-        <v>218</v>
+        <v>12</v>
       </c>
       <c r="G169" t="n">
-        <v>9757.25</v>
+        <v>9733.583333333334</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6720,14 +6318,8 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>9715</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6737,22 +6329,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>9740</v>
+        <v>9795</v>
       </c>
       <c r="C170" t="n">
-        <v>9720</v>
+        <v>9810</v>
       </c>
       <c r="D170" t="n">
-        <v>9740</v>
+        <v>9820</v>
       </c>
       <c r="E170" t="n">
-        <v>9720</v>
+        <v>9735</v>
       </c>
       <c r="F170" t="n">
-        <v>48</v>
+        <v>218</v>
       </c>
       <c r="G170" t="n">
-        <v>9756.25</v>
+        <v>9734.416666666666</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6761,14 +6353,8 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>9715</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6778,22 +6364,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
+        <v>9740</v>
+      </c>
+      <c r="C171" t="n">
         <v>9720</v>
       </c>
-      <c r="C171" t="n">
-        <v>9705</v>
-      </c>
       <c r="D171" t="n">
-        <v>9735</v>
+        <v>9740</v>
       </c>
       <c r="E171" t="n">
-        <v>9705</v>
+        <v>9720</v>
       </c>
       <c r="F171" t="n">
-        <v>65.2366</v>
+        <v>48</v>
       </c>
       <c r="G171" t="n">
-        <v>9754.25</v>
+        <v>9733.833333333334</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6802,14 +6388,8 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>9715</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6819,22 +6399,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>9745</v>
+        <v>9720</v>
       </c>
       <c r="C172" t="n">
-        <v>9770</v>
+        <v>9705</v>
       </c>
       <c r="D172" t="n">
-        <v>9770</v>
+        <v>9735</v>
       </c>
       <c r="E172" t="n">
-        <v>9745</v>
+        <v>9705</v>
       </c>
       <c r="F172" t="n">
-        <v>43.5642</v>
+        <v>65.2366</v>
       </c>
       <c r="G172" t="n">
-        <v>9753.5</v>
+        <v>9733</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6843,14 +6423,8 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>9715</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6860,22 +6434,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>9765</v>
+        <v>9745</v>
       </c>
       <c r="C173" t="n">
-        <v>9700</v>
+        <v>9770</v>
       </c>
       <c r="D173" t="n">
-        <v>9765</v>
+        <v>9770</v>
       </c>
       <c r="E173" t="n">
-        <v>9700</v>
+        <v>9745</v>
       </c>
       <c r="F173" t="n">
-        <v>81.3747</v>
+        <v>43.5642</v>
       </c>
       <c r="G173" t="n">
-        <v>9756.75</v>
+        <v>9733.166666666666</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6884,14 +6458,8 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>9715</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6901,22 +6469,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>9715</v>
+        <v>9765</v>
       </c>
       <c r="C174" t="n">
-        <v>9685</v>
+        <v>9700</v>
       </c>
       <c r="D174" t="n">
-        <v>9715</v>
+        <v>9765</v>
       </c>
       <c r="E174" t="n">
-        <v>9685</v>
+        <v>9700</v>
       </c>
       <c r="F174" t="n">
-        <v>181</v>
+        <v>81.3747</v>
       </c>
       <c r="G174" t="n">
-        <v>9757.5</v>
+        <v>9732.25</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6925,14 +6493,8 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>9715</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6942,22 +6504,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
+        <v>9715</v>
+      </c>
+      <c r="C175" t="n">
         <v>9685</v>
       </c>
-      <c r="C175" t="n">
-        <v>9735</v>
-      </c>
       <c r="D175" t="n">
-        <v>9735</v>
+        <v>9715</v>
       </c>
       <c r="E175" t="n">
         <v>9685</v>
       </c>
       <c r="F175" t="n">
-        <v>22.5827</v>
+        <v>181</v>
       </c>
       <c r="G175" t="n">
-        <v>9754</v>
+        <v>9731.083333333334</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6966,14 +6528,8 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>9715</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -6983,22 +6539,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>9760</v>
+        <v>9685</v>
       </c>
       <c r="C176" t="n">
-        <v>9820</v>
+        <v>9735</v>
       </c>
       <c r="D176" t="n">
-        <v>9820</v>
+        <v>9735</v>
       </c>
       <c r="E176" t="n">
-        <v>9760</v>
+        <v>9685</v>
       </c>
       <c r="F176" t="n">
-        <v>394.3674</v>
+        <v>22.5827</v>
       </c>
       <c r="G176" t="n">
-        <v>9754.25</v>
+        <v>9730.75</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -7007,14 +6563,8 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>9715</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -7024,22 +6574,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>9725</v>
+        <v>9760</v>
       </c>
       <c r="C177" t="n">
-        <v>9720</v>
+        <v>9820</v>
       </c>
       <c r="D177" t="n">
-        <v>9725</v>
+        <v>9820</v>
       </c>
       <c r="E177" t="n">
-        <v>9720</v>
+        <v>9760</v>
       </c>
       <c r="F177" t="n">
-        <v>18.3</v>
+        <v>394.3674</v>
       </c>
       <c r="G177" t="n">
-        <v>9752.5</v>
+        <v>9731.833333333334</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -7048,14 +6598,8 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>9715</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -7065,22 +6609,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>9710</v>
+        <v>9725</v>
       </c>
       <c r="C178" t="n">
-        <v>9710</v>
+        <v>9720</v>
       </c>
       <c r="D178" t="n">
-        <v>9710</v>
+        <v>9725</v>
       </c>
       <c r="E178" t="n">
-        <v>9710</v>
+        <v>9720</v>
       </c>
       <c r="F178" t="n">
-        <v>12.1109</v>
+        <v>18.3</v>
       </c>
       <c r="G178" t="n">
-        <v>9751.75</v>
+        <v>9732.083333333334</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -7089,14 +6633,8 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>9715</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -7106,22 +6644,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>9820</v>
+        <v>9710</v>
       </c>
       <c r="C179" t="n">
-        <v>9820</v>
+        <v>9710</v>
       </c>
       <c r="D179" t="n">
-        <v>9820</v>
+        <v>9710</v>
       </c>
       <c r="E179" t="n">
-        <v>9820</v>
+        <v>9710</v>
       </c>
       <c r="F179" t="n">
-        <v>25.49297352</v>
+        <v>12.1109</v>
       </c>
       <c r="G179" t="n">
-        <v>9753.75</v>
+        <v>9732.166666666666</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -7130,14 +6668,8 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>9715</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -7147,22 +6679,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>9840</v>
+        <v>9820</v>
       </c>
       <c r="C180" t="n">
-        <v>9845</v>
+        <v>9820</v>
       </c>
       <c r="D180" t="n">
-        <v>9845</v>
+        <v>9820</v>
       </c>
       <c r="E180" t="n">
-        <v>9840</v>
+        <v>9820</v>
       </c>
       <c r="F180" t="n">
-        <v>24.36378872</v>
+        <v>25.49297352</v>
       </c>
       <c r="G180" t="n">
-        <v>9759.5</v>
+        <v>9734.583333333334</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -7171,14 +6703,8 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>9715</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -7188,7 +6714,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>9720</v>
+        <v>9840</v>
       </c>
       <c r="C181" t="n">
         <v>9845</v>
@@ -7197,13 +6723,13 @@
         <v>9845</v>
       </c>
       <c r="E181" t="n">
-        <v>9690</v>
+        <v>9840</v>
       </c>
       <c r="F181" t="n">
-        <v>190.6574</v>
+        <v>24.36378872</v>
       </c>
       <c r="G181" t="n">
-        <v>9756.5</v>
+        <v>9737.333333333334</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -7212,14 +6738,8 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>9715</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -7229,22 +6749,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>9700</v>
+        <v>9720</v>
       </c>
       <c r="C182" t="n">
-        <v>9700</v>
+        <v>9845</v>
       </c>
       <c r="D182" t="n">
-        <v>9700</v>
+        <v>9845</v>
       </c>
       <c r="E182" t="n">
-        <v>9700</v>
+        <v>9690</v>
       </c>
       <c r="F182" t="n">
-        <v>123.4355</v>
+        <v>190.6574</v>
       </c>
       <c r="G182" t="n">
-        <v>9753.5</v>
+        <v>9740.083333333334</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -7253,14 +6773,8 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>9715</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -7270,22 +6784,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>9695</v>
+        <v>9700</v>
       </c>
       <c r="C183" t="n">
-        <v>9695</v>
+        <v>9700</v>
       </c>
       <c r="D183" t="n">
-        <v>9695</v>
+        <v>9700</v>
       </c>
       <c r="E183" t="n">
-        <v>9695</v>
+        <v>9700</v>
       </c>
       <c r="F183" t="n">
-        <v>8.044600000000001</v>
+        <v>123.4355</v>
       </c>
       <c r="G183" t="n">
-        <v>9752</v>
+        <v>9740.416666666666</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -7294,14 +6808,8 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>9715</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7311,22 +6819,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>9690</v>
+        <v>9695</v>
       </c>
       <c r="C184" t="n">
-        <v>9690</v>
+        <v>9695</v>
       </c>
       <c r="D184" t="n">
-        <v>9690</v>
+        <v>9695</v>
       </c>
       <c r="E184" t="n">
-        <v>9690</v>
+        <v>9695</v>
       </c>
       <c r="F184" t="n">
-        <v>2.4</v>
+        <v>8.044600000000001</v>
       </c>
       <c r="G184" t="n">
-        <v>9747.25</v>
+        <v>9740.666666666666</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7335,14 +6843,8 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>9715</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7352,22 +6854,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>9745</v>
+        <v>9690</v>
       </c>
       <c r="C185" t="n">
-        <v>9745</v>
+        <v>9690</v>
       </c>
       <c r="D185" t="n">
-        <v>9745</v>
+        <v>9690</v>
       </c>
       <c r="E185" t="n">
-        <v>9745</v>
+        <v>9690</v>
       </c>
       <c r="F185" t="n">
-        <v>11.2704</v>
+        <v>2.4</v>
       </c>
       <c r="G185" t="n">
-        <v>9745.25</v>
+        <v>9740</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7376,14 +6878,8 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>9715</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7405,10 +6901,10 @@
         <v>9745</v>
       </c>
       <c r="F186" t="n">
-        <v>11.6789</v>
+        <v>11.2704</v>
       </c>
       <c r="G186" t="n">
-        <v>9743.25</v>
+        <v>9740.416666666666</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7417,14 +6913,8 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>9715</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7434,22 +6924,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>9695</v>
+        <v>9745</v>
       </c>
       <c r="C187" t="n">
-        <v>9695</v>
+        <v>9745</v>
       </c>
       <c r="D187" t="n">
-        <v>9695</v>
+        <v>9745</v>
       </c>
       <c r="E187" t="n">
-        <v>9695</v>
+        <v>9745</v>
       </c>
       <c r="F187" t="n">
-        <v>20</v>
+        <v>11.6789</v>
       </c>
       <c r="G187" t="n">
-        <v>9739.75</v>
+        <v>9740.333333333334</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7458,14 +6948,8 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>9715</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7478,19 +6962,19 @@
         <v>9695</v>
       </c>
       <c r="C188" t="n">
-        <v>9700</v>
+        <v>9695</v>
       </c>
       <c r="D188" t="n">
-        <v>9700</v>
+        <v>9695</v>
       </c>
       <c r="E188" t="n">
         <v>9695</v>
       </c>
       <c r="F188" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="G188" t="n">
-        <v>9735.25</v>
+        <v>9739.5</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7499,14 +6983,8 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>9715</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7516,22 +6994,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>9730</v>
+        <v>9695</v>
       </c>
       <c r="C189" t="n">
-        <v>9730</v>
+        <v>9700</v>
       </c>
       <c r="D189" t="n">
-        <v>9730</v>
+        <v>9700</v>
       </c>
       <c r="E189" t="n">
-        <v>9730</v>
+        <v>9695</v>
       </c>
       <c r="F189" t="n">
-        <v>4.9297</v>
+        <v>2</v>
       </c>
       <c r="G189" t="n">
-        <v>9732</v>
+        <v>9739.75</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7540,14 +7018,8 @@
         <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>9715</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7557,22 +7029,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>9745</v>
+        <v>9730</v>
       </c>
       <c r="C190" t="n">
-        <v>9745</v>
+        <v>9730</v>
       </c>
       <c r="D190" t="n">
-        <v>9745</v>
+        <v>9730</v>
       </c>
       <c r="E190" t="n">
-        <v>9745</v>
+        <v>9730</v>
       </c>
       <c r="F190" t="n">
-        <v>6.9779</v>
+        <v>4.9297</v>
       </c>
       <c r="G190" t="n">
-        <v>9732.25</v>
+        <v>9739.416666666666</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7581,14 +7053,8 @@
         <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>9715</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7598,22 +7064,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>9705</v>
+        <v>9745</v>
       </c>
       <c r="C191" t="n">
-        <v>9705</v>
+        <v>9745</v>
       </c>
       <c r="D191" t="n">
-        <v>9705</v>
+        <v>9745</v>
       </c>
       <c r="E191" t="n">
-        <v>9705</v>
+        <v>9745</v>
       </c>
       <c r="F191" t="n">
-        <v>0.101</v>
+        <v>6.9779</v>
       </c>
       <c r="G191" t="n">
-        <v>9731.5</v>
+        <v>9739.333333333334</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7622,14 +7088,8 @@
         <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>9715</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7639,22 +7099,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>9820</v>
+        <v>9705</v>
       </c>
       <c r="C192" t="n">
-        <v>9820</v>
+        <v>9705</v>
       </c>
       <c r="D192" t="n">
-        <v>9820</v>
+        <v>9705</v>
       </c>
       <c r="E192" t="n">
-        <v>9820</v>
+        <v>9705</v>
       </c>
       <c r="F192" t="n">
-        <v>3.055</v>
+        <v>0.101</v>
       </c>
       <c r="G192" t="n">
-        <v>9735.25</v>
+        <v>9738</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7663,14 +7123,8 @@
         <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>9715</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7680,22 +7134,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>9715</v>
+        <v>9820</v>
       </c>
       <c r="C193" t="n">
-        <v>9710</v>
+        <v>9820</v>
       </c>
       <c r="D193" t="n">
-        <v>9715</v>
+        <v>9820</v>
       </c>
       <c r="E193" t="n">
-        <v>9710</v>
+        <v>9820</v>
       </c>
       <c r="F193" t="n">
-        <v>266.9603</v>
+        <v>3.055</v>
       </c>
       <c r="G193" t="n">
-        <v>9732.75</v>
+        <v>9738.833333333334</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7704,14 +7158,8 @@
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>9715</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7721,22 +7169,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>9705</v>
+        <v>9715</v>
       </c>
       <c r="C194" t="n">
-        <v>9690</v>
+        <v>9710</v>
       </c>
       <c r="D194" t="n">
-        <v>9705</v>
+        <v>9715</v>
       </c>
       <c r="E194" t="n">
-        <v>9690</v>
+        <v>9710</v>
       </c>
       <c r="F194" t="n">
-        <v>174.1726</v>
+        <v>266.9603</v>
       </c>
       <c r="G194" t="n">
-        <v>9732.25</v>
+        <v>9737.833333333334</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7745,14 +7193,8 @@
         <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>9715</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7762,22 +7204,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>9695</v>
+        <v>9705</v>
       </c>
       <c r="C195" t="n">
-        <v>9600</v>
+        <v>9690</v>
       </c>
       <c r="D195" t="n">
-        <v>9695</v>
+        <v>9705</v>
       </c>
       <c r="E195" t="n">
-        <v>9600</v>
+        <v>9690</v>
       </c>
       <c r="F195" t="n">
-        <v>181</v>
+        <v>174.1726</v>
       </c>
       <c r="G195" t="n">
-        <v>9732.75</v>
+        <v>9737.916666666666</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7786,14 +7228,8 @@
         <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>9715</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7803,22 +7239,22 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>9605</v>
+        <v>9695</v>
       </c>
       <c r="C196" t="n">
-        <v>9605</v>
+        <v>9600</v>
       </c>
       <c r="D196" t="n">
-        <v>9605</v>
+        <v>9695</v>
       </c>
       <c r="E196" t="n">
-        <v>9605</v>
+        <v>9600</v>
       </c>
       <c r="F196" t="n">
-        <v>35.311</v>
+        <v>181</v>
       </c>
       <c r="G196" t="n">
-        <v>9725</v>
+        <v>9736.333333333334</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7827,14 +7263,8 @@
         <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>9715</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7844,22 +7274,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>9780</v>
+        <v>9605</v>
       </c>
       <c r="C197" t="n">
-        <v>9635</v>
+        <v>9605</v>
       </c>
       <c r="D197" t="n">
-        <v>9780</v>
+        <v>9605</v>
       </c>
       <c r="E197" t="n">
-        <v>9635</v>
+        <v>9605</v>
       </c>
       <c r="F197" t="n">
-        <v>8.101599999999999</v>
+        <v>35.311</v>
       </c>
       <c r="G197" t="n">
-        <v>9727.75</v>
+        <v>9734.833333333334</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7868,14 +7298,8 @@
         <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>9715</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7885,22 +7309,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>9650</v>
+        <v>9780</v>
       </c>
       <c r="C198" t="n">
-        <v>9655</v>
+        <v>9635</v>
       </c>
       <c r="D198" t="n">
-        <v>9655</v>
+        <v>9780</v>
       </c>
       <c r="E198" t="n">
-        <v>9650</v>
+        <v>9635</v>
       </c>
       <c r="F198" t="n">
-        <v>8</v>
+        <v>8.101599999999999</v>
       </c>
       <c r="G198" t="n">
-        <v>9724.75</v>
+        <v>9734</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7909,14 +7333,8 @@
         <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>9715</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7926,22 +7344,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>9620</v>
+        <v>9650</v>
       </c>
       <c r="C199" t="n">
-        <v>9620</v>
+        <v>9655</v>
       </c>
       <c r="D199" t="n">
-        <v>9620</v>
+        <v>9655</v>
       </c>
       <c r="E199" t="n">
-        <v>9620</v>
+        <v>9650</v>
       </c>
       <c r="F199" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G199" t="n">
-        <v>9714.75</v>
+        <v>9733.25</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7950,14 +7368,8 @@
         <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>9715</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7982,7 +7394,7 @@
         <v>10</v>
       </c>
       <c r="G200" t="n">
-        <v>9703.75</v>
+        <v>9732.083333333334</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7991,14 +7403,8 @@
         <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>9715</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -8023,7 +7429,7 @@
         <v>10</v>
       </c>
       <c r="G201" t="n">
-        <v>9698.75</v>
+        <v>9730.166666666666</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -8032,14 +7438,8 @@
         <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>9715</v>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -8049,22 +7449,22 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>9695</v>
+        <v>9620</v>
       </c>
       <c r="C202" t="n">
-        <v>9695</v>
+        <v>9620</v>
       </c>
       <c r="D202" t="n">
-        <v>9695</v>
+        <v>9620</v>
       </c>
       <c r="E202" t="n">
-        <v>9695</v>
+        <v>9620</v>
       </c>
       <c r="F202" t="n">
-        <v>1.0412</v>
+        <v>10</v>
       </c>
       <c r="G202" t="n">
-        <v>9698.5</v>
+        <v>9728.25</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -8073,14 +7473,8 @@
         <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>9715</v>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -8090,22 +7484,22 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>9680</v>
+        <v>9695</v>
       </c>
       <c r="C203" t="n">
-        <v>9680</v>
+        <v>9695</v>
       </c>
       <c r="D203" t="n">
-        <v>9680</v>
+        <v>9695</v>
       </c>
       <c r="E203" t="n">
-        <v>9680</v>
+        <v>9695</v>
       </c>
       <c r="F203" t="n">
-        <v>26.9579</v>
+        <v>1.0412</v>
       </c>
       <c r="G203" t="n">
-        <v>9697.75</v>
+        <v>9728.083333333334</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -8114,14 +7508,8 @@
         <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>9715</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -8131,22 +7519,22 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>9675</v>
+        <v>9680</v>
       </c>
       <c r="C204" t="n">
-        <v>9675</v>
+        <v>9680</v>
       </c>
       <c r="D204" t="n">
-        <v>9675</v>
+        <v>9680</v>
       </c>
       <c r="E204" t="n">
-        <v>9675</v>
+        <v>9680</v>
       </c>
       <c r="F204" t="n">
-        <v>10.2311</v>
+        <v>26.9579</v>
       </c>
       <c r="G204" t="n">
-        <v>9697</v>
+        <v>9727.666666666666</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -8155,14 +7543,8 @@
         <v>0</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>9715</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -8172,22 +7554,22 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>9620</v>
+        <v>9675</v>
       </c>
       <c r="C205" t="n">
-        <v>9605</v>
+        <v>9675</v>
       </c>
       <c r="D205" t="n">
-        <v>9625</v>
+        <v>9675</v>
       </c>
       <c r="E205" t="n">
-        <v>9605</v>
+        <v>9675</v>
       </c>
       <c r="F205" t="n">
-        <v>85.4782</v>
+        <v>10.2311</v>
       </c>
       <c r="G205" t="n">
-        <v>9690.75</v>
+        <v>9727.25</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -8196,14 +7578,8 @@
         <v>0</v>
       </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>9715</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -8213,22 +7589,22 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>9650</v>
+        <v>9620</v>
       </c>
       <c r="C206" t="n">
-        <v>9650</v>
+        <v>9605</v>
       </c>
       <c r="D206" t="n">
-        <v>9650</v>
+        <v>9625</v>
       </c>
       <c r="E206" t="n">
-        <v>9650</v>
+        <v>9605</v>
       </c>
       <c r="F206" t="n">
-        <v>0.4788</v>
+        <v>85.4782</v>
       </c>
       <c r="G206" t="n">
-        <v>9686</v>
+        <v>9725.333333333334</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -8237,14 +7613,8 @@
         <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>9715</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -8254,22 +7624,22 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>9680</v>
+        <v>9650</v>
       </c>
       <c r="C207" t="n">
-        <v>9680</v>
+        <v>9650</v>
       </c>
       <c r="D207" t="n">
-        <v>9680</v>
+        <v>9650</v>
       </c>
       <c r="E207" t="n">
-        <v>9680</v>
+        <v>9650</v>
       </c>
       <c r="F207" t="n">
-        <v>1.5197</v>
+        <v>0.4788</v>
       </c>
       <c r="G207" t="n">
-        <v>9685.25</v>
+        <v>9724.416666666666</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -8278,14 +7648,8 @@
         <v>0</v>
       </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>9715</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -8295,22 +7659,22 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>9615</v>
+        <v>9680</v>
       </c>
       <c r="C208" t="n">
-        <v>9615</v>
+        <v>9680</v>
       </c>
       <c r="D208" t="n">
-        <v>9615</v>
+        <v>9680</v>
       </c>
       <c r="E208" t="n">
-        <v>9615</v>
+        <v>9680</v>
       </c>
       <c r="F208" t="n">
-        <v>0.1312</v>
+        <v>1.5197</v>
       </c>
       <c r="G208" t="n">
-        <v>9681.25</v>
+        <v>9724.083333333334</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -8319,14 +7683,8 @@
         <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>9715</v>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -8348,10 +7706,10 @@
         <v>9615</v>
       </c>
       <c r="F209" t="n">
-        <v>0.4776</v>
+        <v>0.1312</v>
       </c>
       <c r="G209" t="n">
-        <v>9675.5</v>
+        <v>9722.666666666666</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -8360,14 +7718,8 @@
         <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>9715</v>
-      </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -8377,40 +7729,32 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>9700</v>
+        <v>9615</v>
       </c>
       <c r="C210" t="n">
-        <v>9700</v>
+        <v>9615</v>
       </c>
       <c r="D210" t="n">
-        <v>9700</v>
+        <v>9615</v>
       </c>
       <c r="E210" t="n">
-        <v>9700</v>
+        <v>9615</v>
       </c>
       <c r="F210" t="n">
-        <v>0.2268</v>
+        <v>0.4776</v>
       </c>
       <c r="G210" t="n">
-        <v>9673.25</v>
+        <v>9721.166666666666</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="n">
-        <v>9615</v>
-      </c>
-      <c r="K210" t="n">
-        <v>9715</v>
-      </c>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -8432,28 +7776,20 @@
         <v>9700</v>
       </c>
       <c r="F211" t="n">
-        <v>3.0266</v>
+        <v>0.2268</v>
       </c>
       <c r="G211" t="n">
-        <v>9673</v>
+        <v>9720.166666666666</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="n">
-        <v>9700</v>
-      </c>
-      <c r="K211" t="n">
-        <v>9715</v>
-      </c>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -8466,37 +7802,29 @@
         <v>9700</v>
       </c>
       <c r="C212" t="n">
-        <v>9615</v>
+        <v>9700</v>
       </c>
       <c r="D212" t="n">
         <v>9700</v>
       </c>
       <c r="E212" t="n">
-        <v>9615</v>
+        <v>9700</v>
       </c>
       <c r="F212" t="n">
-        <v>104.1742</v>
+        <v>3.0266</v>
       </c>
       <c r="G212" t="n">
-        <v>9667</v>
+        <v>9719.166666666666</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="n">
-        <v>9700</v>
-      </c>
-      <c r="K212" t="n">
-        <v>9715</v>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -8509,19 +7837,19 @@
         <v>9700</v>
       </c>
       <c r="C213" t="n">
-        <v>9700</v>
+        <v>9615</v>
       </c>
       <c r="D213" t="n">
         <v>9700</v>
       </c>
       <c r="E213" t="n">
-        <v>9700</v>
+        <v>9615</v>
       </c>
       <c r="F213" t="n">
-        <v>23.8587</v>
+        <v>104.1742</v>
       </c>
       <c r="G213" t="n">
-        <v>9666.25</v>
+        <v>9716.833333333334</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -8530,14 +7858,8 @@
         <v>0</v>
       </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="n">
-        <v>9715</v>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -8547,7 +7869,7 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>9695</v>
+        <v>9700</v>
       </c>
       <c r="C214" t="n">
         <v>9700</v>
@@ -8556,30 +7878,59 @@
         <v>9700</v>
       </c>
       <c r="E214" t="n">
+        <v>9700</v>
+      </c>
+      <c r="F214" t="n">
+        <v>23.8587</v>
+      </c>
+      <c r="G214" t="n">
+        <v>9716.833333333334</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
+      <c r="M214" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
         <v>9695</v>
       </c>
-      <c r="F214" t="n">
+      <c r="C215" t="n">
+        <v>9700</v>
+      </c>
+      <c r="D215" t="n">
+        <v>9700</v>
+      </c>
+      <c r="E215" t="n">
+        <v>9695</v>
+      </c>
+      <c r="F215" t="n">
         <v>37.92</v>
       </c>
-      <c r="G214" t="n">
-        <v>9665.75</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="n">
-        <v>9715</v>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M214" t="n">
+      <c r="G215" t="n">
+        <v>9715.916666666666</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
+      <c r="M215" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-29 BackTest BTG.xlsx
+++ b/BackTest/2019-10-29 BackTest BTG.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M215"/>
+  <dimension ref="A1:N225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>2</v>
       </c>
       <c r="G2" t="n">
+        <v>9386.333333333334</v>
+      </c>
+      <c r="H2" t="n">
         <v>9357.5</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,27 @@
         <v>14</v>
       </c>
       <c r="G3" t="n">
+        <v>9379.333333333334</v>
+      </c>
+      <c r="H3" t="n">
         <v>9355.75</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>9390</v>
+      </c>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +535,27 @@
         <v>306.0808</v>
       </c>
       <c r="G4" t="n">
+        <v>9372</v>
+      </c>
+      <c r="H4" t="n">
         <v>9354</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>9295</v>
+      </c>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +579,27 @@
         <v>10.0222</v>
       </c>
       <c r="G5" t="n">
+        <v>9367.666666666666</v>
+      </c>
+      <c r="H5" t="n">
         <v>9352.166666666666</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>9295</v>
+      </c>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +623,27 @@
         <v>76.2813</v>
       </c>
       <c r="G6" t="n">
+        <v>9361.333333333334</v>
+      </c>
+      <c r="H6" t="n">
         <v>9350.5</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>9295</v>
+      </c>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +667,27 @@
         <v>1.7455</v>
       </c>
       <c r="G7" t="n">
+        <v>9354.666666666666</v>
+      </c>
+      <c r="H7" t="n">
         <v>9348.833333333334</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>9305</v>
+      </c>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +711,27 @@
         <v>197</v>
       </c>
       <c r="G8" t="n">
+        <v>9347.666666666666</v>
+      </c>
+      <c r="H8" t="n">
         <v>9347.083333333334</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>9305</v>
+      </c>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +755,27 @@
         <v>60</v>
       </c>
       <c r="G9" t="n">
+        <v>9349</v>
+      </c>
+      <c r="H9" t="n">
         <v>9347</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>9300</v>
+      </c>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +799,27 @@
         <v>0.2</v>
       </c>
       <c r="G10" t="n">
+        <v>9347</v>
+      </c>
+      <c r="H10" t="n">
         <v>9346.916666666666</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>9395</v>
+      </c>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +843,25 @@
         <v>61.6766</v>
       </c>
       <c r="G11" t="n">
+        <v>9343</v>
+      </c>
+      <c r="H11" t="n">
         <v>9346.583333333334</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +885,25 @@
         <v>14.6238</v>
       </c>
       <c r="G12" t="n">
+        <v>9344.333333333334</v>
+      </c>
+      <c r="H12" t="n">
         <v>9347.583333333334</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +927,27 @@
         <v>1.1786</v>
       </c>
       <c r="G13" t="n">
+        <v>9346.333333333334</v>
+      </c>
+      <c r="H13" t="n">
         <v>9348.75</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>9395</v>
+      </c>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -871,15 +974,22 @@
         <v>9350</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>9350</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +1013,25 @@
         <v>12.688</v>
       </c>
       <c r="G15" t="n">
+        <v>9354.333333333334</v>
+      </c>
+      <c r="H15" t="n">
         <v>9351.75</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +1055,25 @@
         <v>1.2229</v>
       </c>
       <c r="G16" t="n">
+        <v>9352.666666666666</v>
+      </c>
+      <c r="H16" t="n">
         <v>9352</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1097,25 @@
         <v>3.922</v>
       </c>
       <c r="G17" t="n">
+        <v>9355.666666666666</v>
+      </c>
+      <c r="H17" t="n">
         <v>9353.916666666666</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1139,25 @@
         <v>132.8258</v>
       </c>
       <c r="G18" t="n">
+        <v>9364.666666666666</v>
+      </c>
+      <c r="H18" t="n">
         <v>9355.75</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1181,25 @@
         <v>134.03018105</v>
       </c>
       <c r="G19" t="n">
+        <v>9376.666666666666</v>
+      </c>
+      <c r="H19" t="n">
         <v>9358.333333333334</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1223,25 @@
         <v>83</v>
       </c>
       <c r="G20" t="n">
+        <v>9388.666666666666</v>
+      </c>
+      <c r="H20" t="n">
         <v>9362</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1265,25 @@
         <v>12.8637</v>
       </c>
       <c r="G21" t="n">
+        <v>9399.666666666666</v>
+      </c>
+      <c r="H21" t="n">
         <v>9365.583333333334</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1307,25 @@
         <v>59.6164</v>
       </c>
       <c r="G22" t="n">
+        <v>9413.333333333334</v>
+      </c>
+      <c r="H22" t="n">
         <v>9369.833333333334</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1349,25 @@
         <v>79.42181895</v>
       </c>
       <c r="G23" t="n">
+        <v>9427.666666666666</v>
+      </c>
+      <c r="H23" t="n">
         <v>9373.166666666666</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1391,25 @@
         <v>11.12</v>
       </c>
       <c r="G24" t="n">
+        <v>9440</v>
+      </c>
+      <c r="H24" t="n">
         <v>9377.583333333334</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1433,25 @@
         <v>20.7584</v>
       </c>
       <c r="G25" t="n">
+        <v>9453</v>
+      </c>
+      <c r="H25" t="n">
         <v>9382.083333333334</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1475,25 @@
         <v>8.1351</v>
       </c>
       <c r="G26" t="n">
+        <v>9470.333333333334</v>
+      </c>
+      <c r="H26" t="n">
         <v>9386.083333333334</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1517,25 @@
         <v>1.7769</v>
       </c>
       <c r="G27" t="n">
+        <v>9478.333333333334</v>
+      </c>
+      <c r="H27" t="n">
         <v>9388.5</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1559,25 @@
         <v>4</v>
       </c>
       <c r="G28" t="n">
+        <v>9486.666666666666</v>
+      </c>
+      <c r="H28" t="n">
         <v>9392.25</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1601,25 @@
         <v>4</v>
       </c>
       <c r="G29" t="n">
+        <v>9493</v>
+      </c>
+      <c r="H29" t="n">
         <v>9395.833333333334</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1643,25 @@
         <v>56.6412</v>
       </c>
       <c r="G30" t="n">
+        <v>9498.666666666666</v>
+      </c>
+      <c r="H30" t="n">
         <v>9399.333333333334</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1685,25 @@
         <v>152.0581</v>
       </c>
       <c r="G31" t="n">
+        <v>9510</v>
+      </c>
+      <c r="H31" t="n">
         <v>9402.75</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1727,25 @@
         <v>86.1306</v>
       </c>
       <c r="G32" t="n">
+        <v>9518</v>
+      </c>
+      <c r="H32" t="n">
         <v>9406.916666666666</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1769,25 @@
         <v>0.108</v>
       </c>
       <c r="G33" t="n">
+        <v>9517.333333333334</v>
+      </c>
+      <c r="H33" t="n">
         <v>9408.416666666666</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1811,25 @@
         <v>143.47649685</v>
       </c>
       <c r="G34" t="n">
+        <v>9532.333333333334</v>
+      </c>
+      <c r="H34" t="n">
         <v>9415</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1853,25 @@
         <v>0.2237</v>
       </c>
       <c r="G35" t="n">
+        <v>9533</v>
+      </c>
+      <c r="H35" t="n">
         <v>9418.083333333334</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1895,25 @@
         <v>1227.11089434</v>
       </c>
       <c r="G36" t="n">
+        <v>9536.333333333334</v>
+      </c>
+      <c r="H36" t="n">
         <v>9420.666666666666</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1937,25 @@
         <v>30</v>
       </c>
       <c r="G37" t="n">
+        <v>9537</v>
+      </c>
+      <c r="H37" t="n">
         <v>9423.25</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1979,25 @@
         <v>4.9875</v>
       </c>
       <c r="G38" t="n">
+        <v>9537.666666666666</v>
+      </c>
+      <c r="H38" t="n">
         <v>9425.666666666666</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +2021,25 @@
         <v>0.2539</v>
       </c>
       <c r="G39" t="n">
+        <v>9530</v>
+      </c>
+      <c r="H39" t="n">
         <v>9427</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +2063,25 @@
         <v>27.5299</v>
       </c>
       <c r="G40" t="n">
+        <v>9532.666666666666</v>
+      </c>
+      <c r="H40" t="n">
         <v>9432.166666666666</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +2105,25 @@
         <v>72.5235</v>
       </c>
       <c r="G41" t="n">
+        <v>9536.333333333334</v>
+      </c>
+      <c r="H41" t="n">
         <v>9436.166666666666</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +2147,25 @@
         <v>16.7624</v>
       </c>
       <c r="G42" t="n">
+        <v>9537.333333333334</v>
+      </c>
+      <c r="H42" t="n">
         <v>9439</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2189,25 @@
         <v>1</v>
       </c>
       <c r="G43" t="n">
+        <v>9537.666666666666</v>
+      </c>
+      <c r="H43" t="n">
         <v>9441.833333333334</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2231,25 @@
         <v>68</v>
       </c>
       <c r="G44" t="n">
+        <v>9538.333333333334</v>
+      </c>
+      <c r="H44" t="n">
         <v>9444</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2273,25 @@
         <v>1</v>
       </c>
       <c r="G45" t="n">
+        <v>9539.333333333334</v>
+      </c>
+      <c r="H45" t="n">
         <v>9446.083333333334</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2315,25 @@
         <v>1</v>
       </c>
       <c r="G46" t="n">
+        <v>9540.666666666666</v>
+      </c>
+      <c r="H46" t="n">
         <v>9447.916666666666</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2357,25 @@
         <v>112.5313</v>
       </c>
       <c r="G47" t="n">
+        <v>9539.333333333334</v>
+      </c>
+      <c r="H47" t="n">
         <v>9449.833333333334</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2399,25 @@
         <v>33.115</v>
       </c>
       <c r="G48" t="n">
+        <v>9553</v>
+      </c>
+      <c r="H48" t="n">
         <v>9453.583333333334</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2441,25 @@
         <v>23</v>
       </c>
       <c r="G49" t="n">
+        <v>9542</v>
+      </c>
+      <c r="H49" t="n">
         <v>9455.75</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2483,25 @@
         <v>49.5042</v>
       </c>
       <c r="G50" t="n">
+        <v>9542</v>
+      </c>
+      <c r="H50" t="n">
         <v>9457.833333333334</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2525,25 @@
         <v>237.2597</v>
       </c>
       <c r="G51" t="n">
+        <v>9539.666666666666</v>
+      </c>
+      <c r="H51" t="n">
         <v>9459.25</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2567,25 @@
         <v>116.5</v>
       </c>
       <c r="G52" t="n">
+        <v>9534.666666666666</v>
+      </c>
+      <c r="H52" t="n">
         <v>9459.916666666666</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2609,25 @@
         <v>0.1023</v>
       </c>
       <c r="G53" t="n">
+        <v>9530.333333333334</v>
+      </c>
+      <c r="H53" t="n">
         <v>9460.833333333334</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,22 +2651,25 @@
         <v>0.2027</v>
       </c>
       <c r="G54" t="n">
+        <v>9529.333333333334</v>
+      </c>
+      <c r="H54" t="n">
         <v>9462.083333333334</v>
       </c>
-      <c r="H54" t="n">
-        <v>1</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>9460</v>
-      </c>
-      <c r="K54" t="n">
-        <v>9460</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2307,24 +2693,25 @@
         <v>914.3813</v>
       </c>
       <c r="G55" t="n">
+        <v>9522.666666666666</v>
+      </c>
+      <c r="H55" t="n">
         <v>9463.833333333334</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>9460</v>
-      </c>
-      <c r="L55" t="inlineStr">
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M55" t="n">
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2348,24 +2735,25 @@
         <v>4.9962</v>
       </c>
       <c r="G56" t="n">
+        <v>9517.666666666666</v>
+      </c>
+      <c r="H56" t="n">
         <v>9466.833333333334</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>9460</v>
-      </c>
-      <c r="L56" t="inlineStr">
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M56" t="n">
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2389,18 +2777,25 @@
         <v>310.6624</v>
       </c>
       <c r="G57" t="n">
+        <v>9522</v>
+      </c>
+      <c r="H57" t="n">
         <v>9470.5</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2424,18 +2819,25 @@
         <v>199.81485339</v>
       </c>
       <c r="G58" t="n">
+        <v>9533.333333333334</v>
+      </c>
+      <c r="H58" t="n">
         <v>9476</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2459,18 +2861,25 @@
         <v>557.56754661</v>
       </c>
       <c r="G59" t="n">
+        <v>9540.666666666666</v>
+      </c>
+      <c r="H59" t="n">
         <v>9480.5</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2494,18 +2903,25 @@
         <v>928.8899</v>
       </c>
       <c r="G60" t="n">
+        <v>9558.333333333334</v>
+      </c>
+      <c r="H60" t="n">
         <v>9487.666666666666</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2529,18 +2945,25 @@
         <v>237.3906</v>
       </c>
       <c r="G61" t="n">
+        <v>9577.666666666666</v>
+      </c>
+      <c r="H61" t="n">
         <v>9495.25</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2564,18 +2987,25 @@
         <v>456.0899</v>
       </c>
       <c r="G62" t="n">
+        <v>9599.333333333334</v>
+      </c>
+      <c r="H62" t="n">
         <v>9503.083333333334</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2599,18 +3029,25 @@
         <v>65.40389999999999</v>
       </c>
       <c r="G63" t="n">
+        <v>9617</v>
+      </c>
+      <c r="H63" t="n">
         <v>9513</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2634,18 +3071,25 @@
         <v>283.6213</v>
       </c>
       <c r="G64" t="n">
+        <v>9642</v>
+      </c>
+      <c r="H64" t="n">
         <v>9523.25</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2669,18 +3113,25 @@
         <v>23.8373</v>
       </c>
       <c r="G65" t="n">
+        <v>9670.666666666666</v>
+      </c>
+      <c r="H65" t="n">
         <v>9533.583333333334</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2704,18 +3155,25 @@
         <v>414.4665</v>
       </c>
       <c r="G66" t="n">
+        <v>9700.666666666666</v>
+      </c>
+      <c r="H66" t="n">
         <v>9544.083333333334</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2739,18 +3197,25 @@
         <v>442.2321</v>
       </c>
       <c r="G67" t="n">
+        <v>9733.333333333334</v>
+      </c>
+      <c r="H67" t="n">
         <v>9554.583333333334</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
-        <v>1</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2774,18 +3239,25 @@
         <v>68.379</v>
       </c>
       <c r="G68" t="n">
+        <v>9766</v>
+      </c>
+      <c r="H68" t="n">
         <v>9565.416666666666</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2809,18 +3281,25 @@
         <v>254.9795</v>
       </c>
       <c r="G69" t="n">
+        <v>9796</v>
+      </c>
+      <c r="H69" t="n">
         <v>9573.833333333334</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2844,18 +3323,25 @@
         <v>317.3763</v>
       </c>
       <c r="G70" t="n">
+        <v>9820.666666666666</v>
+      </c>
+      <c r="H70" t="n">
         <v>9582.25</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2879,20 +3365,25 @@
         <v>23</v>
       </c>
       <c r="G71" t="n">
+        <v>9846.333333333334</v>
+      </c>
+      <c r="H71" t="n">
         <v>9592.666666666666</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>1</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2914,18 +3405,21 @@
         <v>100</v>
       </c>
       <c r="G72" t="n">
+        <v>9868.666666666666</v>
+      </c>
+      <c r="H72" t="n">
         <v>9601.583333333334</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>1</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2949,18 +3443,21 @@
         <v>53.441</v>
       </c>
       <c r="G73" t="n">
+        <v>9884.333333333334</v>
+      </c>
+      <c r="H73" t="n">
         <v>9610.5</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>1</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2984,18 +3481,21 @@
         <v>45.22</v>
       </c>
       <c r="G74" t="n">
+        <v>9899.666666666666</v>
+      </c>
+      <c r="H74" t="n">
         <v>9617.916666666666</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>1</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3019,18 +3519,21 @@
         <v>358.4859</v>
       </c>
       <c r="G75" t="n">
+        <v>9904</v>
+      </c>
+      <c r="H75" t="n">
         <v>9625.083333333334</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>1</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3054,18 +3557,21 @@
         <v>310.8737</v>
       </c>
       <c r="G76" t="n">
+        <v>9906.333333333334</v>
+      </c>
+      <c r="H76" t="n">
         <v>9633.666666666666</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>1</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3089,18 +3595,21 @@
         <v>9.742100000000001</v>
       </c>
       <c r="G77" t="n">
+        <v>9903.666666666666</v>
+      </c>
+      <c r="H77" t="n">
         <v>9640.083333333334</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>1</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3124,18 +3633,21 @@
         <v>196.2317</v>
       </c>
       <c r="G78" t="n">
+        <v>9892.666666666666</v>
+      </c>
+      <c r="H78" t="n">
         <v>9645</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>1</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3159,18 +3671,21 @@
         <v>940.4456</v>
       </c>
       <c r="G79" t="n">
+        <v>9890</v>
+      </c>
+      <c r="H79" t="n">
         <v>9651.583333333334</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>1</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3194,18 +3709,21 @@
         <v>30.6849</v>
       </c>
       <c r="G80" t="n">
+        <v>9884</v>
+      </c>
+      <c r="H80" t="n">
         <v>9657.416666666666</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>1</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3229,18 +3747,21 @@
         <v>9.245699999999999</v>
       </c>
       <c r="G81" t="n">
+        <v>9875</v>
+      </c>
+      <c r="H81" t="n">
         <v>9662.916666666666</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>1</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3264,18 +3785,21 @@
         <v>20</v>
       </c>
       <c r="G82" t="n">
+        <v>9866</v>
+      </c>
+      <c r="H82" t="n">
         <v>9667.75</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>1</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3299,18 +3823,21 @@
         <v>214.5929</v>
       </c>
       <c r="G83" t="n">
+        <v>9856.666666666666</v>
+      </c>
+      <c r="H83" t="n">
         <v>9672.666666666666</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>1</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3334,18 +3861,21 @@
         <v>0.16</v>
       </c>
       <c r="G84" t="n">
+        <v>9845.666666666666</v>
+      </c>
+      <c r="H84" t="n">
         <v>9675.25</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>1</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3369,18 +3899,21 @@
         <v>4.7061</v>
       </c>
       <c r="G85" t="n">
+        <v>9836.333333333334</v>
+      </c>
+      <c r="H85" t="n">
         <v>9678.083333333334</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>1</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3404,18 +3937,21 @@
         <v>4.7699</v>
       </c>
       <c r="G86" t="n">
+        <v>9824</v>
+      </c>
+      <c r="H86" t="n">
         <v>9681.083333333334</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>1</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3439,18 +3975,21 @@
         <v>14.8505</v>
       </c>
       <c r="G87" t="n">
+        <v>9811.666666666666</v>
+      </c>
+      <c r="H87" t="n">
         <v>9684.916666666666</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>1</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3474,18 +4013,21 @@
         <v>236.7774</v>
       </c>
       <c r="G88" t="n">
+        <v>9797.333333333334</v>
+      </c>
+      <c r="H88" t="n">
         <v>9688.166666666666</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>1</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3509,18 +4051,21 @@
         <v>96.61799999999999</v>
       </c>
       <c r="G89" t="n">
+        <v>9787</v>
+      </c>
+      <c r="H89" t="n">
         <v>9691.416666666666</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3544,18 +4089,21 @@
         <v>11</v>
       </c>
       <c r="G90" t="n">
+        <v>9776.666666666666</v>
+      </c>
+      <c r="H90" t="n">
         <v>9694.583333333334</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3579,18 +4127,21 @@
         <v>3.6662</v>
       </c>
       <c r="G91" t="n">
+        <v>9766</v>
+      </c>
+      <c r="H91" t="n">
         <v>9697.666666666666</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>1</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3614,18 +4165,21 @@
         <v>49.0698</v>
       </c>
       <c r="G92" t="n">
+        <v>9755.333333333334</v>
+      </c>
+      <c r="H92" t="n">
         <v>9699.416666666666</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>1</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3649,18 +4203,21 @@
         <v>102.98241486</v>
       </c>
       <c r="G93" t="n">
+        <v>9755</v>
+      </c>
+      <c r="H93" t="n">
         <v>9704.416666666666</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3684,18 +4241,21 @@
         <v>51.4668</v>
       </c>
       <c r="G94" t="n">
+        <v>9744.666666666666</v>
+      </c>
+      <c r="H94" t="n">
         <v>9704.666666666666</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3719,18 +4279,21 @@
         <v>1.1257</v>
       </c>
       <c r="G95" t="n">
+        <v>9737.333333333334</v>
+      </c>
+      <c r="H95" t="n">
         <v>9708.5</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3754,18 +4317,21 @@
         <v>172.6037</v>
       </c>
       <c r="G96" t="n">
+        <v>9727.333333333334</v>
+      </c>
+      <c r="H96" t="n">
         <v>9710.666666666666</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3789,18 +4355,21 @@
         <v>320.5363</v>
       </c>
       <c r="G97" t="n">
+        <v>9717.666666666666</v>
+      </c>
+      <c r="H97" t="n">
         <v>9712.916666666666</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3824,18 +4393,21 @@
         <v>213.6265</v>
       </c>
       <c r="G98" t="n">
+        <v>9708.333333333334</v>
+      </c>
+      <c r="H98" t="n">
         <v>9715.333333333334</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3859,18 +4431,21 @@
         <v>83.0073</v>
       </c>
       <c r="G99" t="n">
+        <v>9704</v>
+      </c>
+      <c r="H99" t="n">
         <v>9718.75</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3894,18 +4469,21 @@
         <v>15.2269</v>
       </c>
       <c r="G100" t="n">
+        <v>9698</v>
+      </c>
+      <c r="H100" t="n">
         <v>9719.416666666666</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3929,18 +4507,21 @@
         <v>36.7358</v>
       </c>
       <c r="G101" t="n">
+        <v>9694.666666666666</v>
+      </c>
+      <c r="H101" t="n">
         <v>9720.666666666666</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3964,18 +4545,21 @@
         <v>173.2165</v>
       </c>
       <c r="G102" t="n">
+        <v>9692.333333333334</v>
+      </c>
+      <c r="H102" t="n">
         <v>9723.666666666666</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3999,18 +4583,21 @@
         <v>28.12</v>
       </c>
       <c r="G103" t="n">
+        <v>9692</v>
+      </c>
+      <c r="H103" t="n">
         <v>9726.75</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4034,18 +4621,21 @@
         <v>2</v>
       </c>
       <c r="G104" t="n">
+        <v>9692</v>
+      </c>
+      <c r="H104" t="n">
         <v>9729.833333333334</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4069,18 +4659,21 @@
         <v>345.3237</v>
       </c>
       <c r="G105" t="n">
+        <v>9695</v>
+      </c>
+      <c r="H105" t="n">
         <v>9733.5</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4104,18 +4697,21 @@
         <v>41.5842</v>
       </c>
       <c r="G106" t="n">
+        <v>9698.666666666666</v>
+      </c>
+      <c r="H106" t="n">
         <v>9737.166666666666</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4139,18 +4735,21 @@
         <v>60.5777</v>
       </c>
       <c r="G107" t="n">
+        <v>9702</v>
+      </c>
+      <c r="H107" t="n">
         <v>9740.083333333334</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4174,18 +4773,21 @@
         <v>41.4803</v>
       </c>
       <c r="G108" t="n">
+        <v>9701.333333333334</v>
+      </c>
+      <c r="H108" t="n">
         <v>9741.5</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4209,18 +4811,21 @@
         <v>77.5</v>
       </c>
       <c r="G109" t="n">
+        <v>9703.333333333334</v>
+      </c>
+      <c r="H109" t="n">
         <v>9745</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4244,18 +4849,21 @@
         <v>25.7474</v>
       </c>
       <c r="G110" t="n">
+        <v>9706.333333333334</v>
+      </c>
+      <c r="H110" t="n">
         <v>9749.583333333334</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4279,18 +4887,21 @@
         <v>257.8541</v>
       </c>
       <c r="G111" t="n">
+        <v>9713.333333333334</v>
+      </c>
+      <c r="H111" t="n">
         <v>9754.083333333334</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4314,18 +4925,21 @@
         <v>10</v>
       </c>
       <c r="G112" t="n">
+        <v>9720</v>
+      </c>
+      <c r="H112" t="n">
         <v>9759.25</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4349,18 +4963,21 @@
         <v>4.908</v>
       </c>
       <c r="G113" t="n">
+        <v>9726</v>
+      </c>
+      <c r="H113" t="n">
         <v>9764.25</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4384,18 +5001,21 @@
         <v>24</v>
       </c>
       <c r="G114" t="n">
+        <v>9731.666666666666</v>
+      </c>
+      <c r="H114" t="n">
         <v>9769.333333333334</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4419,18 +5039,21 @@
         <v>58.7236</v>
       </c>
       <c r="G115" t="n">
+        <v>9737.333333333334</v>
+      </c>
+      <c r="H115" t="n">
         <v>9773.083333333334</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4454,18 +5077,21 @@
         <v>35.9819</v>
       </c>
       <c r="G116" t="n">
+        <v>9740.666666666666</v>
+      </c>
+      <c r="H116" t="n">
         <v>9776.416666666666</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4489,18 +5115,21 @@
         <v>2.1897</v>
       </c>
       <c r="G117" t="n">
+        <v>9743.666666666666</v>
+      </c>
+      <c r="H117" t="n">
         <v>9779.083333333334</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4524,18 +5153,21 @@
         <v>2.1333</v>
       </c>
       <c r="G118" t="n">
+        <v>9743</v>
+      </c>
+      <c r="H118" t="n">
         <v>9779.166666666666</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4559,18 +5191,21 @@
         <v>10</v>
       </c>
       <c r="G119" t="n">
+        <v>9742.333333333334</v>
+      </c>
+      <c r="H119" t="n">
         <v>9780.25</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4594,18 +5229,21 @@
         <v>88.4196</v>
       </c>
       <c r="G120" t="n">
+        <v>9737</v>
+      </c>
+      <c r="H120" t="n">
         <v>9778.166666666666</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4629,18 +5267,21 @@
         <v>234.356</v>
       </c>
       <c r="G121" t="n">
+        <v>9732</v>
+      </c>
+      <c r="H121" t="n">
         <v>9775.75</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4664,18 +5305,21 @@
         <v>21.1093</v>
       </c>
       <c r="G122" t="n">
+        <v>9730</v>
+      </c>
+      <c r="H122" t="n">
         <v>9772.75</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4699,18 +5343,21 @@
         <v>4.5609</v>
       </c>
       <c r="G123" t="n">
+        <v>9728</v>
+      </c>
+      <c r="H123" t="n">
         <v>9769.25</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4734,18 +5381,21 @@
         <v>1</v>
       </c>
       <c r="G124" t="n">
+        <v>9723.666666666666</v>
+      </c>
+      <c r="H124" t="n">
         <v>9765.416666666666</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4769,18 +5419,21 @@
         <v>9.161099999999999</v>
       </c>
       <c r="G125" t="n">
+        <v>9721.666666666666</v>
+      </c>
+      <c r="H125" t="n">
         <v>9762.333333333334</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4804,18 +5457,21 @@
         <v>1.7648</v>
       </c>
       <c r="G126" t="n">
+        <v>9719.333333333334</v>
+      </c>
+      <c r="H126" t="n">
         <v>9758.75</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4839,18 +5495,21 @@
         <v>434.2714</v>
       </c>
       <c r="G127" t="n">
+        <v>9719</v>
+      </c>
+      <c r="H127" t="n">
         <v>9755.666666666666</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4874,18 +5533,21 @@
         <v>100.169</v>
       </c>
       <c r="G128" t="n">
+        <v>9718</v>
+      </c>
+      <c r="H128" t="n">
         <v>9752.25</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4909,18 +5571,21 @@
         <v>77.2167</v>
       </c>
       <c r="G129" t="n">
+        <v>9713.333333333334</v>
+      </c>
+      <c r="H129" t="n">
         <v>9748.666666666666</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4944,18 +5609,21 @@
         <v>79.8069</v>
       </c>
       <c r="G130" t="n">
+        <v>9713</v>
+      </c>
+      <c r="H130" t="n">
         <v>9746.166666666666</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4979,18 +5647,21 @@
         <v>8.827</v>
       </c>
       <c r="G131" t="n">
+        <v>9712.666666666666</v>
+      </c>
+      <c r="H131" t="n">
         <v>9743</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5014,18 +5685,21 @@
         <v>20.3072</v>
       </c>
       <c r="G132" t="n">
+        <v>9714.666666666666</v>
+      </c>
+      <c r="H132" t="n">
         <v>9740.583333333334</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5049,18 +5723,21 @@
         <v>15.3168</v>
       </c>
       <c r="G133" t="n">
+        <v>9719</v>
+      </c>
+      <c r="H133" t="n">
         <v>9737.833333333334</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5084,18 +5761,21 @@
         <v>1.419</v>
       </c>
       <c r="G134" t="n">
+        <v>9723.333333333334</v>
+      </c>
+      <c r="H134" t="n">
         <v>9736.166666666666</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5119,18 +5799,21 @@
         <v>0.5162</v>
       </c>
       <c r="G135" t="n">
+        <v>9724</v>
+      </c>
+      <c r="H135" t="n">
         <v>9733.166666666666</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5154,18 +5837,21 @@
         <v>6</v>
       </c>
       <c r="G136" t="n">
+        <v>9725</v>
+      </c>
+      <c r="H136" t="n">
         <v>9730.416666666666</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5189,18 +5875,21 @@
         <v>6</v>
       </c>
       <c r="G137" t="n">
+        <v>9726</v>
+      </c>
+      <c r="H137" t="n">
         <v>9728.333333333334</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5224,18 +5913,21 @@
         <v>100</v>
       </c>
       <c r="G138" t="n">
+        <v>9726.333333333334</v>
+      </c>
+      <c r="H138" t="n">
         <v>9727.666666666666</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5259,18 +5951,21 @@
         <v>4</v>
       </c>
       <c r="G139" t="n">
+        <v>9727.666666666666</v>
+      </c>
+      <c r="H139" t="n">
         <v>9724.833333333334</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5294,18 +5989,21 @@
         <v>148.7719</v>
       </c>
       <c r="G140" t="n">
+        <v>9725</v>
+      </c>
+      <c r="H140" t="n">
         <v>9722.583333333334</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5329,18 +6027,21 @@
         <v>2</v>
       </c>
       <c r="G141" t="n">
+        <v>9726</v>
+      </c>
+      <c r="H141" t="n">
         <v>9721.5</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5364,18 +6065,21 @@
         <v>0.20287621</v>
       </c>
       <c r="G142" t="n">
+        <v>9725</v>
+      </c>
+      <c r="H142" t="n">
         <v>9720.416666666666</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5399,18 +6103,21 @@
         <v>18</v>
       </c>
       <c r="G143" t="n">
+        <v>9722.333333333334</v>
+      </c>
+      <c r="H143" t="n">
         <v>9718.666666666666</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5434,18 +6141,21 @@
         <v>2</v>
       </c>
       <c r="G144" t="n">
+        <v>9723.666666666666</v>
+      </c>
+      <c r="H144" t="n">
         <v>9718.166666666666</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5469,18 +6179,21 @@
         <v>0.2</v>
       </c>
       <c r="G145" t="n">
+        <v>9720.333333333334</v>
+      </c>
+      <c r="H145" t="n">
         <v>9717.166666666666</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5504,18 +6217,21 @@
         <v>4.773</v>
       </c>
       <c r="G146" t="n">
+        <v>9718.333333333334</v>
+      </c>
+      <c r="H146" t="n">
         <v>9716.583333333334</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5539,18 +6255,21 @@
         <v>4.3706</v>
       </c>
       <c r="G147" t="n">
+        <v>9713</v>
+      </c>
+      <c r="H147" t="n">
         <v>9715.916666666666</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5574,18 +6293,21 @@
         <v>52.1211</v>
       </c>
       <c r="G148" t="n">
+        <v>9708.333333333334</v>
+      </c>
+      <c r="H148" t="n">
         <v>9715.583333333334</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5609,18 +6331,21 @@
         <v>5</v>
       </c>
       <c r="G149" t="n">
+        <v>9703.666666666666</v>
+      </c>
+      <c r="H149" t="n">
         <v>9715.333333333334</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5644,18 +6369,21 @@
         <v>53.282</v>
       </c>
       <c r="G150" t="n">
+        <v>9705</v>
+      </c>
+      <c r="H150" t="n">
         <v>9715.25</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5679,18 +6407,21 @@
         <v>99.2632</v>
       </c>
       <c r="G151" t="n">
+        <v>9709.333333333334</v>
+      </c>
+      <c r="H151" t="n">
         <v>9716.25</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5714,18 +6445,21 @@
         <v>39.4</v>
       </c>
       <c r="G152" t="n">
+        <v>9713.666666666666</v>
+      </c>
+      <c r="H152" t="n">
         <v>9717.916666666666</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5749,18 +6483,21 @@
         <v>6.2271</v>
       </c>
       <c r="G153" t="n">
+        <v>9718.333333333334</v>
+      </c>
+      <c r="H153" t="n">
         <v>9718.5</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5784,18 +6521,21 @@
         <v>2.1372</v>
       </c>
       <c r="G154" t="n">
+        <v>9718.333333333334</v>
+      </c>
+      <c r="H154" t="n">
         <v>9718.25</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5819,18 +6559,21 @@
         <v>163.0586</v>
       </c>
       <c r="G155" t="n">
+        <v>9722.666666666666</v>
+      </c>
+      <c r="H155" t="n">
         <v>9718.916666666666</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5854,18 +6597,21 @@
         <v>7.1207</v>
       </c>
       <c r="G156" t="n">
+        <v>9724</v>
+      </c>
+      <c r="H156" t="n">
         <v>9720.666666666666</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5889,18 +6635,21 @@
         <v>81.423</v>
       </c>
       <c r="G157" t="n">
+        <v>9725.666666666666</v>
+      </c>
+      <c r="H157" t="n">
         <v>9722.416666666666</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5924,18 +6673,21 @@
         <v>100</v>
       </c>
       <c r="G158" t="n">
+        <v>9729.333333333334</v>
+      </c>
+      <c r="H158" t="n">
         <v>9723.916666666666</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5959,18 +6711,21 @@
         <v>85.581</v>
       </c>
       <c r="G159" t="n">
+        <v>9733.666666666666</v>
+      </c>
+      <c r="H159" t="n">
         <v>9725.583333333334</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5994,18 +6749,21 @@
         <v>6.0005</v>
       </c>
       <c r="G160" t="n">
+        <v>9735</v>
+      </c>
+      <c r="H160" t="n">
         <v>9726.416666666666</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6029,18 +6787,21 @@
         <v>0.2714</v>
       </c>
       <c r="G161" t="n">
+        <v>9739</v>
+      </c>
+      <c r="H161" t="n">
         <v>9727.666666666666</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6064,18 +6825,21 @@
         <v>28.5208</v>
       </c>
       <c r="G162" t="n">
+        <v>9744</v>
+      </c>
+      <c r="H162" t="n">
         <v>9728.833333333334</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6099,18 +6863,21 @@
         <v>53.1216</v>
       </c>
       <c r="G163" t="n">
+        <v>9748</v>
+      </c>
+      <c r="H163" t="n">
         <v>9729.583333333334</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6134,18 +6901,21 @@
         <v>0.1919</v>
       </c>
       <c r="G164" t="n">
+        <v>9749.666666666666</v>
+      </c>
+      <c r="H164" t="n">
         <v>9729.75</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6169,18 +6939,21 @@
         <v>352.5961</v>
       </c>
       <c r="G165" t="n">
+        <v>9755</v>
+      </c>
+      <c r="H165" t="n">
         <v>9730.25</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6204,18 +6977,21 @@
         <v>100</v>
       </c>
       <c r="G166" t="n">
+        <v>9756.666666666666</v>
+      </c>
+      <c r="H166" t="n">
         <v>9730.75</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6239,18 +7015,21 @@
         <v>4</v>
       </c>
       <c r="G167" t="n">
+        <v>9758.333333333334</v>
+      </c>
+      <c r="H167" t="n">
         <v>9732</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6274,18 +7053,21 @@
         <v>12</v>
       </c>
       <c r="G168" t="n">
+        <v>9759</v>
+      </c>
+      <c r="H168" t="n">
         <v>9732.916666666666</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6309,18 +7091,21 @@
         <v>12</v>
       </c>
       <c r="G169" t="n">
+        <v>9764.666666666666</v>
+      </c>
+      <c r="H169" t="n">
         <v>9733.583333333334</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6344,18 +7129,21 @@
         <v>218</v>
       </c>
       <c r="G170" t="n">
+        <v>9768.333333333334</v>
+      </c>
+      <c r="H170" t="n">
         <v>9734.416666666666</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6379,18 +7167,21 @@
         <v>48</v>
       </c>
       <c r="G171" t="n">
+        <v>9766</v>
+      </c>
+      <c r="H171" t="n">
         <v>9733.833333333334</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6414,18 +7205,21 @@
         <v>65.2366</v>
       </c>
       <c r="G172" t="n">
+        <v>9762.333333333334</v>
+      </c>
+      <c r="H172" t="n">
         <v>9733</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6449,18 +7243,21 @@
         <v>43.5642</v>
       </c>
       <c r="G173" t="n">
+        <v>9763</v>
+      </c>
+      <c r="H173" t="n">
         <v>9733.166666666666</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6484,18 +7281,21 @@
         <v>81.3747</v>
       </c>
       <c r="G174" t="n">
+        <v>9758.333333333334</v>
+      </c>
+      <c r="H174" t="n">
         <v>9732.25</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6519,18 +7319,21 @@
         <v>181</v>
       </c>
       <c r="G175" t="n">
+        <v>9756</v>
+      </c>
+      <c r="H175" t="n">
         <v>9731.083333333334</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6554,18 +7357,21 @@
         <v>22.5827</v>
       </c>
       <c r="G176" t="n">
+        <v>9753</v>
+      </c>
+      <c r="H176" t="n">
         <v>9730.75</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6589,18 +7395,21 @@
         <v>394.3674</v>
       </c>
       <c r="G177" t="n">
+        <v>9755.666666666666</v>
+      </c>
+      <c r="H177" t="n">
         <v>9731.833333333334</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6624,18 +7433,21 @@
         <v>18.3</v>
       </c>
       <c r="G178" t="n">
+        <v>9753</v>
+      </c>
+      <c r="H178" t="n">
         <v>9732.083333333334</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6659,18 +7471,21 @@
         <v>12.1109</v>
       </c>
       <c r="G179" t="n">
+        <v>9752</v>
+      </c>
+      <c r="H179" t="n">
         <v>9732.166666666666</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6694,18 +7509,21 @@
         <v>25.49297352</v>
       </c>
       <c r="G180" t="n">
+        <v>9754.333333333334</v>
+      </c>
+      <c r="H180" t="n">
         <v>9734.583333333334</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6729,18 +7547,21 @@
         <v>24.36378872</v>
       </c>
       <c r="G181" t="n">
+        <v>9758.333333333334</v>
+      </c>
+      <c r="H181" t="n">
         <v>9737.333333333334</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6764,18 +7585,21 @@
         <v>190.6574</v>
       </c>
       <c r="G182" t="n">
+        <v>9762.333333333334</v>
+      </c>
+      <c r="H182" t="n">
         <v>9740.083333333334</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6799,18 +7623,21 @@
         <v>123.4355</v>
       </c>
       <c r="G183" t="n">
+        <v>9758</v>
+      </c>
+      <c r="H183" t="n">
         <v>9740.416666666666</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6834,18 +7661,21 @@
         <v>8.044600000000001</v>
       </c>
       <c r="G184" t="n">
+        <v>9752</v>
+      </c>
+      <c r="H184" t="n">
         <v>9740.666666666666</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6869,18 +7699,21 @@
         <v>2.4</v>
       </c>
       <c r="G185" t="n">
+        <v>9744</v>
+      </c>
+      <c r="H185" t="n">
         <v>9740</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6904,18 +7737,21 @@
         <v>11.2704</v>
       </c>
       <c r="G186" t="n">
+        <v>9745.666666666666</v>
+      </c>
+      <c r="H186" t="n">
         <v>9740.416666666666</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6939,18 +7775,21 @@
         <v>11.6789</v>
       </c>
       <c r="G187" t="n">
+        <v>9748.333333333334</v>
+      </c>
+      <c r="H187" t="n">
         <v>9740.333333333334</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6974,18 +7813,21 @@
         <v>20</v>
       </c>
       <c r="G188" t="n">
+        <v>9743.333333333334</v>
+      </c>
+      <c r="H188" t="n">
         <v>9739.5</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7009,18 +7851,21 @@
         <v>2</v>
       </c>
       <c r="G189" t="n">
+        <v>9743.333333333334</v>
+      </c>
+      <c r="H189" t="n">
         <v>9739.75</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7044,18 +7889,21 @@
         <v>4.9297</v>
       </c>
       <c r="G190" t="n">
+        <v>9746.333333333334</v>
+      </c>
+      <c r="H190" t="n">
         <v>9739.416666666666</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7079,18 +7927,21 @@
         <v>6.9779</v>
       </c>
       <c r="G191" t="n">
+        <v>9747</v>
+      </c>
+      <c r="H191" t="n">
         <v>9739.333333333334</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7114,18 +7965,21 @@
         <v>0.101</v>
       </c>
       <c r="G192" t="n">
+        <v>9739.333333333334</v>
+      </c>
+      <c r="H192" t="n">
         <v>9738</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7149,18 +8003,21 @@
         <v>3.055</v>
       </c>
       <c r="G193" t="n">
+        <v>9746</v>
+      </c>
+      <c r="H193" t="n">
         <v>9738.833333333334</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7184,18 +8041,21 @@
         <v>266.9603</v>
       </c>
       <c r="G194" t="n">
+        <v>9746</v>
+      </c>
+      <c r="H194" t="n">
         <v>9737.833333333334</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7219,18 +8079,21 @@
         <v>174.1726</v>
       </c>
       <c r="G195" t="n">
+        <v>9737.333333333334</v>
+      </c>
+      <c r="H195" t="n">
         <v>9737.916666666666</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
       <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7254,18 +8117,21 @@
         <v>181</v>
       </c>
       <c r="G196" t="n">
+        <v>9721</v>
+      </c>
+      <c r="H196" t="n">
         <v>9736.333333333334</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
       <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7289,18 +8155,21 @@
         <v>35.311</v>
       </c>
       <c r="G197" t="n">
+        <v>9705</v>
+      </c>
+      <c r="H197" t="n">
         <v>9734.833333333334</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7324,18 +8193,21 @@
         <v>8.101599999999999</v>
       </c>
       <c r="G198" t="n">
+        <v>9700.666666666666</v>
+      </c>
+      <c r="H198" t="n">
         <v>9734</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
       <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7359,18 +8231,21 @@
         <v>8</v>
       </c>
       <c r="G199" t="n">
+        <v>9698</v>
+      </c>
+      <c r="H199" t="n">
         <v>9733.25</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
       <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
+      <c r="M199" t="inlineStr"/>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7394,18 +8269,21 @@
         <v>10</v>
       </c>
       <c r="G200" t="n">
+        <v>9693.333333333334</v>
+      </c>
+      <c r="H200" t="n">
         <v>9732.083333333334</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
       <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
+      <c r="M200" t="inlineStr"/>
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7429,18 +8307,21 @@
         <v>10</v>
       </c>
       <c r="G201" t="n">
+        <v>9685</v>
+      </c>
+      <c r="H201" t="n">
         <v>9730.166666666666</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
       <c r="K201" t="inlineStr"/>
       <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
+      <c r="M201" t="inlineStr"/>
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7464,18 +8345,21 @@
         <v>10</v>
       </c>
       <c r="G202" t="n">
+        <v>9676.666666666666</v>
+      </c>
+      <c r="H202" t="n">
         <v>9728.25</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
       <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
+      <c r="M202" t="inlineStr"/>
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7499,18 +8383,21 @@
         <v>1.0412</v>
       </c>
       <c r="G203" t="n">
+        <v>9676.666666666666</v>
+      </c>
+      <c r="H203" t="n">
         <v>9728.083333333334</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
       <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
+      <c r="M203" t="inlineStr"/>
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7534,18 +8421,21 @@
         <v>26.9579</v>
       </c>
       <c r="G204" t="n">
+        <v>9675.333333333334</v>
+      </c>
+      <c r="H204" t="n">
         <v>9727.666666666666</v>
       </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
       <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
+      <c r="M204" t="inlineStr"/>
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7569,18 +8459,21 @@
         <v>10.2311</v>
       </c>
       <c r="G205" t="n">
+        <v>9671.666666666666</v>
+      </c>
+      <c r="H205" t="n">
         <v>9727.25</v>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
       <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
+      <c r="M205" t="inlineStr"/>
+      <c r="N205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7604,18 +8497,21 @@
         <v>85.4782</v>
       </c>
       <c r="G206" t="n">
+        <v>9662.333333333334</v>
+      </c>
+      <c r="H206" t="n">
         <v>9725.333333333334</v>
       </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
       <c r="K206" t="inlineStr"/>
       <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
+      <c r="M206" t="inlineStr"/>
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7639,18 +8535,21 @@
         <v>0.4788</v>
       </c>
       <c r="G207" t="n">
+        <v>9658.666666666666</v>
+      </c>
+      <c r="H207" t="n">
         <v>9724.416666666666</v>
       </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
       <c r="K207" t="inlineStr"/>
       <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
+      <c r="M207" t="inlineStr"/>
+      <c r="N207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7674,18 +8573,21 @@
         <v>1.5197</v>
       </c>
       <c r="G208" t="n">
+        <v>9649.333333333334</v>
+      </c>
+      <c r="H208" t="n">
         <v>9724.083333333334</v>
       </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
       <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
+      <c r="M208" t="inlineStr"/>
+      <c r="N208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7709,18 +8611,21 @@
         <v>0.1312</v>
       </c>
       <c r="G209" t="n">
+        <v>9643</v>
+      </c>
+      <c r="H209" t="n">
         <v>9722.666666666666</v>
       </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
       <c r="K209" t="inlineStr"/>
       <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
+      <c r="M209" t="inlineStr"/>
+      <c r="N209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7744,18 +8649,21 @@
         <v>0.4776</v>
       </c>
       <c r="G210" t="n">
+        <v>9638</v>
+      </c>
+      <c r="H210" t="n">
         <v>9721.166666666666</v>
       </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
       <c r="K210" t="inlineStr"/>
       <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
+      <c r="M210" t="inlineStr"/>
+      <c r="N210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7779,18 +8687,21 @@
         <v>0.2268</v>
       </c>
       <c r="G211" t="n">
+        <v>9644.666666666666</v>
+      </c>
+      <c r="H211" t="n">
         <v>9720.166666666666</v>
       </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
       <c r="K211" t="inlineStr"/>
       <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
+      <c r="M211" t="inlineStr"/>
+      <c r="N211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7814,18 +8725,21 @@
         <v>3.0266</v>
       </c>
       <c r="G212" t="n">
+        <v>9651</v>
+      </c>
+      <c r="H212" t="n">
         <v>9719.166666666666</v>
       </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
       <c r="K212" t="inlineStr"/>
       <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
+      <c r="M212" t="inlineStr"/>
+      <c r="N212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7849,18 +8763,21 @@
         <v>104.1742</v>
       </c>
       <c r="G213" t="n">
+        <v>9649.666666666666</v>
+      </c>
+      <c r="H213" t="n">
         <v>9716.833333333334</v>
       </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
       <c r="K213" t="inlineStr"/>
       <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
+      <c r="M213" t="inlineStr"/>
+      <c r="N213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7884,18 +8801,21 @@
         <v>23.8587</v>
       </c>
       <c r="G214" t="n">
+        <v>9652.666666666666</v>
+      </c>
+      <c r="H214" t="n">
         <v>9716.833333333334</v>
       </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
       <c r="K214" t="inlineStr"/>
       <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
+      <c r="M214" t="inlineStr"/>
+      <c r="N214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7919,18 +8839,401 @@
         <v>37.92</v>
       </c>
       <c r="G215" t="n">
+        <v>9658</v>
+      </c>
+      <c r="H215" t="n">
         <v>9715.916666666666</v>
       </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
       <c r="K215" t="inlineStr"/>
       <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
+      <c r="M215" t="inlineStr"/>
+      <c r="N215" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>9705</v>
+      </c>
+      <c r="C216" t="n">
+        <v>9715</v>
+      </c>
+      <c r="D216" t="n">
+        <v>9715</v>
+      </c>
+      <c r="E216" t="n">
+        <v>9705</v>
+      </c>
+      <c r="F216" t="n">
+        <v>158.9946</v>
+      </c>
+      <c r="G216" t="n">
+        <v>9664.333333333334</v>
+      </c>
+      <c r="H216" t="n">
+        <v>9715.25</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
+      <c r="M216" t="inlineStr"/>
+      <c r="N216" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>9715</v>
+      </c>
+      <c r="C217" t="n">
+        <v>9730</v>
+      </c>
+      <c r="D217" t="n">
+        <v>9730</v>
+      </c>
+      <c r="E217" t="n">
+        <v>9715</v>
+      </c>
+      <c r="F217" t="n">
+        <v>46.9238</v>
+      </c>
+      <c r="G217" t="n">
+        <v>9671.666666666666</v>
+      </c>
+      <c r="H217" t="n">
+        <v>9714.75</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
+      <c r="M217" t="inlineStr"/>
+      <c r="N217" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>9735</v>
+      </c>
+      <c r="C218" t="n">
+        <v>9735</v>
+      </c>
+      <c r="D218" t="n">
+        <v>9735</v>
+      </c>
+      <c r="E218" t="n">
+        <v>9735</v>
+      </c>
+      <c r="F218" t="n">
+        <v>1.7661</v>
+      </c>
+      <c r="G218" t="n">
+        <v>9674.333333333334</v>
+      </c>
+      <c r="H218" t="n">
+        <v>9714.333333333334</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
+      <c r="M218" t="inlineStr"/>
+      <c r="N218" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>9645</v>
+      </c>
+      <c r="C219" t="n">
+        <v>9735</v>
+      </c>
+      <c r="D219" t="n">
+        <v>9735</v>
+      </c>
+      <c r="E219" t="n">
+        <v>9640</v>
+      </c>
+      <c r="F219" t="n">
+        <v>25.7322</v>
+      </c>
+      <c r="G219" t="n">
+        <v>9678</v>
+      </c>
+      <c r="H219" t="n">
+        <v>9713.75</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
+      <c r="M219" t="inlineStr"/>
+      <c r="N219" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>9640</v>
+      </c>
+      <c r="C220" t="n">
+        <v>9660</v>
+      </c>
+      <c r="D220" t="n">
+        <v>9660</v>
+      </c>
+      <c r="E220" t="n">
+        <v>9640</v>
+      </c>
+      <c r="F220" t="n">
+        <v>7</v>
+      </c>
+      <c r="G220" t="n">
+        <v>9677</v>
+      </c>
+      <c r="H220" t="n">
+        <v>9712.75</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
+      <c r="M220" t="inlineStr"/>
+      <c r="N220" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>9630</v>
+      </c>
+      <c r="C221" t="n">
+        <v>9620</v>
+      </c>
+      <c r="D221" t="n">
+        <v>9630</v>
+      </c>
+      <c r="E221" t="n">
+        <v>9620</v>
+      </c>
+      <c r="F221" t="n">
+        <v>164.7056</v>
+      </c>
+      <c r="G221" t="n">
+        <v>9678</v>
+      </c>
+      <c r="H221" t="n">
+        <v>9710.083333333334</v>
+      </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
+      <c r="M221" t="inlineStr"/>
+      <c r="N221" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>9630</v>
+      </c>
+      <c r="C222" t="n">
+        <v>9625</v>
+      </c>
+      <c r="D222" t="n">
+        <v>9630</v>
+      </c>
+      <c r="E222" t="n">
+        <v>9620</v>
+      </c>
+      <c r="F222" t="n">
+        <v>150.3952</v>
+      </c>
+      <c r="G222" t="n">
+        <v>9676.333333333334</v>
+      </c>
+      <c r="H222" t="n">
+        <v>9707.5</v>
+      </c>
+      <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
+      <c r="M222" t="inlineStr"/>
+      <c r="N222" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>9630</v>
+      </c>
+      <c r="C223" t="n">
+        <v>9670</v>
+      </c>
+      <c r="D223" t="n">
+        <v>9670</v>
+      </c>
+      <c r="E223" t="n">
+        <v>9630</v>
+      </c>
+      <c r="F223" t="n">
+        <v>13.9105</v>
+      </c>
+      <c r="G223" t="n">
+        <v>9675.666666666666</v>
+      </c>
+      <c r="H223" t="n">
+        <v>9706</v>
+      </c>
+      <c r="I223" t="n">
+        <v>0</v>
+      </c>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
+      <c r="M223" t="inlineStr"/>
+      <c r="N223" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>9630</v>
+      </c>
+      <c r="C224" t="n">
+        <v>9630</v>
+      </c>
+      <c r="D224" t="n">
+        <v>9630</v>
+      </c>
+      <c r="E224" t="n">
+        <v>9630</v>
+      </c>
+      <c r="F224" t="n">
+        <v>2.0655</v>
+      </c>
+      <c r="G224" t="n">
+        <v>9676.666666666666</v>
+      </c>
+      <c r="H224" t="n">
+        <v>9704.416666666666</v>
+      </c>
+      <c r="I224" t="n">
+        <v>0</v>
+      </c>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr"/>
+      <c r="M224" t="inlineStr"/>
+      <c r="N224" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>9630</v>
+      </c>
+      <c r="C225" t="n">
+        <v>9630</v>
+      </c>
+      <c r="D225" t="n">
+        <v>9630</v>
+      </c>
+      <c r="E225" t="n">
+        <v>9630</v>
+      </c>
+      <c r="F225" t="n">
+        <v>4.5376</v>
+      </c>
+      <c r="G225" t="n">
+        <v>9677.666666666666</v>
+      </c>
+      <c r="H225" t="n">
+        <v>9701.833333333334</v>
+      </c>
+      <c r="I225" t="n">
+        <v>0</v>
+      </c>
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr"/>
+      <c r="M225" t="inlineStr"/>
+      <c r="N225" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-29 BackTest BTG.xlsx
+++ b/BackTest/2019-10-29 BackTest BTG.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M254"/>
+  <dimension ref="A1:N212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,31 +427,36 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9330</v>
+        <v>9420</v>
       </c>
       <c r="C2" t="n">
-        <v>9330</v>
+        <v>9435</v>
       </c>
       <c r="D2" t="n">
-        <v>9330</v>
+        <v>9435</v>
       </c>
       <c r="E2" t="n">
-        <v>9330</v>
+        <v>9420</v>
       </c>
       <c r="F2" t="n">
-        <v>176.104</v>
+        <v>12.688</v>
       </c>
       <c r="G2" t="n">
-        <v>-507.3912</v>
+        <v>9362</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -462,133 +467,155 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>9305</v>
+        <v>9350</v>
       </c>
       <c r="C3" t="n">
-        <v>9305</v>
+        <v>9345</v>
       </c>
       <c r="D3" t="n">
-        <v>9305</v>
+        <v>9350</v>
       </c>
       <c r="E3" t="n">
-        <v>9305</v>
+        <v>9345</v>
       </c>
       <c r="F3" t="n">
-        <v>226.0975</v>
+        <v>1.2229</v>
       </c>
       <c r="G3" t="n">
-        <v>-733.4887</v>
+        <v>9360.25</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>9435</v>
+      </c>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>9300</v>
+        <v>9430</v>
       </c>
       <c r="C4" t="n">
-        <v>9300</v>
+        <v>9435</v>
       </c>
       <c r="D4" t="n">
-        <v>9300</v>
+        <v>9435</v>
       </c>
       <c r="E4" t="n">
-        <v>9300</v>
+        <v>9430</v>
       </c>
       <c r="F4" t="n">
-        <v>56.7606</v>
+        <v>3.922</v>
       </c>
       <c r="G4" t="n">
-        <v>-790.2492999999999</v>
+        <v>9363</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>9345</v>
+      </c>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>9300</v>
+        <v>9350</v>
       </c>
       <c r="C5" t="n">
-        <v>9365</v>
+        <v>9430</v>
       </c>
       <c r="D5" t="n">
-        <v>9365</v>
+        <v>9430</v>
       </c>
       <c r="E5" t="n">
-        <v>9300</v>
+        <v>9340</v>
       </c>
       <c r="F5" t="n">
-        <v>34</v>
+        <v>132.8258</v>
       </c>
       <c r="G5" t="n">
-        <v>-756.2492999999999</v>
+        <v>9362</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>9435</v>
+      </c>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>9295</v>
+        <v>9425</v>
       </c>
       <c r="C6" t="n">
-        <v>9365</v>
+        <v>9475</v>
       </c>
       <c r="D6" t="n">
-        <v>9365</v>
+        <v>9475</v>
       </c>
       <c r="E6" t="n">
-        <v>9295</v>
+        <v>9425</v>
       </c>
       <c r="F6" t="n">
-        <v>27.3573</v>
+        <v>134.03018105</v>
       </c>
       <c r="G6" t="n">
-        <v>-756.2492999999999</v>
+        <v>9364.75</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -597,47 +624,50 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>9365</v>
+        <v>9430</v>
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>9365</v>
+        <v>9470</v>
       </c>
       <c r="C7" t="n">
-        <v>9380</v>
+        <v>9475</v>
       </c>
       <c r="D7" t="n">
-        <v>9380</v>
+        <v>9475</v>
       </c>
       <c r="E7" t="n">
-        <v>9365</v>
+        <v>9470</v>
       </c>
       <c r="F7" t="n">
-        <v>153.2548</v>
+        <v>83</v>
       </c>
       <c r="G7" t="n">
-        <v>-602.9945</v>
+        <v>9369.75</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>9475</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
@@ -647,36 +677,39 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>9380</v>
+        <v>9470</v>
       </c>
       <c r="C8" t="n">
-        <v>9385</v>
+        <v>9470</v>
       </c>
       <c r="D8" t="n">
-        <v>9385</v>
+        <v>9470</v>
       </c>
       <c r="E8" t="n">
-        <v>9380</v>
+        <v>9470</v>
       </c>
       <c r="F8" t="n">
-        <v>100</v>
+        <v>12.8637</v>
       </c>
       <c r="G8" t="n">
-        <v>-502.9945</v>
+        <v>9374.75</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>9475</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
@@ -686,36 +719,39 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>9360</v>
+        <v>9470</v>
       </c>
       <c r="C9" t="n">
-        <v>9320</v>
+        <v>9510</v>
       </c>
       <c r="D9" t="n">
-        <v>9395</v>
+        <v>9510</v>
       </c>
       <c r="E9" t="n">
-        <v>9320</v>
+        <v>9470</v>
       </c>
       <c r="F9" t="n">
-        <v>257.8434</v>
+        <v>59.6164</v>
       </c>
       <c r="G9" t="n">
-        <v>-760.8379</v>
+        <v>9379.25</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>9470</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
@@ -725,36 +761,39 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>9390</v>
+        <v>9510</v>
       </c>
       <c r="C10" t="n">
-        <v>9390</v>
+        <v>9515</v>
       </c>
       <c r="D10" t="n">
-        <v>9390</v>
+        <v>9575</v>
       </c>
       <c r="E10" t="n">
-        <v>9390</v>
+        <v>9510</v>
       </c>
       <c r="F10" t="n">
-        <v>12</v>
+        <v>79.42181895</v>
       </c>
       <c r="G10" t="n">
-        <v>-748.8379</v>
+        <v>9386.25</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>9510</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
@@ -764,28 +803,29 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>9360</v>
+        <v>9590</v>
       </c>
       <c r="C11" t="n">
-        <v>9360</v>
+        <v>9580</v>
       </c>
       <c r="D11" t="n">
-        <v>9360</v>
+        <v>9590</v>
       </c>
       <c r="E11" t="n">
-        <v>9360</v>
+        <v>9580</v>
       </c>
       <c r="F11" t="n">
-        <v>77.6884</v>
+        <v>11.12</v>
       </c>
       <c r="G11" t="n">
-        <v>-826.5263</v>
+        <v>9400.5</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -803,28 +843,29 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>9360</v>
+        <v>9525</v>
       </c>
       <c r="C12" t="n">
-        <v>9360</v>
+        <v>9590</v>
       </c>
       <c r="D12" t="n">
-        <v>9360</v>
+        <v>9590</v>
       </c>
       <c r="E12" t="n">
-        <v>9360</v>
+        <v>9525</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9778</v>
+        <v>20.7584</v>
       </c>
       <c r="G12" t="n">
-        <v>-826.5263</v>
+        <v>9412</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -842,28 +883,29 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>9400</v>
+        <v>9515</v>
       </c>
       <c r="C13" t="n">
-        <v>9400</v>
+        <v>9575</v>
       </c>
       <c r="D13" t="n">
-        <v>9400</v>
+        <v>9575</v>
       </c>
       <c r="E13" t="n">
-        <v>9400</v>
+        <v>9515</v>
       </c>
       <c r="F13" t="n">
-        <v>1.8931</v>
+        <v>8.1351</v>
       </c>
       <c r="G13" t="n">
-        <v>-824.6332</v>
+        <v>9422.5</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -881,28 +923,29 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>9405</v>
+        <v>9515</v>
       </c>
       <c r="C14" t="n">
-        <v>9410</v>
+        <v>9515</v>
       </c>
       <c r="D14" t="n">
-        <v>9410</v>
+        <v>9515</v>
       </c>
       <c r="E14" t="n">
-        <v>9405</v>
+        <v>9515</v>
       </c>
       <c r="F14" t="n">
-        <v>4</v>
+        <v>1.7769</v>
       </c>
       <c r="G14" t="n">
-        <v>-820.6332</v>
+        <v>9433</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -920,28 +963,29 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>9410</v>
+        <v>9525</v>
       </c>
       <c r="C15" t="n">
-        <v>9425</v>
+        <v>9525</v>
       </c>
       <c r="D15" t="n">
-        <v>9425</v>
+        <v>9525</v>
       </c>
       <c r="E15" t="n">
-        <v>9410</v>
+        <v>9525</v>
       </c>
       <c r="F15" t="n">
-        <v>148.09524235</v>
+        <v>4</v>
       </c>
       <c r="G15" t="n">
-        <v>-672.53795765</v>
+        <v>9444</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -959,28 +1003,29 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>9420</v>
+        <v>9525</v>
       </c>
       <c r="C16" t="n">
-        <v>9420</v>
+        <v>9520</v>
       </c>
       <c r="D16" t="n">
-        <v>9420</v>
+        <v>9525</v>
       </c>
       <c r="E16" t="n">
-        <v>9420</v>
+        <v>9520</v>
       </c>
       <c r="F16" t="n">
-        <v>89.9776</v>
+        <v>4</v>
       </c>
       <c r="G16" t="n">
-        <v>-762.5155576499999</v>
+        <v>9451</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -998,28 +1043,29 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>9400</v>
+        <v>9520</v>
       </c>
       <c r="C17" t="n">
-        <v>9400</v>
+        <v>9520</v>
       </c>
       <c r="D17" t="n">
-        <v>9400</v>
+        <v>9520</v>
       </c>
       <c r="E17" t="n">
-        <v>9400</v>
+        <v>9520</v>
       </c>
       <c r="F17" t="n">
-        <v>6</v>
+        <v>56.6412</v>
       </c>
       <c r="G17" t="n">
-        <v>-768.5155576499999</v>
+        <v>9457.25</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1037,36 +1083,39 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>9405</v>
+        <v>9515</v>
       </c>
       <c r="C18" t="n">
-        <v>9405</v>
+        <v>9515</v>
       </c>
       <c r="D18" t="n">
-        <v>9405</v>
+        <v>9515</v>
       </c>
       <c r="E18" t="n">
-        <v>9405</v>
+        <v>9515</v>
       </c>
       <c r="F18" t="n">
-        <v>16.6455</v>
+        <v>152.0581</v>
       </c>
       <c r="G18" t="n">
-        <v>-751.8700576499999</v>
+        <v>9463.25</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>9520</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
@@ -1076,36 +1125,39 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>9360</v>
+        <v>9550</v>
       </c>
       <c r="C19" t="n">
-        <v>9360</v>
+        <v>9555</v>
       </c>
       <c r="D19" t="n">
-        <v>9360</v>
+        <v>9555</v>
       </c>
       <c r="E19" t="n">
-        <v>9360</v>
+        <v>9430</v>
       </c>
       <c r="F19" t="n">
-        <v>4.1614</v>
+        <v>86.1306</v>
       </c>
       <c r="G19" t="n">
-        <v>-756.0314576499999</v>
+        <v>9475</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>9515</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
@@ -1115,36 +1167,39 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>9400</v>
+        <v>9420</v>
       </c>
       <c r="C20" t="n">
-        <v>9400</v>
+        <v>9420</v>
       </c>
       <c r="D20" t="n">
-        <v>9400</v>
+        <v>9420</v>
       </c>
       <c r="E20" t="n">
-        <v>9400</v>
+        <v>9420</v>
       </c>
       <c r="F20" t="n">
-        <v>16.6051</v>
+        <v>0.108</v>
       </c>
       <c r="G20" t="n">
-        <v>-739.4263576499999</v>
+        <v>9476</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>9555</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
@@ -1154,36 +1209,39 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>9405</v>
+        <v>9555</v>
       </c>
       <c r="C21" t="n">
-        <v>9405</v>
+        <v>9700</v>
       </c>
       <c r="D21" t="n">
-        <v>9405</v>
+        <v>9700</v>
       </c>
       <c r="E21" t="n">
-        <v>9405</v>
+        <v>9555</v>
       </c>
       <c r="F21" t="n">
-        <v>6.3419</v>
+        <v>143.47649685</v>
       </c>
       <c r="G21" t="n">
-        <v>-733.0844576499999</v>
+        <v>9482.5</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>9420</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
@@ -1193,36 +1251,39 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>9405</v>
+        <v>9695</v>
       </c>
       <c r="C22" t="n">
-        <v>9405</v>
+        <v>9485</v>
       </c>
       <c r="D22" t="n">
-        <v>9405</v>
+        <v>9695</v>
       </c>
       <c r="E22" t="n">
-        <v>9405</v>
+        <v>9485</v>
       </c>
       <c r="F22" t="n">
-        <v>4.1614</v>
+        <v>0.2237</v>
       </c>
       <c r="G22" t="n">
-        <v>-733.0844576499999</v>
+        <v>9496.25</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>9700</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
@@ -1232,28 +1293,29 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>9415</v>
+        <v>9695</v>
       </c>
       <c r="C23" t="n">
-        <v>9375</v>
+        <v>9520</v>
       </c>
       <c r="D23" t="n">
-        <v>9415</v>
+        <v>9720</v>
       </c>
       <c r="E23" t="n">
-        <v>9375</v>
+        <v>9485</v>
       </c>
       <c r="F23" t="n">
-        <v>159.39</v>
+        <v>1227.11089434</v>
       </c>
       <c r="G23" t="n">
-        <v>-892.4744576499999</v>
+        <v>9513.5</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1271,28 +1333,29 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>9425</v>
+        <v>9520</v>
       </c>
       <c r="C24" t="n">
-        <v>9425</v>
+        <v>9520</v>
       </c>
       <c r="D24" t="n">
-        <v>9425</v>
+        <v>9520</v>
       </c>
       <c r="E24" t="n">
-        <v>9425</v>
+        <v>9520</v>
       </c>
       <c r="F24" t="n">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="G24" t="n">
-        <v>-883.4744576499999</v>
+        <v>9518</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1310,28 +1373,29 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>9385</v>
+        <v>9525</v>
       </c>
       <c r="C25" t="n">
-        <v>9375</v>
+        <v>9525</v>
       </c>
       <c r="D25" t="n">
-        <v>9385</v>
+        <v>9525</v>
       </c>
       <c r="E25" t="n">
-        <v>9375</v>
+        <v>9525</v>
       </c>
       <c r="F25" t="n">
-        <v>60</v>
+        <v>4.9875</v>
       </c>
       <c r="G25" t="n">
-        <v>-943.4744576499999</v>
+        <v>9526.75</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1349,28 +1413,29 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>9375</v>
+        <v>9470</v>
       </c>
       <c r="C26" t="n">
-        <v>9375</v>
+        <v>9465</v>
       </c>
       <c r="D26" t="n">
-        <v>9375</v>
+        <v>9470</v>
       </c>
       <c r="E26" t="n">
-        <v>9375</v>
+        <v>9465</v>
       </c>
       <c r="F26" t="n">
-        <v>4.9353</v>
+        <v>0.2539</v>
       </c>
       <c r="G26" t="n">
-        <v>-943.4744576499999</v>
+        <v>9529</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1388,28 +1453,29 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>9370</v>
+        <v>9510</v>
       </c>
       <c r="C27" t="n">
-        <v>9370</v>
+        <v>9630</v>
       </c>
       <c r="D27" t="n">
-        <v>9370</v>
+        <v>9630</v>
       </c>
       <c r="E27" t="n">
-        <v>9370</v>
+        <v>9510</v>
       </c>
       <c r="F27" t="n">
-        <v>29.7713</v>
+        <v>27.5299</v>
       </c>
       <c r="G27" t="n">
-        <v>-973.2457576499999</v>
+        <v>9531</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1427,28 +1493,29 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>9370</v>
+        <v>9630</v>
       </c>
       <c r="C28" t="n">
-        <v>9370</v>
+        <v>9630</v>
       </c>
       <c r="D28" t="n">
-        <v>9370</v>
+        <v>9630</v>
       </c>
       <c r="E28" t="n">
-        <v>9370</v>
+        <v>9630</v>
       </c>
       <c r="F28" t="n">
-        <v>13.0049</v>
+        <v>72.5235</v>
       </c>
       <c r="G28" t="n">
-        <v>-973.2457576499999</v>
+        <v>9539</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1466,28 +1533,29 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>9370</v>
+        <v>9535</v>
       </c>
       <c r="C29" t="n">
-        <v>9370</v>
+        <v>9530</v>
       </c>
       <c r="D29" t="n">
-        <v>9370</v>
+        <v>9535</v>
       </c>
       <c r="E29" t="n">
-        <v>9370</v>
+        <v>9530</v>
       </c>
       <c r="F29" t="n">
-        <v>1.0909</v>
+        <v>16.7624</v>
       </c>
       <c r="G29" t="n">
-        <v>-973.2457576499999</v>
+        <v>9542.25</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1505,28 +1573,29 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>9370</v>
+        <v>9530</v>
       </c>
       <c r="C30" t="n">
-        <v>9370</v>
+        <v>9530</v>
       </c>
       <c r="D30" t="n">
-        <v>9370</v>
+        <v>9530</v>
       </c>
       <c r="E30" t="n">
-        <v>9370</v>
+        <v>9530</v>
       </c>
       <c r="F30" t="n">
-        <v>55.1562</v>
+        <v>1</v>
       </c>
       <c r="G30" t="n">
-        <v>-973.2457576499999</v>
+        <v>9543.25</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1544,28 +1613,29 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>9380</v>
+        <v>9550</v>
       </c>
       <c r="C31" t="n">
-        <v>9390</v>
+        <v>9530</v>
       </c>
       <c r="D31" t="n">
-        <v>9390</v>
+        <v>9550</v>
       </c>
       <c r="E31" t="n">
-        <v>9380</v>
+        <v>9530</v>
       </c>
       <c r="F31" t="n">
-        <v>2</v>
+        <v>68</v>
       </c>
       <c r="G31" t="n">
-        <v>-971.2457576499999</v>
+        <v>9541.25</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1583,28 +1653,29 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>9370</v>
+        <v>9535</v>
       </c>
       <c r="C32" t="n">
-        <v>9295</v>
+        <v>9535</v>
       </c>
       <c r="D32" t="n">
-        <v>9370</v>
+        <v>9535</v>
       </c>
       <c r="E32" t="n">
-        <v>9295</v>
+        <v>9535</v>
       </c>
       <c r="F32" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G32" t="n">
-        <v>-985.2457576499999</v>
+        <v>9541.75</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1622,28 +1693,29 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>9305</v>
+        <v>9535</v>
       </c>
       <c r="C33" t="n">
-        <v>9295</v>
+        <v>9535</v>
       </c>
       <c r="D33" t="n">
-        <v>9305</v>
+        <v>9535</v>
       </c>
       <c r="E33" t="n">
-        <v>9295</v>
+        <v>9535</v>
       </c>
       <c r="F33" t="n">
-        <v>306.0808</v>
+        <v>1</v>
       </c>
       <c r="G33" t="n">
-        <v>-985.2457576499999</v>
+        <v>9542.75</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1661,28 +1733,29 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>9295</v>
+        <v>9550</v>
       </c>
       <c r="C34" t="n">
-        <v>9295</v>
+        <v>9535</v>
       </c>
       <c r="D34" t="n">
-        <v>9295</v>
+        <v>9550</v>
       </c>
       <c r="E34" t="n">
-        <v>9295</v>
+        <v>9535</v>
       </c>
       <c r="F34" t="n">
-        <v>10.0222</v>
+        <v>112.5313</v>
       </c>
       <c r="G34" t="n">
-        <v>-985.2457576499999</v>
+        <v>9544.5</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1700,28 +1773,29 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>9305</v>
+        <v>9535</v>
       </c>
       <c r="C35" t="n">
-        <v>9305</v>
+        <v>9625</v>
       </c>
       <c r="D35" t="n">
-        <v>9305</v>
+        <v>9625</v>
       </c>
       <c r="E35" t="n">
-        <v>9305</v>
+        <v>9535</v>
       </c>
       <c r="F35" t="n">
-        <v>76.2813</v>
+        <v>33.115</v>
       </c>
       <c r="G35" t="n">
-        <v>-908.9644576499999</v>
+        <v>9545</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1739,38 +1813,37 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>9305</v>
+        <v>9535</v>
       </c>
       <c r="C36" t="n">
-        <v>9305</v>
+        <v>9535</v>
       </c>
       <c r="D36" t="n">
-        <v>9305</v>
+        <v>9535</v>
       </c>
       <c r="E36" t="n">
-        <v>9305</v>
+        <v>9535</v>
       </c>
       <c r="F36" t="n">
-        <v>1.7455</v>
+        <v>23</v>
       </c>
       <c r="G36" t="n">
-        <v>-908.9644576499999</v>
+        <v>9545.5</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>9305</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr">
         <is>
@@ -1780,28 +1853,29 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>9305</v>
+        <v>9535</v>
       </c>
       <c r="C37" t="n">
-        <v>9300</v>
+        <v>9485</v>
       </c>
       <c r="D37" t="n">
-        <v>9305</v>
+        <v>9535</v>
       </c>
       <c r="E37" t="n">
-        <v>9300</v>
+        <v>9485</v>
       </c>
       <c r="F37" t="n">
-        <v>197</v>
+        <v>49.5042</v>
       </c>
       <c r="G37" t="n">
-        <v>-1105.96445765</v>
+        <v>9546.25</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1819,28 +1893,29 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>9385</v>
+        <v>9485</v>
       </c>
       <c r="C38" t="n">
-        <v>9395</v>
+        <v>9485</v>
       </c>
       <c r="D38" t="n">
-        <v>9395</v>
+        <v>9485</v>
       </c>
       <c r="E38" t="n">
-        <v>9385</v>
+        <v>9485</v>
       </c>
       <c r="F38" t="n">
-        <v>60</v>
+        <v>237.2597</v>
       </c>
       <c r="G38" t="n">
-        <v>-1045.96445765</v>
+        <v>9544.75</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1858,28 +1933,29 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>9395</v>
+        <v>9480</v>
       </c>
       <c r="C39" t="n">
-        <v>9395</v>
+        <v>9445</v>
       </c>
       <c r="D39" t="n">
-        <v>9395</v>
+        <v>9480</v>
       </c>
       <c r="E39" t="n">
-        <v>9395</v>
+        <v>9445</v>
       </c>
       <c r="F39" t="n">
-        <v>0.2</v>
+        <v>116.5</v>
       </c>
       <c r="G39" t="n">
-        <v>-1045.96445765</v>
+        <v>9541.25</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1897,28 +1973,29 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>9395</v>
+        <v>9460</v>
       </c>
       <c r="C40" t="n">
-        <v>9315</v>
+        <v>9460</v>
       </c>
       <c r="D40" t="n">
-        <v>9395</v>
+        <v>9460</v>
       </c>
       <c r="E40" t="n">
-        <v>9315</v>
+        <v>9460</v>
       </c>
       <c r="F40" t="n">
-        <v>61.6766</v>
+        <v>0.1023</v>
       </c>
       <c r="G40" t="n">
-        <v>-1107.64105765</v>
+        <v>9543.25</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1936,28 +2013,29 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>9315</v>
+        <v>9450</v>
       </c>
       <c r="C41" t="n">
-        <v>9395</v>
+        <v>9450</v>
       </c>
       <c r="D41" t="n">
-        <v>9395</v>
+        <v>9450</v>
       </c>
       <c r="E41" t="n">
-        <v>9315</v>
+        <v>9450</v>
       </c>
       <c r="F41" t="n">
-        <v>14.6238</v>
+        <v>0.2027</v>
       </c>
       <c r="G41" t="n">
-        <v>-1093.01725765</v>
+        <v>9538</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1975,28 +2053,29 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>9400</v>
+        <v>9490</v>
       </c>
       <c r="C42" t="n">
-        <v>9400</v>
+        <v>9530</v>
       </c>
       <c r="D42" t="n">
-        <v>9400</v>
+        <v>9590</v>
       </c>
       <c r="E42" t="n">
-        <v>9400</v>
+        <v>9490</v>
       </c>
       <c r="F42" t="n">
-        <v>1.1786</v>
+        <v>914.3813</v>
       </c>
       <c r="G42" t="n">
-        <v>-1091.83865765</v>
+        <v>9527.75</v>
       </c>
       <c r="H42" t="n">
         <v>1</v>
@@ -2005,7 +2084,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>9395</v>
+        <v>9450</v>
       </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr">
@@ -2016,28 +2095,29 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>9425</v>
+        <v>9555</v>
       </c>
       <c r="C43" t="n">
-        <v>9425</v>
+        <v>9555</v>
       </c>
       <c r="D43" t="n">
-        <v>9425</v>
+        <v>9555</v>
       </c>
       <c r="E43" t="n">
-        <v>9425</v>
+        <v>9555</v>
       </c>
       <c r="F43" t="n">
-        <v>25.7364</v>
+        <v>4.9962</v>
       </c>
       <c r="G43" t="n">
-        <v>-1066.10225765</v>
+        <v>9520.75</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2055,28 +2135,29 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>9420</v>
+        <v>9600</v>
       </c>
       <c r="C44" t="n">
-        <v>9435</v>
+        <v>9595</v>
       </c>
       <c r="D44" t="n">
-        <v>9435</v>
+        <v>9650</v>
       </c>
       <c r="E44" t="n">
-        <v>9420</v>
+        <v>9595</v>
       </c>
       <c r="F44" t="n">
-        <v>12.688</v>
+        <v>310.6624</v>
       </c>
       <c r="G44" t="n">
-        <v>-1053.41425765</v>
+        <v>9524.75</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2094,28 +2175,29 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>9350</v>
+        <v>9650</v>
       </c>
       <c r="C45" t="n">
-        <v>9345</v>
+        <v>9700</v>
       </c>
       <c r="D45" t="n">
-        <v>9350</v>
+        <v>9700</v>
       </c>
       <c r="E45" t="n">
-        <v>9345</v>
+        <v>9650</v>
       </c>
       <c r="F45" t="n">
-        <v>1.2229</v>
+        <v>199.81485339</v>
       </c>
       <c r="G45" t="n">
-        <v>-1054.63715765</v>
+        <v>9531</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2133,28 +2215,29 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>9430</v>
+        <v>9700</v>
       </c>
       <c r="C46" t="n">
-        <v>9435</v>
+        <v>9640</v>
       </c>
       <c r="D46" t="n">
-        <v>9435</v>
+        <v>9735</v>
       </c>
       <c r="E46" t="n">
-        <v>9430</v>
+        <v>9640</v>
       </c>
       <c r="F46" t="n">
-        <v>3.922</v>
+        <v>557.56754661</v>
       </c>
       <c r="G46" t="n">
-        <v>-1050.71515765</v>
+        <v>9542.5</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2172,28 +2255,29 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>9350</v>
+        <v>9730</v>
       </c>
       <c r="C47" t="n">
-        <v>9430</v>
+        <v>9800</v>
       </c>
       <c r="D47" t="n">
-        <v>9430</v>
+        <v>9800</v>
       </c>
       <c r="E47" t="n">
-        <v>9340</v>
+        <v>9665</v>
       </c>
       <c r="F47" t="n">
-        <v>132.8258</v>
+        <v>928.8899</v>
       </c>
       <c r="G47" t="n">
-        <v>-1183.54095765</v>
+        <v>9553.5</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2211,28 +2295,29 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>9425</v>
+        <v>9795</v>
       </c>
       <c r="C48" t="n">
-        <v>9475</v>
+        <v>9825</v>
       </c>
       <c r="D48" t="n">
-        <v>9475</v>
+        <v>9825</v>
       </c>
       <c r="E48" t="n">
-        <v>9425</v>
+        <v>9795</v>
       </c>
       <c r="F48" t="n">
-        <v>134.03018105</v>
+        <v>237.3906</v>
       </c>
       <c r="G48" t="n">
-        <v>-1049.5107766</v>
+        <v>9561.75</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2250,28 +2335,29 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>9470</v>
+        <v>9825</v>
       </c>
       <c r="C49" t="n">
-        <v>9475</v>
+        <v>9860</v>
       </c>
       <c r="D49" t="n">
-        <v>9475</v>
+        <v>9865</v>
       </c>
       <c r="E49" t="n">
-        <v>9470</v>
+        <v>9825</v>
       </c>
       <c r="F49" t="n">
-        <v>83</v>
+        <v>456.0899</v>
       </c>
       <c r="G49" t="n">
-        <v>-1049.5107766</v>
+        <v>9576.25</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2289,28 +2375,29 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>9470</v>
+        <v>9865</v>
       </c>
       <c r="C50" t="n">
-        <v>9470</v>
+        <v>9890</v>
       </c>
       <c r="D50" t="n">
-        <v>9470</v>
+        <v>9890</v>
       </c>
       <c r="E50" t="n">
-        <v>9470</v>
+        <v>9865</v>
       </c>
       <c r="F50" t="n">
-        <v>12.8637</v>
+        <v>65.40389999999999</v>
       </c>
       <c r="G50" t="n">
-        <v>-1062.3744766</v>
+        <v>9593</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2328,28 +2415,29 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>9470</v>
+        <v>9890</v>
       </c>
       <c r="C51" t="n">
-        <v>9510</v>
+        <v>9910</v>
       </c>
       <c r="D51" t="n">
-        <v>9510</v>
+        <v>9910</v>
       </c>
       <c r="E51" t="n">
-        <v>9470</v>
+        <v>9865</v>
       </c>
       <c r="F51" t="n">
-        <v>59.6164</v>
+        <v>283.6213</v>
       </c>
       <c r="G51" t="n">
-        <v>-1002.7580766</v>
+        <v>9610</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2367,28 +2455,29 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>9510</v>
+        <v>9910</v>
       </c>
       <c r="C52" t="n">
-        <v>9515</v>
+        <v>9915</v>
       </c>
       <c r="D52" t="n">
-        <v>9575</v>
+        <v>9915</v>
       </c>
       <c r="E52" t="n">
-        <v>9510</v>
+        <v>9880</v>
       </c>
       <c r="F52" t="n">
-        <v>79.42181895</v>
+        <v>23.8373</v>
       </c>
       <c r="G52" t="n">
-        <v>-923.33625765</v>
+        <v>9628.75</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2406,28 +2495,29 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>9590</v>
+        <v>9920</v>
       </c>
       <c r="C53" t="n">
-        <v>9580</v>
+        <v>9935</v>
       </c>
       <c r="D53" t="n">
-        <v>9590</v>
+        <v>9950</v>
       </c>
       <c r="E53" t="n">
-        <v>9580</v>
+        <v>9920</v>
       </c>
       <c r="F53" t="n">
-        <v>11.12</v>
+        <v>414.4665</v>
       </c>
       <c r="G53" t="n">
-        <v>-912.21625765</v>
+        <v>9648</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2445,28 +2535,29 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>9525</v>
+        <v>9935</v>
       </c>
       <c r="C54" t="n">
-        <v>9590</v>
+        <v>9935</v>
       </c>
       <c r="D54" t="n">
-        <v>9590</v>
+        <v>9935</v>
       </c>
       <c r="E54" t="n">
-        <v>9525</v>
+        <v>9935</v>
       </c>
       <c r="F54" t="n">
-        <v>20.7584</v>
+        <v>442.2321</v>
       </c>
       <c r="G54" t="n">
-        <v>-891.4578576499999</v>
+        <v>9667.25</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2484,28 +2575,29 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>9515</v>
+        <v>9935</v>
       </c>
       <c r="C55" t="n">
-        <v>9575</v>
+        <v>9950</v>
       </c>
       <c r="D55" t="n">
-        <v>9575</v>
+        <v>9950</v>
       </c>
       <c r="E55" t="n">
-        <v>9515</v>
+        <v>9935</v>
       </c>
       <c r="F55" t="n">
-        <v>8.1351</v>
+        <v>68.379</v>
       </c>
       <c r="G55" t="n">
-        <v>-899.5929576499999</v>
+        <v>9687.25</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2523,28 +2615,29 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>9515</v>
+        <v>9910</v>
       </c>
       <c r="C56" t="n">
-        <v>9515</v>
+        <v>9900</v>
       </c>
       <c r="D56" t="n">
-        <v>9515</v>
+        <v>9950</v>
       </c>
       <c r="E56" t="n">
-        <v>9515</v>
+        <v>9895</v>
       </c>
       <c r="F56" t="n">
-        <v>1.7769</v>
+        <v>254.9795</v>
       </c>
       <c r="G56" t="n">
-        <v>-901.3698576499999</v>
+        <v>9706</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2562,28 +2655,29 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>9525</v>
+        <v>9900</v>
       </c>
       <c r="C57" t="n">
-        <v>9525</v>
+        <v>9900</v>
       </c>
       <c r="D57" t="n">
-        <v>9525</v>
+        <v>9950</v>
       </c>
       <c r="E57" t="n">
-        <v>9525</v>
+        <v>9890</v>
       </c>
       <c r="F57" t="n">
-        <v>4</v>
+        <v>317.3763</v>
       </c>
       <c r="G57" t="n">
-        <v>-897.3698576499999</v>
+        <v>9724.25</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2601,28 +2695,29 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>9525</v>
+        <v>9940</v>
       </c>
       <c r="C58" t="n">
-        <v>9520</v>
+        <v>9940</v>
       </c>
       <c r="D58" t="n">
-        <v>9525</v>
+        <v>9940</v>
       </c>
       <c r="E58" t="n">
-        <v>9520</v>
+        <v>9940</v>
       </c>
       <c r="F58" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="G58" t="n">
-        <v>-901.3698576499999</v>
+        <v>9747</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2640,28 +2735,29 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>9520</v>
+        <v>9930</v>
       </c>
       <c r="C59" t="n">
-        <v>9520</v>
+        <v>9930</v>
       </c>
       <c r="D59" t="n">
-        <v>9520</v>
+        <v>9930</v>
       </c>
       <c r="E59" t="n">
-        <v>9520</v>
+        <v>9930</v>
       </c>
       <c r="F59" t="n">
-        <v>56.6412</v>
+        <v>100</v>
       </c>
       <c r="G59" t="n">
-        <v>-901.3698576499999</v>
+        <v>9769.5</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2679,28 +2775,29 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>9515</v>
+        <v>9935</v>
       </c>
       <c r="C60" t="n">
-        <v>9515</v>
+        <v>9935</v>
       </c>
       <c r="D60" t="n">
-        <v>9515</v>
+        <v>9935</v>
       </c>
       <c r="E60" t="n">
-        <v>9515</v>
+        <v>9935</v>
       </c>
       <c r="F60" t="n">
-        <v>152.0581</v>
+        <v>53.441</v>
       </c>
       <c r="G60" t="n">
-        <v>-1053.42795765</v>
+        <v>9793.25</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2718,28 +2815,29 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>9550</v>
+        <v>9870</v>
       </c>
       <c r="C61" t="n">
-        <v>9555</v>
+        <v>9870</v>
       </c>
       <c r="D61" t="n">
-        <v>9555</v>
+        <v>9870</v>
       </c>
       <c r="E61" t="n">
-        <v>9430</v>
+        <v>9870</v>
       </c>
       <c r="F61" t="n">
-        <v>86.1306</v>
+        <v>45.22</v>
       </c>
       <c r="G61" t="n">
-        <v>-967.2973576499999</v>
+        <v>9814.25</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2757,28 +2855,29 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>9420</v>
+        <v>9865</v>
       </c>
       <c r="C62" t="n">
-        <v>9420</v>
+        <v>9865</v>
       </c>
       <c r="D62" t="n">
-        <v>9420</v>
+        <v>9865</v>
       </c>
       <c r="E62" t="n">
-        <v>9420</v>
+        <v>9865</v>
       </c>
       <c r="F62" t="n">
-        <v>0.108</v>
+        <v>358.4859</v>
       </c>
       <c r="G62" t="n">
-        <v>-967.4053576499998</v>
+        <v>9833</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2796,28 +2895,29 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>9555</v>
+        <v>9865</v>
       </c>
       <c r="C63" t="n">
-        <v>9700</v>
+        <v>9860</v>
       </c>
       <c r="D63" t="n">
-        <v>9700</v>
+        <v>9865</v>
       </c>
       <c r="E63" t="n">
-        <v>9555</v>
+        <v>9860</v>
       </c>
       <c r="F63" t="n">
-        <v>143.47649685</v>
+        <v>310.8737</v>
       </c>
       <c r="G63" t="n">
-        <v>-823.9288607999998</v>
+        <v>9848.5</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2835,28 +2935,29 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>9695</v>
+        <v>9795</v>
       </c>
       <c r="C64" t="n">
-        <v>9485</v>
+        <v>9820</v>
       </c>
       <c r="D64" t="n">
-        <v>9695</v>
+        <v>9820</v>
       </c>
       <c r="E64" t="n">
-        <v>9485</v>
+        <v>9795</v>
       </c>
       <c r="F64" t="n">
-        <v>0.2237</v>
+        <v>9.742100000000001</v>
       </c>
       <c r="G64" t="n">
-        <v>-824.1525607999998</v>
+        <v>9858.25</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2874,28 +2975,29 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>9695</v>
+        <v>9835</v>
       </c>
       <c r="C65" t="n">
-        <v>9520</v>
+        <v>9725</v>
       </c>
       <c r="D65" t="n">
-        <v>9720</v>
+        <v>9835</v>
       </c>
       <c r="E65" t="n">
-        <v>9485</v>
+        <v>9725</v>
       </c>
       <c r="F65" t="n">
-        <v>1227.11089434</v>
+        <v>196.2317</v>
       </c>
       <c r="G65" t="n">
-        <v>402.9583335400001</v>
+        <v>9867.5</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2913,28 +3015,29 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>9520</v>
+        <v>9770</v>
       </c>
       <c r="C66" t="n">
-        <v>9520</v>
+        <v>9870</v>
       </c>
       <c r="D66" t="n">
-        <v>9520</v>
+        <v>9870</v>
       </c>
       <c r="E66" t="n">
-        <v>9520</v>
+        <v>9660</v>
       </c>
       <c r="F66" t="n">
-        <v>30</v>
+        <v>940.4456</v>
       </c>
       <c r="G66" t="n">
-        <v>402.9583335400001</v>
+        <v>9871</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2952,28 +3055,29 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>9525</v>
+        <v>9740</v>
       </c>
       <c r="C67" t="n">
-        <v>9525</v>
+        <v>9825</v>
       </c>
       <c r="D67" t="n">
-        <v>9525</v>
+        <v>9825</v>
       </c>
       <c r="E67" t="n">
-        <v>9525</v>
+        <v>9740</v>
       </c>
       <c r="F67" t="n">
-        <v>4.9875</v>
+        <v>30.6849</v>
       </c>
       <c r="G67" t="n">
-        <v>407.9458335400001</v>
+        <v>9871.5</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2991,28 +3095,29 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>9470</v>
+        <v>9800</v>
       </c>
       <c r="C68" t="n">
-        <v>9465</v>
+        <v>9800</v>
       </c>
       <c r="D68" t="n">
-        <v>9470</v>
+        <v>9800</v>
       </c>
       <c r="E68" t="n">
-        <v>9465</v>
+        <v>9800</v>
       </c>
       <c r="F68" t="n">
-        <v>0.2539</v>
+        <v>9.245699999999999</v>
       </c>
       <c r="G68" t="n">
-        <v>407.6919335400002</v>
+        <v>9871.75</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3030,28 +3135,29 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>9510</v>
+        <v>9790</v>
       </c>
       <c r="C69" t="n">
-        <v>9630</v>
+        <v>9800</v>
       </c>
       <c r="D69" t="n">
-        <v>9630</v>
+        <v>9800</v>
       </c>
       <c r="E69" t="n">
-        <v>9510</v>
+        <v>9790</v>
       </c>
       <c r="F69" t="n">
-        <v>27.5299</v>
+        <v>20</v>
       </c>
       <c r="G69" t="n">
-        <v>435.2218335400001</v>
+        <v>9870</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3069,28 +3175,29 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>9630</v>
+        <v>9790</v>
       </c>
       <c r="C70" t="n">
-        <v>9630</v>
+        <v>9810</v>
       </c>
       <c r="D70" t="n">
-        <v>9630</v>
+        <v>9810</v>
       </c>
       <c r="E70" t="n">
-        <v>9630</v>
+        <v>9740</v>
       </c>
       <c r="F70" t="n">
-        <v>72.5235</v>
+        <v>214.5929</v>
       </c>
       <c r="G70" t="n">
-        <v>435.2218335400001</v>
+        <v>9866.25</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3108,28 +3215,29 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>9535</v>
+        <v>9735</v>
       </c>
       <c r="C71" t="n">
-        <v>9530</v>
+        <v>9735</v>
       </c>
       <c r="D71" t="n">
-        <v>9535</v>
+        <v>9735</v>
       </c>
       <c r="E71" t="n">
-        <v>9530</v>
+        <v>9735</v>
       </c>
       <c r="F71" t="n">
-        <v>16.7624</v>
+        <v>0.16</v>
       </c>
       <c r="G71" t="n">
-        <v>418.4594335400001</v>
+        <v>9858.5</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3147,28 +3255,29 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>9530</v>
+        <v>9760</v>
       </c>
       <c r="C72" t="n">
-        <v>9530</v>
+        <v>9760</v>
       </c>
       <c r="D72" t="n">
-        <v>9530</v>
+        <v>9760</v>
       </c>
       <c r="E72" t="n">
-        <v>9530</v>
+        <v>9760</v>
       </c>
       <c r="F72" t="n">
-        <v>1</v>
+        <v>4.7061</v>
       </c>
       <c r="G72" t="n">
-        <v>418.4594335400001</v>
+        <v>9851</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3186,28 +3295,29 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>9550</v>
+        <v>9755</v>
       </c>
       <c r="C73" t="n">
-        <v>9530</v>
+        <v>9755</v>
       </c>
       <c r="D73" t="n">
-        <v>9550</v>
+        <v>9755</v>
       </c>
       <c r="E73" t="n">
-        <v>9530</v>
+        <v>9755</v>
       </c>
       <c r="F73" t="n">
-        <v>68</v>
+        <v>4.7699</v>
       </c>
       <c r="G73" t="n">
-        <v>418.4594335400001</v>
+        <v>9842.75</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3225,28 +3335,29 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>9535</v>
+        <v>9755</v>
       </c>
       <c r="C74" t="n">
-        <v>9535</v>
+        <v>9745</v>
       </c>
       <c r="D74" t="n">
-        <v>9535</v>
+        <v>9755</v>
       </c>
       <c r="E74" t="n">
-        <v>9535</v>
+        <v>9745</v>
       </c>
       <c r="F74" t="n">
-        <v>1</v>
+        <v>14.8505</v>
       </c>
       <c r="G74" t="n">
-        <v>419.4594335400001</v>
+        <v>9833.75</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3264,28 +3375,29 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>9535</v>
+        <v>9750</v>
       </c>
       <c r="C75" t="n">
-        <v>9535</v>
+        <v>9720</v>
       </c>
       <c r="D75" t="n">
-        <v>9535</v>
+        <v>9750</v>
       </c>
       <c r="E75" t="n">
-        <v>9535</v>
+        <v>9720</v>
       </c>
       <c r="F75" t="n">
-        <v>1</v>
+        <v>236.7774</v>
       </c>
       <c r="G75" t="n">
-        <v>419.4594335400001</v>
+        <v>9824.5</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3303,28 +3415,29 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>9550</v>
+        <v>9720</v>
       </c>
       <c r="C76" t="n">
-        <v>9535</v>
+        <v>9715</v>
       </c>
       <c r="D76" t="n">
-        <v>9550</v>
+        <v>9720</v>
       </c>
       <c r="E76" t="n">
-        <v>9535</v>
+        <v>9715</v>
       </c>
       <c r="F76" t="n">
-        <v>112.5313</v>
+        <v>96.61799999999999</v>
       </c>
       <c r="G76" t="n">
-        <v>419.4594335400001</v>
+        <v>9815</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3342,28 +3455,29 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>9535</v>
+        <v>9705</v>
       </c>
       <c r="C77" t="n">
-        <v>9625</v>
+        <v>9710</v>
       </c>
       <c r="D77" t="n">
-        <v>9625</v>
+        <v>9710</v>
       </c>
       <c r="E77" t="n">
-        <v>9535</v>
+        <v>9705</v>
       </c>
       <c r="F77" t="n">
-        <v>33.115</v>
+        <v>11</v>
       </c>
       <c r="G77" t="n">
-        <v>452.5744335400001</v>
+        <v>9805.25</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3381,28 +3495,29 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>9535</v>
+        <v>9700</v>
       </c>
       <c r="C78" t="n">
-        <v>9535</v>
+        <v>9700</v>
       </c>
       <c r="D78" t="n">
-        <v>9535</v>
+        <v>9700</v>
       </c>
       <c r="E78" t="n">
-        <v>9535</v>
+        <v>9700</v>
       </c>
       <c r="F78" t="n">
-        <v>23</v>
+        <v>3.6662</v>
       </c>
       <c r="G78" t="n">
-        <v>429.5744335400001</v>
+        <v>9793.25</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3420,28 +3535,29 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>9535</v>
+        <v>9660</v>
       </c>
       <c r="C79" t="n">
-        <v>9485</v>
+        <v>9660</v>
       </c>
       <c r="D79" t="n">
-        <v>9535</v>
+        <v>9660</v>
       </c>
       <c r="E79" t="n">
-        <v>9485</v>
+        <v>9630</v>
       </c>
       <c r="F79" t="n">
-        <v>49.5042</v>
+        <v>49.0698</v>
       </c>
       <c r="G79" t="n">
-        <v>380.0702335400001</v>
+        <v>9779.75</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3459,38 +3575,37 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>9485</v>
+        <v>9660</v>
       </c>
       <c r="C80" t="n">
-        <v>9485</v>
+        <v>9720</v>
       </c>
       <c r="D80" t="n">
-        <v>9485</v>
+        <v>9720</v>
       </c>
       <c r="E80" t="n">
-        <v>9485</v>
+        <v>9660</v>
       </c>
       <c r="F80" t="n">
-        <v>237.2597</v>
+        <v>102.98241486</v>
       </c>
       <c r="G80" t="n">
-        <v>380.0702335400001</v>
+        <v>9766</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>9485</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr">
         <is>
@@ -3500,38 +3615,37 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>9480</v>
+        <v>9715</v>
       </c>
       <c r="C81" t="n">
-        <v>9445</v>
+        <v>9715</v>
       </c>
       <c r="D81" t="n">
-        <v>9480</v>
+        <v>9715</v>
       </c>
       <c r="E81" t="n">
-        <v>9445</v>
+        <v>9715</v>
       </c>
       <c r="F81" t="n">
-        <v>116.5</v>
+        <v>51.4668</v>
       </c>
       <c r="G81" t="n">
-        <v>263.5702335400001</v>
+        <v>9758.25</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>9485</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr">
         <is>
@@ -3541,28 +3655,29 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>9460</v>
+        <v>9715</v>
       </c>
       <c r="C82" t="n">
-        <v>9460</v>
+        <v>9715</v>
       </c>
       <c r="D82" t="n">
-        <v>9460</v>
+        <v>9715</v>
       </c>
       <c r="E82" t="n">
-        <v>9460</v>
+        <v>9715</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1023</v>
+        <v>1.1257</v>
       </c>
       <c r="G82" t="n">
-        <v>263.6725335400001</v>
+        <v>9750.75</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3580,38 +3695,37 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>9450</v>
+        <v>9650</v>
       </c>
       <c r="C83" t="n">
-        <v>9450</v>
+        <v>9650</v>
       </c>
       <c r="D83" t="n">
-        <v>9450</v>
+        <v>9650</v>
       </c>
       <c r="E83" t="n">
-        <v>9450</v>
+        <v>9650</v>
       </c>
       <c r="F83" t="n">
-        <v>0.2027</v>
+        <v>172.6037</v>
       </c>
       <c r="G83" t="n">
-        <v>263.4698335400001</v>
+        <v>9740</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>9460</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr">
         <is>
@@ -3621,28 +3735,29 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>9490</v>
+        <v>9650</v>
       </c>
       <c r="C84" t="n">
-        <v>9530</v>
+        <v>9655</v>
       </c>
       <c r="D84" t="n">
-        <v>9590</v>
+        <v>9695</v>
       </c>
       <c r="E84" t="n">
-        <v>9490</v>
+        <v>9650</v>
       </c>
       <c r="F84" t="n">
-        <v>914.3813</v>
+        <v>320.5363</v>
       </c>
       <c r="G84" t="n">
-        <v>1177.85113354</v>
+        <v>9732.75</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3660,38 +3775,37 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>9555</v>
+        <v>9695</v>
       </c>
       <c r="C85" t="n">
-        <v>9555</v>
+        <v>9670</v>
       </c>
       <c r="D85" t="n">
-        <v>9555</v>
+        <v>9695</v>
       </c>
       <c r="E85" t="n">
-        <v>9555</v>
+        <v>9665</v>
       </c>
       <c r="F85" t="n">
-        <v>4.9962</v>
+        <v>213.6265</v>
       </c>
       <c r="G85" t="n">
-        <v>1182.84733354</v>
+        <v>9725.75</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>9530</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr">
         <is>
@@ -3701,28 +3815,29 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>9600</v>
+        <v>9670</v>
       </c>
       <c r="C86" t="n">
-        <v>9595</v>
+        <v>9670</v>
       </c>
       <c r="D86" t="n">
-        <v>9650</v>
+        <v>9670</v>
       </c>
       <c r="E86" t="n">
-        <v>9595</v>
+        <v>9670</v>
       </c>
       <c r="F86" t="n">
-        <v>310.6624</v>
+        <v>83.0073</v>
       </c>
       <c r="G86" t="n">
-        <v>1493.50973354</v>
+        <v>9720.75</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3740,28 +3855,29 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>9650</v>
+        <v>9695</v>
       </c>
       <c r="C87" t="n">
-        <v>9700</v>
+        <v>9670</v>
       </c>
       <c r="D87" t="n">
-        <v>9700</v>
+        <v>9695</v>
       </c>
       <c r="E87" t="n">
-        <v>9650</v>
+        <v>9670</v>
       </c>
       <c r="F87" t="n">
-        <v>199.81485339</v>
+        <v>15.2269</v>
       </c>
       <c r="G87" t="n">
-        <v>1693.32458693</v>
+        <v>9718.5</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3779,28 +3895,29 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>9700</v>
+        <v>9705</v>
       </c>
       <c r="C88" t="n">
-        <v>9640</v>
+        <v>9705</v>
       </c>
       <c r="D88" t="n">
-        <v>9735</v>
+        <v>9705</v>
       </c>
       <c r="E88" t="n">
-        <v>9640</v>
+        <v>9705</v>
       </c>
       <c r="F88" t="n">
-        <v>557.56754661</v>
+        <v>36.7358</v>
       </c>
       <c r="G88" t="n">
-        <v>1135.75704032</v>
+        <v>9713.75</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3818,28 +3935,29 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>9730</v>
+        <v>9710</v>
       </c>
       <c r="C89" t="n">
-        <v>9800</v>
+        <v>9710</v>
       </c>
       <c r="D89" t="n">
-        <v>9800</v>
+        <v>9710</v>
       </c>
       <c r="E89" t="n">
-        <v>9665</v>
+        <v>9710</v>
       </c>
       <c r="F89" t="n">
-        <v>928.8899</v>
+        <v>173.2165</v>
       </c>
       <c r="G89" t="n">
-        <v>2064.64694032</v>
+        <v>9709.75</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3857,28 +3975,29 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>9795</v>
+        <v>9710</v>
       </c>
       <c r="C90" t="n">
-        <v>9825</v>
+        <v>9715</v>
       </c>
       <c r="D90" t="n">
-        <v>9825</v>
+        <v>9715</v>
       </c>
       <c r="E90" t="n">
-        <v>9795</v>
+        <v>9710</v>
       </c>
       <c r="F90" t="n">
-        <v>237.3906</v>
+        <v>28.12</v>
       </c>
       <c r="G90" t="n">
-        <v>2302.037540320001</v>
+        <v>9705.75</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3896,28 +4015,29 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>9825</v>
+        <v>9715</v>
       </c>
       <c r="C91" t="n">
-        <v>9860</v>
+        <v>9715</v>
       </c>
       <c r="D91" t="n">
-        <v>9865</v>
+        <v>9715</v>
       </c>
       <c r="E91" t="n">
-        <v>9825</v>
+        <v>9715</v>
       </c>
       <c r="F91" t="n">
-        <v>456.0899</v>
+        <v>2</v>
       </c>
       <c r="G91" t="n">
-        <v>2758.12744032</v>
+        <v>9704.75</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3935,28 +4055,29 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>9865</v>
+        <v>9720</v>
       </c>
       <c r="C92" t="n">
-        <v>9890</v>
+        <v>9755</v>
       </c>
       <c r="D92" t="n">
-        <v>9890</v>
+        <v>9755</v>
       </c>
       <c r="E92" t="n">
-        <v>9865</v>
+        <v>9720</v>
       </c>
       <c r="F92" t="n">
-        <v>65.40389999999999</v>
+        <v>345.3237</v>
       </c>
       <c r="G92" t="n">
-        <v>2823.53134032</v>
+        <v>9702.75</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3974,28 +4095,29 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>9890</v>
+        <v>9755</v>
       </c>
       <c r="C93" t="n">
-        <v>9910</v>
+        <v>9755</v>
       </c>
       <c r="D93" t="n">
-        <v>9910</v>
+        <v>9755</v>
       </c>
       <c r="E93" t="n">
-        <v>9865</v>
+        <v>9755</v>
       </c>
       <c r="F93" t="n">
-        <v>283.6213</v>
+        <v>41.5842</v>
       </c>
       <c r="G93" t="n">
-        <v>3107.152640320001</v>
+        <v>9702.75</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4013,28 +4135,29 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>9910</v>
+        <v>9715</v>
       </c>
       <c r="C94" t="n">
-        <v>9915</v>
+        <v>9710</v>
       </c>
       <c r="D94" t="n">
-        <v>9915</v>
+        <v>9715</v>
       </c>
       <c r="E94" t="n">
-        <v>9880</v>
+        <v>9710</v>
       </c>
       <c r="F94" t="n">
-        <v>23.8373</v>
+        <v>60.5777</v>
       </c>
       <c r="G94" t="n">
-        <v>3130.989940320001</v>
+        <v>9700.75</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4052,28 +4175,29 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>9920</v>
+        <v>9715</v>
       </c>
       <c r="C95" t="n">
-        <v>9935</v>
+        <v>9710</v>
       </c>
       <c r="D95" t="n">
-        <v>9950</v>
+        <v>9715</v>
       </c>
       <c r="E95" t="n">
-        <v>9920</v>
+        <v>9710</v>
       </c>
       <c r="F95" t="n">
-        <v>414.4665</v>
+        <v>41.4803</v>
       </c>
       <c r="G95" t="n">
-        <v>3545.456440320001</v>
+        <v>9699</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4091,28 +4215,29 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>9935</v>
+        <v>9715</v>
       </c>
       <c r="C96" t="n">
-        <v>9935</v>
+        <v>9745</v>
       </c>
       <c r="D96" t="n">
-        <v>9935</v>
+        <v>9745</v>
       </c>
       <c r="E96" t="n">
-        <v>9935</v>
+        <v>9715</v>
       </c>
       <c r="F96" t="n">
-        <v>442.2321</v>
+        <v>77.5</v>
       </c>
       <c r="G96" t="n">
-        <v>3545.456440320001</v>
+        <v>9698.75</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4130,28 +4255,29 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>9935</v>
+        <v>9760</v>
       </c>
       <c r="C97" t="n">
-        <v>9950</v>
+        <v>9760</v>
       </c>
       <c r="D97" t="n">
-        <v>9950</v>
+        <v>9760</v>
       </c>
       <c r="E97" t="n">
-        <v>9935</v>
+        <v>9760</v>
       </c>
       <c r="F97" t="n">
-        <v>68.379</v>
+        <v>25.7474</v>
       </c>
       <c r="G97" t="n">
-        <v>3613.835440320001</v>
+        <v>9701.5</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4169,28 +4295,29 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>9910</v>
+        <v>9755</v>
       </c>
       <c r="C98" t="n">
-        <v>9900</v>
+        <v>9755</v>
       </c>
       <c r="D98" t="n">
-        <v>9950</v>
+        <v>9755</v>
       </c>
       <c r="E98" t="n">
-        <v>9895</v>
+        <v>9755</v>
       </c>
       <c r="F98" t="n">
-        <v>254.9795</v>
+        <v>257.8541</v>
       </c>
       <c r="G98" t="n">
-        <v>3358.855940320001</v>
+        <v>9704.25</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4208,28 +4335,29 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>9900</v>
+        <v>9755</v>
       </c>
       <c r="C99" t="n">
-        <v>9900</v>
+        <v>9755</v>
       </c>
       <c r="D99" t="n">
-        <v>9950</v>
+        <v>9755</v>
       </c>
       <c r="E99" t="n">
-        <v>9890</v>
+        <v>9755</v>
       </c>
       <c r="F99" t="n">
-        <v>317.3763</v>
+        <v>10</v>
       </c>
       <c r="G99" t="n">
-        <v>3358.855940320001</v>
+        <v>9709</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4247,28 +4375,29 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>9940</v>
+        <v>9760</v>
       </c>
       <c r="C100" t="n">
-        <v>9940</v>
+        <v>9760</v>
       </c>
       <c r="D100" t="n">
-        <v>9940</v>
+        <v>9760</v>
       </c>
       <c r="E100" t="n">
-        <v>9940</v>
+        <v>9760</v>
       </c>
       <c r="F100" t="n">
-        <v>23</v>
+        <v>4.908</v>
       </c>
       <c r="G100" t="n">
-        <v>3381.855940320001</v>
+        <v>9714</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4286,28 +4415,29 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>9930</v>
+        <v>9755</v>
       </c>
       <c r="C101" t="n">
-        <v>9930</v>
+        <v>9755</v>
       </c>
       <c r="D101" t="n">
-        <v>9930</v>
+        <v>9755</v>
       </c>
       <c r="E101" t="n">
-        <v>9930</v>
+        <v>9755</v>
       </c>
       <c r="F101" t="n">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="G101" t="n">
-        <v>3281.855940320001</v>
+        <v>9716</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4325,28 +4455,29 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>9935</v>
+        <v>9755</v>
       </c>
       <c r="C102" t="n">
-        <v>9935</v>
+        <v>9755</v>
       </c>
       <c r="D102" t="n">
-        <v>9935</v>
+        <v>9755</v>
       </c>
       <c r="E102" t="n">
-        <v>9935</v>
+        <v>9755</v>
       </c>
       <c r="F102" t="n">
-        <v>53.441</v>
+        <v>58.7236</v>
       </c>
       <c r="G102" t="n">
-        <v>3335.29694032</v>
+        <v>9718</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4364,28 +4495,29 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>9870</v>
+        <v>9755</v>
       </c>
       <c r="C103" t="n">
-        <v>9870</v>
+        <v>9755</v>
       </c>
       <c r="D103" t="n">
-        <v>9870</v>
+        <v>9755</v>
       </c>
       <c r="E103" t="n">
-        <v>9870</v>
+        <v>9755</v>
       </c>
       <c r="F103" t="n">
-        <v>45.22</v>
+        <v>35.9819</v>
       </c>
       <c r="G103" t="n">
-        <v>3290.076940320001</v>
+        <v>9723.25</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4403,28 +4535,29 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>9865</v>
+        <v>9755</v>
       </c>
       <c r="C104" t="n">
-        <v>9865</v>
+        <v>9755</v>
       </c>
       <c r="D104" t="n">
-        <v>9865</v>
+        <v>9755</v>
       </c>
       <c r="E104" t="n">
-        <v>9865</v>
+        <v>9755</v>
       </c>
       <c r="F104" t="n">
-        <v>358.4859</v>
+        <v>2.1897</v>
       </c>
       <c r="G104" t="n">
-        <v>2931.591040320001</v>
+        <v>9728.5</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4442,28 +4575,29 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>9865</v>
+        <v>9705</v>
       </c>
       <c r="C105" t="n">
-        <v>9860</v>
+        <v>9705</v>
       </c>
       <c r="D105" t="n">
-        <v>9865</v>
+        <v>9705</v>
       </c>
       <c r="E105" t="n">
-        <v>9860</v>
+        <v>9705</v>
       </c>
       <c r="F105" t="n">
-        <v>310.8737</v>
+        <v>2.1333</v>
       </c>
       <c r="G105" t="n">
-        <v>2620.71734032</v>
+        <v>9729</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4481,28 +4615,29 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>9795</v>
+        <v>9705</v>
       </c>
       <c r="C106" t="n">
-        <v>9820</v>
+        <v>9705</v>
       </c>
       <c r="D106" t="n">
-        <v>9820</v>
+        <v>9705</v>
       </c>
       <c r="E106" t="n">
-        <v>9795</v>
+        <v>9705</v>
       </c>
       <c r="F106" t="n">
-        <v>9.742100000000001</v>
+        <v>10</v>
       </c>
       <c r="G106" t="n">
-        <v>2610.97524032</v>
+        <v>9730.75</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4520,28 +4655,29 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>9835</v>
+        <v>9695</v>
       </c>
       <c r="C107" t="n">
-        <v>9725</v>
+        <v>9675</v>
       </c>
       <c r="D107" t="n">
-        <v>9835</v>
+        <v>9695</v>
       </c>
       <c r="E107" t="n">
-        <v>9725</v>
+        <v>9675</v>
       </c>
       <c r="F107" t="n">
-        <v>196.2317</v>
+        <v>88.4196</v>
       </c>
       <c r="G107" t="n">
-        <v>2414.743540320001</v>
+        <v>9730.75</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4559,28 +4695,29 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>9770</v>
+        <v>9680</v>
       </c>
       <c r="C108" t="n">
-        <v>9870</v>
+        <v>9680</v>
       </c>
       <c r="D108" t="n">
-        <v>9870</v>
+        <v>9680</v>
       </c>
       <c r="E108" t="n">
-        <v>9660</v>
+        <v>9680</v>
       </c>
       <c r="F108" t="n">
-        <v>940.4456</v>
+        <v>234.356</v>
       </c>
       <c r="G108" t="n">
-        <v>3355.189140320001</v>
+        <v>9729.5</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4598,28 +4735,29 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>9740</v>
+        <v>9680</v>
       </c>
       <c r="C109" t="n">
-        <v>9825</v>
+        <v>9680</v>
       </c>
       <c r="D109" t="n">
-        <v>9825</v>
+        <v>9680</v>
       </c>
       <c r="E109" t="n">
-        <v>9740</v>
+        <v>9680</v>
       </c>
       <c r="F109" t="n">
-        <v>30.6849</v>
+        <v>21.1093</v>
       </c>
       <c r="G109" t="n">
-        <v>3324.50424032</v>
+        <v>9728</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4637,28 +4775,29 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>9800</v>
+        <v>9680</v>
       </c>
       <c r="C110" t="n">
-        <v>9800</v>
+        <v>9680</v>
       </c>
       <c r="D110" t="n">
-        <v>9800</v>
+        <v>9680</v>
       </c>
       <c r="E110" t="n">
-        <v>9800</v>
+        <v>9680</v>
       </c>
       <c r="F110" t="n">
-        <v>9.245699999999999</v>
+        <v>4.5609</v>
       </c>
       <c r="G110" t="n">
-        <v>3315.258540320001</v>
+        <v>9726.5</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4676,28 +4815,29 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>9790</v>
+        <v>9680</v>
       </c>
       <c r="C111" t="n">
-        <v>9800</v>
+        <v>9680</v>
       </c>
       <c r="D111" t="n">
-        <v>9800</v>
+        <v>9680</v>
       </c>
       <c r="E111" t="n">
-        <v>9790</v>
+        <v>9680</v>
       </c>
       <c r="F111" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="G111" t="n">
-        <v>3315.258540320001</v>
+        <v>9724.75</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4715,28 +4855,29 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>9790</v>
+        <v>9730</v>
       </c>
       <c r="C112" t="n">
-        <v>9810</v>
+        <v>9730</v>
       </c>
       <c r="D112" t="n">
-        <v>9810</v>
+        <v>9730</v>
       </c>
       <c r="E112" t="n">
-        <v>9740</v>
+        <v>9730</v>
       </c>
       <c r="F112" t="n">
-        <v>214.5929</v>
+        <v>9.161099999999999</v>
       </c>
       <c r="G112" t="n">
-        <v>3529.851440320001</v>
+        <v>9725.25</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4754,28 +4895,29 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>9735</v>
+        <v>9720</v>
       </c>
       <c r="C113" t="n">
-        <v>9735</v>
+        <v>9720</v>
       </c>
       <c r="D113" t="n">
-        <v>9735</v>
+        <v>9720</v>
       </c>
       <c r="E113" t="n">
-        <v>9735</v>
+        <v>9720</v>
       </c>
       <c r="F113" t="n">
-        <v>0.16</v>
+        <v>1.7648</v>
       </c>
       <c r="G113" t="n">
-        <v>3529.691440320001</v>
+        <v>9723.5</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4793,28 +4935,29 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>9760</v>
+        <v>9715</v>
       </c>
       <c r="C114" t="n">
-        <v>9760</v>
+        <v>9750</v>
       </c>
       <c r="D114" t="n">
-        <v>9760</v>
+        <v>9750</v>
       </c>
       <c r="E114" t="n">
-        <v>9760</v>
+        <v>9715</v>
       </c>
       <c r="F114" t="n">
-        <v>4.7061</v>
+        <v>434.2714</v>
       </c>
       <c r="G114" t="n">
-        <v>3534.397540320001</v>
+        <v>9723.5</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4832,28 +4975,29 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>9755</v>
+        <v>9745</v>
       </c>
       <c r="C115" t="n">
-        <v>9755</v>
+        <v>9745</v>
       </c>
       <c r="D115" t="n">
-        <v>9755</v>
+        <v>9745</v>
       </c>
       <c r="E115" t="n">
-        <v>9755</v>
+        <v>9745</v>
       </c>
       <c r="F115" t="n">
-        <v>4.7699</v>
+        <v>100.169</v>
       </c>
       <c r="G115" t="n">
-        <v>3529.627640320001</v>
+        <v>9725</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4871,28 +5015,29 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>9755</v>
+        <v>9740</v>
       </c>
       <c r="C116" t="n">
-        <v>9745</v>
+        <v>9685</v>
       </c>
       <c r="D116" t="n">
-        <v>9755</v>
+        <v>9740</v>
       </c>
       <c r="E116" t="n">
-        <v>9745</v>
+        <v>9685</v>
       </c>
       <c r="F116" t="n">
-        <v>14.8505</v>
+        <v>77.2167</v>
       </c>
       <c r="G116" t="n">
-        <v>3514.777140320001</v>
+        <v>9726.25</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4910,28 +5055,29 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
+        <v>9745</v>
+      </c>
+      <c r="C117" t="n">
         <v>9750</v>
-      </c>
-      <c r="C117" t="n">
-        <v>9720</v>
       </c>
       <c r="D117" t="n">
         <v>9750</v>
       </c>
       <c r="E117" t="n">
-        <v>9720</v>
+        <v>9745</v>
       </c>
       <c r="F117" t="n">
-        <v>236.7774</v>
+        <v>79.8069</v>
       </c>
       <c r="G117" t="n">
-        <v>3277.999740320001</v>
+        <v>9725.5</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4949,28 +5095,29 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>9720</v>
+        <v>9685</v>
       </c>
       <c r="C118" t="n">
-        <v>9715</v>
+        <v>9750</v>
       </c>
       <c r="D118" t="n">
-        <v>9720</v>
+        <v>9750</v>
       </c>
       <c r="E118" t="n">
-        <v>9715</v>
+        <v>9685</v>
       </c>
       <c r="F118" t="n">
-        <v>96.61799999999999</v>
+        <v>8.827</v>
       </c>
       <c r="G118" t="n">
-        <v>3181.381740320001</v>
+        <v>9722</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4988,28 +5135,29 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>9705</v>
+        <v>9785</v>
       </c>
       <c r="C119" t="n">
-        <v>9710</v>
+        <v>9785</v>
       </c>
       <c r="D119" t="n">
-        <v>9710</v>
+        <v>9785</v>
       </c>
       <c r="E119" t="n">
-        <v>9705</v>
+        <v>9785</v>
       </c>
       <c r="F119" t="n">
-        <v>11</v>
+        <v>20.3072</v>
       </c>
       <c r="G119" t="n">
-        <v>3170.381740320001</v>
+        <v>9723.5</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -5027,28 +5175,29 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>9700</v>
+        <v>9770</v>
       </c>
       <c r="C120" t="n">
-        <v>9700</v>
+        <v>9770</v>
       </c>
       <c r="D120" t="n">
-        <v>9700</v>
+        <v>9770</v>
       </c>
       <c r="E120" t="n">
-        <v>9700</v>
+        <v>9770</v>
       </c>
       <c r="F120" t="n">
-        <v>3.6662</v>
+        <v>15.3168</v>
       </c>
       <c r="G120" t="n">
-        <v>3166.715540320001</v>
+        <v>9724</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -5066,28 +5215,29 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>9660</v>
+        <v>9770</v>
       </c>
       <c r="C121" t="n">
-        <v>9660</v>
+        <v>9770</v>
       </c>
       <c r="D121" t="n">
-        <v>9660</v>
+        <v>9770</v>
       </c>
       <c r="E121" t="n">
-        <v>9630</v>
+        <v>9770</v>
       </c>
       <c r="F121" t="n">
-        <v>49.0698</v>
+        <v>1.419</v>
       </c>
       <c r="G121" t="n">
-        <v>3117.645740320001</v>
+        <v>9724.75</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5105,28 +5255,29 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>9660</v>
+        <v>9685</v>
       </c>
       <c r="C122" t="n">
-        <v>9720</v>
+        <v>9685</v>
       </c>
       <c r="D122" t="n">
-        <v>9720</v>
+        <v>9685</v>
       </c>
       <c r="E122" t="n">
-        <v>9660</v>
+        <v>9685</v>
       </c>
       <c r="F122" t="n">
-        <v>102.98241486</v>
+        <v>0.5162</v>
       </c>
       <c r="G122" t="n">
-        <v>3220.628155180001</v>
+        <v>9721.25</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5144,28 +5295,29 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>9715</v>
+        <v>9695</v>
       </c>
       <c r="C123" t="n">
-        <v>9715</v>
+        <v>9695</v>
       </c>
       <c r="D123" t="n">
-        <v>9715</v>
+        <v>9695</v>
       </c>
       <c r="E123" t="n">
-        <v>9715</v>
+        <v>9695</v>
       </c>
       <c r="F123" t="n">
-        <v>51.4668</v>
+        <v>6</v>
       </c>
       <c r="G123" t="n">
-        <v>3169.161355180001</v>
+        <v>9718.25</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5183,28 +5335,29 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>9715</v>
+        <v>9695</v>
       </c>
       <c r="C124" t="n">
-        <v>9715</v>
+        <v>9695</v>
       </c>
       <c r="D124" t="n">
-        <v>9715</v>
+        <v>9695</v>
       </c>
       <c r="E124" t="n">
-        <v>9715</v>
+        <v>9695</v>
       </c>
       <c r="F124" t="n">
-        <v>1.1257</v>
+        <v>6</v>
       </c>
       <c r="G124" t="n">
-        <v>3169.161355180001</v>
+        <v>9715.25</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5222,28 +5375,29 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>9650</v>
+        <v>9695</v>
       </c>
       <c r="C125" t="n">
-        <v>9650</v>
+        <v>9685</v>
       </c>
       <c r="D125" t="n">
-        <v>9650</v>
+        <v>9695</v>
       </c>
       <c r="E125" t="n">
-        <v>9650</v>
+        <v>9685</v>
       </c>
       <c r="F125" t="n">
-        <v>172.6037</v>
+        <v>100</v>
       </c>
       <c r="G125" t="n">
-        <v>2996.55765518</v>
+        <v>9714.75</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5261,28 +5415,29 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>9650</v>
+        <v>9690</v>
       </c>
       <c r="C126" t="n">
-        <v>9655</v>
+        <v>9700</v>
       </c>
       <c r="D126" t="n">
-        <v>9695</v>
+        <v>9700</v>
       </c>
       <c r="E126" t="n">
-        <v>9650</v>
+        <v>9690</v>
       </c>
       <c r="F126" t="n">
-        <v>320.5363</v>
+        <v>4</v>
       </c>
       <c r="G126" t="n">
-        <v>3317.09395518</v>
+        <v>9714</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5300,28 +5455,29 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>9695</v>
+        <v>9725</v>
       </c>
       <c r="C127" t="n">
-        <v>9670</v>
+        <v>9690</v>
       </c>
       <c r="D127" t="n">
-        <v>9695</v>
+        <v>9725</v>
       </c>
       <c r="E127" t="n">
-        <v>9665</v>
+        <v>9690</v>
       </c>
       <c r="F127" t="n">
-        <v>213.6265</v>
+        <v>148.7719</v>
       </c>
       <c r="G127" t="n">
-        <v>3530.72045518</v>
+        <v>9715.5</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5339,28 +5495,29 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>9670</v>
+        <v>9735</v>
       </c>
       <c r="C128" t="n">
-        <v>9670</v>
+        <v>9735</v>
       </c>
       <c r="D128" t="n">
-        <v>9670</v>
+        <v>9735</v>
       </c>
       <c r="E128" t="n">
-        <v>9670</v>
+        <v>9735</v>
       </c>
       <c r="F128" t="n">
-        <v>83.0073</v>
+        <v>2</v>
       </c>
       <c r="G128" t="n">
-        <v>3530.72045518</v>
+        <v>9718.25</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5378,28 +5535,29 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>9695</v>
+        <v>9735</v>
       </c>
       <c r="C129" t="n">
-        <v>9670</v>
+        <v>9735</v>
       </c>
       <c r="D129" t="n">
-        <v>9695</v>
+        <v>9735</v>
       </c>
       <c r="E129" t="n">
-        <v>9670</v>
+        <v>9735</v>
       </c>
       <c r="F129" t="n">
-        <v>15.2269</v>
+        <v>0.20287621</v>
       </c>
       <c r="G129" t="n">
-        <v>3530.72045518</v>
+        <v>9721</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5417,28 +5575,29 @@
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>9705</v>
+        <v>9710</v>
       </c>
       <c r="C130" t="n">
         <v>9705</v>
       </c>
       <c r="D130" t="n">
-        <v>9705</v>
+        <v>9710</v>
       </c>
       <c r="E130" t="n">
-        <v>9705</v>
+        <v>9700</v>
       </c>
       <c r="F130" t="n">
-        <v>36.7358</v>
+        <v>18</v>
       </c>
       <c r="G130" t="n">
-        <v>3567.45625518</v>
+        <v>9722.5</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5456,28 +5615,29 @@
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>9710</v>
+        <v>9705</v>
       </c>
       <c r="C131" t="n">
-        <v>9710</v>
+        <v>9705</v>
       </c>
       <c r="D131" t="n">
-        <v>9710</v>
+        <v>9705</v>
       </c>
       <c r="E131" t="n">
-        <v>9710</v>
+        <v>9705</v>
       </c>
       <c r="F131" t="n">
-        <v>173.2165</v>
+        <v>2</v>
       </c>
       <c r="G131" t="n">
-        <v>3740.67275518</v>
+        <v>9723.75</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5495,28 +5655,29 @@
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>9710</v>
+        <v>9700</v>
       </c>
       <c r="C132" t="n">
-        <v>9715</v>
+        <v>9700</v>
       </c>
       <c r="D132" t="n">
-        <v>9715</v>
+        <v>9700</v>
       </c>
       <c r="E132" t="n">
-        <v>9710</v>
+        <v>9700</v>
       </c>
       <c r="F132" t="n">
-        <v>28.12</v>
+        <v>0.2</v>
       </c>
       <c r="G132" t="n">
-        <v>3768.79275518</v>
+        <v>9722.25</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5534,28 +5695,29 @@
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>9715</v>
+        <v>9720</v>
       </c>
       <c r="C133" t="n">
-        <v>9715</v>
+        <v>9720</v>
       </c>
       <c r="D133" t="n">
-        <v>9715</v>
+        <v>9720</v>
       </c>
       <c r="E133" t="n">
-        <v>9715</v>
+        <v>9720</v>
       </c>
       <c r="F133" t="n">
-        <v>2</v>
+        <v>4.773</v>
       </c>
       <c r="G133" t="n">
-        <v>3768.79275518</v>
+        <v>9722.25</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5573,28 +5735,29 @@
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>9720</v>
+        <v>9705</v>
       </c>
       <c r="C134" t="n">
-        <v>9755</v>
+        <v>9705</v>
       </c>
       <c r="D134" t="n">
-        <v>9755</v>
+        <v>9705</v>
       </c>
       <c r="E134" t="n">
-        <v>9720</v>
+        <v>9705</v>
       </c>
       <c r="F134" t="n">
-        <v>345.3237</v>
+        <v>4.3706</v>
       </c>
       <c r="G134" t="n">
-        <v>4114.11645518</v>
+        <v>9721.75</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5612,28 +5775,29 @@
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>9755</v>
+        <v>9705</v>
       </c>
       <c r="C135" t="n">
-        <v>9755</v>
+        <v>9700</v>
       </c>
       <c r="D135" t="n">
-        <v>9755</v>
+        <v>9705</v>
       </c>
       <c r="E135" t="n">
-        <v>9755</v>
+        <v>9700</v>
       </c>
       <c r="F135" t="n">
-        <v>41.5842</v>
+        <v>52.1211</v>
       </c>
       <c r="G135" t="n">
-        <v>4114.11645518</v>
+        <v>9719.75</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5651,28 +5815,29 @@
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>9715</v>
+        <v>9700</v>
       </c>
       <c r="C136" t="n">
-        <v>9710</v>
+        <v>9700</v>
       </c>
       <c r="D136" t="n">
-        <v>9715</v>
+        <v>9700</v>
       </c>
       <c r="E136" t="n">
-        <v>9710</v>
+        <v>9700</v>
       </c>
       <c r="F136" t="n">
-        <v>60.5777</v>
+        <v>5</v>
       </c>
       <c r="G136" t="n">
-        <v>4053.53875518</v>
+        <v>9717.75</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5690,28 +5855,29 @@
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>9715</v>
+        <v>9750</v>
       </c>
       <c r="C137" t="n">
-        <v>9710</v>
+        <v>9705</v>
       </c>
       <c r="D137" t="n">
-        <v>9715</v>
+        <v>9750</v>
       </c>
       <c r="E137" t="n">
-        <v>9710</v>
+        <v>9705</v>
       </c>
       <c r="F137" t="n">
-        <v>41.4803</v>
+        <v>53.282</v>
       </c>
       <c r="G137" t="n">
-        <v>4053.53875518</v>
+        <v>9718</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5729,28 +5895,29 @@
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>9715</v>
+        <v>9760</v>
       </c>
       <c r="C138" t="n">
-        <v>9745</v>
+        <v>9760</v>
       </c>
       <c r="D138" t="n">
-        <v>9745</v>
+        <v>9760</v>
       </c>
       <c r="E138" t="n">
-        <v>9715</v>
+        <v>9760</v>
       </c>
       <c r="F138" t="n">
-        <v>77.5</v>
+        <v>99.2632</v>
       </c>
       <c r="G138" t="n">
-        <v>4131.03875518</v>
+        <v>9721.75</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5768,6 +5935,7 @@
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5786,10 +5954,10 @@
         <v>9760</v>
       </c>
       <c r="F139" t="n">
-        <v>25.7474</v>
+        <v>39.4</v>
       </c>
       <c r="G139" t="n">
-        <v>4156.786155180001</v>
+        <v>9720.5</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5807,67 +5975,67 @@
       <c r="M139" t="n">
         <v>1</v>
       </c>
+      <c r="N139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>9755</v>
+        <v>9760</v>
       </c>
       <c r="C140" t="n">
         <v>9755</v>
       </c>
       <c r="D140" t="n">
-        <v>9755</v>
+        <v>9760</v>
       </c>
       <c r="E140" t="n">
         <v>9755</v>
       </c>
       <c r="F140" t="n">
-        <v>257.8541</v>
+        <v>6.2271</v>
       </c>
       <c r="G140" t="n">
-        <v>3898.932055180001</v>
+        <v>9720</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>9755</v>
+        <v>9700</v>
       </c>
       <c r="C141" t="n">
-        <v>9755</v>
+        <v>9700</v>
       </c>
       <c r="D141" t="n">
-        <v>9755</v>
+        <v>9700</v>
       </c>
       <c r="E141" t="n">
-        <v>9755</v>
+        <v>9700</v>
       </c>
       <c r="F141" t="n">
-        <v>10</v>
+        <v>2.1372</v>
       </c>
       <c r="G141" t="n">
-        <v>3898.932055180001</v>
+        <v>9716.5</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5877,53 +6045,47 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
+      <c r="N141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>9760</v>
+        <v>9700</v>
       </c>
       <c r="C142" t="n">
-        <v>9760</v>
+        <v>9755</v>
       </c>
       <c r="D142" t="n">
-        <v>9760</v>
+        <v>9755</v>
       </c>
       <c r="E142" t="n">
-        <v>9760</v>
+        <v>9700</v>
       </c>
       <c r="F142" t="n">
-        <v>4.908</v>
+        <v>163.0586</v>
       </c>
       <c r="G142" t="n">
-        <v>3903.84005518</v>
+        <v>9717.25</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
       </c>
       <c r="I142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
+      <c r="N142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5942,10 +6104,10 @@
         <v>9755</v>
       </c>
       <c r="F143" t="n">
-        <v>24</v>
+        <v>7.1207</v>
       </c>
       <c r="G143" t="n">
-        <v>3879.84005518</v>
+        <v>9720.25</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5955,14 +6117,11 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
+      <c r="N143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5972,19 +6131,19 @@
         <v>9755</v>
       </c>
       <c r="C144" t="n">
-        <v>9755</v>
+        <v>9760</v>
       </c>
       <c r="D144" t="n">
-        <v>9755</v>
+        <v>9760</v>
       </c>
       <c r="E144" t="n">
         <v>9755</v>
       </c>
       <c r="F144" t="n">
-        <v>58.7236</v>
+        <v>81.423</v>
       </c>
       <c r="G144" t="n">
-        <v>3879.84005518</v>
+        <v>9723.25</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5994,75 +6153,69 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
+      <c r="N144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>9755</v>
+        <v>9760</v>
       </c>
       <c r="C145" t="n">
-        <v>9755</v>
+        <v>9760</v>
       </c>
       <c r="D145" t="n">
-        <v>9755</v>
+        <v>9760</v>
       </c>
       <c r="E145" t="n">
-        <v>9755</v>
+        <v>9760</v>
       </c>
       <c r="F145" t="n">
-        <v>35.9819</v>
+        <v>100</v>
       </c>
       <c r="G145" t="n">
-        <v>3879.84005518</v>
+        <v>9726.5</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
       </c>
       <c r="I145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
+      <c r="N145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>9755</v>
+        <v>9725</v>
       </c>
       <c r="C146" t="n">
-        <v>9755</v>
+        <v>9770</v>
       </c>
       <c r="D146" t="n">
-        <v>9755</v>
+        <v>9770</v>
       </c>
       <c r="E146" t="n">
-        <v>9755</v>
+        <v>9720</v>
       </c>
       <c r="F146" t="n">
-        <v>2.1897</v>
+        <v>85.581</v>
       </c>
       <c r="G146" t="n">
-        <v>3879.84005518</v>
+        <v>9728.25</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -6072,36 +6225,33 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
+      <c r="N146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>9705</v>
+        <v>9780</v>
       </c>
       <c r="C147" t="n">
-        <v>9705</v>
+        <v>9720</v>
       </c>
       <c r="D147" t="n">
-        <v>9705</v>
+        <v>9780</v>
       </c>
       <c r="E147" t="n">
-        <v>9705</v>
+        <v>9720</v>
       </c>
       <c r="F147" t="n">
-        <v>2.1333</v>
+        <v>6.0005</v>
       </c>
       <c r="G147" t="n">
-        <v>3877.706755180001</v>
+        <v>9731</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -6111,36 +6261,33 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
+      <c r="N147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>9705</v>
+        <v>9725</v>
       </c>
       <c r="C148" t="n">
-        <v>9705</v>
+        <v>9780</v>
       </c>
       <c r="D148" t="n">
-        <v>9705</v>
+        <v>9780</v>
       </c>
       <c r="E148" t="n">
-        <v>9705</v>
+        <v>9725</v>
       </c>
       <c r="F148" t="n">
-        <v>10</v>
+        <v>0.2714</v>
       </c>
       <c r="G148" t="n">
-        <v>3877.706755180001</v>
+        <v>9730.5</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -6150,36 +6297,33 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
       </c>
+      <c r="N148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>9695</v>
+        <v>9780</v>
       </c>
       <c r="C149" t="n">
-        <v>9675</v>
+        <v>9780</v>
       </c>
       <c r="D149" t="n">
-        <v>9695</v>
+        <v>9780</v>
       </c>
       <c r="E149" t="n">
-        <v>9675</v>
+        <v>9780</v>
       </c>
       <c r="F149" t="n">
-        <v>88.4196</v>
+        <v>28.5208</v>
       </c>
       <c r="G149" t="n">
-        <v>3789.28715518</v>
+        <v>9732.75</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -6189,36 +6333,33 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
+      <c r="N149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>9680</v>
+        <v>9760</v>
       </c>
       <c r="C150" t="n">
-        <v>9680</v>
+        <v>9760</v>
       </c>
       <c r="D150" t="n">
-        <v>9680</v>
+        <v>9760</v>
       </c>
       <c r="E150" t="n">
-        <v>9680</v>
+        <v>9760</v>
       </c>
       <c r="F150" t="n">
-        <v>234.356</v>
+        <v>53.1216</v>
       </c>
       <c r="G150" t="n">
-        <v>4023.643155180001</v>
+        <v>9735.25</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -6228,75 +6369,69 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
+      <c r="N150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>9680</v>
+        <v>9725</v>
       </c>
       <c r="C151" t="n">
-        <v>9680</v>
+        <v>9725</v>
       </c>
       <c r="D151" t="n">
-        <v>9680</v>
+        <v>9725</v>
       </c>
       <c r="E151" t="n">
-        <v>9680</v>
+        <v>9725</v>
       </c>
       <c r="F151" t="n">
-        <v>21.1093</v>
+        <v>0.1919</v>
       </c>
       <c r="G151" t="n">
-        <v>4023.643155180001</v>
+        <v>9736.25</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
       </c>
       <c r="I151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
+      <c r="N151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>9680</v>
+        <v>9785</v>
       </c>
       <c r="C152" t="n">
-        <v>9680</v>
+        <v>9785</v>
       </c>
       <c r="D152" t="n">
-        <v>9680</v>
+        <v>9785</v>
       </c>
       <c r="E152" t="n">
-        <v>9680</v>
+        <v>9785</v>
       </c>
       <c r="F152" t="n">
-        <v>4.5609</v>
+        <v>352.5961</v>
       </c>
       <c r="G152" t="n">
-        <v>4023.643155180001</v>
+        <v>9740.5</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -6306,209 +6441,191 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
+      <c r="N152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>9680</v>
+        <v>9785</v>
       </c>
       <c r="C153" t="n">
-        <v>9680</v>
+        <v>9785</v>
       </c>
       <c r="D153" t="n">
-        <v>9680</v>
+        <v>9785</v>
       </c>
       <c r="E153" t="n">
-        <v>9680</v>
+        <v>9785</v>
       </c>
       <c r="F153" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G153" t="n">
-        <v>4023.643155180001</v>
+        <v>9743.75</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
       </c>
       <c r="I153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
+      <c r="N153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>9730</v>
+        <v>9785</v>
       </c>
       <c r="C154" t="n">
-        <v>9730</v>
+        <v>9785</v>
       </c>
       <c r="D154" t="n">
-        <v>9730</v>
+        <v>9785</v>
       </c>
       <c r="E154" t="n">
-        <v>9730</v>
+        <v>9785</v>
       </c>
       <c r="F154" t="n">
-        <v>9.161099999999999</v>
+        <v>4</v>
       </c>
       <c r="G154" t="n">
-        <v>4032.80425518</v>
+        <v>9747.75</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
       </c>
       <c r="I154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
       </c>
+      <c r="N154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>9720</v>
+        <v>9765</v>
       </c>
       <c r="C155" t="n">
-        <v>9720</v>
+        <v>9765</v>
       </c>
       <c r="D155" t="n">
-        <v>9720</v>
+        <v>9770</v>
       </c>
       <c r="E155" t="n">
-        <v>9720</v>
+        <v>9765</v>
       </c>
       <c r="F155" t="n">
-        <v>1.7648</v>
+        <v>12</v>
       </c>
       <c r="G155" t="n">
-        <v>4031.03945518</v>
+        <v>9750.75</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
       </c>
       <c r="I155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
         <v>1</v>
       </c>
+      <c r="N155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>9715</v>
+        <v>9785</v>
       </c>
       <c r="C156" t="n">
-        <v>9750</v>
+        <v>9785</v>
       </c>
       <c r="D156" t="n">
-        <v>9750</v>
+        <v>9785</v>
       </c>
       <c r="E156" t="n">
-        <v>9715</v>
+        <v>9785</v>
       </c>
       <c r="F156" t="n">
-        <v>434.2714</v>
+        <v>12</v>
       </c>
       <c r="G156" t="n">
-        <v>4465.310855180001</v>
+        <v>9755</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
       </c>
       <c r="I156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
         <v>1</v>
       </c>
+      <c r="N156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>9745</v>
+        <v>9795</v>
       </c>
       <c r="C157" t="n">
-        <v>9745</v>
+        <v>9810</v>
       </c>
       <c r="D157" t="n">
-        <v>9745</v>
+        <v>9820</v>
       </c>
       <c r="E157" t="n">
-        <v>9745</v>
+        <v>9735</v>
       </c>
       <c r="F157" t="n">
-        <v>100.169</v>
+        <v>218</v>
       </c>
       <c r="G157" t="n">
-        <v>4365.141855180001</v>
+        <v>9757.25</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
       </c>
       <c r="I157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
       </c>
+      <c r="N157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6518,1189 +6635,1099 @@
         <v>9740</v>
       </c>
       <c r="C158" t="n">
-        <v>9685</v>
+        <v>9720</v>
       </c>
       <c r="D158" t="n">
         <v>9740</v>
       </c>
       <c r="E158" t="n">
-        <v>9685</v>
+        <v>9720</v>
       </c>
       <c r="F158" t="n">
-        <v>77.2167</v>
+        <v>48</v>
       </c>
       <c r="G158" t="n">
-        <v>4287.925155180001</v>
+        <v>9756.25</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
       </c>
       <c r="I158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
         <v>1</v>
       </c>
+      <c r="N158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>9745</v>
+        <v>9720</v>
       </c>
       <c r="C159" t="n">
-        <v>9750</v>
+        <v>9705</v>
       </c>
       <c r="D159" t="n">
-        <v>9750</v>
+        <v>9735</v>
       </c>
       <c r="E159" t="n">
-        <v>9745</v>
+        <v>9705</v>
       </c>
       <c r="F159" t="n">
-        <v>79.8069</v>
+        <v>65.2366</v>
       </c>
       <c r="G159" t="n">
-        <v>4367.73205518</v>
+        <v>9754.25</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
       </c>
       <c r="I159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
         <v>1</v>
       </c>
+      <c r="N159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>9685</v>
+        <v>9745</v>
       </c>
       <c r="C160" t="n">
-        <v>9750</v>
+        <v>9770</v>
       </c>
       <c r="D160" t="n">
-        <v>9750</v>
+        <v>9770</v>
       </c>
       <c r="E160" t="n">
-        <v>9685</v>
+        <v>9745</v>
       </c>
       <c r="F160" t="n">
-        <v>8.827</v>
+        <v>43.5642</v>
       </c>
       <c r="G160" t="n">
-        <v>4367.73205518</v>
+        <v>9753.5</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
       </c>
       <c r="I160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
         <v>1</v>
       </c>
+      <c r="N160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>9785</v>
+        <v>9765</v>
       </c>
       <c r="C161" t="n">
-        <v>9785</v>
+        <v>9700</v>
       </c>
       <c r="D161" t="n">
-        <v>9785</v>
+        <v>9765</v>
       </c>
       <c r="E161" t="n">
-        <v>9785</v>
+        <v>9700</v>
       </c>
       <c r="F161" t="n">
-        <v>20.3072</v>
+        <v>81.3747</v>
       </c>
       <c r="G161" t="n">
-        <v>4388.039255180001</v>
+        <v>9756.75</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
       </c>
       <c r="I161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
         <v>1</v>
       </c>
+      <c r="N161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>9770</v>
+        <v>9715</v>
       </c>
       <c r="C162" t="n">
-        <v>9770</v>
+        <v>9685</v>
       </c>
       <c r="D162" t="n">
-        <v>9770</v>
+        <v>9715</v>
       </c>
       <c r="E162" t="n">
-        <v>9770</v>
+        <v>9685</v>
       </c>
       <c r="F162" t="n">
-        <v>15.3168</v>
+        <v>181</v>
       </c>
       <c r="G162" t="n">
-        <v>4372.722455180001</v>
+        <v>9757.5</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
       </c>
       <c r="I162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
       </c>
+      <c r="N162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>9770</v>
+        <v>9685</v>
       </c>
       <c r="C163" t="n">
-        <v>9770</v>
+        <v>9735</v>
       </c>
       <c r="D163" t="n">
-        <v>9770</v>
+        <v>9735</v>
       </c>
       <c r="E163" t="n">
-        <v>9770</v>
+        <v>9685</v>
       </c>
       <c r="F163" t="n">
-        <v>1.419</v>
+        <v>22.5827</v>
       </c>
       <c r="G163" t="n">
-        <v>4372.722455180001</v>
+        <v>9754</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
       </c>
       <c r="I163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
+      <c r="N163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>9685</v>
+        <v>9760</v>
       </c>
       <c r="C164" t="n">
-        <v>9685</v>
+        <v>9820</v>
       </c>
       <c r="D164" t="n">
-        <v>9685</v>
+        <v>9820</v>
       </c>
       <c r="E164" t="n">
-        <v>9685</v>
+        <v>9760</v>
       </c>
       <c r="F164" t="n">
-        <v>0.5162</v>
+        <v>394.3674</v>
       </c>
       <c r="G164" t="n">
-        <v>4372.206255180001</v>
+        <v>9754.25</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
       </c>
       <c r="I164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
       </c>
+      <c r="N164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>9695</v>
+        <v>9725</v>
       </c>
       <c r="C165" t="n">
-        <v>9695</v>
+        <v>9720</v>
       </c>
       <c r="D165" t="n">
-        <v>9695</v>
+        <v>9725</v>
       </c>
       <c r="E165" t="n">
-        <v>9695</v>
+        <v>9720</v>
       </c>
       <c r="F165" t="n">
-        <v>6</v>
+        <v>18.3</v>
       </c>
       <c r="G165" t="n">
-        <v>4378.206255180001</v>
+        <v>9752.5</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
       </c>
       <c r="I165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
       </c>
+      <c r="N165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>9695</v>
+        <v>9710</v>
       </c>
       <c r="C166" t="n">
-        <v>9695</v>
+        <v>9710</v>
       </c>
       <c r="D166" t="n">
-        <v>9695</v>
+        <v>9710</v>
       </c>
       <c r="E166" t="n">
-        <v>9695</v>
+        <v>9710</v>
       </c>
       <c r="F166" t="n">
-        <v>6</v>
+        <v>12.1109</v>
       </c>
       <c r="G166" t="n">
-        <v>4378.206255180001</v>
+        <v>9751.75</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
       </c>
       <c r="I166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
         <v>1</v>
       </c>
+      <c r="N166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>9695</v>
+        <v>9820</v>
       </c>
       <c r="C167" t="n">
-        <v>9685</v>
+        <v>9820</v>
       </c>
       <c r="D167" t="n">
-        <v>9695</v>
+        <v>9820</v>
       </c>
       <c r="E167" t="n">
-        <v>9685</v>
+        <v>9820</v>
       </c>
       <c r="F167" t="n">
-        <v>100</v>
+        <v>25.49297352</v>
       </c>
       <c r="G167" t="n">
-        <v>4278.206255180001</v>
+        <v>9753.75</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
       </c>
       <c r="I167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
         <v>1</v>
       </c>
+      <c r="N167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>9690</v>
+        <v>9840</v>
       </c>
       <c r="C168" t="n">
-        <v>9700</v>
+        <v>9845</v>
       </c>
       <c r="D168" t="n">
-        <v>9700</v>
+        <v>9845</v>
       </c>
       <c r="E168" t="n">
-        <v>9690</v>
+        <v>9840</v>
       </c>
       <c r="F168" t="n">
-        <v>4</v>
+        <v>24.36378872</v>
       </c>
       <c r="G168" t="n">
-        <v>4282.206255180001</v>
+        <v>9759.5</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
       </c>
       <c r="I168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
         <v>1</v>
       </c>
+      <c r="N168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>9725</v>
+        <v>9720</v>
       </c>
       <c r="C169" t="n">
-        <v>9690</v>
+        <v>9845</v>
       </c>
       <c r="D169" t="n">
-        <v>9725</v>
+        <v>9845</v>
       </c>
       <c r="E169" t="n">
         <v>9690</v>
       </c>
       <c r="F169" t="n">
-        <v>148.7719</v>
+        <v>190.6574</v>
       </c>
       <c r="G169" t="n">
-        <v>4133.434355180001</v>
+        <v>9756.5</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
       </c>
       <c r="I169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
         <v>1</v>
       </c>
+      <c r="N169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>9735</v>
+        <v>9700</v>
       </c>
       <c r="C170" t="n">
-        <v>9735</v>
+        <v>9700</v>
       </c>
       <c r="D170" t="n">
-        <v>9735</v>
+        <v>9700</v>
       </c>
       <c r="E170" t="n">
-        <v>9735</v>
+        <v>9700</v>
       </c>
       <c r="F170" t="n">
-        <v>2</v>
+        <v>123.4355</v>
       </c>
       <c r="G170" t="n">
-        <v>4135.434355180001</v>
+        <v>9753.5</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
       </c>
       <c r="I170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
         <v>1</v>
       </c>
+      <c r="N170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>9735</v>
+        <v>9695</v>
       </c>
       <c r="C171" t="n">
-        <v>9735</v>
+        <v>9695</v>
       </c>
       <c r="D171" t="n">
-        <v>9735</v>
+        <v>9695</v>
       </c>
       <c r="E171" t="n">
-        <v>9735</v>
+        <v>9695</v>
       </c>
       <c r="F171" t="n">
-        <v>0.20287621</v>
+        <v>8.044600000000001</v>
       </c>
       <c r="G171" t="n">
-        <v>4135.434355180001</v>
+        <v>9752</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
       </c>
       <c r="I171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
         <v>1</v>
       </c>
+      <c r="N171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>9710</v>
+        <v>9690</v>
       </c>
       <c r="C172" t="n">
-        <v>9705</v>
+        <v>9690</v>
       </c>
       <c r="D172" t="n">
-        <v>9710</v>
+        <v>9690</v>
       </c>
       <c r="E172" t="n">
-        <v>9700</v>
+        <v>9690</v>
       </c>
       <c r="F172" t="n">
-        <v>18</v>
+        <v>2.4</v>
       </c>
       <c r="G172" t="n">
-        <v>4117.434355180001</v>
+        <v>9747.25</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
       </c>
       <c r="I172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
         <v>1</v>
       </c>
+      <c r="N172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>9705</v>
+        <v>9745</v>
       </c>
       <c r="C173" t="n">
-        <v>9705</v>
+        <v>9745</v>
       </c>
       <c r="D173" t="n">
-        <v>9705</v>
+        <v>9745</v>
       </c>
       <c r="E173" t="n">
-        <v>9705</v>
+        <v>9745</v>
       </c>
       <c r="F173" t="n">
-        <v>2</v>
+        <v>11.2704</v>
       </c>
       <c r="G173" t="n">
-        <v>4117.434355180001</v>
+        <v>9745.25</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
       </c>
       <c r="I173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
         <v>1</v>
       </c>
+      <c r="N173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>9700</v>
+        <v>9745</v>
       </c>
       <c r="C174" t="n">
-        <v>9700</v>
+        <v>9745</v>
       </c>
       <c r="D174" t="n">
-        <v>9700</v>
+        <v>9745</v>
       </c>
       <c r="E174" t="n">
-        <v>9700</v>
+        <v>9745</v>
       </c>
       <c r="F174" t="n">
-        <v>0.2</v>
+        <v>11.6789</v>
       </c>
       <c r="G174" t="n">
-        <v>4117.234355180001</v>
+        <v>9743.25</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
       </c>
       <c r="I174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
         <v>1</v>
       </c>
+      <c r="N174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>9720</v>
+        <v>9695</v>
       </c>
       <c r="C175" t="n">
-        <v>9720</v>
+        <v>9695</v>
       </c>
       <c r="D175" t="n">
-        <v>9720</v>
+        <v>9695</v>
       </c>
       <c r="E175" t="n">
-        <v>9720</v>
+        <v>9695</v>
       </c>
       <c r="F175" t="n">
-        <v>4.773</v>
+        <v>20</v>
       </c>
       <c r="G175" t="n">
-        <v>4122.007355180001</v>
+        <v>9739.75</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
       </c>
       <c r="I175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
         <v>1</v>
       </c>
+      <c r="N175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>9705</v>
+        <v>9695</v>
       </c>
       <c r="C176" t="n">
-        <v>9705</v>
+        <v>9700</v>
       </c>
       <c r="D176" t="n">
-        <v>9705</v>
+        <v>9700</v>
       </c>
       <c r="E176" t="n">
-        <v>9705</v>
+        <v>9695</v>
       </c>
       <c r="F176" t="n">
-        <v>4.3706</v>
+        <v>2</v>
       </c>
       <c r="G176" t="n">
-        <v>4117.636755180001</v>
+        <v>9735.25</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
       </c>
       <c r="I176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
         <v>1</v>
       </c>
+      <c r="N176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>9705</v>
+        <v>9730</v>
       </c>
       <c r="C177" t="n">
-        <v>9700</v>
+        <v>9730</v>
       </c>
       <c r="D177" t="n">
-        <v>9705</v>
+        <v>9730</v>
       </c>
       <c r="E177" t="n">
-        <v>9700</v>
+        <v>9730</v>
       </c>
       <c r="F177" t="n">
-        <v>52.1211</v>
+        <v>4.9297</v>
       </c>
       <c r="G177" t="n">
-        <v>4065.515655180001</v>
+        <v>9732</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
       </c>
       <c r="I177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
         <v>1</v>
       </c>
+      <c r="N177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>9700</v>
+        <v>9745</v>
       </c>
       <c r="C178" t="n">
-        <v>9700</v>
+        <v>9745</v>
       </c>
       <c r="D178" t="n">
-        <v>9700</v>
+        <v>9745</v>
       </c>
       <c r="E178" t="n">
-        <v>9700</v>
+        <v>9745</v>
       </c>
       <c r="F178" t="n">
-        <v>5</v>
+        <v>6.9779</v>
       </c>
       <c r="G178" t="n">
-        <v>4065.515655180001</v>
+        <v>9732.25</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
       </c>
       <c r="I178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
         <v>1</v>
       </c>
+      <c r="N178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>9750</v>
+        <v>9705</v>
       </c>
       <c r="C179" t="n">
         <v>9705</v>
       </c>
       <c r="D179" t="n">
-        <v>9750</v>
+        <v>9705</v>
       </c>
       <c r="E179" t="n">
         <v>9705</v>
       </c>
       <c r="F179" t="n">
-        <v>53.282</v>
+        <v>0.101</v>
       </c>
       <c r="G179" t="n">
-        <v>4118.797655180001</v>
+        <v>9731.5</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
       </c>
       <c r="I179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
         <v>1</v>
       </c>
+      <c r="N179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>9760</v>
+        <v>9820</v>
       </c>
       <c r="C180" t="n">
-        <v>9760</v>
+        <v>9820</v>
       </c>
       <c r="D180" t="n">
-        <v>9760</v>
+        <v>9820</v>
       </c>
       <c r="E180" t="n">
-        <v>9760</v>
+        <v>9820</v>
       </c>
       <c r="F180" t="n">
-        <v>99.2632</v>
+        <v>3.055</v>
       </c>
       <c r="G180" t="n">
-        <v>4218.060855180001</v>
+        <v>9735.25</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
       </c>
       <c r="I180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
         <v>1</v>
       </c>
+      <c r="N180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>9760</v>
+        <v>9715</v>
       </c>
       <c r="C181" t="n">
-        <v>9760</v>
+        <v>9710</v>
       </c>
       <c r="D181" t="n">
-        <v>9760</v>
+        <v>9715</v>
       </c>
       <c r="E181" t="n">
-        <v>9760</v>
+        <v>9710</v>
       </c>
       <c r="F181" t="n">
-        <v>39.4</v>
+        <v>266.9603</v>
       </c>
       <c r="G181" t="n">
-        <v>4218.060855180001</v>
+        <v>9732.75</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
       </c>
       <c r="I181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
         <v>1</v>
       </c>
+      <c r="N181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>9760</v>
+        <v>9705</v>
       </c>
       <c r="C182" t="n">
-        <v>9755</v>
+        <v>9690</v>
       </c>
       <c r="D182" t="n">
-        <v>9760</v>
+        <v>9705</v>
       </c>
       <c r="E182" t="n">
-        <v>9755</v>
+        <v>9690</v>
       </c>
       <c r="F182" t="n">
-        <v>6.2271</v>
+        <v>174.1726</v>
       </c>
       <c r="G182" t="n">
-        <v>4211.833755180001</v>
+        <v>9732.25</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
       </c>
       <c r="I182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="n">
         <v>1</v>
       </c>
+      <c r="N182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>9700</v>
+        <v>9695</v>
       </c>
       <c r="C183" t="n">
-        <v>9700</v>
+        <v>9600</v>
       </c>
       <c r="D183" t="n">
-        <v>9700</v>
+        <v>9695</v>
       </c>
       <c r="E183" t="n">
-        <v>9700</v>
+        <v>9600</v>
       </c>
       <c r="F183" t="n">
-        <v>2.1372</v>
+        <v>181</v>
       </c>
       <c r="G183" t="n">
-        <v>4209.696555180001</v>
+        <v>9732.75</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
       </c>
       <c r="I183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L183" t="inlineStr"/>
       <c r="M183" t="n">
         <v>1</v>
       </c>
+      <c r="N183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>9700</v>
+        <v>9605</v>
       </c>
       <c r="C184" t="n">
-        <v>9755</v>
+        <v>9605</v>
       </c>
       <c r="D184" t="n">
-        <v>9755</v>
+        <v>9605</v>
       </c>
       <c r="E184" t="n">
-        <v>9700</v>
+        <v>9605</v>
       </c>
       <c r="F184" t="n">
-        <v>163.0586</v>
+        <v>35.311</v>
       </c>
       <c r="G184" t="n">
-        <v>4372.755155180002</v>
+        <v>9725</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
       </c>
       <c r="I184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L184" t="inlineStr"/>
       <c r="M184" t="n">
         <v>1</v>
       </c>
+      <c r="N184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>9755</v>
+        <v>9780</v>
       </c>
       <c r="C185" t="n">
-        <v>9755</v>
+        <v>9635</v>
       </c>
       <c r="D185" t="n">
-        <v>9755</v>
+        <v>9780</v>
       </c>
       <c r="E185" t="n">
-        <v>9755</v>
+        <v>9635</v>
       </c>
       <c r="F185" t="n">
-        <v>7.1207</v>
+        <v>8.101599999999999</v>
       </c>
       <c r="G185" t="n">
-        <v>4372.755155180002</v>
+        <v>9727.75</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
       </c>
       <c r="I185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="n">
         <v>1</v>
       </c>
+      <c r="N185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>9755</v>
+        <v>9650</v>
       </c>
       <c r="C186" t="n">
-        <v>9760</v>
+        <v>9655</v>
       </c>
       <c r="D186" t="n">
-        <v>9760</v>
+        <v>9655</v>
       </c>
       <c r="E186" t="n">
-        <v>9755</v>
+        <v>9650</v>
       </c>
       <c r="F186" t="n">
-        <v>81.423</v>
+        <v>8</v>
       </c>
       <c r="G186" t="n">
-        <v>4454.178155180001</v>
+        <v>9724.75</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
       </c>
       <c r="I186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L186" t="inlineStr"/>
       <c r="M186" t="n">
         <v>1</v>
       </c>
+      <c r="N186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>9760</v>
+        <v>9620</v>
       </c>
       <c r="C187" t="n">
-        <v>9760</v>
+        <v>9620</v>
       </c>
       <c r="D187" t="n">
-        <v>9760</v>
+        <v>9620</v>
       </c>
       <c r="E187" t="n">
-        <v>9760</v>
+        <v>9620</v>
       </c>
       <c r="F187" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G187" t="n">
-        <v>4454.178155180001</v>
+        <v>9714.75</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
       </c>
       <c r="I187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L187" t="inlineStr"/>
       <c r="M187" t="n">
         <v>1</v>
       </c>
+      <c r="N187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>9725</v>
+        <v>9620</v>
       </c>
       <c r="C188" t="n">
-        <v>9770</v>
+        <v>9620</v>
       </c>
       <c r="D188" t="n">
-        <v>9770</v>
+        <v>9620</v>
       </c>
       <c r="E188" t="n">
-        <v>9720</v>
+        <v>9620</v>
       </c>
       <c r="F188" t="n">
-        <v>85.581</v>
+        <v>10</v>
       </c>
       <c r="G188" t="n">
-        <v>4539.759155180001</v>
+        <v>9703.75</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7710,36 +7737,33 @@
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L188" t="inlineStr"/>
       <c r="M188" t="n">
         <v>1</v>
       </c>
+      <c r="N188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>9780</v>
+        <v>9620</v>
       </c>
       <c r="C189" t="n">
-        <v>9720</v>
+        <v>9620</v>
       </c>
       <c r="D189" t="n">
-        <v>9780</v>
+        <v>9620</v>
       </c>
       <c r="E189" t="n">
-        <v>9720</v>
+        <v>9620</v>
       </c>
       <c r="F189" t="n">
-        <v>6.0005</v>
+        <v>10</v>
       </c>
       <c r="G189" t="n">
-        <v>4533.758655180001</v>
+        <v>9698.75</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7749,36 +7773,33 @@
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L189" t="inlineStr"/>
       <c r="M189" t="n">
         <v>1</v>
       </c>
+      <c r="N189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>9725</v>
+        <v>9695</v>
       </c>
       <c r="C190" t="n">
-        <v>9780</v>
+        <v>9695</v>
       </c>
       <c r="D190" t="n">
-        <v>9780</v>
+        <v>9695</v>
       </c>
       <c r="E190" t="n">
-        <v>9725</v>
+        <v>9695</v>
       </c>
       <c r="F190" t="n">
-        <v>0.2714</v>
+        <v>1.0412</v>
       </c>
       <c r="G190" t="n">
-        <v>4534.030055180001</v>
+        <v>9698.5</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7788,36 +7809,33 @@
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L190" t="inlineStr"/>
       <c r="M190" t="n">
         <v>1</v>
       </c>
+      <c r="N190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>9780</v>
+        <v>9680</v>
       </c>
       <c r="C191" t="n">
-        <v>9780</v>
+        <v>9680</v>
       </c>
       <c r="D191" t="n">
-        <v>9780</v>
+        <v>9680</v>
       </c>
       <c r="E191" t="n">
-        <v>9780</v>
+        <v>9680</v>
       </c>
       <c r="F191" t="n">
-        <v>28.5208</v>
+        <v>26.9579</v>
       </c>
       <c r="G191" t="n">
-        <v>4534.030055180001</v>
+        <v>9697.75</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7827,36 +7845,33 @@
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L191" t="inlineStr"/>
       <c r="M191" t="n">
         <v>1</v>
       </c>
+      <c r="N191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>9760</v>
+        <v>9675</v>
       </c>
       <c r="C192" t="n">
-        <v>9760</v>
+        <v>9675</v>
       </c>
       <c r="D192" t="n">
-        <v>9760</v>
+        <v>9675</v>
       </c>
       <c r="E192" t="n">
-        <v>9760</v>
+        <v>9675</v>
       </c>
       <c r="F192" t="n">
-        <v>53.1216</v>
+        <v>10.2311</v>
       </c>
       <c r="G192" t="n">
-        <v>4480.908455180001</v>
+        <v>9697</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7866,36 +7881,33 @@
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L192" t="inlineStr"/>
       <c r="M192" t="n">
         <v>1</v>
       </c>
+      <c r="N192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>9725</v>
+        <v>9620</v>
       </c>
       <c r="C193" t="n">
-        <v>9725</v>
+        <v>9605</v>
       </c>
       <c r="D193" t="n">
-        <v>9725</v>
+        <v>9625</v>
       </c>
       <c r="E193" t="n">
-        <v>9725</v>
+        <v>9605</v>
       </c>
       <c r="F193" t="n">
-        <v>0.1919</v>
+        <v>85.4782</v>
       </c>
       <c r="G193" t="n">
-        <v>4480.716555180001</v>
+        <v>9690.75</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7905,36 +7917,33 @@
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L193" t="inlineStr"/>
       <c r="M193" t="n">
         <v>1</v>
       </c>
+      <c r="N193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>9785</v>
+        <v>9650</v>
       </c>
       <c r="C194" t="n">
-        <v>9785</v>
+        <v>9650</v>
       </c>
       <c r="D194" t="n">
-        <v>9785</v>
+        <v>9650</v>
       </c>
       <c r="E194" t="n">
-        <v>9785</v>
+        <v>9650</v>
       </c>
       <c r="F194" t="n">
-        <v>352.5961</v>
+        <v>0.4788</v>
       </c>
       <c r="G194" t="n">
-        <v>4833.312655180001</v>
+        <v>9686</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7944,36 +7953,33 @@
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L194" t="inlineStr"/>
       <c r="M194" t="n">
         <v>1</v>
       </c>
+      <c r="N194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>9785</v>
+        <v>9680</v>
       </c>
       <c r="C195" t="n">
-        <v>9785</v>
+        <v>9680</v>
       </c>
       <c r="D195" t="n">
-        <v>9785</v>
+        <v>9680</v>
       </c>
       <c r="E195" t="n">
-        <v>9785</v>
+        <v>9680</v>
       </c>
       <c r="F195" t="n">
-        <v>100</v>
+        <v>1.5197</v>
       </c>
       <c r="G195" t="n">
-        <v>4833.312655180001</v>
+        <v>9685.25</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7983,36 +7989,33 @@
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L195" t="inlineStr"/>
       <c r="M195" t="n">
         <v>1</v>
       </c>
+      <c r="N195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>9785</v>
+        <v>9615</v>
       </c>
       <c r="C196" t="n">
-        <v>9785</v>
+        <v>9615</v>
       </c>
       <c r="D196" t="n">
-        <v>9785</v>
+        <v>9615</v>
       </c>
       <c r="E196" t="n">
-        <v>9785</v>
+        <v>9615</v>
       </c>
       <c r="F196" t="n">
-        <v>4</v>
+        <v>0.1312</v>
       </c>
       <c r="G196" t="n">
-        <v>4833.312655180001</v>
+        <v>9681.25</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -8022,36 +8025,33 @@
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L196" t="inlineStr"/>
       <c r="M196" t="n">
         <v>1</v>
       </c>
+      <c r="N196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>9765</v>
+        <v>9615</v>
       </c>
       <c r="C197" t="n">
-        <v>9765</v>
+        <v>9615</v>
       </c>
       <c r="D197" t="n">
-        <v>9770</v>
+        <v>9615</v>
       </c>
       <c r="E197" t="n">
-        <v>9765</v>
+        <v>9615</v>
       </c>
       <c r="F197" t="n">
-        <v>12</v>
+        <v>0.4776</v>
       </c>
       <c r="G197" t="n">
-        <v>4821.312655180001</v>
+        <v>9675.5</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -8061,36 +8061,33 @@
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L197" t="inlineStr"/>
       <c r="M197" t="n">
         <v>1</v>
       </c>
+      <c r="N197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>9785</v>
+        <v>9700</v>
       </c>
       <c r="C198" t="n">
-        <v>9785</v>
+        <v>9700</v>
       </c>
       <c r="D198" t="n">
-        <v>9785</v>
+        <v>9700</v>
       </c>
       <c r="E198" t="n">
-        <v>9785</v>
+        <v>9700</v>
       </c>
       <c r="F198" t="n">
-        <v>12</v>
+        <v>0.2268</v>
       </c>
       <c r="G198" t="n">
-        <v>4833.312655180001</v>
+        <v>9673.25</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -8100,36 +8097,33 @@
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L198" t="inlineStr"/>
       <c r="M198" t="n">
         <v>1</v>
       </c>
+      <c r="N198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>9795</v>
+        <v>9700</v>
       </c>
       <c r="C199" t="n">
-        <v>9810</v>
+        <v>9700</v>
       </c>
       <c r="D199" t="n">
-        <v>9820</v>
+        <v>9700</v>
       </c>
       <c r="E199" t="n">
-        <v>9735</v>
+        <v>9700</v>
       </c>
       <c r="F199" t="n">
-        <v>218</v>
+        <v>3.0266</v>
       </c>
       <c r="G199" t="n">
-        <v>5051.312655180001</v>
+        <v>9673</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -8139,73 +8133,69 @@
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L199" t="inlineStr"/>
       <c r="M199" t="n">
         <v>1</v>
       </c>
+      <c r="N199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>9740</v>
+        <v>9700</v>
       </c>
       <c r="C200" t="n">
-        <v>9720</v>
+        <v>9615</v>
       </c>
       <c r="D200" t="n">
-        <v>9740</v>
+        <v>9700</v>
       </c>
       <c r="E200" t="n">
-        <v>9720</v>
+        <v>9615</v>
       </c>
       <c r="F200" t="n">
-        <v>48</v>
+        <v>104.1742</v>
       </c>
       <c r="G200" t="n">
-        <v>5003.312655180001</v>
+        <v>9667</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
       </c>
       <c r="I200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>9720</v>
+        <v>9700</v>
       </c>
       <c r="C201" t="n">
-        <v>9705</v>
+        <v>9700</v>
       </c>
       <c r="D201" t="n">
-        <v>9735</v>
+        <v>9700</v>
       </c>
       <c r="E201" t="n">
-        <v>9705</v>
+        <v>9700</v>
       </c>
       <c r="F201" t="n">
-        <v>65.2366</v>
+        <v>23.8587</v>
       </c>
       <c r="G201" t="n">
-        <v>4938.07605518</v>
+        <v>9666.25</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -8219,28 +8209,29 @@
       <c r="M201" t="n">
         <v>1</v>
       </c>
+      <c r="N201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>9745</v>
+        <v>9695</v>
       </c>
       <c r="C202" t="n">
-        <v>9770</v>
+        <v>9700</v>
       </c>
       <c r="D202" t="n">
-        <v>9770</v>
+        <v>9700</v>
       </c>
       <c r="E202" t="n">
-        <v>9745</v>
+        <v>9695</v>
       </c>
       <c r="F202" t="n">
-        <v>43.5642</v>
+        <v>37.92</v>
       </c>
       <c r="G202" t="n">
-        <v>4981.64025518</v>
+        <v>9665.75</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -8254,28 +8245,29 @@
       <c r="M202" t="n">
         <v>1</v>
       </c>
+      <c r="N202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>9765</v>
+        <v>9705</v>
       </c>
       <c r="C203" t="n">
-        <v>9700</v>
+        <v>9715</v>
       </c>
       <c r="D203" t="n">
-        <v>9765</v>
+        <v>9715</v>
       </c>
       <c r="E203" t="n">
-        <v>9700</v>
+        <v>9705</v>
       </c>
       <c r="F203" t="n">
-        <v>81.3747</v>
+        <v>158.9946</v>
       </c>
       <c r="G203" t="n">
-        <v>4900.26555518</v>
+        <v>9666.25</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -8289,6 +8281,7 @@
       <c r="M203" t="n">
         <v>1</v>
       </c>
+      <c r="N203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8298,19 +8291,19 @@
         <v>9715</v>
       </c>
       <c r="C204" t="n">
-        <v>9685</v>
+        <v>9730</v>
       </c>
       <c r="D204" t="n">
+        <v>9730</v>
+      </c>
+      <c r="E204" t="n">
         <v>9715</v>
       </c>
-      <c r="E204" t="n">
-        <v>9685</v>
-      </c>
       <c r="F204" t="n">
-        <v>181</v>
+        <v>46.9238</v>
       </c>
       <c r="G204" t="n">
-        <v>4719.26555518</v>
+        <v>9671.75</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -8324,13 +8317,14 @@
       <c r="M204" t="n">
         <v>1</v>
       </c>
+      <c r="N204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>9685</v>
+        <v>9735</v>
       </c>
       <c r="C205" t="n">
         <v>9735</v>
@@ -8339,13 +8333,13 @@
         <v>9735</v>
       </c>
       <c r="E205" t="n">
-        <v>9685</v>
+        <v>9735</v>
       </c>
       <c r="F205" t="n">
-        <v>22.5827</v>
+        <v>1.7661</v>
       </c>
       <c r="G205" t="n">
-        <v>4741.84825518</v>
+        <v>9669.5</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -8359,28 +8353,29 @@
       <c r="M205" t="n">
         <v>1</v>
       </c>
+      <c r="N205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>9760</v>
+        <v>9645</v>
       </c>
       <c r="C206" t="n">
-        <v>9820</v>
+        <v>9735</v>
       </c>
       <c r="D206" t="n">
-        <v>9820</v>
+        <v>9735</v>
       </c>
       <c r="E206" t="n">
-        <v>9760</v>
+        <v>9640</v>
       </c>
       <c r="F206" t="n">
-        <v>394.3674</v>
+        <v>25.7322</v>
       </c>
       <c r="G206" t="n">
-        <v>5136.21565518</v>
+        <v>9669.25</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -8394,28 +8389,29 @@
       <c r="M206" t="n">
         <v>1</v>
       </c>
+      <c r="N206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>9725</v>
+        <v>9640</v>
       </c>
       <c r="C207" t="n">
-        <v>9720</v>
+        <v>9660</v>
       </c>
       <c r="D207" t="n">
-        <v>9725</v>
+        <v>9660</v>
       </c>
       <c r="E207" t="n">
-        <v>9720</v>
+        <v>9640</v>
       </c>
       <c r="F207" t="n">
-        <v>18.3</v>
+        <v>7</v>
       </c>
       <c r="G207" t="n">
-        <v>5117.91565518</v>
+        <v>9670.25</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -8429,28 +8425,29 @@
       <c r="M207" t="n">
         <v>1</v>
       </c>
+      <c r="N207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>9710</v>
+        <v>9630</v>
       </c>
       <c r="C208" t="n">
-        <v>9710</v>
+        <v>9620</v>
       </c>
       <c r="D208" t="n">
-        <v>9710</v>
+        <v>9630</v>
       </c>
       <c r="E208" t="n">
-        <v>9710</v>
+        <v>9620</v>
       </c>
       <c r="F208" t="n">
-        <v>12.1109</v>
+        <v>164.7056</v>
       </c>
       <c r="G208" t="n">
-        <v>5105.80475518</v>
+        <v>9670.75</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -8464,28 +8461,29 @@
       <c r="M208" t="n">
         <v>1</v>
       </c>
+      <c r="N208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>9820</v>
+        <v>9630</v>
       </c>
       <c r="C209" t="n">
-        <v>9820</v>
+        <v>9625</v>
       </c>
       <c r="D209" t="n">
-        <v>9820</v>
+        <v>9630</v>
       </c>
       <c r="E209" t="n">
-        <v>9820</v>
+        <v>9620</v>
       </c>
       <c r="F209" t="n">
-        <v>25.49297352</v>
+        <v>150.3952</v>
       </c>
       <c r="G209" t="n">
-        <v>5131.2977287</v>
+        <v>9671.25</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -8499,34 +8497,35 @@
       <c r="M209" t="n">
         <v>1</v>
       </c>
+      <c r="N209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>9840</v>
+        <v>9630</v>
       </c>
       <c r="C210" t="n">
-        <v>9845</v>
+        <v>9670</v>
       </c>
       <c r="D210" t="n">
-        <v>9845</v>
+        <v>9670</v>
       </c>
       <c r="E210" t="n">
-        <v>9840</v>
+        <v>9630</v>
       </c>
       <c r="F210" t="n">
-        <v>24.36378872</v>
+        <v>13.9105</v>
       </c>
       <c r="G210" t="n">
-        <v>5155.661517420001</v>
+        <v>9668</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
       </c>
       <c r="I210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
@@ -8534,34 +8533,35 @@
       <c r="M210" t="n">
         <v>1</v>
       </c>
+      <c r="N210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>9720</v>
+        <v>9630</v>
       </c>
       <c r="C211" t="n">
-        <v>9845</v>
+        <v>9630</v>
       </c>
       <c r="D211" t="n">
-        <v>9845</v>
+        <v>9630</v>
       </c>
       <c r="E211" t="n">
-        <v>9690</v>
+        <v>9630</v>
       </c>
       <c r="F211" t="n">
-        <v>190.6574</v>
+        <v>2.0655</v>
       </c>
       <c r="G211" t="n">
-        <v>5155.661517420001</v>
+        <v>9665.5</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
       </c>
       <c r="I211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
@@ -8569,34 +8569,35 @@
       <c r="M211" t="n">
         <v>1</v>
       </c>
+      <c r="N211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>9700</v>
+        <v>9630</v>
       </c>
       <c r="C212" t="n">
-        <v>9700</v>
+        <v>9630</v>
       </c>
       <c r="D212" t="n">
-        <v>9700</v>
+        <v>9630</v>
       </c>
       <c r="E212" t="n">
-        <v>9700</v>
+        <v>9630</v>
       </c>
       <c r="F212" t="n">
-        <v>123.4355</v>
+        <v>4.5376</v>
       </c>
       <c r="G212" t="n">
-        <v>5032.226017420001</v>
+        <v>9663.25</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
       </c>
       <c r="I212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
@@ -8604,1476 +8605,7 @@
       <c r="M212" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>9695</v>
-      </c>
-      <c r="C213" t="n">
-        <v>9695</v>
-      </c>
-      <c r="D213" t="n">
-        <v>9695</v>
-      </c>
-      <c r="E213" t="n">
-        <v>9695</v>
-      </c>
-      <c r="F213" t="n">
-        <v>8.044600000000001</v>
-      </c>
-      <c r="G213" t="n">
-        <v>5024.181417420001</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>9690</v>
-      </c>
-      <c r="C214" t="n">
-        <v>9690</v>
-      </c>
-      <c r="D214" t="n">
-        <v>9690</v>
-      </c>
-      <c r="E214" t="n">
-        <v>9690</v>
-      </c>
-      <c r="F214" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="G214" t="n">
-        <v>5021.781417420001</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>9745</v>
-      </c>
-      <c r="C215" t="n">
-        <v>9745</v>
-      </c>
-      <c r="D215" t="n">
-        <v>9745</v>
-      </c>
-      <c r="E215" t="n">
-        <v>9745</v>
-      </c>
-      <c r="F215" t="n">
-        <v>11.2704</v>
-      </c>
-      <c r="G215" t="n">
-        <v>5033.051817420001</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>9745</v>
-      </c>
-      <c r="C216" t="n">
-        <v>9745</v>
-      </c>
-      <c r="D216" t="n">
-        <v>9745</v>
-      </c>
-      <c r="E216" t="n">
-        <v>9745</v>
-      </c>
-      <c r="F216" t="n">
-        <v>11.6789</v>
-      </c>
-      <c r="G216" t="n">
-        <v>5033.051817420001</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>9695</v>
-      </c>
-      <c r="C217" t="n">
-        <v>9695</v>
-      </c>
-      <c r="D217" t="n">
-        <v>9695</v>
-      </c>
-      <c r="E217" t="n">
-        <v>9695</v>
-      </c>
-      <c r="F217" t="n">
-        <v>20</v>
-      </c>
-      <c r="G217" t="n">
-        <v>5013.051817420001</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="n">
-        <v>1</v>
-      </c>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>9695</v>
-      </c>
-      <c r="C218" t="n">
-        <v>9700</v>
-      </c>
-      <c r="D218" t="n">
-        <v>9700</v>
-      </c>
-      <c r="E218" t="n">
-        <v>9695</v>
-      </c>
-      <c r="F218" t="n">
-        <v>2</v>
-      </c>
-      <c r="G218" t="n">
-        <v>5015.051817420001</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>9730</v>
-      </c>
-      <c r="C219" t="n">
-        <v>9730</v>
-      </c>
-      <c r="D219" t="n">
-        <v>9730</v>
-      </c>
-      <c r="E219" t="n">
-        <v>9730</v>
-      </c>
-      <c r="F219" t="n">
-        <v>4.9297</v>
-      </c>
-      <c r="G219" t="n">
-        <v>5019.981517420001</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>9745</v>
-      </c>
-      <c r="C220" t="n">
-        <v>9745</v>
-      </c>
-      <c r="D220" t="n">
-        <v>9745</v>
-      </c>
-      <c r="E220" t="n">
-        <v>9745</v>
-      </c>
-      <c r="F220" t="n">
-        <v>6.9779</v>
-      </c>
-      <c r="G220" t="n">
-        <v>5026.959417420001</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>9705</v>
-      </c>
-      <c r="C221" t="n">
-        <v>9705</v>
-      </c>
-      <c r="D221" t="n">
-        <v>9705</v>
-      </c>
-      <c r="E221" t="n">
-        <v>9705</v>
-      </c>
-      <c r="F221" t="n">
-        <v>0.101</v>
-      </c>
-      <c r="G221" t="n">
-        <v>5026.858417420001</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>9820</v>
-      </c>
-      <c r="C222" t="n">
-        <v>9820</v>
-      </c>
-      <c r="D222" t="n">
-        <v>9820</v>
-      </c>
-      <c r="E222" t="n">
-        <v>9820</v>
-      </c>
-      <c r="F222" t="n">
-        <v>3.055</v>
-      </c>
-      <c r="G222" t="n">
-        <v>5029.913417420002</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>9715</v>
-      </c>
-      <c r="C223" t="n">
-        <v>9710</v>
-      </c>
-      <c r="D223" t="n">
-        <v>9715</v>
-      </c>
-      <c r="E223" t="n">
-        <v>9710</v>
-      </c>
-      <c r="F223" t="n">
-        <v>266.9603</v>
-      </c>
-      <c r="G223" t="n">
-        <v>4762.953117420002</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="n">
-        <v>1</v>
-      </c>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="n">
-        <v>9705</v>
-      </c>
-      <c r="C224" t="n">
-        <v>9690</v>
-      </c>
-      <c r="D224" t="n">
-        <v>9705</v>
-      </c>
-      <c r="E224" t="n">
-        <v>9690</v>
-      </c>
-      <c r="F224" t="n">
-        <v>174.1726</v>
-      </c>
-      <c r="G224" t="n">
-        <v>4588.780517420002</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" t="n">
-        <v>9695</v>
-      </c>
-      <c r="C225" t="n">
-        <v>9600</v>
-      </c>
-      <c r="D225" t="n">
-        <v>9695</v>
-      </c>
-      <c r="E225" t="n">
-        <v>9600</v>
-      </c>
-      <c r="F225" t="n">
-        <v>181</v>
-      </c>
-      <c r="G225" t="n">
-        <v>4407.780517420002</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" t="n">
-        <v>9605</v>
-      </c>
-      <c r="C226" t="n">
-        <v>9605</v>
-      </c>
-      <c r="D226" t="n">
-        <v>9605</v>
-      </c>
-      <c r="E226" t="n">
-        <v>9605</v>
-      </c>
-      <c r="F226" t="n">
-        <v>35.311</v>
-      </c>
-      <c r="G226" t="n">
-        <v>4443.091517420002</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B227" t="n">
-        <v>9780</v>
-      </c>
-      <c r="C227" t="n">
-        <v>9635</v>
-      </c>
-      <c r="D227" t="n">
-        <v>9780</v>
-      </c>
-      <c r="E227" t="n">
-        <v>9635</v>
-      </c>
-      <c r="F227" t="n">
-        <v>8.101599999999999</v>
-      </c>
-      <c r="G227" t="n">
-        <v>4451.193117420002</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>226</v>
-      </c>
-      <c r="B228" t="n">
-        <v>9650</v>
-      </c>
-      <c r="C228" t="n">
-        <v>9655</v>
-      </c>
-      <c r="D228" t="n">
-        <v>9655</v>
-      </c>
-      <c r="E228" t="n">
-        <v>9650</v>
-      </c>
-      <c r="F228" t="n">
-        <v>8</v>
-      </c>
-      <c r="G228" t="n">
-        <v>4459.193117420002</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
-        <v>227</v>
-      </c>
-      <c r="B229" t="n">
-        <v>9620</v>
-      </c>
-      <c r="C229" t="n">
-        <v>9620</v>
-      </c>
-      <c r="D229" t="n">
-        <v>9620</v>
-      </c>
-      <c r="E229" t="n">
-        <v>9620</v>
-      </c>
-      <c r="F229" t="n">
-        <v>10</v>
-      </c>
-      <c r="G229" t="n">
-        <v>4449.193117420002</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
-        <v>228</v>
-      </c>
-      <c r="B230" t="n">
-        <v>9620</v>
-      </c>
-      <c r="C230" t="n">
-        <v>9620</v>
-      </c>
-      <c r="D230" t="n">
-        <v>9620</v>
-      </c>
-      <c r="E230" t="n">
-        <v>9620</v>
-      </c>
-      <c r="F230" t="n">
-        <v>10</v>
-      </c>
-      <c r="G230" t="n">
-        <v>4449.193117420002</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="B231" t="n">
-        <v>9620</v>
-      </c>
-      <c r="C231" t="n">
-        <v>9620</v>
-      </c>
-      <c r="D231" t="n">
-        <v>9620</v>
-      </c>
-      <c r="E231" t="n">
-        <v>9620</v>
-      </c>
-      <c r="F231" t="n">
-        <v>10</v>
-      </c>
-      <c r="G231" t="n">
-        <v>4449.193117420002</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
-        <v>230</v>
-      </c>
-      <c r="B232" t="n">
-        <v>9695</v>
-      </c>
-      <c r="C232" t="n">
-        <v>9695</v>
-      </c>
-      <c r="D232" t="n">
-        <v>9695</v>
-      </c>
-      <c r="E232" t="n">
-        <v>9695</v>
-      </c>
-      <c r="F232" t="n">
-        <v>1.0412</v>
-      </c>
-      <c r="G232" t="n">
-        <v>4450.234317420001</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
-        <v>231</v>
-      </c>
-      <c r="B233" t="n">
-        <v>9680</v>
-      </c>
-      <c r="C233" t="n">
-        <v>9680</v>
-      </c>
-      <c r="D233" t="n">
-        <v>9680</v>
-      </c>
-      <c r="E233" t="n">
-        <v>9680</v>
-      </c>
-      <c r="F233" t="n">
-        <v>26.9579</v>
-      </c>
-      <c r="G233" t="n">
-        <v>4423.276417420001</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
-        <v>232</v>
-      </c>
-      <c r="B234" t="n">
-        <v>9675</v>
-      </c>
-      <c r="C234" t="n">
-        <v>9675</v>
-      </c>
-      <c r="D234" t="n">
-        <v>9675</v>
-      </c>
-      <c r="E234" t="n">
-        <v>9675</v>
-      </c>
-      <c r="F234" t="n">
-        <v>10.2311</v>
-      </c>
-      <c r="G234" t="n">
-        <v>4413.045317420001</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
-        <v>233</v>
-      </c>
-      <c r="B235" t="n">
-        <v>9620</v>
-      </c>
-      <c r="C235" t="n">
-        <v>9605</v>
-      </c>
-      <c r="D235" t="n">
-        <v>9625</v>
-      </c>
-      <c r="E235" t="n">
-        <v>9605</v>
-      </c>
-      <c r="F235" t="n">
-        <v>85.4782</v>
-      </c>
-      <c r="G235" t="n">
-        <v>4327.567117420002</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
-        <v>234</v>
-      </c>
-      <c r="B236" t="n">
-        <v>9650</v>
-      </c>
-      <c r="C236" t="n">
-        <v>9650</v>
-      </c>
-      <c r="D236" t="n">
-        <v>9650</v>
-      </c>
-      <c r="E236" t="n">
-        <v>9650</v>
-      </c>
-      <c r="F236" t="n">
-        <v>0.4788</v>
-      </c>
-      <c r="G236" t="n">
-        <v>4328.045917420001</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
-        <v>235</v>
-      </c>
-      <c r="B237" t="n">
-        <v>9680</v>
-      </c>
-      <c r="C237" t="n">
-        <v>9680</v>
-      </c>
-      <c r="D237" t="n">
-        <v>9680</v>
-      </c>
-      <c r="E237" t="n">
-        <v>9680</v>
-      </c>
-      <c r="F237" t="n">
-        <v>1.5197</v>
-      </c>
-      <c r="G237" t="n">
-        <v>4329.565617420001</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
-        <v>236</v>
-      </c>
-      <c r="B238" t="n">
-        <v>9615</v>
-      </c>
-      <c r="C238" t="n">
-        <v>9615</v>
-      </c>
-      <c r="D238" t="n">
-        <v>9615</v>
-      </c>
-      <c r="E238" t="n">
-        <v>9615</v>
-      </c>
-      <c r="F238" t="n">
-        <v>0.1312</v>
-      </c>
-      <c r="G238" t="n">
-        <v>4329.434417420001</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
-        <v>237</v>
-      </c>
-      <c r="B239" t="n">
-        <v>9615</v>
-      </c>
-      <c r="C239" t="n">
-        <v>9615</v>
-      </c>
-      <c r="D239" t="n">
-        <v>9615</v>
-      </c>
-      <c r="E239" t="n">
-        <v>9615</v>
-      </c>
-      <c r="F239" t="n">
-        <v>0.4776</v>
-      </c>
-      <c r="G239" t="n">
-        <v>4329.434417420001</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
-        <v>238</v>
-      </c>
-      <c r="B240" t="n">
-        <v>9700</v>
-      </c>
-      <c r="C240" t="n">
-        <v>9700</v>
-      </c>
-      <c r="D240" t="n">
-        <v>9700</v>
-      </c>
-      <c r="E240" t="n">
-        <v>9700</v>
-      </c>
-      <c r="F240" t="n">
-        <v>0.2268</v>
-      </c>
-      <c r="G240" t="n">
-        <v>4329.661217420002</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
-        <v>239</v>
-      </c>
-      <c r="B241" t="n">
-        <v>9700</v>
-      </c>
-      <c r="C241" t="n">
-        <v>9700</v>
-      </c>
-      <c r="D241" t="n">
-        <v>9700</v>
-      </c>
-      <c r="E241" t="n">
-        <v>9700</v>
-      </c>
-      <c r="F241" t="n">
-        <v>3.0266</v>
-      </c>
-      <c r="G241" t="n">
-        <v>4329.661217420002</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
-        <v>240</v>
-      </c>
-      <c r="B242" t="n">
-        <v>9700</v>
-      </c>
-      <c r="C242" t="n">
-        <v>9615</v>
-      </c>
-      <c r="D242" t="n">
-        <v>9700</v>
-      </c>
-      <c r="E242" t="n">
-        <v>9615</v>
-      </c>
-      <c r="F242" t="n">
-        <v>104.1742</v>
-      </c>
-      <c r="G242" t="n">
-        <v>4225.487017420001</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
-        <v>241</v>
-      </c>
-      <c r="B243" t="n">
-        <v>9700</v>
-      </c>
-      <c r="C243" t="n">
-        <v>9700</v>
-      </c>
-      <c r="D243" t="n">
-        <v>9700</v>
-      </c>
-      <c r="E243" t="n">
-        <v>9700</v>
-      </c>
-      <c r="F243" t="n">
-        <v>23.8587</v>
-      </c>
-      <c r="G243" t="n">
-        <v>4249.345717420001</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
-        <v>242</v>
-      </c>
-      <c r="B244" t="n">
-        <v>9695</v>
-      </c>
-      <c r="C244" t="n">
-        <v>9700</v>
-      </c>
-      <c r="D244" t="n">
-        <v>9700</v>
-      </c>
-      <c r="E244" t="n">
-        <v>9695</v>
-      </c>
-      <c r="F244" t="n">
-        <v>37.92</v>
-      </c>
-      <c r="G244" t="n">
-        <v>4249.345717420001</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
-        <v>243</v>
-      </c>
-      <c r="B245" t="n">
-        <v>9705</v>
-      </c>
-      <c r="C245" t="n">
-        <v>9715</v>
-      </c>
-      <c r="D245" t="n">
-        <v>9715</v>
-      </c>
-      <c r="E245" t="n">
-        <v>9705</v>
-      </c>
-      <c r="F245" t="n">
-        <v>158.9946</v>
-      </c>
-      <c r="G245" t="n">
-        <v>4408.340317420001</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
-        <v>244</v>
-      </c>
-      <c r="B246" t="n">
-        <v>9715</v>
-      </c>
-      <c r="C246" t="n">
-        <v>9730</v>
-      </c>
-      <c r="D246" t="n">
-        <v>9730</v>
-      </c>
-      <c r="E246" t="n">
-        <v>9715</v>
-      </c>
-      <c r="F246" t="n">
-        <v>46.9238</v>
-      </c>
-      <c r="G246" t="n">
-        <v>4455.264117420001</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
-        <v>245</v>
-      </c>
-      <c r="B247" t="n">
-        <v>9735</v>
-      </c>
-      <c r="C247" t="n">
-        <v>9735</v>
-      </c>
-      <c r="D247" t="n">
-        <v>9735</v>
-      </c>
-      <c r="E247" t="n">
-        <v>9735</v>
-      </c>
-      <c r="F247" t="n">
-        <v>1.7661</v>
-      </c>
-      <c r="G247" t="n">
-        <v>4457.030217420001</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
-        <v>246</v>
-      </c>
-      <c r="B248" t="n">
-        <v>9645</v>
-      </c>
-      <c r="C248" t="n">
-        <v>9735</v>
-      </c>
-      <c r="D248" t="n">
-        <v>9735</v>
-      </c>
-      <c r="E248" t="n">
-        <v>9640</v>
-      </c>
-      <c r="F248" t="n">
-        <v>25.7322</v>
-      </c>
-      <c r="G248" t="n">
-        <v>4457.030217420001</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
-        <v>247</v>
-      </c>
-      <c r="B249" t="n">
-        <v>9640</v>
-      </c>
-      <c r="C249" t="n">
-        <v>9660</v>
-      </c>
-      <c r="D249" t="n">
-        <v>9660</v>
-      </c>
-      <c r="E249" t="n">
-        <v>9640</v>
-      </c>
-      <c r="F249" t="n">
-        <v>7</v>
-      </c>
-      <c r="G249" t="n">
-        <v>4450.030217420001</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
-        <v>248</v>
-      </c>
-      <c r="B250" t="n">
-        <v>9630</v>
-      </c>
-      <c r="C250" t="n">
-        <v>9620</v>
-      </c>
-      <c r="D250" t="n">
-        <v>9630</v>
-      </c>
-      <c r="E250" t="n">
-        <v>9620</v>
-      </c>
-      <c r="F250" t="n">
-        <v>164.7056</v>
-      </c>
-      <c r="G250" t="n">
-        <v>4285.32461742</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
-        <v>249</v>
-      </c>
-      <c r="B251" t="n">
-        <v>9630</v>
-      </c>
-      <c r="C251" t="n">
-        <v>9625</v>
-      </c>
-      <c r="D251" t="n">
-        <v>9630</v>
-      </c>
-      <c r="E251" t="n">
-        <v>9620</v>
-      </c>
-      <c r="F251" t="n">
-        <v>150.3952</v>
-      </c>
-      <c r="G251" t="n">
-        <v>4435.71981742</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
-        <v>250</v>
-      </c>
-      <c r="B252" t="n">
-        <v>9630</v>
-      </c>
-      <c r="C252" t="n">
-        <v>9670</v>
-      </c>
-      <c r="D252" t="n">
-        <v>9670</v>
-      </c>
-      <c r="E252" t="n">
-        <v>9630</v>
-      </c>
-      <c r="F252" t="n">
-        <v>13.9105</v>
-      </c>
-      <c r="G252" t="n">
-        <v>4449.63031742</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
-        <v>251</v>
-      </c>
-      <c r="B253" t="n">
-        <v>9630</v>
-      </c>
-      <c r="C253" t="n">
-        <v>9630</v>
-      </c>
-      <c r="D253" t="n">
-        <v>9630</v>
-      </c>
-      <c r="E253" t="n">
-        <v>9630</v>
-      </c>
-      <c r="F253" t="n">
-        <v>2.0655</v>
-      </c>
-      <c r="G253" t="n">
-        <v>4447.564817420001</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
-        <v>252</v>
-      </c>
-      <c r="B254" t="n">
-        <v>9630</v>
-      </c>
-      <c r="C254" t="n">
-        <v>9630</v>
-      </c>
-      <c r="D254" t="n">
-        <v>9630</v>
-      </c>
-      <c r="E254" t="n">
-        <v>9630</v>
-      </c>
-      <c r="F254" t="n">
-        <v>4.5376</v>
-      </c>
-      <c r="G254" t="n">
-        <v>4447.564817420001</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
+      <c r="N212" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-29 BackTest BTG.xlsx
+++ b/BackTest/2019-10-29 BackTest BTG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N283"/>
+  <dimension ref="A1:M283"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-451.0856000000001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,18 +484,19 @@
         <v>-430.3376000000001</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
+        <v>9400</v>
+      </c>
+      <c r="J3" t="n">
+        <v>9400</v>
+      </c>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +523,19 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>9400</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +562,19 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>9400</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +601,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +634,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +667,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +700,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +733,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +766,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -816,22 +797,15 @@
         <v>-540.1769</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>9330</v>
-      </c>
-      <c r="K12" t="n">
-        <v>9330</v>
-      </c>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -856,26 +830,21 @@
         <v>-583.6769</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
         <v>9350</v>
       </c>
-      <c r="K13" t="n">
-        <v>9330</v>
-      </c>
-      <c r="L13" t="inlineStr">
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -900,26 +869,21 @@
         <v>-583.6769</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
         <v>9330</v>
       </c>
-      <c r="K14" t="n">
-        <v>9330</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -944,26 +908,19 @@
         <v>-857.0525</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>9330</v>
-      </c>
-      <c r="K15" t="n">
-        <v>9330</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -988,26 +945,21 @@
         <v>-857.0525</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
         <v>9320</v>
       </c>
-      <c r="K16" t="n">
-        <v>9330</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1032,26 +984,19 @@
         <v>-857.0525</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>9320</v>
-      </c>
-      <c r="K17" t="n">
-        <v>9330</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1076,26 +1021,19 @@
         <v>-867.5801</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>9320</v>
-      </c>
-      <c r="K18" t="n">
-        <v>9330</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1120,26 +1058,19 @@
         <v>-867.5801</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>9255</v>
-      </c>
-      <c r="K19" t="n">
-        <v>9330</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1164,26 +1095,19 @@
         <v>-867.5801</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>9255</v>
-      </c>
-      <c r="K20" t="n">
-        <v>9330</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1208,26 +1132,19 @@
         <v>-848.1701</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>9255</v>
-      </c>
-      <c r="K21" t="n">
-        <v>9330</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1252,26 +1169,19 @@
         <v>-848.1701</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>9315</v>
-      </c>
-      <c r="K22" t="n">
-        <v>9330</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1296,26 +1206,19 @@
         <v>-842.1701</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>9315</v>
-      </c>
-      <c r="K23" t="n">
-        <v>9330</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1340,26 +1243,19 @@
         <v>-822.0004</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>9320</v>
-      </c>
-      <c r="K24" t="n">
-        <v>9330</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1384,26 +1280,19 @@
         <v>-701.0004</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>9335</v>
-      </c>
-      <c r="K25" t="n">
-        <v>9330</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1428,26 +1317,19 @@
         <v>-711.0004</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>9370</v>
-      </c>
-      <c r="K26" t="n">
-        <v>9330</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1472,26 +1354,21 @@
         <v>-678.171</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
         <v>9300</v>
       </c>
-      <c r="K27" t="n">
-        <v>9330</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1516,24 +1393,21 @@
         <v>-673.1220000000001</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>9305</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>9330</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1558,26 +1432,21 @@
         <v>-673.1220000000001</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
         <v>9310</v>
       </c>
-      <c r="K29" t="n">
-        <v>9330</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1602,24 +1471,21 @@
         <v>-683.4952000000001</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>9310</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>9330</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1644,26 +1510,21 @@
         <v>-507.3912</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
         <v>9305</v>
       </c>
-      <c r="K31" t="n">
-        <v>9330</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1688,24 +1549,21 @@
         <v>-733.4887</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>9330</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>9330</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1730,26 +1588,21 @@
         <v>-790.2492999999999</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
         <v>9305</v>
       </c>
-      <c r="K33" t="n">
-        <v>9330</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1774,26 +1627,21 @@
         <v>-756.2492999999999</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
         <v>9300</v>
       </c>
-      <c r="K34" t="n">
-        <v>9330</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1818,26 +1666,21 @@
         <v>-756.2492999999999</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
         <v>9365</v>
       </c>
-      <c r="K35" t="n">
-        <v>9330</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1862,24 +1705,21 @@
         <v>-602.9945</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>9365</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>9330</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1906,22 +1746,17 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>9330</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1948,22 +1783,17 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>9330</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1990,22 +1820,17 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>9330</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2032,22 +1857,17 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>9330</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2074,22 +1894,17 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>9330</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2116,22 +1931,17 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>9330</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2158,22 +1968,17 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>9330</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2200,22 +2005,17 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>9330</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2242,22 +2042,17 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>9330</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2284,22 +2079,17 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>9330</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2326,22 +2116,17 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>9330</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2368,22 +2153,17 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>9330</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2408,24 +2188,21 @@
         <v>-739.4263576499999</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>9360</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>9330</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2450,24 +2227,21 @@
         <v>-733.0844576499999</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>9400</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>9330</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2494,22 +2268,17 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>9330</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2536,22 +2305,17 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>9330</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2578,22 +2342,17 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>9330</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2620,22 +2379,17 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>9330</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2662,22 +2416,17 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>9330</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2704,22 +2453,17 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>9330</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2746,22 +2490,17 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>9330</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2788,22 +2527,17 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>9330</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2830,22 +2564,17 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>9330</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2872,22 +2601,17 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>9330</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2914,22 +2638,17 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>9330</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2956,22 +2675,17 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>9330</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2998,22 +2712,17 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>9330</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3040,22 +2749,17 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>9330</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3080,24 +2784,21 @@
         <v>-908.9644576499999</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>9305</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>9330</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3124,22 +2825,17 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>9330</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3164,26 +2860,21 @@
         <v>-1045.96445765</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="n">
         <v>9300</v>
       </c>
-      <c r="K67" t="n">
-        <v>9330</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3210,22 +2901,17 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>9330</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3252,22 +2938,17 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>9330</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3294,22 +2975,17 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>9330</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3336,22 +3012,17 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>9330</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3378,22 +3049,17 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>9330</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3420,22 +3086,17 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>9330</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3462,22 +3123,17 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>9330</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3504,22 +3160,17 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>9330</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3546,22 +3197,17 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>9330</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3588,22 +3234,17 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>9330</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3630,22 +3271,17 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>9330</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3672,22 +3308,17 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>9330</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3714,22 +3345,17 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>9330</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3756,22 +3382,17 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>9330</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3798,22 +3419,17 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>9330</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3840,22 +3456,17 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>9330</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3882,22 +3493,17 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>9330</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3924,22 +3530,17 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>9330</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3966,22 +3567,17 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>9330</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -4008,22 +3604,17 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>9330</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -4050,22 +3641,17 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>9330</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -4092,22 +3678,17 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>9330</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4134,22 +3715,17 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>9330</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4176,22 +3752,17 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>9330</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4218,22 +3789,17 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>9330</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4260,22 +3826,17 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>9330</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4302,22 +3863,17 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>9330</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4344,22 +3900,17 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>9330</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4386,22 +3937,17 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>9330</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4428,22 +3974,17 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>9330</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4470,22 +4011,17 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>9330</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4512,22 +4048,17 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>9330</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4554,22 +4085,17 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>9330</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4596,22 +4122,17 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>9330</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4638,22 +4159,17 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>9330</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4680,22 +4196,17 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>9330</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4722,22 +4233,17 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>9330</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4764,22 +4270,17 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>9330</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4806,22 +4307,17 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>9330</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4848,22 +4344,17 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>9330</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4890,22 +4381,17 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>9330</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4932,22 +4418,17 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>9330</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4974,22 +4455,17 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>9330</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -5016,22 +4492,17 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>9330</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -5058,22 +4529,17 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>9330</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -5100,22 +4566,17 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>9330</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -5142,22 +4603,17 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>9330</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -5184,22 +4640,17 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>9330</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5226,22 +4677,17 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>9330</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5268,22 +4714,17 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>9330</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5310,22 +4751,17 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>9330</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5352,22 +4788,17 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>9330</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5394,22 +4825,17 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>9330</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5436,22 +4862,17 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>9330</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5478,22 +4899,17 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>9330</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5520,22 +4936,17 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>9330</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5562,22 +4973,17 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>9330</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5604,24 +5010,17 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>1</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>9330</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1.059844587352626</v>
-      </c>
-      <c r="N125" t="n">
-        <v>1.008038585209003</v>
-      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5648,16 +5047,17 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>1</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5684,16 +5084,17 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>1</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5720,16 +5121,17 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>1</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5756,16 +5158,17 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>1</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5792,16 +5195,17 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>1</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5828,16 +5232,17 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>1</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5864,16 +5269,17 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>1</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5900,16 +5306,17 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>1</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5936,16 +5343,17 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>1</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5972,16 +5380,17 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>1</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -6008,16 +5417,17 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>1</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -6044,16 +5454,17 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>1</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -6080,16 +5491,17 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>1</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -6116,16 +5528,17 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>1</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -6152,16 +5565,17 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>1</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -6188,16 +5602,17 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -6224,16 +5639,17 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6260,16 +5676,17 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6296,16 +5713,17 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6332,16 +5750,17 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6368,16 +5787,17 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>1</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6404,16 +5824,17 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6440,16 +5861,17 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>1</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6474,18 +5896,19 @@
         <v>3166.715540320001</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6510,18 +5933,19 @@
         <v>3117.645740320001</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6546,18 +5970,19 @@
         <v>3220.628155180001</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6582,18 +6007,19 @@
         <v>3169.161355180001</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6618,18 +6044,19 @@
         <v>3169.161355180001</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6654,18 +6081,19 @@
         <v>2996.55765518</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6690,18 +6118,19 @@
         <v>3317.09395518</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6726,18 +6155,19 @@
         <v>3530.72045518</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6762,18 +6192,19 @@
         <v>3530.72045518</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6798,18 +6229,19 @@
         <v>3530.72045518</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6836,16 +6268,17 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6872,16 +6305,17 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6908,16 +6342,17 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6944,16 +6379,17 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6980,16 +6416,17 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -7016,16 +6453,17 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -7052,16 +6490,17 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>1</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -7088,16 +6527,17 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -7124,16 +6564,17 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>1</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -7160,16 +6601,17 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -7196,16 +6638,17 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7232,16 +6675,17 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7268,16 +6712,17 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7304,16 +6749,17 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7340,16 +6786,17 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7376,16 +6823,17 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7412,16 +6860,17 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7448,16 +6897,17 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7484,16 +6934,17 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7520,16 +6971,17 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7556,16 +7008,17 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7592,16 +7045,17 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7628,16 +7082,17 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7664,16 +7119,17 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7700,16 +7156,17 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7736,16 +7193,17 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7772,16 +7230,17 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7808,16 +7267,17 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7844,16 +7304,17 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7880,16 +7341,17 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7916,16 +7378,17 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7952,16 +7415,17 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7988,16 +7452,17 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>1</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -8024,16 +7489,17 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>1</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -8060,16 +7526,17 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>1</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -8096,16 +7563,17 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -8132,16 +7600,17 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>1</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -8168,16 +7637,17 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -8204,16 +7674,17 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -8240,16 +7711,17 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -8276,16 +7748,17 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>1</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8312,16 +7785,17 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>1</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8348,16 +7822,17 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>1</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8384,16 +7859,17 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>1</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8420,16 +7896,17 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>1</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8456,16 +7933,17 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>1</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8492,16 +7970,17 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>1</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8528,16 +8007,17 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>1</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8564,16 +8044,17 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>1</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8600,16 +8081,17 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>1</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8634,18 +8116,17 @@
         <v>4218.060855180001</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8670,18 +8151,15 @@
         <v>4218.060855180001</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8708,16 +8186,13 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>1</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8744,16 +8219,13 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>1</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8778,18 +8250,15 @@
         <v>4372.755155180002</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8816,16 +8285,13 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>1</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8852,16 +8318,13 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>1</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8888,16 +8351,13 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>1</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8922,18 +8382,15 @@
         <v>4539.759155180001</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8960,16 +8417,13 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>1</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8996,16 +8450,13 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>1</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -9032,16 +8483,13 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>1</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -9068,16 +8516,13 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>1</v>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -9104,16 +8549,13 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>1</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -9140,16 +8582,13 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>1</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -9174,18 +8613,15 @@
         <v>4833.312655180001</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -9210,18 +8646,15 @@
         <v>4833.312655180001</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -9248,16 +8681,13 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>1</v>
-      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -9284,16 +8714,13 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>1</v>
-      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -9320,16 +8747,13 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>1</v>
-      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -9354,18 +8778,15 @@
         <v>5003.312655180001</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -9390,18 +8811,15 @@
         <v>4938.07605518</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9426,18 +8844,15 @@
         <v>4981.64025518</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9462,18 +8877,15 @@
         <v>4900.26555518</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9498,18 +8910,15 @@
         <v>4719.26555518</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9534,18 +8943,15 @@
         <v>4741.84825518</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9570,18 +8976,15 @@
         <v>5136.21565518</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9606,18 +9009,15 @@
         <v>5117.91565518</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9642,18 +9042,15 @@
         <v>5105.80475518</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9678,18 +9075,15 @@
         <v>5131.2977287</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9714,18 +9108,15 @@
         <v>5155.661517420001</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9750,18 +9141,15 @@
         <v>5155.661517420001</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9786,18 +9174,15 @@
         <v>5032.226017420001</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9822,18 +9207,15 @@
         <v>5024.181417420001</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9860,16 +9242,13 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>1</v>
-      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9896,16 +9275,13 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9932,16 +9308,13 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
-      <c r="I245" t="n">
-        <v>1</v>
-      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9968,16 +9341,13 @@
       <c r="H246" t="n">
         <v>0</v>
       </c>
-      <c r="I246" t="n">
-        <v>1</v>
-      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -10004,16 +9374,13 @@
       <c r="H247" t="n">
         <v>0</v>
       </c>
-      <c r="I247" t="n">
-        <v>1</v>
-      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -10040,16 +9407,13 @@
       <c r="H248" t="n">
         <v>0</v>
       </c>
-      <c r="I248" t="n">
-        <v>1</v>
-      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -10076,16 +9440,13 @@
       <c r="H249" t="n">
         <v>0</v>
       </c>
-      <c r="I249" t="n">
-        <v>1</v>
-      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -10112,16 +9473,13 @@
       <c r="H250" t="n">
         <v>0</v>
       </c>
-      <c r="I250" t="n">
-        <v>1</v>
-      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -10148,16 +9506,13 @@
       <c r="H251" t="n">
         <v>0</v>
       </c>
-      <c r="I251" t="n">
-        <v>1</v>
-      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -10184,16 +9539,13 @@
       <c r="H252" t="n">
         <v>0</v>
       </c>
-      <c r="I252" t="n">
-        <v>1</v>
-      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -10220,16 +9572,13 @@
       <c r="H253" t="n">
         <v>0</v>
       </c>
-      <c r="I253" t="n">
-        <v>1</v>
-      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -10254,18 +9603,15 @@
         <v>4407.780517420002</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -10292,16 +9638,13 @@
       <c r="H255" t="n">
         <v>0</v>
       </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -10328,16 +9671,13 @@
       <c r="H256" t="n">
         <v>0</v>
       </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -10364,16 +9704,13 @@
       <c r="H257" t="n">
         <v>0</v>
       </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -10400,16 +9737,13 @@
       <c r="H258" t="n">
         <v>0</v>
       </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -10436,16 +9770,13 @@
       <c r="H259" t="n">
         <v>0</v>
       </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -10472,16 +9803,13 @@
       <c r="H260" t="n">
         <v>0</v>
       </c>
-      <c r="I260" t="n">
-        <v>0</v>
-      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -10508,16 +9836,13 @@
       <c r="H261" t="n">
         <v>0</v>
       </c>
-      <c r="I261" t="n">
-        <v>0</v>
-      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -10544,16 +9869,13 @@
       <c r="H262" t="n">
         <v>0</v>
       </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -10580,16 +9902,13 @@
       <c r="H263" t="n">
         <v>0</v>
       </c>
-      <c r="I263" t="n">
-        <v>0</v>
-      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -10616,16 +9935,13 @@
       <c r="H264" t="n">
         <v>0</v>
       </c>
-      <c r="I264" t="n">
-        <v>0</v>
-      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -10652,16 +9968,13 @@
       <c r="H265" t="n">
         <v>0</v>
       </c>
-      <c r="I265" t="n">
-        <v>0</v>
-      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -10688,16 +10001,13 @@
       <c r="H266" t="n">
         <v>0</v>
       </c>
-      <c r="I266" t="n">
-        <v>0</v>
-      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -10724,16 +10034,13 @@
       <c r="H267" t="n">
         <v>0</v>
       </c>
-      <c r="I267" t="n">
-        <v>0</v>
-      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10760,16 +10067,13 @@
       <c r="H268" t="n">
         <v>0</v>
       </c>
-      <c r="I268" t="n">
-        <v>0</v>
-      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10796,16 +10100,13 @@
       <c r="H269" t="n">
         <v>0</v>
       </c>
-      <c r="I269" t="n">
-        <v>0</v>
-      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10832,16 +10133,13 @@
       <c r="H270" t="n">
         <v>0</v>
       </c>
-      <c r="I270" t="n">
-        <v>0</v>
-      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10868,16 +10166,13 @@
       <c r="H271" t="n">
         <v>0</v>
       </c>
-      <c r="I271" t="n">
-        <v>0</v>
-      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10904,16 +10199,13 @@
       <c r="H272" t="n">
         <v>0</v>
       </c>
-      <c r="I272" t="n">
-        <v>0</v>
-      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -10940,16 +10232,13 @@
       <c r="H273" t="n">
         <v>0</v>
       </c>
-      <c r="I273" t="n">
-        <v>0</v>
-      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-      <c r="N273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -10976,16 +10265,13 @@
       <c r="H274" t="n">
         <v>0</v>
       </c>
-      <c r="I274" t="n">
-        <v>0</v>
-      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
-      <c r="M274" t="n">
-        <v>1</v>
-      </c>
-      <c r="N274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -11012,16 +10298,13 @@
       <c r="H275" t="n">
         <v>0</v>
       </c>
-      <c r="I275" t="n">
-        <v>0</v>
-      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
-      <c r="M275" t="n">
-        <v>1</v>
-      </c>
-      <c r="N275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -11048,16 +10331,13 @@
       <c r="H276" t="n">
         <v>0</v>
       </c>
-      <c r="I276" t="n">
-        <v>0</v>
-      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
-      <c r="M276" t="n">
-        <v>1</v>
-      </c>
-      <c r="N276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -11084,16 +10364,13 @@
       <c r="H277" t="n">
         <v>0</v>
       </c>
-      <c r="I277" t="n">
-        <v>0</v>
-      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
-      <c r="M277" t="n">
-        <v>1</v>
-      </c>
-      <c r="N277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -11120,16 +10397,13 @@
       <c r="H278" t="n">
         <v>0</v>
       </c>
-      <c r="I278" t="n">
-        <v>0</v>
-      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
-      <c r="M278" t="n">
-        <v>1</v>
-      </c>
-      <c r="N278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -11156,16 +10430,13 @@
       <c r="H279" t="n">
         <v>0</v>
       </c>
-      <c r="I279" t="n">
-        <v>0</v>
-      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
-      <c r="M279" t="n">
-        <v>1</v>
-      </c>
-      <c r="N279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -11192,16 +10463,13 @@
       <c r="H280" t="n">
         <v>0</v>
       </c>
-      <c r="I280" t="n">
-        <v>0</v>
-      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
-      <c r="M280" t="n">
-        <v>1</v>
-      </c>
-      <c r="N280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -11228,16 +10496,13 @@
       <c r="H281" t="n">
         <v>0</v>
       </c>
-      <c r="I281" t="n">
-        <v>0</v>
-      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
-      <c r="M281" t="n">
-        <v>1</v>
-      </c>
-      <c r="N281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -11264,16 +10529,13 @@
       <c r="H282" t="n">
         <v>0</v>
       </c>
-      <c r="I282" t="n">
-        <v>0</v>
-      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
-      <c r="M282" t="n">
-        <v>1</v>
-      </c>
-      <c r="N282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -11300,18 +10562,15 @@
       <c r="H283" t="n">
         <v>0</v>
       </c>
-      <c r="I283" t="n">
-        <v>0</v>
-      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
-      <c r="M283" t="n">
-        <v>1</v>
-      </c>
-      <c r="N283" t="inlineStr"/>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-29 BackTest BTG.xlsx
+++ b/BackTest/2019-10-29 BackTest BTG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-451.0856000000001</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>-430.3376000000001</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9400</v>
-      </c>
-      <c r="J3" t="n">
-        <v>9400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -524,14 +520,8 @@
         <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="n">
-        <v>9400</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -563,14 +553,8 @@
         <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="n">
-        <v>9400</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -698,11 +682,17 @@
         <v>-538.8376000000001</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>9400</v>
+      </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -731,11 +721,17 @@
         <v>-538.8376000000001</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>9335</v>
+      </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -764,11 +760,17 @@
         <v>-546.1769</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>9335</v>
+      </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -797,11 +799,17 @@
         <v>-540.1769</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>9330</v>
+      </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -830,7 +838,7 @@
         <v>-583.6769</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>9350</v>
@@ -838,7 +846,7 @@
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L13" t="n">
@@ -869,7 +877,7 @@
         <v>-583.6769</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>9330</v>
@@ -908,9 +916,11 @@
         <v>-857.0525</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>9330</v>
+      </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
@@ -945,7 +955,7 @@
         <v>-857.0525</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>9320</v>
@@ -984,9 +994,11 @@
         <v>-857.0525</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>9320</v>
+      </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
@@ -1021,9 +1033,11 @@
         <v>-867.5801</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>9320</v>
+      </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
@@ -1058,9 +1072,11 @@
         <v>-867.5801</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>9255</v>
+      </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
@@ -1095,9 +1111,11 @@
         <v>-867.5801</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>9255</v>
+      </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
@@ -1132,9 +1150,11 @@
         <v>-848.1701</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>9255</v>
+      </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
@@ -1169,9 +1189,11 @@
         <v>-848.1701</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>9315</v>
+      </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
@@ -1206,9 +1228,11 @@
         <v>-842.1701</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>9315</v>
+      </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
@@ -1243,9 +1267,11 @@
         <v>-822.0004</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>9320</v>
+      </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
@@ -1280,9 +1306,11 @@
         <v>-701.0004</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>9335</v>
+      </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
@@ -1317,9 +1345,11 @@
         <v>-711.0004</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>9370</v>
+      </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
@@ -1354,7 +1384,7 @@
         <v>-678.171</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>9300</v>
@@ -1393,7 +1423,7 @@
         <v>-673.1220000000001</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>9305</v>
@@ -1432,7 +1462,7 @@
         <v>-673.1220000000001</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>9310</v>
@@ -1471,7 +1501,7 @@
         <v>-683.4952000000001</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>9310</v>
@@ -1510,7 +1540,7 @@
         <v>-507.3912</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>9305</v>
@@ -1549,7 +1579,7 @@
         <v>-733.4887</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>9330</v>
@@ -1588,7 +1618,7 @@
         <v>-790.2492999999999</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>9305</v>
@@ -1627,7 +1657,7 @@
         <v>-756.2492999999999</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>9300</v>
@@ -1666,7 +1696,7 @@
         <v>-756.2492999999999</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>9365</v>
@@ -1705,7 +1735,7 @@
         <v>-602.9945</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>9365</v>
@@ -1744,9 +1774,11 @@
         <v>-502.9945</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>9380</v>
+      </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
@@ -1781,9 +1813,11 @@
         <v>-760.8379</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>9385</v>
+      </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
@@ -1818,9 +1852,11 @@
         <v>-748.8379</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>9320</v>
+      </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
@@ -1855,9 +1891,11 @@
         <v>-826.5263</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>9390</v>
+      </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
@@ -1929,9 +1967,11 @@
         <v>-824.6332</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>9360</v>
+      </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
@@ -1966,9 +2006,11 @@
         <v>-820.6332</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>9400</v>
+      </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
@@ -2003,9 +2045,11 @@
         <v>-672.53795765</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>9410</v>
+      </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
@@ -2114,9 +2158,11 @@
         <v>-751.8700576499999</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>9400</v>
+      </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
@@ -2188,11 +2234,9 @@
         <v>-739.4263576499999</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
-      </c>
-      <c r="I49" t="n">
-        <v>9360</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
@@ -2227,11 +2271,9 @@
         <v>-733.0844576499999</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
-      </c>
-      <c r="I50" t="n">
-        <v>9400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
@@ -2525,9 +2567,11 @@
         <v>-973.2457576499999</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>9370</v>
+      </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
@@ -2562,9 +2606,11 @@
         <v>-973.2457576499999</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>9370</v>
+      </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
@@ -2599,9 +2645,11 @@
         <v>-971.2457576499999</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>9370</v>
+      </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
@@ -2673,9 +2721,11 @@
         <v>-985.2457576499999</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>9295</v>
+      </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
@@ -2710,9 +2760,11 @@
         <v>-985.2457576499999</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>9295</v>
+      </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
@@ -2747,9 +2799,11 @@
         <v>-908.9644576499999</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>9295</v>
+      </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
@@ -2784,7 +2838,7 @@
         <v>-908.9644576499999</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>9305</v>
@@ -2823,9 +2877,11 @@
         <v>-1105.96445765</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>9305</v>
+      </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
@@ -2860,7 +2916,7 @@
         <v>-1045.96445765</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>9300</v>
@@ -2899,9 +2955,11 @@
         <v>-1045.96445765</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>9395</v>
+      </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
@@ -2936,9 +2994,11 @@
         <v>-1107.64105765</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>9395</v>
+      </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
@@ -2973,9 +3033,11 @@
         <v>-1093.01725765</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>9315</v>
+      </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
@@ -3084,9 +3146,11 @@
         <v>-1053.41425765</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>9425</v>
+      </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
@@ -3158,9 +3222,11 @@
         <v>-1050.71515765</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>9345</v>
+      </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
@@ -3232,9 +3298,11 @@
         <v>-1049.5107766</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>9430</v>
+      </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
@@ -5489,18 +5557,16 @@
         <v>3324.50424032</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
@@ -5530,11 +5596,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5567,11 +5629,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5604,11 +5662,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5641,11 +5695,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5678,11 +5728,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5711,15 +5757,11 @@
         <v>3529.627640320001</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5752,11 +5794,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5789,11 +5827,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5826,11 +5860,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5859,15 +5889,11 @@
         <v>3170.381740320001</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5896,15 +5922,11 @@
         <v>3166.715540320001</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5933,15 +5955,11 @@
         <v>3117.645740320001</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5970,15 +5988,11 @@
         <v>3220.628155180001</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6007,15 +6021,11 @@
         <v>3169.161355180001</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6044,15 +6054,11 @@
         <v>3169.161355180001</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6081,15 +6087,11 @@
         <v>2996.55765518</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6118,15 +6120,11 @@
         <v>3317.09395518</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6155,15 +6153,11 @@
         <v>3530.72045518</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6192,15 +6186,11 @@
         <v>3530.72045518</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6229,15 +6219,11 @@
         <v>3530.72045518</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6266,15 +6252,11 @@
         <v>3567.45625518</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6303,15 +6285,11 @@
         <v>3740.67275518</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6340,15 +6318,11 @@
         <v>3768.79275518</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6377,15 +6351,11 @@
         <v>3768.79275518</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6418,11 +6388,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6451,15 +6417,11 @@
         <v>4114.11645518</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6488,15 +6450,11 @@
         <v>4053.53875518</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6525,15 +6483,11 @@
         <v>4053.53875518</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6562,15 +6516,11 @@
         <v>4131.03875518</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6599,15 +6549,11 @@
         <v>4156.786155180001</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6636,15 +6582,11 @@
         <v>3898.932055180001</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6673,15 +6615,11 @@
         <v>3898.932055180001</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6710,15 +6648,11 @@
         <v>3903.84005518</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6747,15 +6681,11 @@
         <v>3879.84005518</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6784,15 +6714,11 @@
         <v>3879.84005518</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6821,15 +6747,11 @@
         <v>3879.84005518</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6858,15 +6780,11 @@
         <v>3879.84005518</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6895,15 +6813,11 @@
         <v>3877.706755180001</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6932,15 +6846,11 @@
         <v>3877.706755180001</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6969,15 +6879,11 @@
         <v>3789.28715518</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7006,15 +6912,11 @@
         <v>4023.643155180001</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7043,15 +6945,11 @@
         <v>4023.643155180001</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7080,15 +6978,11 @@
         <v>4023.643155180001</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7117,15 +7011,11 @@
         <v>4023.643155180001</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7154,15 +7044,11 @@
         <v>4032.80425518</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7191,15 +7077,11 @@
         <v>4031.03945518</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7228,15 +7110,11 @@
         <v>4465.310855180001</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7265,15 +7143,11 @@
         <v>4365.141855180001</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7302,15 +7176,11 @@
         <v>4287.925155180001</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7339,15 +7209,11 @@
         <v>4367.73205518</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7376,15 +7242,11 @@
         <v>4367.73205518</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7413,15 +7275,11 @@
         <v>4388.039255180001</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7450,15 +7308,11 @@
         <v>4372.722455180001</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7487,15 +7341,11 @@
         <v>4372.722455180001</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7524,15 +7374,11 @@
         <v>4372.206255180001</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7561,15 +7407,11 @@
         <v>4378.206255180001</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7598,15 +7440,11 @@
         <v>4378.206255180001</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7635,15 +7473,11 @@
         <v>4278.206255180001</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7672,15 +7506,11 @@
         <v>4282.206255180001</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7709,15 +7539,11 @@
         <v>4133.434355180001</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7746,15 +7572,11 @@
         <v>4135.434355180001</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7783,15 +7605,11 @@
         <v>4135.434355180001</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7820,15 +7638,11 @@
         <v>4117.434355180001</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7857,15 +7671,11 @@
         <v>4117.434355180001</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7894,15 +7704,11 @@
         <v>4117.234355180001</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7931,15 +7737,11 @@
         <v>4122.007355180001</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7968,15 +7770,11 @@
         <v>4117.636755180001</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8005,15 +7803,11 @@
         <v>4065.515655180001</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8042,15 +7836,11 @@
         <v>4065.515655180001</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8079,15 +7869,11 @@
         <v>4118.797655180001</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8116,16 +7902,14 @@
         <v>4218.060855180001</v>
       </c>
       <c r="H209" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
       <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
@@ -8151,7 +7935,7 @@
         <v>4218.060855180001</v>
       </c>
       <c r="H210" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -8184,7 +7968,7 @@
         <v>4211.833755180001</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -8217,7 +8001,7 @@
         <v>4209.696555180001</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -8250,7 +8034,7 @@
         <v>4372.755155180002</v>
       </c>
       <c r="H213" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -8283,7 +8067,7 @@
         <v>4372.755155180002</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -8316,7 +8100,7 @@
         <v>4454.178155180001</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -8349,7 +8133,7 @@
         <v>4454.178155180001</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -8382,7 +8166,7 @@
         <v>4539.759155180001</v>
       </c>
       <c r="H217" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -8415,7 +8199,7 @@
         <v>4533.758655180001</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -8448,7 +8232,7 @@
         <v>4534.030055180001</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -8547,7 +8331,7 @@
         <v>4480.716555180001</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -8580,7 +8364,7 @@
         <v>4833.312655180001</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8613,7 +8397,7 @@
         <v>4833.312655180001</v>
       </c>
       <c r="H224" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8646,7 +8430,7 @@
         <v>4833.312655180001</v>
       </c>
       <c r="H225" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8679,7 +8463,7 @@
         <v>4821.312655180001</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -8712,7 +8496,7 @@
         <v>4833.312655180001</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8745,7 +8529,7 @@
         <v>5051.312655180001</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8778,7 +8562,7 @@
         <v>5003.312655180001</v>
       </c>
       <c r="H229" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8811,7 +8595,7 @@
         <v>4938.07605518</v>
       </c>
       <c r="H230" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8844,7 +8628,7 @@
         <v>4981.64025518</v>
       </c>
       <c r="H231" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8877,7 +8661,7 @@
         <v>4900.26555518</v>
       </c>
       <c r="H232" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8910,7 +8694,7 @@
         <v>4719.26555518</v>
       </c>
       <c r="H233" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8943,7 +8727,7 @@
         <v>4741.84825518</v>
       </c>
       <c r="H234" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8976,7 +8760,7 @@
         <v>5136.21565518</v>
       </c>
       <c r="H235" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -9009,7 +8793,7 @@
         <v>5117.91565518</v>
       </c>
       <c r="H236" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -9042,7 +8826,7 @@
         <v>5105.80475518</v>
       </c>
       <c r="H237" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -9075,7 +8859,7 @@
         <v>5131.2977287</v>
       </c>
       <c r="H238" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -9108,7 +8892,7 @@
         <v>5155.661517420001</v>
       </c>
       <c r="H239" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -9141,7 +8925,7 @@
         <v>5155.661517420001</v>
       </c>
       <c r="H240" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -9174,7 +8958,7 @@
         <v>5032.226017420001</v>
       </c>
       <c r="H241" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -9207,7 +8991,7 @@
         <v>5024.181417420001</v>
       </c>
       <c r="H242" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -9240,7 +9024,7 @@
         <v>5021.781417420001</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -9273,7 +9057,7 @@
         <v>5033.051817420001</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -9306,7 +9090,7 @@
         <v>5033.051817420001</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -9339,7 +9123,7 @@
         <v>5013.051817420001</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -9372,7 +9156,7 @@
         <v>5015.051817420001</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -9405,7 +9189,7 @@
         <v>5019.981517420001</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -9438,7 +9222,7 @@
         <v>5026.959417420001</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -9471,7 +9255,7 @@
         <v>5026.858417420001</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -9504,7 +9288,7 @@
         <v>5029.913417420002</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -9537,7 +9321,7 @@
         <v>4762.953117420002</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -9570,7 +9354,7 @@
         <v>4588.780517420002</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9603,7 +9387,7 @@
         <v>4407.780517420002</v>
       </c>
       <c r="H254" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9636,7 +9420,7 @@
         <v>4443.091517420002</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9669,7 +9453,7 @@
         <v>4451.193117420002</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -9702,7 +9486,7 @@
         <v>4459.193117420002</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9735,7 +9519,7 @@
         <v>4449.193117420002</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9768,7 +9552,7 @@
         <v>4449.193117420002</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9801,7 +9585,7 @@
         <v>4449.193117420002</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9834,7 +9618,7 @@
         <v>4450.234317420001</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9867,7 +9651,7 @@
         <v>4423.276417420001</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9900,7 +9684,7 @@
         <v>4413.045317420001</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9933,7 +9717,7 @@
         <v>4327.567117420002</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9966,7 +9750,7 @@
         <v>4328.045917420001</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9999,7 +9783,7 @@
         <v>4329.565617420001</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -10032,7 +9816,7 @@
         <v>4329.434417420001</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -10065,7 +9849,7 @@
         <v>4329.434417420001</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -10098,7 +9882,7 @@
         <v>4329.661217420002</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -10263,7 +10047,7 @@
         <v>4408.340317420001</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -10296,7 +10080,7 @@
         <v>4455.264117420001</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -10362,7 +10146,7 @@
         <v>4457.030217420001</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -10395,7 +10179,7 @@
         <v>4450.030217420001</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -10428,7 +10212,7 @@
         <v>4285.32461742</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -10461,7 +10245,7 @@
         <v>4435.71981742</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -10494,7 +10278,7 @@
         <v>4449.63031742</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -10571,6 +10355,6 @@
       <c r="M283" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-29 BackTest BTG.xlsx
+++ b/BackTest/2019-10-29 BackTest BTG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -682,407 +682,359 @@
         <v>-538.8376000000001</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>9400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>9335</v>
+      </c>
+      <c r="C10" t="n">
+        <v>9335</v>
+      </c>
+      <c r="D10" t="n">
+        <v>9335</v>
+      </c>
+      <c r="E10" t="n">
+        <v>9335</v>
+      </c>
+      <c r="F10" t="n">
+        <v>6.7021</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-538.8376000000001</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9330</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9330</v>
+      </c>
+      <c r="D11" t="n">
+        <v>9330</v>
+      </c>
+      <c r="E11" t="n">
+        <v>9330</v>
+      </c>
+      <c r="F11" t="n">
+        <v>7.3393</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-546.1769</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>9350</v>
+      </c>
+      <c r="C12" t="n">
+        <v>9350</v>
+      </c>
+      <c r="D12" t="n">
+        <v>9350</v>
+      </c>
+      <c r="E12" t="n">
+        <v>9350</v>
+      </c>
+      <c r="F12" t="n">
+        <v>6</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-540.1769</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>9350</v>
+      </c>
+      <c r="C13" t="n">
+        <v>9330</v>
+      </c>
+      <c r="D13" t="n">
+        <v>9350</v>
+      </c>
+      <c r="E13" t="n">
+        <v>9330</v>
+      </c>
+      <c r="F13" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-583.6769</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>9330</v>
+      </c>
+      <c r="C14" t="n">
+        <v>9330</v>
+      </c>
+      <c r="D14" t="n">
+        <v>9330</v>
+      </c>
+      <c r="E14" t="n">
+        <v>9330</v>
+      </c>
+      <c r="F14" t="n">
+        <v>102.1951</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-583.6769</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>9330</v>
+      </c>
+      <c r="C15" t="n">
+        <v>9320</v>
+      </c>
+      <c r="D15" t="n">
+        <v>9350</v>
+      </c>
+      <c r="E15" t="n">
+        <v>9320</v>
+      </c>
+      <c r="F15" t="n">
+        <v>273.3756</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-857.0525</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>9320</v>
+      </c>
+      <c r="C16" t="n">
+        <v>9320</v>
+      </c>
+      <c r="D16" t="n">
+        <v>9320</v>
+      </c>
+      <c r="E16" t="n">
+        <v>9320</v>
+      </c>
+      <c r="F16" t="n">
+        <v>41.1212</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-857.0525</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>9320</v>
+      </c>
+      <c r="C17" t="n">
+        <v>9320</v>
+      </c>
+      <c r="D17" t="n">
+        <v>9320</v>
+      </c>
+      <c r="E17" t="n">
+        <v>9320</v>
+      </c>
+      <c r="F17" t="n">
+        <v>8.447900000000001</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-857.0525</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>9320</v>
+      </c>
+      <c r="J17" t="n">
+        <v>9320</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>9255</v>
+      </c>
+      <c r="C18" t="n">
+        <v>9255</v>
+      </c>
+      <c r="D18" t="n">
+        <v>9255</v>
+      </c>
+      <c r="E18" t="n">
+        <v>9255</v>
+      </c>
+      <c r="F18" t="n">
+        <v>10.5276</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-867.5801</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>9320</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>9255</v>
+      </c>
+      <c r="C19" t="n">
+        <v>9255</v>
+      </c>
+      <c r="D19" t="n">
+        <v>9260</v>
+      </c>
+      <c r="E19" t="n">
+        <v>9250</v>
+      </c>
+      <c r="F19" t="n">
+        <v>37.415</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-867.5801</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>9255</v>
+      </c>
+      <c r="J19" t="n">
+        <v>9320</v>
+      </c>
+      <c r="K19" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>9335</v>
-      </c>
-      <c r="C10" t="n">
-        <v>9335</v>
-      </c>
-      <c r="D10" t="n">
-        <v>9335</v>
-      </c>
-      <c r="E10" t="n">
-        <v>9335</v>
-      </c>
-      <c r="F10" t="n">
-        <v>6.7021</v>
-      </c>
-      <c r="G10" t="n">
-        <v>-538.8376000000001</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>9335</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9330</v>
-      </c>
-      <c r="C11" t="n">
-        <v>9330</v>
-      </c>
-      <c r="D11" t="n">
-        <v>9330</v>
-      </c>
-      <c r="E11" t="n">
-        <v>9330</v>
-      </c>
-      <c r="F11" t="n">
-        <v>7.3393</v>
-      </c>
-      <c r="G11" t="n">
-        <v>-546.1769</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>9335</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>9350</v>
-      </c>
-      <c r="C12" t="n">
-        <v>9350</v>
-      </c>
-      <c r="D12" t="n">
-        <v>9350</v>
-      </c>
-      <c r="E12" t="n">
-        <v>9350</v>
-      </c>
-      <c r="F12" t="n">
-        <v>6</v>
-      </c>
-      <c r="G12" t="n">
-        <v>-540.1769</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>9330</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>9350</v>
-      </c>
-      <c r="C13" t="n">
-        <v>9330</v>
-      </c>
-      <c r="D13" t="n">
-        <v>9350</v>
-      </c>
-      <c r="E13" t="n">
-        <v>9330</v>
-      </c>
-      <c r="F13" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="G13" t="n">
-        <v>-583.6769</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>9350</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>9330</v>
-      </c>
-      <c r="C14" t="n">
-        <v>9330</v>
-      </c>
-      <c r="D14" t="n">
-        <v>9330</v>
-      </c>
-      <c r="E14" t="n">
-        <v>9330</v>
-      </c>
-      <c r="F14" t="n">
-        <v>102.1951</v>
-      </c>
-      <c r="G14" t="n">
-        <v>-583.6769</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>9330</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>9330</v>
-      </c>
-      <c r="C15" t="n">
-        <v>9320</v>
-      </c>
-      <c r="D15" t="n">
-        <v>9350</v>
-      </c>
-      <c r="E15" t="n">
-        <v>9320</v>
-      </c>
-      <c r="F15" t="n">
-        <v>273.3756</v>
-      </c>
-      <c r="G15" t="n">
-        <v>-857.0525</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>9330</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>9320</v>
-      </c>
-      <c r="C16" t="n">
-        <v>9320</v>
-      </c>
-      <c r="D16" t="n">
-        <v>9320</v>
-      </c>
-      <c r="E16" t="n">
-        <v>9320</v>
-      </c>
-      <c r="F16" t="n">
-        <v>41.1212</v>
-      </c>
-      <c r="G16" t="n">
-        <v>-857.0525</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>9320</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>9320</v>
-      </c>
-      <c r="C17" t="n">
-        <v>9320</v>
-      </c>
-      <c r="D17" t="n">
-        <v>9320</v>
-      </c>
-      <c r="E17" t="n">
-        <v>9320</v>
-      </c>
-      <c r="F17" t="n">
-        <v>8.447900000000001</v>
-      </c>
-      <c r="G17" t="n">
-        <v>-857.0525</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>9320</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>9255</v>
-      </c>
-      <c r="C18" t="n">
-        <v>9255</v>
-      </c>
-      <c r="D18" t="n">
-        <v>9255</v>
-      </c>
-      <c r="E18" t="n">
-        <v>9255</v>
-      </c>
-      <c r="F18" t="n">
-        <v>10.5276</v>
-      </c>
-      <c r="G18" t="n">
-        <v>-867.5801</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>9320</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>9255</v>
-      </c>
-      <c r="C19" t="n">
-        <v>9255</v>
-      </c>
-      <c r="D19" t="n">
-        <v>9260</v>
-      </c>
-      <c r="E19" t="n">
-        <v>9250</v>
-      </c>
-      <c r="F19" t="n">
-        <v>37.415</v>
-      </c>
-      <c r="G19" t="n">
-        <v>-867.5801</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>9255</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1116,7 +1068,9 @@
       <c r="I20" t="n">
         <v>9255</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>9320</v>
+      </c>
       <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1155,7 +1109,9 @@
       <c r="I21" t="n">
         <v>9255</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>9320</v>
+      </c>
       <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1194,7 +1150,9 @@
       <c r="I22" t="n">
         <v>9315</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>9320</v>
+      </c>
       <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1228,12 +1186,12 @@
         <v>-842.1701</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>9315</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>9320</v>
+      </c>
       <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1267,12 +1225,12 @@
         <v>-822.0004</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>9320</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>9320</v>
+      </c>
       <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1306,12 +1264,12 @@
         <v>-701.0004</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>9335</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>9320</v>
+      </c>
       <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1345,12 +1303,12 @@
         <v>-711.0004</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>9370</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>9320</v>
+      </c>
       <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1384,12 +1342,12 @@
         <v>-678.171</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>9300</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>9320</v>
+      </c>
       <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1428,7 +1386,9 @@
       <c r="I28" t="n">
         <v>9305</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>9320</v>
+      </c>
       <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1467,7 +1427,9 @@
       <c r="I29" t="n">
         <v>9310</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>9320</v>
+      </c>
       <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1506,7 +1468,9 @@
       <c r="I30" t="n">
         <v>9310</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>9320</v>
+      </c>
       <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1545,7 +1509,9 @@
       <c r="I31" t="n">
         <v>9305</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>9320</v>
+      </c>
       <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1584,7 +1550,9 @@
       <c r="I32" t="n">
         <v>9330</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>9320</v>
+      </c>
       <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1623,7 +1591,9 @@
       <c r="I33" t="n">
         <v>9305</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>9320</v>
+      </c>
       <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1662,7 +1632,9 @@
       <c r="I34" t="n">
         <v>9300</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>9320</v>
+      </c>
       <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1701,7 +1673,9 @@
       <c r="I35" t="n">
         <v>9365</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>9320</v>
+      </c>
       <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1740,7 +1714,9 @@
       <c r="I36" t="n">
         <v>9365</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>9320</v>
+      </c>
       <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1774,12 +1750,12 @@
         <v>-502.9945</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>9380</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>9320</v>
+      </c>
       <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1813,12 +1789,12 @@
         <v>-760.8379</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>9385</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>9320</v>
+      </c>
       <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1852,12 +1828,12 @@
         <v>-748.8379</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>9320</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>9320</v>
+      </c>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1891,12 +1867,12 @@
         <v>-826.5263</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>9390</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>9320</v>
+      </c>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1933,7 +1909,9 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>9320</v>
+      </c>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1967,12 +1945,12 @@
         <v>-824.6332</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>9360</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>9320</v>
+      </c>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2006,12 +1984,12 @@
         <v>-820.6332</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>9400</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>9320</v>
+      </c>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2045,12 +2023,12 @@
         <v>-672.53795765</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>9410</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>9320</v>
+      </c>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2087,7 +2065,9 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>9320</v>
+      </c>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2124,7 +2104,9 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>9320</v>
+      </c>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2158,12 +2140,12 @@
         <v>-751.8700576499999</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>9400</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>9320</v>
+      </c>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2200,7 +2182,9 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>9320</v>
+      </c>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2237,7 +2221,9 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>9320</v>
+      </c>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2274,7 +2260,9 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>9320</v>
+      </c>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2311,7 +2299,9 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>9320</v>
+      </c>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2348,7 +2338,9 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>9320</v>
+      </c>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2385,7 +2377,9 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>9320</v>
+      </c>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2422,7 +2416,9 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>9320</v>
+      </c>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2459,7 +2455,9 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>9320</v>
+      </c>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2496,7 +2494,9 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>9320</v>
+      </c>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2533,7 +2533,9 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>9320</v>
+      </c>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2567,12 +2569,12 @@
         <v>-973.2457576499999</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>9370</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>9320</v>
+      </c>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2606,12 +2608,12 @@
         <v>-973.2457576499999</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>9370</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>9320</v>
+      </c>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2645,12 +2647,12 @@
         <v>-971.2457576499999</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>9370</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>9320</v>
+      </c>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2687,7 +2689,9 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>9320</v>
+      </c>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2721,12 +2725,12 @@
         <v>-985.2457576499999</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>9295</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>9320</v>
+      </c>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2765,7 +2769,9 @@
       <c r="I63" t="n">
         <v>9295</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>9320</v>
+      </c>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2804,7 +2810,9 @@
       <c r="I64" t="n">
         <v>9295</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>9320</v>
+      </c>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2843,7 +2851,9 @@
       <c r="I65" t="n">
         <v>9305</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>9320</v>
+      </c>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2882,7 +2892,9 @@
       <c r="I66" t="n">
         <v>9305</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>9320</v>
+      </c>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2921,7 +2933,9 @@
       <c r="I67" t="n">
         <v>9300</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>9320</v>
+      </c>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2955,12 +2969,12 @@
         <v>-1045.96445765</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>9395</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>9320</v>
+      </c>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2994,12 +3008,12 @@
         <v>-1107.64105765</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>9395</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>9320</v>
+      </c>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3033,12 +3047,12 @@
         <v>-1093.01725765</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>9315</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>9320</v>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3075,7 +3089,9 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>9320</v>
+      </c>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3112,7 +3128,9 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>9320</v>
+      </c>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3146,12 +3164,12 @@
         <v>-1053.41425765</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>9425</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>9320</v>
+      </c>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3188,7 +3206,9 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>9320</v>
+      </c>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3222,12 +3242,12 @@
         <v>-1050.71515765</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>9345</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>9320</v>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3264,7 +3284,9 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>9320</v>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3298,12 +3320,12 @@
         <v>-1049.5107766</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>9430</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>9320</v>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3340,7 +3362,9 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>9320</v>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3377,7 +3401,9 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>9320</v>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3414,7 +3440,9 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>9320</v>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3451,7 +3479,9 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>9320</v>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3488,7 +3518,9 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>9320</v>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3525,7 +3557,9 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>9320</v>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3562,7 +3596,9 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>9320</v>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3599,7 +3635,9 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>9320</v>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3636,7 +3674,9 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>9320</v>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3673,7 +3713,9 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>9320</v>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3710,7 +3752,9 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>9320</v>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3747,7 +3791,9 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>9320</v>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3784,7 +3830,9 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>9320</v>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3821,7 +3869,9 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>9320</v>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3858,7 +3908,9 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>9320</v>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3895,7 +3947,9 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>9320</v>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3932,7 +3986,9 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>9320</v>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3969,7 +4025,9 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>9320</v>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4006,7 +4064,9 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>9320</v>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4043,7 +4103,9 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>9320</v>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4080,7 +4142,9 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>9320</v>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4117,7 +4181,9 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>9320</v>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4154,7 +4220,9 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>9320</v>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4191,7 +4259,9 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>9320</v>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4228,7 +4298,9 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>9320</v>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4262,17 +4334,19 @@
         <v>419.4594335400001</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>9320</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L103" t="n">
-        <v>1</v>
+        <v>1.018068669527897</v>
       </c>
       <c r="M103" t="inlineStr"/>
     </row>
@@ -4299,15 +4373,11 @@
         <v>419.4594335400001</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4336,15 +4406,11 @@
         <v>419.4594335400001</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4373,15 +4439,11 @@
         <v>452.5744335400001</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4410,15 +4472,11 @@
         <v>429.5744335400001</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4447,15 +4505,11 @@
         <v>380.0702335400001</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4488,11 +4542,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4525,11 +4575,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4562,11 +4608,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4599,11 +4641,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4636,11 +4674,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4669,15 +4703,11 @@
         <v>1182.84733354</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4706,15 +4736,11 @@
         <v>1493.50973354</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4743,15 +4769,11 @@
         <v>1693.32458693</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4780,15 +4802,11 @@
         <v>1135.75704032</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4817,15 +4835,11 @@
         <v>2064.64694032</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4854,15 +4868,11 @@
         <v>2302.037540320001</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4891,15 +4901,11 @@
         <v>2758.12744032</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4932,11 +4938,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4969,11 +4971,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5006,11 +5004,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5043,11 +5037,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5080,11 +5070,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5117,11 +5103,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5154,11 +5136,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5191,11 +5169,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5228,11 +5202,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5265,11 +5235,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5302,11 +5268,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5339,11 +5301,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5376,11 +5334,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5413,11 +5367,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5450,11 +5400,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5487,11 +5433,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5524,11 +5466,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5557,16 +5495,14 @@
         <v>3324.50424032</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
       <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
@@ -5757,7 +5693,7 @@
         <v>3529.627640320001</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5889,7 +5825,7 @@
         <v>3170.381740320001</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5955,7 +5891,7 @@
         <v>3117.645740320001</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -6021,7 +5957,7 @@
         <v>3169.161355180001</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -6087,7 +6023,7 @@
         <v>2996.55765518</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -6120,7 +6056,7 @@
         <v>3317.09395518</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -6153,7 +6089,7 @@
         <v>3530.72045518</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -6186,7 +6122,7 @@
         <v>3530.72045518</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6219,7 +6155,7 @@
         <v>3530.72045518</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6252,7 +6188,7 @@
         <v>3567.45625518</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -6285,7 +6221,7 @@
         <v>3740.67275518</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6318,7 +6254,7 @@
         <v>3768.79275518</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6351,7 +6287,7 @@
         <v>3768.79275518</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6417,7 +6353,7 @@
         <v>4114.11645518</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6450,7 +6386,7 @@
         <v>4053.53875518</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6483,7 +6419,7 @@
         <v>4053.53875518</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6516,7 +6452,7 @@
         <v>4131.03875518</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6549,7 +6485,7 @@
         <v>4156.786155180001</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6582,7 +6518,7 @@
         <v>3898.932055180001</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6615,7 +6551,7 @@
         <v>3898.932055180001</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6648,7 +6584,7 @@
         <v>3903.84005518</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6681,7 +6617,7 @@
         <v>3879.84005518</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6714,7 +6650,7 @@
         <v>3879.84005518</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6747,7 +6683,7 @@
         <v>3879.84005518</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6780,7 +6716,7 @@
         <v>3879.84005518</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6813,7 +6749,7 @@
         <v>3877.706755180001</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6846,7 +6782,7 @@
         <v>3877.706755180001</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6879,7 +6815,7 @@
         <v>3789.28715518</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6912,7 +6848,7 @@
         <v>4023.643155180001</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6945,7 +6881,7 @@
         <v>4023.643155180001</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6978,7 +6914,7 @@
         <v>4023.643155180001</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -7011,7 +6947,7 @@
         <v>4023.643155180001</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -7044,7 +6980,7 @@
         <v>4032.80425518</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -7077,7 +7013,7 @@
         <v>4031.03945518</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -7110,7 +7046,7 @@
         <v>4465.310855180001</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -7143,7 +7079,7 @@
         <v>4365.141855180001</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -7176,7 +7112,7 @@
         <v>4287.925155180001</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7209,7 +7145,7 @@
         <v>4367.73205518</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7242,7 +7178,7 @@
         <v>4367.73205518</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7275,7 +7211,7 @@
         <v>4388.039255180001</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7308,7 +7244,7 @@
         <v>4372.722455180001</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7341,7 +7277,7 @@
         <v>4372.722455180001</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7374,7 +7310,7 @@
         <v>4372.206255180001</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7407,7 +7343,7 @@
         <v>4378.206255180001</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7440,7 +7376,7 @@
         <v>4378.206255180001</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7473,7 +7409,7 @@
         <v>4278.206255180001</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7506,7 +7442,7 @@
         <v>4282.206255180001</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7539,7 +7475,7 @@
         <v>4133.434355180001</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7572,7 +7508,7 @@
         <v>4135.434355180001</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7605,7 +7541,7 @@
         <v>4135.434355180001</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7638,7 +7574,7 @@
         <v>4117.434355180001</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7671,7 +7607,7 @@
         <v>4117.434355180001</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7704,7 +7640,7 @@
         <v>4117.234355180001</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7737,7 +7673,7 @@
         <v>4122.007355180001</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7770,7 +7706,7 @@
         <v>4117.636755180001</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7803,7 +7739,7 @@
         <v>4065.515655180001</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7836,7 +7772,7 @@
         <v>4065.515655180001</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7869,7 +7805,7 @@
         <v>4118.797655180001</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7902,7 +7838,7 @@
         <v>4218.060855180001</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7935,7 +7871,7 @@
         <v>4218.060855180001</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7968,7 +7904,7 @@
         <v>4211.833755180001</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -8001,7 +7937,7 @@
         <v>4209.696555180001</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -8034,7 +7970,7 @@
         <v>4372.755155180002</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -8067,7 +8003,7 @@
         <v>4372.755155180002</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -8100,7 +8036,7 @@
         <v>4454.178155180001</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -8133,7 +8069,7 @@
         <v>4454.178155180001</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -8166,7 +8102,7 @@
         <v>4539.759155180001</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -8199,7 +8135,7 @@
         <v>4533.758655180001</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -8232,7 +8168,7 @@
         <v>4534.030055180001</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -8331,7 +8267,7 @@
         <v>4480.716555180001</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -8364,7 +8300,7 @@
         <v>4833.312655180001</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8397,7 +8333,7 @@
         <v>4833.312655180001</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8430,7 +8366,7 @@
         <v>4833.312655180001</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8463,7 +8399,7 @@
         <v>4821.312655180001</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -8496,7 +8432,7 @@
         <v>4833.312655180001</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8529,7 +8465,7 @@
         <v>5051.312655180001</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8562,7 +8498,7 @@
         <v>5003.312655180001</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8595,7 +8531,7 @@
         <v>4938.07605518</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8628,7 +8564,7 @@
         <v>4981.64025518</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8661,7 +8597,7 @@
         <v>4900.26555518</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8694,7 +8630,7 @@
         <v>4719.26555518</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8727,7 +8663,7 @@
         <v>4741.84825518</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8760,7 +8696,7 @@
         <v>5136.21565518</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8793,7 +8729,7 @@
         <v>5117.91565518</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8826,7 +8762,7 @@
         <v>5105.80475518</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8859,7 +8795,7 @@
         <v>5131.2977287</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8892,7 +8828,7 @@
         <v>5155.661517420001</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8925,7 +8861,7 @@
         <v>5155.661517420001</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8958,7 +8894,7 @@
         <v>5032.226017420001</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8991,7 +8927,7 @@
         <v>5024.181417420001</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -9024,7 +8960,7 @@
         <v>5021.781417420001</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -9057,7 +8993,7 @@
         <v>5033.051817420001</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -9090,7 +9026,7 @@
         <v>5033.051817420001</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -9123,7 +9059,7 @@
         <v>5013.051817420001</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -9156,7 +9092,7 @@
         <v>5015.051817420001</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -9189,7 +9125,7 @@
         <v>5019.981517420001</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -9222,7 +9158,7 @@
         <v>5026.959417420001</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -9255,7 +9191,7 @@
         <v>5026.858417420001</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -9288,7 +9224,7 @@
         <v>5029.913417420002</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -9321,7 +9257,7 @@
         <v>4762.953117420002</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -9354,7 +9290,7 @@
         <v>4588.780517420002</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9387,7 +9323,7 @@
         <v>4407.780517420002</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9420,7 +9356,7 @@
         <v>4443.091517420002</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9453,7 +9389,7 @@
         <v>4451.193117420002</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -9486,7 +9422,7 @@
         <v>4459.193117420002</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9519,7 +9455,7 @@
         <v>4449.193117420002</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9552,7 +9488,7 @@
         <v>4449.193117420002</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9585,7 +9521,7 @@
         <v>4449.193117420002</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9618,7 +9554,7 @@
         <v>4450.234317420001</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9651,7 +9587,7 @@
         <v>4423.276417420001</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9684,7 +9620,7 @@
         <v>4413.045317420001</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9717,7 +9653,7 @@
         <v>4327.567117420002</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9750,7 +9686,7 @@
         <v>4328.045917420001</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9783,7 +9719,7 @@
         <v>4329.565617420001</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9816,7 +9752,7 @@
         <v>4329.434417420001</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9849,7 +9785,7 @@
         <v>4329.434417420001</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9882,7 +9818,7 @@
         <v>4329.661217420002</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -10047,7 +9983,7 @@
         <v>4408.340317420001</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -10080,7 +10016,7 @@
         <v>4455.264117420001</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -10146,7 +10082,7 @@
         <v>4457.030217420001</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -10179,7 +10115,7 @@
         <v>4450.030217420001</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -10212,7 +10148,7 @@
         <v>4285.32461742</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -10245,7 +10181,7 @@
         <v>4435.71981742</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -10278,7 +10214,7 @@
         <v>4449.63031742</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -10355,6 +10291,6 @@
       <c r="M283" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-29 BackTest BTG.xlsx
+++ b/BackTest/2019-10-29 BackTest BTG.xlsx
@@ -880,11 +880,17 @@
         <v>-857.0525</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>9330</v>
+      </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -913,11 +919,17 @@
         <v>-857.0525</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>9320</v>
+      </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,15 +958,15 @@
         <v>-857.0525</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>9320</v>
-      </c>
-      <c r="J17" t="n">
-        <v>9320</v>
-      </c>
-      <c r="K17" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -983,15 +995,15 @@
         <v>-867.5801</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
         <v>9320</v>
       </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L18" t="n">
@@ -1027,12 +1039,10 @@
       <c r="I19" t="n">
         <v>9255</v>
       </c>
-      <c r="J19" t="n">
-        <v>9320</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L19" t="n">
@@ -1068,9 +1078,7 @@
       <c r="I20" t="n">
         <v>9255</v>
       </c>
-      <c r="J20" t="n">
-        <v>9320</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1109,9 +1117,7 @@
       <c r="I21" t="n">
         <v>9255</v>
       </c>
-      <c r="J21" t="n">
-        <v>9320</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1150,9 +1156,7 @@
       <c r="I22" t="n">
         <v>9315</v>
       </c>
-      <c r="J22" t="n">
-        <v>9320</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1186,12 +1190,12 @@
         <v>-842.1701</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>9320</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>9315</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1225,12 +1229,12 @@
         <v>-822.0004</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
         <v>9320</v>
       </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1264,12 +1268,12 @@
         <v>-701.0004</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>9320</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>9335</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1303,12 +1307,12 @@
         <v>-711.0004</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>9320</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>9370</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1342,12 +1346,12 @@
         <v>-678.171</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>9320</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>9300</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1386,9 +1390,7 @@
       <c r="I28" t="n">
         <v>9305</v>
       </c>
-      <c r="J28" t="n">
-        <v>9320</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1427,9 +1429,7 @@
       <c r="I29" t="n">
         <v>9310</v>
       </c>
-      <c r="J29" t="n">
-        <v>9320</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1468,9 +1468,7 @@
       <c r="I30" t="n">
         <v>9310</v>
       </c>
-      <c r="J30" t="n">
-        <v>9320</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1509,9 +1507,7 @@
       <c r="I31" t="n">
         <v>9305</v>
       </c>
-      <c r="J31" t="n">
-        <v>9320</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1545,14 +1541,10 @@
         <v>-733.4887</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>9330</v>
-      </c>
-      <c r="J32" t="n">
-        <v>9320</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1586,14 +1578,10 @@
         <v>-790.2492999999999</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>9305</v>
-      </c>
-      <c r="J33" t="n">
-        <v>9320</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1632,9 +1620,7 @@
       <c r="I34" t="n">
         <v>9300</v>
       </c>
-      <c r="J34" t="n">
-        <v>9320</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1668,14 +1654,10 @@
         <v>-756.2492999999999</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>9365</v>
-      </c>
-      <c r="J35" t="n">
-        <v>9320</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1709,14 +1691,10 @@
         <v>-602.9945</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>9365</v>
-      </c>
-      <c r="J36" t="n">
-        <v>9320</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1753,9 +1731,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>9320</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1792,9 +1768,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>9320</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1831,9 +1805,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>9320</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1870,9 +1842,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>9320</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1909,9 +1879,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>9320</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1948,9 +1916,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>9320</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1987,9 +1953,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>9320</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2026,9 +1990,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>9320</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2065,9 +2027,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>9320</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2104,9 +2064,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>9320</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2143,9 +2101,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>9320</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2182,9 +2138,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>9320</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2221,9 +2175,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>9320</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2260,9 +2212,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>9320</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2299,9 +2249,7 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>9320</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2338,9 +2286,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>9320</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2377,9 +2323,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>9320</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2416,9 +2360,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>9320</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2455,9 +2397,7 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>9320</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2494,9 +2434,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>9320</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2533,9 +2471,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>9320</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2572,9 +2508,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>9320</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2611,9 +2545,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>9320</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2650,9 +2582,7 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>9320</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2689,9 +2619,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>9320</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2728,9 +2656,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>9320</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2764,14 +2690,10 @@
         <v>-985.2457576499999</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>9295</v>
-      </c>
-      <c r="J63" t="n">
-        <v>9320</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2805,14 +2727,10 @@
         <v>-908.9644576499999</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>9295</v>
-      </c>
-      <c r="J64" t="n">
-        <v>9320</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2851,9 +2769,7 @@
       <c r="I65" t="n">
         <v>9305</v>
       </c>
-      <c r="J65" t="n">
-        <v>9320</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2887,14 +2803,10 @@
         <v>-1105.96445765</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>9305</v>
-      </c>
-      <c r="J66" t="n">
-        <v>9320</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2933,9 +2845,7 @@
       <c r="I67" t="n">
         <v>9300</v>
       </c>
-      <c r="J67" t="n">
-        <v>9320</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2972,9 +2882,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>9320</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3011,9 +2919,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>9320</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3050,9 +2956,7 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>9320</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3086,12 +2990,12 @@
         <v>-1091.83865765</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>9320</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>9395</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3128,9 +3032,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>9320</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3167,9 +3069,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>9320</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3206,9 +3106,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>9320</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3245,9 +3143,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>9320</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3284,9 +3180,7 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>9320</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3323,9 +3217,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>9320</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3362,9 +3254,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>9320</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3401,9 +3291,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>9320</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3440,9 +3328,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>9320</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3479,9 +3365,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>9320</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3518,9 +3402,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>9320</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3557,9 +3439,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>9320</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3596,9 +3476,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>9320</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3635,9 +3513,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>9320</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3674,9 +3550,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>9320</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3713,9 +3587,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>9320</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3752,9 +3624,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>9320</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3791,9 +3661,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>9320</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3830,9 +3698,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>9320</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3869,9 +3735,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>9320</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3908,9 +3772,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>9320</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3947,9 +3809,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>9320</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3986,9 +3846,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>9320</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4025,9 +3883,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>9320</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4064,9 +3920,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>9320</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4103,9 +3957,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>9320</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4142,9 +3994,7 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>9320</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4181,9 +4031,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>9320</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4220,9 +4068,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>9320</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4259,9 +4105,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>9320</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4298,9 +4142,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>9320</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4334,19 +4176,17 @@
         <v>419.4594335400001</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>9320</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L103" t="n">
-        <v>1.018068669527897</v>
+        <v>1</v>
       </c>
       <c r="M103" t="inlineStr"/>
     </row>
@@ -4373,11 +4213,15 @@
         <v>419.4594335400001</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4406,11 +4250,15 @@
         <v>419.4594335400001</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4439,11 +4287,15 @@
         <v>452.5744335400001</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4472,11 +4324,15 @@
         <v>429.5744335400001</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4505,11 +4361,15 @@
         <v>380.0702335400001</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4542,7 +4402,11 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4575,7 +4439,11 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4608,7 +4476,11 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4641,7 +4513,11 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4674,7 +4550,11 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4703,11 +4583,15 @@
         <v>1182.84733354</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4736,11 +4620,15 @@
         <v>1493.50973354</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4769,11 +4657,15 @@
         <v>1693.32458693</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4802,11 +4694,15 @@
         <v>1135.75704032</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4835,11 +4731,15 @@
         <v>2064.64694032</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4868,11 +4768,15 @@
         <v>2302.037540320001</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4901,11 +4805,15 @@
         <v>2758.12744032</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4938,7 +4846,11 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4971,7 +4883,11 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5004,7 +4920,11 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5037,7 +4957,11 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5070,7 +4994,11 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5103,7 +5031,11 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5132,14 +5064,16 @@
         <v>3358.855940320001</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
@@ -5165,7 +5099,7 @@
         <v>3358.855940320001</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -5264,7 +5198,7 @@
         <v>3335.29694032</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5297,7 +5231,7 @@
         <v>3290.076940320001</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5825,7 +5759,7 @@
         <v>3170.381740320001</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5858,7 +5792,7 @@
         <v>3166.715540320001</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5957,7 +5891,7 @@
         <v>3169.161355180001</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5990,7 +5924,7 @@
         <v>3169.161355180001</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -6023,7 +5957,7 @@
         <v>2996.55765518</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -6386,7 +6320,7 @@
         <v>4053.53875518</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6518,7 +6452,7 @@
         <v>3898.932055180001</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6551,7 +6485,7 @@
         <v>3898.932055180001</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6584,7 +6518,7 @@
         <v>3903.84005518</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6650,7 +6584,7 @@
         <v>3879.84005518</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -7112,7 +7046,7 @@
         <v>4287.925155180001</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7211,7 +7145,7 @@
         <v>4388.039255180001</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7244,7 +7178,7 @@
         <v>4372.722455180001</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7277,7 +7211,7 @@
         <v>4372.722455180001</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7310,7 +7244,7 @@
         <v>4372.206255180001</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7343,7 +7277,7 @@
         <v>4378.206255180001</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7376,7 +7310,7 @@
         <v>4378.206255180001</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7442,7 +7376,7 @@
         <v>4282.206255180001</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7508,7 +7442,7 @@
         <v>4135.434355180001</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7574,7 +7508,7 @@
         <v>4117.434355180001</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7871,7 +7805,7 @@
         <v>4218.060855180001</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7904,7 +7838,7 @@
         <v>4211.833755180001</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7937,7 +7871,7 @@
         <v>4209.696555180001</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7970,7 +7904,7 @@
         <v>4372.755155180002</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -8036,7 +7970,7 @@
         <v>4454.178155180001</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -8102,7 +8036,7 @@
         <v>4539.759155180001</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -8168,7 +8102,7 @@
         <v>4534.030055180001</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -8201,7 +8135,7 @@
         <v>4534.030055180001</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -8234,7 +8168,7 @@
         <v>4480.908455180001</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -8267,7 +8201,7 @@
         <v>4480.716555180001</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -8300,7 +8234,7 @@
         <v>4833.312655180001</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8333,7 +8267,7 @@
         <v>4833.312655180001</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8366,7 +8300,7 @@
         <v>4833.312655180001</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8399,7 +8333,7 @@
         <v>4821.312655180001</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -8432,7 +8366,7 @@
         <v>4833.312655180001</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8465,7 +8399,7 @@
         <v>5051.312655180001</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8498,7 +8432,7 @@
         <v>5003.312655180001</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8531,7 +8465,7 @@
         <v>4938.07605518</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8597,7 +8531,7 @@
         <v>4900.26555518</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8630,7 +8564,7 @@
         <v>4719.26555518</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8729,7 +8663,7 @@
         <v>5117.91565518</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8762,7 +8696,7 @@
         <v>5105.80475518</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8828,7 +8762,7 @@
         <v>5155.661517420001</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8861,7 +8795,7 @@
         <v>5155.661517420001</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8894,7 +8828,7 @@
         <v>5032.226017420001</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8927,7 +8861,7 @@
         <v>5024.181417420001</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -9026,7 +8960,7 @@
         <v>5033.051817420001</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -9059,7 +8993,7 @@
         <v>5013.051817420001</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -9092,7 +9026,7 @@
         <v>5015.051817420001</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -9158,7 +9092,7 @@
         <v>5026.959417420001</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -9191,7 +9125,7 @@
         <v>5026.858417420001</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -9290,7 +9224,7 @@
         <v>4588.780517420002</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>

--- a/BackTest/2019-10-29 BackTest BTG.xlsx
+++ b/BackTest/2019-10-29 BackTest BTG.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M283"/>
+  <dimension ref="A1:L283"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>15.748</v>
       </c>
       <c r="G2" t="n">
-        <v>-451.0856000000001</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,19 @@
         <v>20.748</v>
       </c>
       <c r="G3" t="n">
-        <v>-430.3376000000001</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>9400</v>
+      </c>
+      <c r="I3" t="n">
+        <v>9400</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +507,21 @@
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>-430.3376000000001</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>9400</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +543,21 @@
         <v>2</v>
       </c>
       <c r="G5" t="n">
-        <v>-430.3376000000001</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="n">
+        <v>9400</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +579,15 @@
         <v>2</v>
       </c>
       <c r="G6" t="n">
-        <v>-430.3376000000001</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +609,15 @@
         <v>96.5</v>
       </c>
       <c r="G7" t="n">
-        <v>-526.8376000000001</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +639,15 @@
         <v>0.1069</v>
       </c>
       <c r="G8" t="n">
-        <v>-526.8376000000001</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +669,21 @@
         <v>12</v>
       </c>
       <c r="G9" t="n">
-        <v>-538.8376000000001</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>9400</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +705,19 @@
         <v>6.7021</v>
       </c>
       <c r="G10" t="n">
-        <v>-538.8376000000001</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +739,21 @@
         <v>7.3393</v>
       </c>
       <c r="G11" t="n">
-        <v>-546.1769</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>9335</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +775,19 @@
         <v>6</v>
       </c>
       <c r="G12" t="n">
-        <v>-540.1769</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +809,19 @@
         <v>43.5</v>
       </c>
       <c r="G13" t="n">
-        <v>-583.6769</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +843,19 @@
         <v>102.1951</v>
       </c>
       <c r="G14" t="n">
-        <v>-583.6769</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,24 +877,21 @@
         <v>273.3756</v>
       </c>
       <c r="G15" t="n">
-        <v>-857.0525</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
         <v>9330</v>
       </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -916,24 +913,19 @@
         <v>41.1212</v>
       </c>
       <c r="G16" t="n">
-        <v>-857.0525</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>9320</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -955,22 +947,21 @@
         <v>8.447900000000001</v>
       </c>
       <c r="G17" t="n">
-        <v>-857.0525</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>9320</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -992,24 +983,19 @@
         <v>10.5276</v>
       </c>
       <c r="G18" t="n">
-        <v>-867.5801</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>9320</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1031,24 +1017,19 @@
         <v>37.415</v>
       </c>
       <c r="G19" t="n">
-        <v>-867.5801</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>9255</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1070,24 +1051,21 @@
         <v>11.6472</v>
       </c>
       <c r="G20" t="n">
-        <v>-867.5801</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
         <v>9255</v>
       </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1109,24 +1087,21 @@
         <v>19.41</v>
       </c>
       <c r="G21" t="n">
-        <v>-848.1701</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
         <v>9255</v>
       </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1148,24 +1123,21 @@
         <v>13</v>
       </c>
       <c r="G22" t="n">
-        <v>-848.1701</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
         <v>9315</v>
       </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1187,24 +1159,21 @@
         <v>6</v>
       </c>
       <c r="G23" t="n">
-        <v>-842.1701</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
         <v>9315</v>
       </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1226,24 +1195,21 @@
         <v>20.1697</v>
       </c>
       <c r="G24" t="n">
-        <v>-822.0004</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
         <v>9320</v>
       </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1265,24 +1231,21 @@
         <v>121</v>
       </c>
       <c r="G25" t="n">
-        <v>-701.0004</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
         <v>9335</v>
       </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1304,24 +1267,21 @@
         <v>10</v>
       </c>
       <c r="G26" t="n">
-        <v>-711.0004</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
         <v>9370</v>
       </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1343,24 +1303,21 @@
         <v>32.8294</v>
       </c>
       <c r="G27" t="n">
-        <v>-678.171</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
         <v>9300</v>
       </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1382,24 +1339,21 @@
         <v>5.049</v>
       </c>
       <c r="G28" t="n">
-        <v>-673.1220000000001</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
         <v>9305</v>
       </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1421,24 +1375,21 @@
         <v>3.2005</v>
       </c>
       <c r="G29" t="n">
-        <v>-673.1220000000001</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
         <v>9310</v>
       </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1460,24 +1411,21 @@
         <v>10.3732</v>
       </c>
       <c r="G30" t="n">
-        <v>-683.4952000000001</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
         <v>9310</v>
       </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1499,24 +1447,21 @@
         <v>176.104</v>
       </c>
       <c r="G31" t="n">
-        <v>-507.3912</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
         <v>9305</v>
       </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,22 +1483,19 @@
         <v>226.0975</v>
       </c>
       <c r="G32" t="n">
-        <v>-733.4887</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1575,22 +1517,21 @@
         <v>56.7606</v>
       </c>
       <c r="G33" t="n">
-        <v>-790.2492999999999</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>9305</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1612,24 +1553,21 @@
         <v>34</v>
       </c>
       <c r="G34" t="n">
-        <v>-756.2492999999999</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
         <v>9300</v>
       </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1651,22 +1589,21 @@
         <v>27.3573</v>
       </c>
       <c r="G35" t="n">
-        <v>-756.2492999999999</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>9365</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1688,22 +1625,21 @@
         <v>153.2548</v>
       </c>
       <c r="G36" t="n">
-        <v>-602.9945</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>9365</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1725,22 +1661,21 @@
         <v>100</v>
       </c>
       <c r="G37" t="n">
-        <v>-502.9945</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>9380</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1762,22 +1697,19 @@
         <v>257.8434</v>
       </c>
       <c r="G38" t="n">
-        <v>-760.8379</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1799,22 +1731,19 @@
         <v>12</v>
       </c>
       <c r="G39" t="n">
-        <v>-748.8379</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1836,22 +1765,19 @@
         <v>77.6884</v>
       </c>
       <c r="G40" t="n">
-        <v>-826.5263</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1873,22 +1799,19 @@
         <v>0.9778</v>
       </c>
       <c r="G41" t="n">
-        <v>-826.5263</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1910,22 +1833,19 @@
         <v>1.8931</v>
       </c>
       <c r="G42" t="n">
-        <v>-824.6332</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1947,22 +1867,19 @@
         <v>4</v>
       </c>
       <c r="G43" t="n">
-        <v>-820.6332</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1984,22 +1901,19 @@
         <v>148.09524235</v>
       </c>
       <c r="G44" t="n">
-        <v>-672.53795765</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2021,22 +1935,19 @@
         <v>89.9776</v>
       </c>
       <c r="G45" t="n">
-        <v>-762.5155576499999</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2058,22 +1969,19 @@
         <v>6</v>
       </c>
       <c r="G46" t="n">
-        <v>-768.5155576499999</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2095,22 +2003,19 @@
         <v>16.6455</v>
       </c>
       <c r="G47" t="n">
-        <v>-751.8700576499999</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2132,22 +2037,19 @@
         <v>4.1614</v>
       </c>
       <c r="G48" t="n">
-        <v>-756.0314576499999</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2169,22 +2071,19 @@
         <v>16.6051</v>
       </c>
       <c r="G49" t="n">
-        <v>-739.4263576499999</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2206,22 +2105,19 @@
         <v>6.3419</v>
       </c>
       <c r="G50" t="n">
-        <v>-733.0844576499999</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2243,22 +2139,19 @@
         <v>4.1614</v>
       </c>
       <c r="G51" t="n">
-        <v>-733.0844576499999</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2280,22 +2173,19 @@
         <v>159.39</v>
       </c>
       <c r="G52" t="n">
-        <v>-892.4744576499999</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2317,22 +2207,19 @@
         <v>9</v>
       </c>
       <c r="G53" t="n">
-        <v>-883.4744576499999</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2354,22 +2241,19 @@
         <v>60</v>
       </c>
       <c r="G54" t="n">
-        <v>-943.4744576499999</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2391,22 +2275,19 @@
         <v>4.9353</v>
       </c>
       <c r="G55" t="n">
-        <v>-943.4744576499999</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2428,22 +2309,19 @@
         <v>29.7713</v>
       </c>
       <c r="G56" t="n">
-        <v>-973.2457576499999</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2465,22 +2343,19 @@
         <v>13.0049</v>
       </c>
       <c r="G57" t="n">
-        <v>-973.2457576499999</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2502,22 +2377,19 @@
         <v>1.0909</v>
       </c>
       <c r="G58" t="n">
-        <v>-973.2457576499999</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2539,22 +2411,19 @@
         <v>55.1562</v>
       </c>
       <c r="G59" t="n">
-        <v>-973.2457576499999</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2576,22 +2445,19 @@
         <v>2</v>
       </c>
       <c r="G60" t="n">
-        <v>-971.2457576499999</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2613,22 +2479,19 @@
         <v>14</v>
       </c>
       <c r="G61" t="n">
-        <v>-985.2457576499999</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2650,22 +2513,19 @@
         <v>306.0808</v>
       </c>
       <c r="G62" t="n">
-        <v>-985.2457576499999</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2687,22 +2547,21 @@
         <v>10.0222</v>
       </c>
       <c r="G63" t="n">
-        <v>-985.2457576499999</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>9295</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2724,22 +2583,21 @@
         <v>76.2813</v>
       </c>
       <c r="G64" t="n">
-        <v>-908.9644576499999</v>
+        <v>1</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>9295</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2761,24 +2619,21 @@
         <v>1.7455</v>
       </c>
       <c r="G65" t="n">
-        <v>-908.9644576499999</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
         <v>9305</v>
       </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2800,22 +2655,21 @@
         <v>197</v>
       </c>
       <c r="G66" t="n">
-        <v>-1105.96445765</v>
+        <v>1</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>9305</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2837,24 +2691,21 @@
         <v>60</v>
       </c>
       <c r="G67" t="n">
-        <v>-1045.96445765</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
         <v>9300</v>
       </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2876,22 +2727,19 @@
         <v>0.2</v>
       </c>
       <c r="G68" t="n">
-        <v>-1045.96445765</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2913,22 +2761,19 @@
         <v>61.6766</v>
       </c>
       <c r="G69" t="n">
-        <v>-1107.64105765</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2950,22 +2795,19 @@
         <v>14.6238</v>
       </c>
       <c r="G70" t="n">
-        <v>-1093.01725765</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2987,24 +2829,19 @@
         <v>1.1786</v>
       </c>
       <c r="G71" t="n">
-        <v>-1091.83865765</v>
-      </c>
-      <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>9395</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3026,22 +2863,19 @@
         <v>25.7364</v>
       </c>
       <c r="G72" t="n">
-        <v>-1066.10225765</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3063,22 +2897,19 @@
         <v>12.688</v>
       </c>
       <c r="G73" t="n">
-        <v>-1053.41425765</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3100,22 +2931,19 @@
         <v>1.2229</v>
       </c>
       <c r="G74" t="n">
-        <v>-1054.63715765</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3137,22 +2965,19 @@
         <v>3.922</v>
       </c>
       <c r="G75" t="n">
-        <v>-1050.71515765</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3174,22 +2999,19 @@
         <v>132.8258</v>
       </c>
       <c r="G76" t="n">
-        <v>-1183.54095765</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3211,22 +3033,19 @@
         <v>134.03018105</v>
       </c>
       <c r="G77" t="n">
-        <v>-1049.5107766</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3248,22 +3067,19 @@
         <v>83</v>
       </c>
       <c r="G78" t="n">
-        <v>-1049.5107766</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3285,22 +3101,19 @@
         <v>12.8637</v>
       </c>
       <c r="G79" t="n">
-        <v>-1062.3744766</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3322,22 +3135,19 @@
         <v>59.6164</v>
       </c>
       <c r="G80" t="n">
-        <v>-1002.7580766</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3359,22 +3169,19 @@
         <v>79.42181895</v>
       </c>
       <c r="G81" t="n">
-        <v>-923.33625765</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3396,22 +3203,19 @@
         <v>11.12</v>
       </c>
       <c r="G82" t="n">
-        <v>-912.21625765</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3433,22 +3237,19 @@
         <v>20.7584</v>
       </c>
       <c r="G83" t="n">
-        <v>-891.4578576499999</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3470,22 +3271,19 @@
         <v>8.1351</v>
       </c>
       <c r="G84" t="n">
-        <v>-899.5929576499999</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3507,22 +3305,19 @@
         <v>1.7769</v>
       </c>
       <c r="G85" t="n">
-        <v>-901.3698576499999</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3544,22 +3339,19 @@
         <v>4</v>
       </c>
       <c r="G86" t="n">
-        <v>-897.3698576499999</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3581,22 +3373,19 @@
         <v>4</v>
       </c>
       <c r="G87" t="n">
-        <v>-901.3698576499999</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3618,22 +3407,19 @@
         <v>56.6412</v>
       </c>
       <c r="G88" t="n">
-        <v>-901.3698576499999</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3655,22 +3441,19 @@
         <v>152.0581</v>
       </c>
       <c r="G89" t="n">
-        <v>-1053.42795765</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3692,22 +3475,19 @@
         <v>86.1306</v>
       </c>
       <c r="G90" t="n">
-        <v>-967.2973576499999</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3729,22 +3509,19 @@
         <v>0.108</v>
       </c>
       <c r="G91" t="n">
-        <v>-967.4053576499998</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3766,22 +3543,19 @@
         <v>143.47649685</v>
       </c>
       <c r="G92" t="n">
-        <v>-823.9288607999998</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3803,22 +3577,19 @@
         <v>0.2237</v>
       </c>
       <c r="G93" t="n">
-        <v>-824.1525607999998</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3840,22 +3611,19 @@
         <v>1227.11089434</v>
       </c>
       <c r="G94" t="n">
-        <v>402.9583335400001</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3877,22 +3645,19 @@
         <v>30</v>
       </c>
       <c r="G95" t="n">
-        <v>402.9583335400001</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3914,22 +3679,19 @@
         <v>4.9875</v>
       </c>
       <c r="G96" t="n">
-        <v>407.9458335400001</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3951,22 +3713,19 @@
         <v>0.2539</v>
       </c>
       <c r="G97" t="n">
-        <v>407.6919335400002</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3988,22 +3747,19 @@
         <v>27.5299</v>
       </c>
       <c r="G98" t="n">
-        <v>435.2218335400001</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4025,22 +3781,19 @@
         <v>72.5235</v>
       </c>
       <c r="G99" t="n">
-        <v>435.2218335400001</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4062,22 +3815,19 @@
         <v>16.7624</v>
       </c>
       <c r="G100" t="n">
-        <v>418.4594335400001</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4099,22 +3849,19 @@
         <v>1</v>
       </c>
       <c r="G101" t="n">
-        <v>418.4594335400001</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4136,22 +3883,19 @@
         <v>68</v>
       </c>
       <c r="G102" t="n">
-        <v>418.4594335400001</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4173,22 +3917,19 @@
         <v>1</v>
       </c>
       <c r="G103" t="n">
-        <v>419.4594335400001</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4210,22 +3951,19 @@
         <v>1</v>
       </c>
       <c r="G104" t="n">
-        <v>419.4594335400001</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4247,22 +3985,19 @@
         <v>112.5313</v>
       </c>
       <c r="G105" t="n">
-        <v>419.4594335400001</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4284,22 +4019,19 @@
         <v>33.115</v>
       </c>
       <c r="G106" t="n">
-        <v>452.5744335400001</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4321,22 +4053,19 @@
         <v>23</v>
       </c>
       <c r="G107" t="n">
-        <v>429.5744335400001</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4358,22 +4087,19 @@
         <v>49.5042</v>
       </c>
       <c r="G108" t="n">
-        <v>380.0702335400001</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4395,22 +4121,19 @@
         <v>237.2597</v>
       </c>
       <c r="G109" t="n">
-        <v>380.0702335400001</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4432,22 +4155,19 @@
         <v>116.5</v>
       </c>
       <c r="G110" t="n">
-        <v>263.5702335400001</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4469,22 +4189,19 @@
         <v>0.1023</v>
       </c>
       <c r="G111" t="n">
-        <v>263.6725335400001</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4506,22 +4223,19 @@
         <v>0.2027</v>
       </c>
       <c r="G112" t="n">
-        <v>263.4698335400001</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4543,22 +4257,19 @@
         <v>914.3813</v>
       </c>
       <c r="G113" t="n">
-        <v>1177.85113354</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4580,22 +4291,19 @@
         <v>4.9962</v>
       </c>
       <c r="G114" t="n">
-        <v>1182.84733354</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4617,22 +4325,19 @@
         <v>310.6624</v>
       </c>
       <c r="G115" t="n">
-        <v>1493.50973354</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4654,22 +4359,19 @@
         <v>199.81485339</v>
       </c>
       <c r="G116" t="n">
-        <v>1693.32458693</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4691,22 +4393,19 @@
         <v>557.56754661</v>
       </c>
       <c r="G117" t="n">
-        <v>1135.75704032</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4728,22 +4427,19 @@
         <v>928.8899</v>
       </c>
       <c r="G118" t="n">
-        <v>2064.64694032</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4765,22 +4461,19 @@
         <v>237.3906</v>
       </c>
       <c r="G119" t="n">
-        <v>2302.037540320001</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4802,22 +4495,19 @@
         <v>456.0899</v>
       </c>
       <c r="G120" t="n">
-        <v>2758.12744032</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4839,22 +4529,19 @@
         <v>65.40389999999999</v>
       </c>
       <c r="G121" t="n">
-        <v>2823.53134032</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4876,22 +4563,19 @@
         <v>283.6213</v>
       </c>
       <c r="G122" t="n">
-        <v>3107.152640320001</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4913,22 +4597,19 @@
         <v>23.8373</v>
       </c>
       <c r="G123" t="n">
-        <v>3130.989940320001</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4950,22 +4631,19 @@
         <v>414.4665</v>
       </c>
       <c r="G124" t="n">
-        <v>3545.456440320001</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4987,22 +4665,19 @@
         <v>442.2321</v>
       </c>
       <c r="G125" t="n">
-        <v>3545.456440320001</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5024,22 +4699,19 @@
         <v>68.379</v>
       </c>
       <c r="G126" t="n">
-        <v>3613.835440320001</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5061,20 +4733,19 @@
         <v>254.9795</v>
       </c>
       <c r="G127" t="n">
-        <v>3358.855940320001</v>
-      </c>
-      <c r="H127" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
       </c>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5096,18 +4767,19 @@
         <v>317.3763</v>
       </c>
       <c r="G128" t="n">
-        <v>3358.855940320001</v>
-      </c>
-      <c r="H128" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5129,18 +4801,19 @@
         <v>23</v>
       </c>
       <c r="G129" t="n">
-        <v>3381.855940320001</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5162,18 +4835,17 @@
         <v>100</v>
       </c>
       <c r="G130" t="n">
-        <v>3281.855940320001</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5195,18 +4867,15 @@
         <v>53.441</v>
       </c>
       <c r="G131" t="n">
-        <v>3335.29694032</v>
-      </c>
-      <c r="H131" t="n">
         <v>2</v>
       </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5228,18 +4897,15 @@
         <v>45.22</v>
       </c>
       <c r="G132" t="n">
-        <v>3290.076940320001</v>
-      </c>
-      <c r="H132" t="n">
         <v>2</v>
       </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5261,18 +4927,15 @@
         <v>358.4859</v>
       </c>
       <c r="G133" t="n">
-        <v>2931.591040320001</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5294,18 +4957,15 @@
         <v>310.8737</v>
       </c>
       <c r="G134" t="n">
-        <v>2620.71734032</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5327,18 +4987,15 @@
         <v>9.742100000000001</v>
       </c>
       <c r="G135" t="n">
-        <v>2610.97524032</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5360,18 +5017,15 @@
         <v>196.2317</v>
       </c>
       <c r="G136" t="n">
-        <v>2414.743540320001</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5393,18 +5047,15 @@
         <v>940.4456</v>
       </c>
       <c r="G137" t="n">
-        <v>3355.189140320001</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5426,18 +5077,15 @@
         <v>30.6849</v>
       </c>
       <c r="G138" t="n">
-        <v>3324.50424032</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5459,18 +5107,15 @@
         <v>9.245699999999999</v>
       </c>
       <c r="G139" t="n">
-        <v>3315.258540320001</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5492,18 +5137,15 @@
         <v>20</v>
       </c>
       <c r="G140" t="n">
-        <v>3315.258540320001</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5525,18 +5167,15 @@
         <v>214.5929</v>
       </c>
       <c r="G141" t="n">
-        <v>3529.851440320001</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5558,18 +5197,15 @@
         <v>0.16</v>
       </c>
       <c r="G142" t="n">
-        <v>3529.691440320001</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5591,18 +5227,15 @@
         <v>4.7061</v>
       </c>
       <c r="G143" t="n">
-        <v>3534.397540320001</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5624,18 +5257,15 @@
         <v>4.7699</v>
       </c>
       <c r="G144" t="n">
-        <v>3529.627640320001</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5657,18 +5287,15 @@
         <v>14.8505</v>
       </c>
       <c r="G145" t="n">
-        <v>3514.777140320001</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5690,18 +5317,15 @@
         <v>236.7774</v>
       </c>
       <c r="G146" t="n">
-        <v>3277.999740320001</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5723,18 +5347,15 @@
         <v>96.61799999999999</v>
       </c>
       <c r="G147" t="n">
-        <v>3181.381740320001</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5756,18 +5377,15 @@
         <v>11</v>
       </c>
       <c r="G148" t="n">
-        <v>3170.381740320001</v>
-      </c>
-      <c r="H148" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5789,18 +5407,15 @@
         <v>3.6662</v>
       </c>
       <c r="G149" t="n">
-        <v>3166.715540320001</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5822,18 +5437,15 @@
         <v>49.0698</v>
       </c>
       <c r="G150" t="n">
-        <v>3117.645740320001</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5855,18 +5467,15 @@
         <v>102.98241486</v>
       </c>
       <c r="G151" t="n">
-        <v>3220.628155180001</v>
-      </c>
-      <c r="H151" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5888,18 +5497,15 @@
         <v>51.4668</v>
       </c>
       <c r="G152" t="n">
-        <v>3169.161355180001</v>
-      </c>
-      <c r="H152" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5921,18 +5527,15 @@
         <v>1.1257</v>
       </c>
       <c r="G153" t="n">
-        <v>3169.161355180001</v>
-      </c>
-      <c r="H153" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5954,18 +5557,15 @@
         <v>172.6037</v>
       </c>
       <c r="G154" t="n">
-        <v>2996.55765518</v>
-      </c>
-      <c r="H154" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5987,18 +5587,15 @@
         <v>320.5363</v>
       </c>
       <c r="G155" t="n">
-        <v>3317.09395518</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6020,18 +5617,15 @@
         <v>213.6265</v>
       </c>
       <c r="G156" t="n">
-        <v>3530.72045518</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6053,18 +5647,15 @@
         <v>83.0073</v>
       </c>
       <c r="G157" t="n">
-        <v>3530.72045518</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6086,18 +5677,15 @@
         <v>15.2269</v>
       </c>
       <c r="G158" t="n">
-        <v>3530.72045518</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6119,18 +5707,15 @@
         <v>36.7358</v>
       </c>
       <c r="G159" t="n">
-        <v>3567.45625518</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6152,18 +5737,15 @@
         <v>173.2165</v>
       </c>
       <c r="G160" t="n">
-        <v>3740.67275518</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6185,18 +5767,15 @@
         <v>28.12</v>
       </c>
       <c r="G161" t="n">
-        <v>3768.79275518</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6218,18 +5797,15 @@
         <v>2</v>
       </c>
       <c r="G162" t="n">
-        <v>3768.79275518</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6251,18 +5827,15 @@
         <v>345.3237</v>
       </c>
       <c r="G163" t="n">
-        <v>4114.11645518</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6284,18 +5857,15 @@
         <v>41.5842</v>
       </c>
       <c r="G164" t="n">
-        <v>4114.11645518</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6317,18 +5887,15 @@
         <v>60.5777</v>
       </c>
       <c r="G165" t="n">
-        <v>4053.53875518</v>
-      </c>
-      <c r="H165" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6350,18 +5917,15 @@
         <v>41.4803</v>
       </c>
       <c r="G166" t="n">
-        <v>4053.53875518</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6383,18 +5947,15 @@
         <v>77.5</v>
       </c>
       <c r="G167" t="n">
-        <v>4131.03875518</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6416,18 +5977,15 @@
         <v>25.7474</v>
       </c>
       <c r="G168" t="n">
-        <v>4156.786155180001</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6449,18 +6007,15 @@
         <v>257.8541</v>
       </c>
       <c r="G169" t="n">
-        <v>3898.932055180001</v>
-      </c>
-      <c r="H169" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6482,18 +6037,15 @@
         <v>10</v>
       </c>
       <c r="G170" t="n">
-        <v>3898.932055180001</v>
-      </c>
-      <c r="H170" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6515,18 +6067,15 @@
         <v>4.908</v>
       </c>
       <c r="G171" t="n">
-        <v>3903.84005518</v>
-      </c>
-      <c r="H171" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6548,18 +6097,15 @@
         <v>24</v>
       </c>
       <c r="G172" t="n">
-        <v>3879.84005518</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6581,18 +6127,15 @@
         <v>58.7236</v>
       </c>
       <c r="G173" t="n">
-        <v>3879.84005518</v>
-      </c>
-      <c r="H173" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6614,18 +6157,15 @@
         <v>35.9819</v>
       </c>
       <c r="G174" t="n">
-        <v>3879.84005518</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6647,18 +6187,15 @@
         <v>2.1897</v>
       </c>
       <c r="G175" t="n">
-        <v>3879.84005518</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6680,18 +6217,15 @@
         <v>2.1333</v>
       </c>
       <c r="G176" t="n">
-        <v>3877.706755180001</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6713,18 +6247,15 @@
         <v>10</v>
       </c>
       <c r="G177" t="n">
-        <v>3877.706755180001</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6746,18 +6277,15 @@
         <v>88.4196</v>
       </c>
       <c r="G178" t="n">
-        <v>3789.28715518</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6779,18 +6307,15 @@
         <v>234.356</v>
       </c>
       <c r="G179" t="n">
-        <v>4023.643155180001</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6812,18 +6337,15 @@
         <v>21.1093</v>
       </c>
       <c r="G180" t="n">
-        <v>4023.643155180001</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6845,18 +6367,15 @@
         <v>4.5609</v>
       </c>
       <c r="G181" t="n">
-        <v>4023.643155180001</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6878,18 +6397,15 @@
         <v>1</v>
       </c>
       <c r="G182" t="n">
-        <v>4023.643155180001</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6911,18 +6427,15 @@
         <v>9.161099999999999</v>
       </c>
       <c r="G183" t="n">
-        <v>4032.80425518</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6944,18 +6457,15 @@
         <v>1.7648</v>
       </c>
       <c r="G184" t="n">
-        <v>4031.03945518</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6977,18 +6487,15 @@
         <v>434.2714</v>
       </c>
       <c r="G185" t="n">
-        <v>4465.310855180001</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7010,18 +6517,15 @@
         <v>100.169</v>
       </c>
       <c r="G186" t="n">
-        <v>4365.141855180001</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7043,18 +6547,15 @@
         <v>77.2167</v>
       </c>
       <c r="G187" t="n">
-        <v>4287.925155180001</v>
-      </c>
-      <c r="H187" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7076,18 +6577,15 @@
         <v>79.8069</v>
       </c>
       <c r="G188" t="n">
-        <v>4367.73205518</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7109,18 +6607,15 @@
         <v>8.827</v>
       </c>
       <c r="G189" t="n">
-        <v>4367.73205518</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7142,18 +6637,15 @@
         <v>20.3072</v>
       </c>
       <c r="G190" t="n">
-        <v>4388.039255180001</v>
-      </c>
-      <c r="H190" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7175,18 +6667,15 @@
         <v>15.3168</v>
       </c>
       <c r="G191" t="n">
-        <v>4372.722455180001</v>
-      </c>
-      <c r="H191" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7208,18 +6697,15 @@
         <v>1.419</v>
       </c>
       <c r="G192" t="n">
-        <v>4372.722455180001</v>
-      </c>
-      <c r="H192" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7241,18 +6727,15 @@
         <v>0.5162</v>
       </c>
       <c r="G193" t="n">
-        <v>4372.206255180001</v>
-      </c>
-      <c r="H193" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7274,18 +6757,15 @@
         <v>6</v>
       </c>
       <c r="G194" t="n">
-        <v>4378.206255180001</v>
-      </c>
-      <c r="H194" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7307,18 +6787,15 @@
         <v>6</v>
       </c>
       <c r="G195" t="n">
-        <v>4378.206255180001</v>
-      </c>
-      <c r="H195" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7340,18 +6817,15 @@
         <v>100</v>
       </c>
       <c r="G196" t="n">
-        <v>4278.206255180001</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7373,18 +6847,15 @@
         <v>4</v>
       </c>
       <c r="G197" t="n">
-        <v>4282.206255180001</v>
-      </c>
-      <c r="H197" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7406,18 +6877,15 @@
         <v>148.7719</v>
       </c>
       <c r="G198" t="n">
-        <v>4133.434355180001</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7439,18 +6907,15 @@
         <v>2</v>
       </c>
       <c r="G199" t="n">
-        <v>4135.434355180001</v>
-      </c>
-      <c r="H199" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7472,18 +6937,15 @@
         <v>0.20287621</v>
       </c>
       <c r="G200" t="n">
-        <v>4135.434355180001</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7505,18 +6967,15 @@
         <v>18</v>
       </c>
       <c r="G201" t="n">
-        <v>4117.434355180001</v>
-      </c>
-      <c r="H201" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7538,18 +6997,15 @@
         <v>2</v>
       </c>
       <c r="G202" t="n">
-        <v>4117.434355180001</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7571,18 +7027,15 @@
         <v>0.2</v>
       </c>
       <c r="G203" t="n">
-        <v>4117.234355180001</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7604,18 +7057,15 @@
         <v>4.773</v>
       </c>
       <c r="G204" t="n">
-        <v>4122.007355180001</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7637,18 +7087,15 @@
         <v>4.3706</v>
       </c>
       <c r="G205" t="n">
-        <v>4117.636755180001</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7670,18 +7117,15 @@
         <v>52.1211</v>
       </c>
       <c r="G206" t="n">
-        <v>4065.515655180001</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7703,18 +7147,15 @@
         <v>5</v>
       </c>
       <c r="G207" t="n">
-        <v>4065.515655180001</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7736,18 +7177,15 @@
         <v>53.282</v>
       </c>
       <c r="G208" t="n">
-        <v>4118.797655180001</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7769,18 +7207,15 @@
         <v>99.2632</v>
       </c>
       <c r="G209" t="n">
-        <v>4218.060855180001</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7802,18 +7237,15 @@
         <v>39.4</v>
       </c>
       <c r="G210" t="n">
-        <v>4218.060855180001</v>
-      </c>
-      <c r="H210" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7835,18 +7267,15 @@
         <v>6.2271</v>
       </c>
       <c r="G211" t="n">
-        <v>4211.833755180001</v>
-      </c>
-      <c r="H211" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7868,18 +7297,15 @@
         <v>2.1372</v>
       </c>
       <c r="G212" t="n">
-        <v>4209.696555180001</v>
-      </c>
-      <c r="H212" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7901,18 +7327,15 @@
         <v>163.0586</v>
       </c>
       <c r="G213" t="n">
-        <v>4372.755155180002</v>
-      </c>
-      <c r="H213" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7934,18 +7357,15 @@
         <v>7.1207</v>
       </c>
       <c r="G214" t="n">
-        <v>4372.755155180002</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7967,18 +7387,15 @@
         <v>81.423</v>
       </c>
       <c r="G215" t="n">
-        <v>4454.178155180001</v>
-      </c>
-      <c r="H215" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8000,18 +7417,15 @@
         <v>100</v>
       </c>
       <c r="G216" t="n">
-        <v>4454.178155180001</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8033,18 +7447,15 @@
         <v>85.581</v>
       </c>
       <c r="G217" t="n">
-        <v>4539.759155180001</v>
-      </c>
-      <c r="H217" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8066,18 +7477,15 @@
         <v>6.0005</v>
       </c>
       <c r="G218" t="n">
-        <v>4533.758655180001</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8099,18 +7507,15 @@
         <v>0.2714</v>
       </c>
       <c r="G219" t="n">
-        <v>4534.030055180001</v>
-      </c>
-      <c r="H219" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8132,18 +7537,15 @@
         <v>28.5208</v>
       </c>
       <c r="G220" t="n">
-        <v>4534.030055180001</v>
-      </c>
-      <c r="H220" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8165,18 +7567,15 @@
         <v>53.1216</v>
       </c>
       <c r="G221" t="n">
-        <v>4480.908455180001</v>
-      </c>
-      <c r="H221" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8198,18 +7597,15 @@
         <v>0.1919</v>
       </c>
       <c r="G222" t="n">
-        <v>4480.716555180001</v>
-      </c>
-      <c r="H222" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8231,18 +7627,15 @@
         <v>352.5961</v>
       </c>
       <c r="G223" t="n">
-        <v>4833.312655180001</v>
-      </c>
-      <c r="H223" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8264,18 +7657,15 @@
         <v>100</v>
       </c>
       <c r="G224" t="n">
-        <v>4833.312655180001</v>
-      </c>
-      <c r="H224" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8297,18 +7687,15 @@
         <v>4</v>
       </c>
       <c r="G225" t="n">
-        <v>4833.312655180001</v>
-      </c>
-      <c r="H225" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8330,18 +7717,15 @@
         <v>12</v>
       </c>
       <c r="G226" t="n">
-        <v>4821.312655180001</v>
-      </c>
-      <c r="H226" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8363,18 +7747,15 @@
         <v>12</v>
       </c>
       <c r="G227" t="n">
-        <v>4833.312655180001</v>
-      </c>
-      <c r="H227" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8396,18 +7777,15 @@
         <v>218</v>
       </c>
       <c r="G228" t="n">
-        <v>5051.312655180001</v>
-      </c>
-      <c r="H228" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8429,18 +7807,15 @@
         <v>48</v>
       </c>
       <c r="G229" t="n">
-        <v>5003.312655180001</v>
-      </c>
-      <c r="H229" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8462,18 +7837,15 @@
         <v>65.2366</v>
       </c>
       <c r="G230" t="n">
-        <v>4938.07605518</v>
-      </c>
-      <c r="H230" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8495,18 +7867,15 @@
         <v>43.5642</v>
       </c>
       <c r="G231" t="n">
-        <v>4981.64025518</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8528,18 +7897,15 @@
         <v>81.3747</v>
       </c>
       <c r="G232" t="n">
-        <v>4900.26555518</v>
-      </c>
-      <c r="H232" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8561,18 +7927,15 @@
         <v>181</v>
       </c>
       <c r="G233" t="n">
-        <v>4719.26555518</v>
-      </c>
-      <c r="H233" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8594,18 +7957,15 @@
         <v>22.5827</v>
       </c>
       <c r="G234" t="n">
-        <v>4741.84825518</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8627,18 +7987,15 @@
         <v>394.3674</v>
       </c>
       <c r="G235" t="n">
-        <v>5136.21565518</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8660,18 +8017,15 @@
         <v>18.3</v>
       </c>
       <c r="G236" t="n">
-        <v>5117.91565518</v>
-      </c>
-      <c r="H236" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8693,18 +8047,15 @@
         <v>12.1109</v>
       </c>
       <c r="G237" t="n">
-        <v>5105.80475518</v>
-      </c>
-      <c r="H237" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8726,18 +8077,15 @@
         <v>25.49297352</v>
       </c>
       <c r="G238" t="n">
-        <v>5131.2977287</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8759,18 +8107,15 @@
         <v>24.36378872</v>
       </c>
       <c r="G239" t="n">
-        <v>5155.661517420001</v>
-      </c>
-      <c r="H239" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8792,18 +8137,15 @@
         <v>190.6574</v>
       </c>
       <c r="G240" t="n">
-        <v>5155.661517420001</v>
-      </c>
-      <c r="H240" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8825,18 +8167,15 @@
         <v>123.4355</v>
       </c>
       <c r="G241" t="n">
-        <v>5032.226017420001</v>
-      </c>
-      <c r="H241" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -8858,18 +8197,15 @@
         <v>8.044600000000001</v>
       </c>
       <c r="G242" t="n">
-        <v>5024.181417420001</v>
-      </c>
-      <c r="H242" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -8891,18 +8227,15 @@
         <v>2.4</v>
       </c>
       <c r="G243" t="n">
-        <v>5021.781417420001</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -8924,18 +8257,15 @@
         <v>11.2704</v>
       </c>
       <c r="G244" t="n">
-        <v>5033.051817420001</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -8957,18 +8287,15 @@
         <v>11.6789</v>
       </c>
       <c r="G245" t="n">
-        <v>5033.051817420001</v>
-      </c>
-      <c r="H245" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -8990,18 +8317,15 @@
         <v>20</v>
       </c>
       <c r="G246" t="n">
-        <v>5013.051817420001</v>
-      </c>
-      <c r="H246" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9023,18 +8347,15 @@
         <v>2</v>
       </c>
       <c r="G247" t="n">
-        <v>5015.051817420001</v>
-      </c>
-      <c r="H247" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9056,18 +8377,15 @@
         <v>4.9297</v>
       </c>
       <c r="G248" t="n">
-        <v>5019.981517420001</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9089,18 +8407,15 @@
         <v>6.9779</v>
       </c>
       <c r="G249" t="n">
-        <v>5026.959417420001</v>
-      </c>
-      <c r="H249" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9122,18 +8437,15 @@
         <v>0.101</v>
       </c>
       <c r="G250" t="n">
-        <v>5026.858417420001</v>
-      </c>
-      <c r="H250" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9155,18 +8467,15 @@
         <v>3.055</v>
       </c>
       <c r="G251" t="n">
-        <v>5029.913417420002</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9188,18 +8497,15 @@
         <v>266.9603</v>
       </c>
       <c r="G252" t="n">
-        <v>4762.953117420002</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9221,18 +8527,15 @@
         <v>174.1726</v>
       </c>
       <c r="G253" t="n">
-        <v>4588.780517420002</v>
-      </c>
-      <c r="H253" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9254,18 +8557,15 @@
         <v>181</v>
       </c>
       <c r="G254" t="n">
-        <v>4407.780517420002</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9287,18 +8587,15 @@
         <v>35.311</v>
       </c>
       <c r="G255" t="n">
-        <v>4443.091517420002</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9320,18 +8617,15 @@
         <v>8.101599999999999</v>
       </c>
       <c r="G256" t="n">
-        <v>4451.193117420002</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9353,18 +8647,15 @@
         <v>8</v>
       </c>
       <c r="G257" t="n">
-        <v>4459.193117420002</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9386,18 +8677,15 @@
         <v>10</v>
       </c>
       <c r="G258" t="n">
-        <v>4449.193117420002</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9419,18 +8707,15 @@
         <v>10</v>
       </c>
       <c r="G259" t="n">
-        <v>4449.193117420002</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9452,18 +8737,15 @@
         <v>10</v>
       </c>
       <c r="G260" t="n">
-        <v>4449.193117420002</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9485,18 +8767,15 @@
         <v>1.0412</v>
       </c>
       <c r="G261" t="n">
-        <v>4450.234317420001</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9518,18 +8797,15 @@
         <v>26.9579</v>
       </c>
       <c r="G262" t="n">
-        <v>4423.276417420001</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9551,18 +8827,15 @@
         <v>10.2311</v>
       </c>
       <c r="G263" t="n">
-        <v>4413.045317420001</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9584,18 +8857,15 @@
         <v>85.4782</v>
       </c>
       <c r="G264" t="n">
-        <v>4327.567117420002</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9617,18 +8887,15 @@
         <v>0.4788</v>
       </c>
       <c r="G265" t="n">
-        <v>4328.045917420001</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -9650,18 +8917,15 @@
         <v>1.5197</v>
       </c>
       <c r="G266" t="n">
-        <v>4329.565617420001</v>
-      </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -9683,18 +8947,15 @@
         <v>0.1312</v>
       </c>
       <c r="G267" t="n">
-        <v>4329.434417420001</v>
-      </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -9716,18 +8977,15 @@
         <v>0.4776</v>
       </c>
       <c r="G268" t="n">
-        <v>4329.434417420001</v>
-      </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
+      <c r="K268" t="n">
+        <v>1</v>
+      </c>
+      <c r="L268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -9749,18 +9007,15 @@
         <v>0.2268</v>
       </c>
       <c r="G269" t="n">
-        <v>4329.661217420002</v>
-      </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
+      <c r="K269" t="n">
+        <v>1</v>
+      </c>
+      <c r="L269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -9782,18 +9037,15 @@
         <v>3.0266</v>
       </c>
       <c r="G270" t="n">
-        <v>4329.661217420002</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
+      <c r="K270" t="n">
+        <v>1</v>
+      </c>
+      <c r="L270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -9815,18 +9067,15 @@
         <v>104.1742</v>
       </c>
       <c r="G271" t="n">
-        <v>4225.487017420001</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
+      <c r="K271" t="n">
+        <v>1</v>
+      </c>
+      <c r="L271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -9848,18 +9097,15 @@
         <v>23.8587</v>
       </c>
       <c r="G272" t="n">
-        <v>4249.345717420001</v>
-      </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
+      <c r="K272" t="n">
+        <v>1</v>
+      </c>
+      <c r="L272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -9881,18 +9127,15 @@
         <v>37.92</v>
       </c>
       <c r="G273" t="n">
-        <v>4249.345717420001</v>
-      </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
+      <c r="K273" t="n">
+        <v>1</v>
+      </c>
+      <c r="L273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -9914,18 +9157,15 @@
         <v>158.9946</v>
       </c>
       <c r="G274" t="n">
-        <v>4408.340317420001</v>
-      </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
+      <c r="K274" t="n">
+        <v>1</v>
+      </c>
+      <c r="L274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -9947,18 +9187,15 @@
         <v>46.9238</v>
       </c>
       <c r="G275" t="n">
-        <v>4455.264117420001</v>
-      </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
+      <c r="K275" t="n">
+        <v>1</v>
+      </c>
+      <c r="L275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -9980,18 +9217,15 @@
         <v>1.7661</v>
       </c>
       <c r="G276" t="n">
-        <v>4457.030217420001</v>
-      </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H276" t="inlineStr"/>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
+      <c r="K276" t="n">
+        <v>1</v>
+      </c>
+      <c r="L276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -10013,18 +9247,15 @@
         <v>25.7322</v>
       </c>
       <c r="G277" t="n">
-        <v>4457.030217420001</v>
-      </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
+      <c r="K277" t="n">
+        <v>1</v>
+      </c>
+      <c r="L277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -10046,18 +9277,15 @@
         <v>7</v>
       </c>
       <c r="G278" t="n">
-        <v>4450.030217420001</v>
-      </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
+      <c r="K278" t="n">
+        <v>1</v>
+      </c>
+      <c r="L278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -10079,18 +9307,15 @@
         <v>164.7056</v>
       </c>
       <c r="G279" t="n">
-        <v>4285.32461742</v>
-      </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
+      <c r="K279" t="n">
+        <v>1</v>
+      </c>
+      <c r="L279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -10112,18 +9337,15 @@
         <v>150.3952</v>
       </c>
       <c r="G280" t="n">
-        <v>4435.71981742</v>
-      </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H280" t="inlineStr"/>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
-      <c r="M280" t="inlineStr"/>
+      <c r="K280" t="n">
+        <v>1</v>
+      </c>
+      <c r="L280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -10145,18 +9367,15 @@
         <v>13.9105</v>
       </c>
       <c r="G281" t="n">
-        <v>4449.63031742</v>
-      </c>
-      <c r="H281" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H281" t="inlineStr"/>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
-      <c r="L281" t="n">
-        <v>1</v>
-      </c>
-      <c r="M281" t="inlineStr"/>
+      <c r="K281" t="n">
+        <v>1</v>
+      </c>
+      <c r="L281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -10178,18 +9397,15 @@
         <v>2.0655</v>
       </c>
       <c r="G282" t="n">
-        <v>4447.564817420001</v>
-      </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H282" t="inlineStr"/>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
-      <c r="L282" t="n">
-        <v>1</v>
-      </c>
-      <c r="M282" t="inlineStr"/>
+      <c r="K282" t="n">
+        <v>1</v>
+      </c>
+      <c r="L282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -10211,18 +9427,15 @@
         <v>4.5376</v>
       </c>
       <c r="G283" t="n">
-        <v>4447.564817420001</v>
-      </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
-      <c r="L283" t="n">
-        <v>1</v>
-      </c>
-      <c r="M283" t="inlineStr"/>
+      <c r="K283" t="n">
+        <v>1</v>
+      </c>
+      <c r="L283" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
